--- a/output.xlsx
+++ b/output.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\48509\Desktop\Zastosowanie AI\Repo Gazele\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA783F50-5B58-49EC-8A9B-64A9EE94E587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{832F25C0-583B-40C0-9FE8-1C8A1DFB38F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4200" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="339">
   <si>
     <t>For function</t>
   </si>
@@ -52,1152 +52,1635 @@
     <t>Standard deviation of the parameters</t>
   </si>
   <si>
-    <t>Standard deviation of goal function value</t>
-  </si>
-  <si>
     <t>rastrigin</t>
   </si>
   <si>
-    <t>[-2.12252613 -1.95445786  1.07388668 -1.15080997  1.74989548 -2.70597977
-  0.89568339  2.13905387  4.47024002  1.12143058  5.04335603 -2.82618782
-  1.09511887 -0.32844836  1.00870919  1.10527996  0.6854487   0.84993611
- -2.05895698 -0.22450324  1.52870637 -2.0700481   0.94933782  0.43167231
-  0.67192941 -4.03388707  0.09250531  0.78594565 -2.02268669  1.09455542]</t>
-  </si>
-  <si>
-    <t>[ 1.19226860e+00  2.29539217e-01 -4.67621789e-02  3.94740558e-01
- -1.02318561e+00  1.22342993e+00  7.47938107e-01 -2.21229692e+00
-  6.37282564e-01  1.30973989e-01 -1.25355788e+00  7.92200719e-02
- -4.83332840e-02  1.15778086e+00  8.72763494e-01 -2.27508883e-03
-  1.87787845e-02  2.21764611e+00 -7.45711960e-01 -2.61335643e-01
-  5.00800196e-02 -1.31412784e-03  4.53608968e-02  4.89781950e-02
- -1.11391760e-01 -9.15440660e-01  8.87931330e-02  7.04005938e-01
-  1.62519535e-01  2.76046857e+00]</t>
-  </si>
-  <si>
-    <t>[-3.19981604e-02  8.18619440e-02 -2.12312754e+00 -1.85687160e+00
- -1.89094531e-01  7.40720917e-02  8.55207948e-02  5.77223191e-03
-  8.12777136e-02  3.61509978e-02  3.97169341e-02 -2.57754892e-01
-  5.02754906e-03  7.84988744e-01  9.39891813e-02  3.04069382e-03
-  4.63048439e-01  7.31039110e-01  8.88593628e-01 -7.66564797e-02
- -7.78149516e-01  1.08974274e+00 -2.72137034e-01 -8.40293745e-02
-  2.60989120e-01  5.53897235e-02  1.39816023e-04 -5.04273825e-04
- -9.84191558e-02  3.71854207e-02]</t>
-  </si>
-  <si>
-    <t>[ 0.78347055 -0.99286508  0.04903915 -0.17978571 -0.12559669  0.89435397
-  0.00589594 -0.03905441 -0.00683941  0.05261503 -0.1254866  -0.04330435
- -0.01728829  0.01638862 -0.91894687  0.02404574 -0.00310493 -0.0211657
-  0.75912084  1.10606979 -0.03337262  0.01524276  0.0120199  -0.02288082
-  0.01226825 -0.03791288 -0.0174895   0.02501422  0.10759293  0.0230904 ]</t>
-  </si>
-  <si>
-    <t>[-1.91736577e-02  9.07122648e-03 -5.75196427e-06  1.07306095e-02
- -5.65644702e-03  1.63468450e-03  9.14123161e-05  4.80567815e-06
-  2.04587982e-03 -4.44025665e-03 -2.93126943e-03  7.55773202e-02
- -1.01773804e+00 -9.66458828e-01 -6.35495630e-04  2.26493095e-02
- -1.60462343e-02 -2.03413981e-03  1.55783946e-02 -8.97491189e-04
- -2.01835540e-02  1.32689662e-02  2.50613215e-02 -3.28950500e-03
- -1.26690765e-02 -2.11806343e-03 -7.87414189e-03  4.76084133e-03
- -1.46792756e-02 -6.42654653e-04]</t>
-  </si>
-  <si>
-    <t>[ 0.14123425 -1.53336104  1.57454975 -0.81432689  1.0065555  -0.7338997
-  2.32580783 -1.10735977 -2.0484339   2.61041273  3.15750207  1.15152535
- -0.1259031   2.84790298  1.67745942  4.33490701 -2.26244338  0.75540095
-  0.05603814  0.87584065  0.11938067 -1.83895666  2.08650536  2.45901659
- -2.98830018 -1.24450245  0.11087812  1.90031964  0.9124539   1.95599786]</t>
-  </si>
-  <si>
-    <t>[ 3.08831580e+00 -2.85522118e-01 -1.66748113e-01  1.32936754e+00
-  4.25386715e-02 -2.03812995e-02  1.84926590e+00  9.23095087e-01
- -1.02083124e+00  1.93066746e+00  3.15249454e+00  2.42350119e-02
- -6.17869064e-02  5.19885472e-02 -5.71020046e-04 -4.01014741e-03
- -1.57902365e+00  3.72642734e-02  1.25584929e+00 -6.38438552e-01
- -6.43438853e-02 -1.42409330e-01  8.75784758e-01 -1.91805375e-01
-  2.10351678e+00  4.96893680e-02 -1.27728890e-03  1.02670070e+00
- -1.88218264e+00  2.02538440e-01]</t>
-  </si>
-  <si>
-    <t>[-0.821103    0.06130928  0.11366214 -1.85433439 -0.86374496  0.0235934
- -3.10948202  0.0082901  -0.0506182  -1.02193265  0.90921765 -1.14784594
- -0.83176619 -0.83876304 -0.00662362 -1.79886543 -0.1293634   0.74904157
-  0.07840264 -0.29578568  0.0349275   0.89791538 -0.20566215  0.00990577
-  0.85116848 -0.03385778  0.11251759  0.26487966  0.01400979 -2.0086117 ]</t>
-  </si>
-  <si>
-    <t>[-9.07033453e-01  1.08606511e+00 -2.02210364e+00 -9.89518984e-01
-  7.61043486e-01 -1.06167521e+00 -1.73692506e-02 -1.08235429e-01
- -1.87352657e-02 -6.29747909e-04 -1.32277626e-01  2.61935334e-03
-  8.92236976e-01 -3.01216679e-01 -8.71735149e-01 -7.54233742e-02
-  1.99917915e-01 -9.87358397e-01  8.31691359e-01 -1.44931760e-02
-  5.36715214e-02  1.48459532e-01  1.10606494e-02 -2.88878166e-02
- -1.05248391e-02  1.71866634e-02 -4.60035651e-02  5.62734853e-02
- -5.39341182e-03 -9.71258219e-01]</t>
-  </si>
-  <si>
-    <t>[ 6.05787572e-07  1.56474251e-02  4.37078074e-03 -3.19254595e-02
- -1.04980980e-03  4.80953190e-03 -3.06045142e-02 -1.89690409e-03
- -9.91795886e-03 -8.35425438e-03 -2.50148706e-03  6.07237243e-04
-  1.74737965e-02 -1.02333090e+00 -3.75036470e-04  6.65846067e-03
-  3.07891975e-02 -3.25191671e-02  7.52256104e-05 -1.56701790e-03
- -6.22246801e-03 -5.79686147e-03  1.50313788e-03  4.96695499e-04
- -6.84543206e-06 -1.04252966e-03 -1.07550026e-02 -2.99063624e-04
- -7.09946814e-03 -3.62272445e-03]</t>
-  </si>
-  <si>
-    <t>[ 1.22213923e-01 -1.53896918e+00  2.02924102e+00  9.33598402e-01
-  1.95665013e+00  7.29102843e-04 -4.82329917e-02 -6.74335299e-01
- -1.02781117e-01 -3.40540401e+00 -6.20818258e-02  8.99664976e-01
- -1.59908908e+00  4.19762945e-01 -1.11322895e+00  1.99470713e-01
- -1.07128847e+00  1.31711539e+00  8.51808262e-01 -6.80767657e-02
-  5.12000000e+00  4.81281650e+00 -6.18321989e-02  1.04207429e-02
-  1.78242594e+00  4.02007034e+00 -2.24584931e-01  4.38159762e-02
- -1.78139035e+00 -1.07766244e+00]</t>
-  </si>
-  <si>
-    <t>[ 0.51524403 -0.91842467 -0.62881848 -1.0109103   1.12368612  1.28949057
- -1.51726832  1.2175794   0.06993664 -0.00916312  0.20928997 -1.06947343
- -0.03247623  0.86526432 -0.53790153 -0.00746636  1.02333622  1.10567654
-  2.03345843  1.92961196  1.15148953  0.00521007 -0.92201487 -1.05290157
- -1.80158171  0.12436961  0.26782582 -1.89130678 -1.00296962 -0.03364249]</t>
-  </si>
-  <si>
-    <t>[-0.01888547 -0.0436102  -0.04595502 -0.02565512 -0.14021053 -0.10610416
- -0.9880276   1.88479773 -0.28645569 -0.01223932  1.96967229  0.85953228
- -0.00943632 -0.06940399  0.09858495  1.05437956 -1.02291584  0.10301778
-  0.01972646 -0.01318177  0.02898055  0.0314893  -1.64426553  1.98368674
- -0.05662592  0.04319356  0.18752861  0.09534086  1.11959736  1.14394177]</t>
-  </si>
-  <si>
-    <t>[-1.28839024e-04  2.79161295e-02 -9.11730234e-03 -1.20365198e-02
-  1.02982487e+00 -2.22573215e-03 -2.03872215e-02 -8.63710523e-03
- -2.79974485e-03 -2.88817435e-03 -8.88927081e-04 -1.17788141e-02
-  2.89748962e-02  7.65712965e-04  2.00831948e-02  3.61387740e-04
-  5.19483117e-04  2.50114116e-03 -4.81445591e-02  9.91214567e-03
- -2.72811670e-03 -1.74841860e-02 -7.49209957e-03 -4.07797219e-04
-  3.46089491e-03  3.97693978e-05 -1.08483453e-03 -3.00182761e-03
-  2.76605466e-02 -2.54297775e-02]</t>
-  </si>
-  <si>
-    <t>[ 6.71597184e-05  6.51451119e-05 -2.77937967e-04  6.26263948e-05
-  4.73101510e-04  1.45955832e-04  7.75247318e-04  1.34406829e-04
-  1.75149034e-03  1.12743224e-03 -9.69673939e-04  1.63161262e-03
-  3.99666943e-05 -7.19278063e-05 -1.78313336e-04  3.19258970e-04
- -1.08223696e-05 -2.94837522e-03 -2.02052161e-03 -1.60328238e-04
-  4.58019382e-03  7.27280645e-04  5.21894090e-04 -1.14024074e-03
-  2.07085457e-04  3.04017980e-03  1.29422053e-03 -6.69056912e-04
- -2.08443303e-04 -1.86883442e-04]</t>
-  </si>
-  <si>
-    <t>[-1.02285644  0.48394621 -2.04989643  0.22917921  1.91975847  0.55509213
-  1.8559098   0.15279104  1.69699989  1.11400167  0.78175271 -0.33336107
-  0.96559156  1.13402527  1.65742873 -0.06616381 -0.9779516  -0.07227394
- -0.84368221  1.98155516  1.18936487 -0.93256516 -1.29340453 -2.79482023
- -1.16286134 -0.04896425 -1.74040105 -2.10992116 -0.95987561 -1.01244459]</t>
-  </si>
-  <si>
-    <t>[-1.04000716 -0.8587468   0.72020783 -1.95077883  1.70404361  0.03499195
- -0.18528227 -1.3157397  -1.07641543 -0.19400563  1.1975141   0.50073589
-  0.94317161  0.48864052  0.8881217   0.04998691  0.80865983 -0.8973324
-  0.07321196 -2.78186703 -1.00927131  0.10317496  0.99768134 -1.02320357
-  0.08234504  0.07177061 -0.90646969 -0.97441325  1.95464106  2.42548037]</t>
-  </si>
-  <si>
-    <t>[ 0.055378   -0.21171706  0.04799313  0.03259156  0.14174414  0.10560918
- -1.80864645 -0.04767781 -0.09640399  0.15322954  0.17816189  1.08194753
- -0.06354633  0.02479269  1.95399098  1.031173    1.03303161 -0.8154531
-  0.0616791   0.01203705 -0.00942269  0.06635324  0.72636732 -0.07054918
-  0.09915418 -1.12895014 -0.87077085 -0.1673645  -0.09924317  0.05478546]</t>
-  </si>
-  <si>
-    <t>[ 4.54232908e-02  1.87122960e-02  4.47169455e-02  1.01628688e+00
-  2.35902002e-02  1.77630362e-03  3.20113233e-03  5.46119011e-04
- -1.54008578e-03 -3.44430491e-03  6.71072641e-03  1.28021949e-03
-  2.20488733e-02  1.01559575e-02 -1.26857208e-04 -7.28678146e-03
- -1.87200957e-03 -3.57899509e-02 -9.57890121e-01  6.48148720e-04
-  1.60818133e-03  3.40453043e-02 -9.50115343e-03  1.64360868e-02
- -1.00164395e-02 -1.36413647e-02 -5.67910660e-03 -1.09773029e-04
- -2.30800738e-02  6.74190539e-04]</t>
-  </si>
-  <si>
-    <t>[-1.56733764e-05 -1.38084644e-04 -1.81924178e-04  4.92378180e-03
-  3.06552392e-06 -2.27916852e-04 -1.48209031e-03  1.57330836e-04
- -1.86494002e-03 -2.74086126e-04  1.27109610e-03 -4.99518560e-04
-  7.78151939e-04 -1.88324922e-03 -7.52778909e-07  1.58786467e-03
-  2.31189665e-03  5.16092831e-04  1.72105090e-04 -4.81333926e-05
-  2.69187970e-03 -3.02124801e-03  5.13124969e-05  2.92596253e-03
-  4.28963955e-04 -2.64746693e-03  1.08398877e-03  1.24925085e-03
-  2.57181494e-03  3.18957430e-04]</t>
+    <t>[-0.2311657  -1.1301583  -0.86899712  3.91176337  0.10820962 -0.27068744
+ -0.01505212  0.72075875 -0.39971883 -1.00948035  0.22117984 -0.12674645
+  1.88034626  0.1303306  -0.63669771 -0.03042066  1.14769322 -1.11724374
+ -2.25344123 -0.17512957 -0.8088777  -1.58530326  0.03776456  0.08931275
+ -0.12503966 -0.424361   -0.87489375 -1.14103677  2.50765405 -1.23590528]</t>
+  </si>
+  <si>
+    <t>[2.8237800353660174, 1.7904053593999003, 1.903524138400461, 1.6303452220732428, 1.860931399793817, 0.8822441849076207, 1.3574596809309674, 1.303825619657319, 1.049106195615457, 1.0619013457057602, 1.1639838144300598, 1.964412795368907, 2.2219962024051596, 1.0700906769823553, 2.373570083948183, 1.7367014534705865, 2.2835530454425457, 1.22193813717472, 2.158139638374007, 1.9785324620629898, 2.1060052832119784, 1.7528582752443427, 1.773042025981289, 1.43110923304268, 1.1980959034658136, 1.8603279384444131, 1.2574616194364077, 1.7918269938631985, 1.714669220430191, 2.806693649702367]</t>
+  </si>
+  <si>
+    <t>[-0.19121463 -0.13972532  1.87999134 -0.92707861  0.03825388  0.04007092
+ -2.96448548 -0.07649792  2.05137021 -0.87741757  0.06474322 -0.07219733
+  0.08889152  0.00766583 -1.45317261  0.05941136  0.28042558  0.97834174
+ -0.15280473  0.7277519  -1.70391263 -1.05524989  1.84479699 -3.17067164
+ -0.81910078  0.57112868  2.07271011 -0.71020301  0.79614634 -0.75357509]</t>
+  </si>
+  <si>
+    <t>[1.2087657300303765, 1.6937392848433086, 1.3669118856404587, 1.1704961774387463, 2.24730075933584, 1.2249866598897285, 1.48872787908993, 2.24163752166916, 1.271729327736406, 1.0610920115415259, 1.795659139544716, 1.4164611091476693, 1.2028987117094385, 2.8059952026075474, 2.5523717823187053, 1.9042371216830416, 2.3234740176200597, 1.5682434794025033, 2.3482260923549765, 0.8796639306695521, 2.006364596626755, 1.7220342744637192, 1.809519799396272, 2.1650215317837174, 1.7801381408479116, 1.9342184671820009, 2.3262524311823243, 1.4788009765356196, 1.3823293851503025, 1.5486263024769777]</t>
+  </si>
+  <si>
+    <t>[ 8.68164598e-01  1.86461447e+00 -1.36292698e+00  8.49887694e-01
+ -1.02652440e+00 -1.01838670e-02 -4.06501299e-02  4.10781543e-02
+  4.88417053e-03  2.76619875e-01 -1.15000279e-01  1.02880032e+00
+ -1.84543975e-01 -9.17536761e-01 -1.69006197e-01 -6.65354953e-01
+ -7.68699203e-03 -2.76116619e-02  8.04543499e-03  1.55335326e-02
+ -4.03088515e+00  1.15500464e+00 -2.03677259e-03 -1.77534287e-02
+ -2.44365052e-03  4.36281316e-02  5.01054226e-01  2.91273063e-02
+ -1.04660439e-01 -1.93834562e-02]</t>
+  </si>
+  <si>
+    <t>[1.8272405551802866, 1.2483877495636915, 1.3119880838675975, 1.4601308828071058, 1.6039967824957344, 1.2873917891954119, 1.2792461723391304, 2.0517483581387865, 1.9973439733425444, 1.9443859215156822, 1.0569275740065696, 0.9725746061780588, 0.915938277684108, 0.8607143727904817, 1.2928664136877746, 0.9657722248818014, 0.7628095161068206, 1.2943827079684014, 1.8162254377979847, 1.561029224875224, 1.5913701900076047, 1.1839635461558715, 0.9068202539118984, 0.9366012094746479, 1.691033404598815, 0.6712828116108961, 0.6809687760243841, 1.1292905987985322, 1.4937509974646292, 0.8732439844340123]</t>
+  </si>
+  <si>
+    <t>[-6.38899889e-03  1.05236021e-02  8.04711142e-03  3.65174075e-02
+  2.82270411e-02  9.89379468e-04 -1.31053940e-02 -5.87871468e-04
+ -4.58134197e-02 -1.07621533e-04 -4.94124092e-03  7.56561567e-02
+ -8.34538527e-01  9.34978685e-04 -9.23890604e-01 -1.11185266e+00
+ -1.06950358e-01  1.53232255e-02 -2.84048412e-02  3.02327042e-03
+  1.39359358e-03  1.34571707e-03  3.14480075e-06 -2.62817540e-02
+  4.88163412e-03  2.40541106e-02  1.68230616e-03 -7.92255710e-04
+  2.76985187e-03 -1.77997526e-03]</t>
+  </si>
+  <si>
+    <t>[1.0709627254670273, 1.0032777428049044, 1.366072259350218, 0.49327376957400026, 1.1967018319540075, 1.469105914527282, 1.000400352126011, 0.878904922726697, 1.0657562553710769, 0.8072904502707919, 1.3223559755037895, 0.4292783536215456, 0.8087671967060159, 0.4972296399695715, 1.4880983088180852, 1.2531828299832317, 1.308165246666531, 0.8487654712256605, 0.849599310334924, 0.8843601308028461, 0.9735253077169612, 0.7279321731893169, 0.8989670427241903, 0.897505033543629, 0.9805042795826069, 0.6406556789938637, 0.9240411621015028, 1.043995704680711, 1.0471137548114766, 0.7527296137681027]</t>
+  </si>
+  <si>
+    <t>[ 7.75540405e-06  3.13068625e-04 -2.78432494e-04  1.73102039e-06
+  3.32990011e-06  1.11645100e-05  1.69940861e-04  1.51624691e-03
+ -5.72754701e-04  1.04605130e-03  1.52449318e-04 -3.05895613e-05
+  4.38314988e-04 -3.08175031e-05  4.05728339e-04  5.90020266e-04
+ -3.82197767e-04 -4.30655188e-03  5.76240805e-04 -2.77574314e-06
+ -6.43555751e-05 -8.20146637e-04  4.69214884e-07 -2.40949031e-03
+  6.17891722e-05  1.38624486e-08  3.23182117e-04 -2.60890188e-04
+  4.66936608e-04 -1.43157105e-05]</t>
+  </si>
+  <si>
+    <t>[0.007864394976252442, 0.4471915911403097, 0.577996446028393, 0.31025027170581104, 0.5337673051232561, 0.007553211550892921, 0.07012512061598418, 0.014726653294490794, 0.015993327302672153, 0.3254948603473645, 0.28976096736318496, 0.29746198643737115, 0.4255202827234369, 0.4229650179687848, 0.41787523436878043, 0.3959834852637847, 0.2829321222681375, 0.006265923317845678, 0.4297857724757396, 0.2819449525613058, 0.15784874564203774, 0.41416078930605865, 0.6244898117037769, 0.3348143438053471, 0.0353723485123772, 0.3145088514536369, 0.03464690496315794, 0.5538758411515018, 0.00961566007593581, 0.028695014736872904]</t>
+  </si>
+  <si>
+    <t>[ 2.86582896  0.65327644 -1.08639842  2.04224799 -0.05516871  2.32612151
+ -1.30214758  2.22857949  1.72006764  0.54676994  0.10067397 -0.0810986
+ -1.89874769  2.0511077   1.54859056 -1.10100818 -0.34785142 -1.03541913
+ -0.90711938  4.710317   -1.09537451 -4.4242267  -2.12395418 -1.28024918
+ -0.6663679   0.19552619  2.19121633  1.02570323 -0.20263146  2.05239655]</t>
+  </si>
+  <si>
+    <t>[1.6793126677882786, 2.174496867070289, 2.0330318143078054, 2.3248166675509703, 1.6362898146633613, 1.9785493619984231, 1.6380165298437408, 2.524837900456403, 2.8049584653557895, 1.339466141251885, 1.826029983055538, 1.4472437423825542, 1.9287026015657844, 2.14667822854511, 1.5594222401115752, 2.0652769773343596, 1.4161283934736828, 2.1148802137263187, 1.091472166268802, 2.5047174782498933, 1.7091753623752097, 1.6754849516636758, 1.8493274309342684, 1.6244137315586473, 1.1817783854597257, 1.8702136614781397, 2.6749615654825285, 2.1645006580036754, 1.4034507041621413, 1.5634257516471346]</t>
+  </si>
+  <si>
+    <t>[-0.02015475  0.1119285   0.34327411 -1.22151821  1.26059897  0.05607427
+  0.54258343 -1.69995529  0.82491178 -0.6787045   2.23937972  0.82795745
+ -0.02956175 -0.78900235  0.00771215 -0.84943987  1.20070596 -1.14202976
+ -0.22937893 -0.09148881  0.14153221 -0.01139167  0.03387511 -0.0692755
+  0.04277029  0.89187986 -0.093274    0.2379066  -3.93522216 -0.92519701]</t>
+  </si>
+  <si>
+    <t>[0.897352376366113, 1.3579586850882301, 0.9018434207016197, 2.2559759569388667, 1.8798820947018453, 1.0022736354823891, 1.469520470433676, 1.8312024294793665, 1.682235837550684, 1.2198138460448351, 1.743156208940585, 1.3262453694271419, 1.1651188918019364, 1.1178013010077954, 0.9657879915209598, 1.0765779091340546, 1.607642304801071, 1.5733827544903585, 0.421917205489706, 1.4294840008379235, 1.576350467460824, 1.77875140491678, 1.2035560227765127, 2.0192316693004266, 1.553799327584753, 1.3000012061988864, 1.5827869584106866, 1.459273282096711, 2.0773175740612855, 1.5067473964782607]</t>
+  </si>
+  <si>
+    <t>[-7.64108163e-03 -6.54835559e-02  1.01017114e+00 -1.48425299e-01
+ -8.18042274e-01  2.16927032e-01  1.47361017e-01  2.84998261e-02
+ -1.01365678e-01  7.17886516e-02  5.32720521e-02  3.96297913e-02
+ -2.02500081e+00 -9.47504288e-01 -9.61861947e-01  9.26178153e-03
+ -8.86032870e-02  1.44196238e-01 -2.89523917e-02  1.27324188e+00
+  1.52298890e-01 -1.24846028e-02 -6.59618834e-01 -1.10750352e+00
+  6.41478627e-02 -4.21069929e-04  2.06994578e+00  1.49212829e-01
+ -2.03982197e+00 -2.92716039e+00]</t>
+  </si>
+  <si>
+    <t>[1.0332745743261158, 0.716331808978495, 0.6002494072111152, 0.723686379928626, 1.2048398125221251, 1.0371297670407673, 1.0790607463486324, 1.0697623495263227, 0.5672526994335808, 0.9820167121575752, 1.051222703945979, 0.8295963433129603, 1.2815752425842941, 1.0905464591794591, 1.1470407558110332, 1.448880060058503, 1.0937814575410658, 1.449425932614914, 0.4044008340930079, 1.260657345687642, 0.6607409494400932, 0.7096204762013223, 0.5647326103933146, 1.4274813274770601, 0.9630876670336597, 0.6267682359622588, 1.5591265599197595, 0.6663142857542512, 0.9653635592376562, 1.437702482506365]</t>
+  </si>
+  <si>
+    <t>[-8.79447281e-01 -4.50031268e-02  9.26618913e-01  2.76140683e-02
+ -4.29337477e-03 -7.82001498e-03 -7.90146004e-02  3.65399627e-03
+ -9.03639170e-01 -7.06408838e-02 -9.41545324e-01  1.99815886e-02
+  2.31296700e-01  9.66757799e-01  2.62360226e-03 -3.04862724e-02
+ -3.50770588e-02  1.02344200e+00  2.42881386e-02 -7.81157269e-02
+  1.10501413e-01  5.49892801e-03  1.01780758e-02  1.66023681e-02
+ -8.65988664e-01 -8.35882240e-03  3.09067196e-02 -1.15641721e-02
+ -1.37411276e-04 -2.33291135e-02]</t>
+  </si>
+  <si>
+    <t>[0.6319063063707984, 0.5657940580290874, 0.3859020888553389, 0.80392218969271, 0.5939288250870517, 1.2836617734024647, 0.7167328562597237, 0.8682131274968646, 0.6543723295737235, 1.7315860970179475, 1.0872455105337677, 1.646910137860803, 1.2697580022748804, 0.8242794904236547, 0.9046811352288928, 1.591183894034776, 0.8697152061316197, 1.0351430772186236, 0.7870796414434638, 0.9045311465859066, 0.8818645282946181, 0.8988171372865316, 0.5742361995478265, 0.8429829494403166, 0.7206528844352741, 1.16151404288163, 0.790742789085175, 0.8785454557277761, 1.2859895577010072, 0.8677960120844558]</t>
+  </si>
+  <si>
+    <t>[ 9.88065152e-03 -1.58392367e-02 -1.50778102e-03  6.11565986e-04
+ -1.41580487e-04 -2.44365211e-03 -1.14995192e-04  7.52912379e-04
+  1.84931467e-04  8.57629115e-04 -3.74498638e-05 -2.48667525e-03
+ -2.95569042e-03  2.07707320e-04  5.99115278e-06  6.40002794e-04
+ -4.50462619e-05  7.27423756e-03 -1.78067201e-03 -1.04650550e-04
+  1.35438571e-03 -6.80201180e-03  3.02311764e-03  4.07998353e-03
+  5.85312482e-04  3.99244980e-03 -7.26413210e-03 -2.50261494e-05
+ -3.69257736e-04 -4.15131836e-04]</t>
+  </si>
+  <si>
+    <t>[0.744329987195595, 1.581217563244021, 0.4313741548138035, 0.6548796928145179, 0.6573962931799737, 0.03352307052646459, 0.49352445503393877, 0.2791174028986034, 0.6174413981849063, 0.30155607131427326, 0.7878929491240265, 0.8107594332068809, 0.2995905041730515, 0.7784264183531676, 0.41367502426765107, 0.7193329058551129, 0.6941975867773419, 0.6179210964000504, 0.7014796971034628, 0.8040540063928249, 0.38734930705884363, 0.2750190006737246, 0.40505605015088236, 0.5527754647644956, 0.4070566303486899, 0.8140214402033333, 0.4099137048663797, 0.896221716574917, 0.05494257521740885, 0.6639637965514764]</t>
+  </si>
+  <si>
+    <t>[ 1.02000278 -1.19436537 -3.34367314  4.06039383 -2.75167609  2.63945157
+  0.16227882 -0.86393067 -0.07646024 -1.04671601  1.9804599   5.05878407
+ -0.88575385  2.12877561  2.98900165  2.77464807  1.90176008 -3.88950852
+  0.93937147  1.42175636 -0.07856627  0.36643299  0.07533715 -0.11436679
+ -0.955732   -0.99753622 -2.0219944   2.0999175   0.9983909   0.44719885]</t>
+  </si>
+  <si>
+    <t>[1.3776996810683124, 2.065724106412247, 1.7868905667832837, 2.179332776985405, 1.7021247274230853, 1.5350367381243637, 2.254945707841581, 1.2917091213119622, 1.3332755212268452, 1.606831182295921, 1.9659875030220078, 2.2116419556048967, 1.9328609696799393, 2.1645683261237663, 1.3350354539628844, 2.2822806964472373, 1.4391725544510787, 2.3104895667577297, 1.4869480732364808, 2.2658998588129036, 1.7853560444745953, 1.6959571274076348, 1.1330924917085925, 1.6939904210871135, 1.8214993543611295, 1.1865177391513009, 1.652287852653293, 2.2934768571057726, 1.4665215995765355, 2.6394731846785384]</t>
+  </si>
+  <si>
+    <t>[-2.03328260e-02 -1.79512534e+00 -5.12000000e+00 -1.47805337e+00
+  9.48036136e-01  9.89615743e-01  2.99785360e+00  1.69807406e+00
+  4.62158883e-02 -2.50429225e-04  1.61708162e-01  1.05547861e-02
+  3.27687916e-02  2.39099570e-01  1.58752121e-01 -7.60197818e-03
+  1.92708234e-01 -2.10361508e+00 -5.14750163e-02  1.79225516e-01
+ -1.68854168e-01 -1.87112168e-03 -1.28027764e-01  1.26964588e-01
+ -9.58348104e-01  1.51460245e-03  1.63195587e-02 -1.31026560e-01
+  1.18466870e-02 -6.01721533e-02]</t>
+  </si>
+  <si>
+    <t>[1.620619138203422, 1.3115244450921915, 1.8690160764910493, 1.7296720340840945, 0.9386880321970934, 0.8890823516374398, 1.762516105926984, 2.0679320025908208, 1.664921840375403, 1.4378106876775094, 1.8661645656922747, 1.5788583774081504, 1.6481889372149927, 1.1586886392556661, 1.4918910244097552, 1.1780949270214875, 1.2195348343296333, 1.6282315566507448, 1.1958761481490199, 1.8940060428163135, 1.895590299386549, 1.5961040218749147, 1.5976066955420019, 1.2413944401686718, 1.3768353877708883, 1.702227578206701, 1.5442520165045326, 2.0489331082599116, 0.9885373463531304, 1.268822753724266]</t>
+  </si>
+  <si>
+    <t>[ 0.10717948  0.01415567 -0.86655876 -1.01087839  0.84626761  1.01546314
+  0.68497858  0.93720017  0.01015193  0.14391704  0.20909326 -0.98331206
+ -0.07074552  0.07188155  0.85175143  0.01404312 -0.01930916  0.14538634
+  2.01759286  0.00290558  0.00921543  0.04044804  0.90144175 -0.95405095
+  0.09001256  0.00252225  0.0099195  -2.20701029  1.0329872   1.06663751]</t>
+  </si>
+  <si>
+    <t>[0.8346549960830358, 1.2657457862772725, 0.893182509349234, 1.3616381097312311, 1.4593251818450192, 0.8463116388092837, 1.133506888659715, 1.4769492400589639, 0.6215860867465292, 0.8770799516816484, 1.35780948103037, 1.3134999239897471, 1.947120389818234, 1.1957572654246937, 0.6197960551156697, 1.3419759347612115, 0.8226660527147265, 1.0359645254825187, 1.3202875092273447, 0.7387818557339008, 0.5033505701488703, 1.214161438368462, 0.6883665733588633, 1.5969917795415263, 1.5091318578674946, 1.1217998599033976, 1.1070071970470503, 0.9196637125432329, 0.8129522325739502, 1.1581599075167557]</t>
+  </si>
+  <si>
+    <t>[ 5.84351433e-04  4.04817019e-03  1.25563100e-02 -3.36791397e-03
+  1.77148522e-04 -1.08744991e-02 -5.06624559e-03  9.36373745e-03
+ -1.13130619e-02  1.17188679e-03  6.40550550e-03  5.39665651e-04
+  6.19008605e-03 -2.67548897e-04 -2.89293100e-05 -1.12362240e-02
+  2.53144927e-03  3.38050668e-03 -3.01853211e-03 -1.75767522e-03
+ -4.43785163e-04  1.88685075e-02 -1.42846957e-02 -7.07265899e-03
+ -1.37118065e-02 -7.38707931e-04 -1.58990670e-03 -1.28792445e-03
+ -1.29251258e-03  5.85611767e-03]</t>
+  </si>
+  <si>
+    <t>[0.47790752008599713, 0.7942256953056033, 0.45040117461716567, 0.49224218581263157, 0.2846625773972637, 0.775048719778315, 0.4471720251212723, 0.5452948070586724, 0.44151195524988396, 1.5432762946543532, 0.526959668627065, 0.797920567559249, 0.6279207414325447, 0.6911432805396067, 0.49283206966831133, 0.6988715280878519, 0.6780241995287681, 0.3198279407668794, 0.5775337078385193, 1.0177053142532502, 0.5783813375348609, 0.37635970983146055, 0.4727458683663585, 0.6578241982719774, 0.41438690970052566, 0.6647117931757038, 0.5230306725570766, 0.3137620961462466, 0.8893221184344721, 0.510135918148981]</t>
+  </si>
+  <si>
+    <t>[ 6.84680415e-06  1.71333845e-06  1.07379282e-04 -2.48129252e-05
+  2.56541391e-04 -2.15050530e-05 -2.71694178e-05  1.57662104e-05
+  1.69409470e-04 -2.55736564e-05  1.31669344e-05  9.92701016e-07
+ -7.26704475e-05  6.32953826e-05  3.40000380e-05 -2.35388430e-05
+ -2.80939436e-05  3.51184936e-07  1.04855093e-05  3.94954742e-06
+ -3.03137133e-05  6.95531320e-05  2.31318967e-05  4.53491571e-06
+ -4.85397692e-06  7.02104519e-05 -3.85973740e-05  1.24423935e-06
+ -1.63618320e-05  8.09385817e-05]</t>
+  </si>
+  <si>
+    <t>[0.018422601565063014, 0.2966303792966431, 0.44301947655123697, 0.428153222846307, 0.29999091921547555, 0.018475954911622988, 0.005881644748804005, 0.016389040887325332, 0.2816770739043749, 0.2995669980514439, 0.5330270293007037, 0.2863269067076563, 0.27055158075734, 0.014079286218227075, 0.025067067528691287, 0.30335636524811793, 0.01742194749324449, 0.46797110161696603, 0.3076345262183654, 0.47757277940139947, 0.30092935123346304, 0.3115777138863561, 0.4473716871927052, 0.44698612979666585, 0.008411370346467611, 0.39418181148862175, 0.30819302940543564, 0.2924701024737958, 0.4396697580774489, 0.299229905232404]</t>
+  </si>
+  <si>
+    <t>[-1.13865374  1.03067805 -1.13246126  0.76552277  1.01454897  1.04282156
+  3.27977289  0.99754677 -0.86529927  0.73544102 -1.35792933  1.96752046
+  0.24695466 -0.95184249  1.18898304 -1.9843189   1.17430454  3.17457944
+ -2.03267791  0.14782785 -2.85849607  0.2547014   1.68760223  1.80764046
+  1.06596186 -1.00384877 -2.47032577  2.0084053  -0.31298456  0.57418168]</t>
+  </si>
+  <si>
+    <t>[2.364912882626742, 1.3240432025202038, 2.2239909957139834, 0.7819282113731149, 1.782405747568777, 2.1020160946992466, 1.8455315470131697, 1.2418525009353067, 1.3569423643677474, 1.4466795307440152, 2.1937267591426886, 1.4273533688864706, 1.6143602166476616, 2.304898509082012, 1.8585731357350133, 2.2009830944756694, 2.1387670701753527, 1.7856999313045965, 1.515130292184456, 1.9189692649652017, 2.155619845053427, 2.128568150710843, 2.1083175021151925, 2.057019283605212, 2.0402681815679933, 1.3872011133399769, 2.2003258788435747, 1.6320187833220952, 2.241071133712131, 2.054102871067029]</t>
+  </si>
+  <si>
+    <t>[-1.06256841  0.32055556  1.9611889  -0.21806858  0.66875319  0.15777407
+ -2.86426111 -1.25681364 -0.01669779  0.01931788  0.02380738 -1.85992978
+ -0.57175131 -0.71040612  0.71042657 -0.079766   -2.04092379  1.11730473
+ -0.19645097  1.41760419  0.03276435 -1.06478493 -1.875017    0.06286595
+ -0.22258909  0.18921041 -0.05006775 -0.03158892 -0.04149822 -0.17518334]</t>
+  </si>
+  <si>
+    <t>[1.0791698658586357, 0.9191162985499857, 1.4913585054336949, 0.9461158644516884, 1.7991564211473774, 1.724089000201837, 1.2741834071630596, 0.978919524216865, 1.4517518449723545, 0.8358057478725603, 1.180208207016265, 1.1624531579695359, 1.1727553816390297, 1.4206353380680812, 2.0070603217386442, 1.5202800882583014, 1.2796258926934518, 0.8427017560814596, 1.094075168716342, 1.330943022306437, 1.1064343785255546, 1.69159696905244, 1.3178335574349316, 1.237285601392301, 1.8532919433652058, 1.5295569589469895, 0.7591114674128476, 1.3787719223102795, 1.9544739927764203, 1.4573052954908277]</t>
+  </si>
+  <si>
+    <t>[-1.02996957 -0.99003998 -0.82919236 -0.01101743  0.1546473   0.0642579
+ -0.05990916 -0.03254345  0.01735265  0.00789628 -1.16199862 -1.06541808
+  0.0635837  -0.12321095  0.04182308 -0.05668576 -0.87152003 -1.03084069
+ -0.69353354  0.08016068 -0.12322354  0.01372678 -0.9535951  -0.10426807
+ -0.02539863 -0.97726462  0.24077005 -2.0022205  -0.00778375  0.32409169]</t>
+  </si>
+  <si>
+    <t>[0.8444506531620183, 1.5738213599073405, 0.7696743664623297, 0.42671909739094255, 0.9562266895549909, 0.7958264804083748, 0.7531390160259716, 0.6678737583043227, 1.0914439489951124, 1.0706185827398442, 1.7493131089976035, 1.341685222187267, 1.1827085106519852, 0.6958758293976086, 1.355098924186409, 1.051202769861608, 0.6239876575269304, 1.2674353848418027, 0.8127503045215705, 1.0859035894801905, 1.1943348273446108, 0.7027080877621813, 0.7670485059838557, 0.7303271804937542, 0.3816560238834637, 0.9508562489381482, 0.7179236862793569, 0.8669255857758013, 1.0944986337177813, 1.2973467185896075]</t>
+  </si>
+  <si>
+    <t>[-1.39975453e-02  3.89016684e-02  2.08118985e-02 -2.32922686e-02
+ -1.07115362e-02  1.91811267e-02 -1.93762358e+00 -1.77799170e-02
+ -5.16702479e-02 -1.05510948e+00  2.65197804e-02 -1.28060875e-03
+ -1.05373964e+00 -9.42039329e-01 -1.20147603e-01 -7.64956457e-03
+  4.53634409e-02 -6.43343790e-06  1.00453972e+00 -3.32580717e-02
+ -3.09831012e-02  1.09320682e-02 -4.11677903e-03 -1.04720729e-02
+  3.67771668e-02 -1.87603097e-02  1.31720782e-02  1.25720203e-02
+  6.06499196e-03  1.25159455e-03]</t>
+  </si>
+  <si>
+    <t>[0.933402088682165, 0.6758798928708454, 0.7158658860439434, 0.894394775882031, 0.6048958284425058, 0.45701255614549724, 0.8093252963654519, 0.7949304851707967, 0.5805836790901802, 0.8462392854585606, 0.5721174022670046, 0.887361688757341, 0.9134542314868896, 0.6165127810432641, 0.8736872468957693, 0.44571501996484886, 0.7156846972591375, 0.7388381137641702, 0.910452182767227, 0.7298175344250424, 0.7304820936043758, 0.8516940512343287, 0.8410034838765583, 0.6515956228794849, 0.6531322055466129, 0.4528002737708029, 0.7038743316566229, 1.1381077027419886, 0.42055610912747304, 0.9127053114238176]</t>
+  </si>
+  <si>
+    <t>[-1.25673794e-04  2.06115557e-04  4.03984031e-04 -1.21007891e-04
+  2.80127865e-04  1.65923997e-04  6.93445414e-06  2.09519476e-06
+ -1.82344409e-04 -1.60250520e-04 -2.83697096e-04 -2.00041548e-06
+ -3.15254652e-05 -4.52765024e-04  3.34770133e-04  1.73828523e-04
+ -3.50521281e-05  1.38226889e-06  7.09458545e-04  7.32264963e-06
+  5.63354393e-04 -6.42743049e-06  5.26909918e-05 -3.41623657e-04
+  1.96075600e-04 -2.05148898e-05  1.31614122e-05  7.90237100e-04
+  9.45994530e-05  2.98898714e-04]</t>
+  </si>
+  <si>
+    <t>[0.5314407239250125, 0.5285278774553869, 0.8901855148075505, 0.6995649826050097, 0.5317945407859292, 0.2859864304616196, 0.30556067515276003, 0.016898177736963203, 0.28890836416544363, 0.014105089862822698, 0.393122580883551, 0.6404845000303359, 0.48538178106509805, 0.4104549323726694, 0.4411105993647554, 0.538134583434979, 0.025047507133703257, 0.2967012944831023, 0.6985783807393927, 0.6495933087044184, 0.46300785931136834, 0.4937354169161854, 0.021651881661989853, 0.01188729624027803, 0.4366217929243099, 0.2805056270435169, 0.5477073596900917, 0.2905524279602951, 0.4315677041511936, 0.37178114165154585]</t>
   </si>
   <si>
     <t>rosenbrock</t>
   </si>
   <si>
-    <t>[-0.49440087  0.60709023 -0.97229713  1.78204977 -0.07559672 -0.35449666
- -0.2922382   0.22431225  0.90543755  1.48059156  0.99186718  0.59593079
- -0.05318426  3.20384933 -0.69007345  1.34778475  1.4798627  -0.98716188
- -0.76736058 -0.13734545 -2.55309352 -2.54510577 -0.23149951  1.82672219
-  0.84368584 -2.14739654  0.8579523   1.09569325  0.80107555 -2.55512913]</t>
-  </si>
-  <si>
-    <t>[-0.49622124  1.02942268 -0.91069693 -0.05322307 -0.0387255  -0.10907897
-  0.05654943  0.6251099   0.18280197  0.95713117 -1.52422793  0.5790682
-  1.04965791 -0.41209329 -0.45027713 -0.01798992  0.74163215  0.45311639
- -0.25680521 -0.17779646  0.58698183  0.64859423 -0.69292677  0.45598267
- -0.37804598 -0.07148526 -0.65697695  1.42652913  2.46396256  2.13136668]</t>
-  </si>
-  <si>
-    <t>[-0.68154187  0.13415928 -0.11883833  0.37307895  0.12680824  0.44382805
- -0.19652824  0.38782412 -0.65065859 -0.69098972  0.47393853 -0.09716018
- -0.00763315 -0.06581151 -0.58133509  0.41163213 -0.09653148  0.75384636
- -0.35323493 -0.01708687 -0.07659359  0.35021058  0.41693922 -0.67535597
-  0.54363746 -0.10874525 -0.52117115 -0.37926932  0.23418112 -0.55086877]</t>
-  </si>
-  <si>
-    <t>[ 2.17768610e-02  3.16957994e-02  8.12335196e-02 -3.84151910e-02
- -3.62656968e-04 -1.19344526e-02  1.07128407e-02  7.67125871e-02
- -5.83338475e-03  2.18483939e-03  6.33539251e-03  2.92939918e-02
- -5.58887301e-04 -1.36010183e-05 -1.04938601e-02 -2.21231497e-04
- -3.35031948e-02 -3.20469702e-03 -8.32019594e-02  4.96407241e-02
-  3.30685369e-03 -1.25933299e-02  2.50507155e-02 -4.23450384e-02
-  8.94963522e-04 -3.90808846e-02  1.57250805e-04  4.88814012e-03
-  4.82910003e-03 -4.57083350e-03]</t>
-  </si>
-  <si>
-    <t>[ 7.13083467e-01  4.91996446e-01  2.34428898e-01  1.77128768e-03
-  4.90981958e-03  2.80612704e-02  2.55351394e-02  1.15685447e-03
- -3.61494852e-05  1.22123190e-04 -2.49532855e-04  5.23678578e-03
-  1.32966166e-02  5.54907562e-04  1.63586959e-03  1.90624531e-02
-  1.32946077e-02 -1.38052678e-04 -1.95767715e-03 -2.05544990e-03
-  5.94918041e-03 -3.17085419e-03 -6.50026796e-03 -1.30455972e-02
-  4.28460824e-04 -2.50890806e-02  1.24279848e-02 -2.05414805e-03
-  3.59711737e-03 -2.39376690e-03]</t>
-  </si>
-  <si>
-    <t>[-0.1880938  -0.62608048 -0.86422459 -0.80785007 -1.75705685  0.68701998
- -0.91185043 -3.25302744 -1.5289852  -1.15360737  2.02231532  0.98198411
- -3.41447358  1.12781924 -0.1657872   2.12972496  0.59354287 -0.98224583
- -1.31134493 -1.68168242  0.95751159  0.94360476 -1.26457669  0.8040387
-  2.95418584  0.77859361  0.38992441 -2.04265862 -0.0577938  -2.01472983]</t>
-  </si>
-  <si>
-    <t>[-0.51919359 -0.20428955 -0.25922167  0.08163631  0.04613367 -0.44465463
- -0.26211842  0.54555952  0.24482991 -0.60858805  0.71885794 -0.3840326
-  0.66422763 -0.59955282  1.37507332 -0.14608828  0.26511277  1.26082815
- -0.7261549  -0.38540004 -0.64582243 -1.51876309  1.68572285  1.40133273
- -1.60947742 -0.03357835  0.03027089 -0.68352317 -0.55661432 -1.10219633]</t>
-  </si>
-  <si>
-    <t>[ 0.52712576  0.15680938  0.0314157   0.00695012  0.2925781   0.45053766
-  0.73962609  0.13561665  0.46454762 -0.21012067  0.29095273  0.02082044
-  0.03966086  0.39303656  0.19096408  0.03890043  0.00487595  0.1181416
-  0.17118982  0.49650828 -0.08299384  0.13364492 -0.10206926  0.1981458
- -0.01802106 -0.19342194 -0.34262832 -0.52846743  0.18438    -0.83255727]</t>
-  </si>
-  <si>
-    <t>[-0.05975919 -0.04743743  0.00023529  0.03297982  0.00907819  0.01237601
-  0.02945088  0.0008247   0.00125293  0.00010791 -0.04758476 -0.00016399
-  0.00519681 -0.0097102  -0.00497823 -0.00110602 -0.01659605  0.00989253
-  0.01551433  0.00013605  0.01632523  0.00855714 -0.04609106  0.01846739
- -0.00286974  0.0106135  -0.00078199  0.01031805 -0.00816138 -0.00936331]</t>
-  </si>
-  <si>
-    <t>[ 3.68359121e-01  1.36042345e-01  6.01202603e-03 -2.95681892e-03
-  1.38750724e-02  2.90085063e-03  5.65495285e-05  1.81896767e-04
-  1.46582209e-03  1.42218820e-03 -5.33464238e-04  3.34904943e-03
-  8.42544434e-03  3.59007054e-03 -1.99769636e-04 -2.22806146e-04
-  7.71366053e-04 -2.87161549e-04 -9.77506890e-05  4.26437195e-03
- -1.45182781e-03  6.15532587e-03  5.40132562e-04  1.09100883e-02
-  1.31223664e-02  1.11436499e-02 -1.04359530e-03 -4.16000064e-04
- -1.66148310e-04 -3.93944218e-03]</t>
-  </si>
-  <si>
-    <t>[-1.18823838 -1.12029223  0.13074519  0.33281534  2.0118484  -1.17678305
- -1.47280073  1.8297931  -0.48587072  0.78499721  1.54608278 -1.54526141
-  1.03187312  1.60012657  1.59387505  0.20678418  1.20517577  1.59666017
-  0.02067331 -1.5194144   1.72063535 -1.42780159  0.47397549 -1.98966685
- -0.57909104 -0.97534716 -1.0934331   1.47468648  0.01911481  1.09507573]</t>
-  </si>
-  <si>
-    <t>[ 1.06162322  2.04826654  1.46849498  0.8335929   0.42732044 -0.49434762
-  0.35325594 -0.21847608  0.09782526  0.57123135  0.79498517  0.36262428
- -0.18194997 -0.87510077 -1.05702689 -0.05843721  0.57603655  1.15224846
-  0.73096198  0.2256695   1.0214418   1.26412787 -0.15450969 -0.70530152
- -0.25676662 -0.25387377 -0.65468375  0.1847846   0.34965224  1.88353083]</t>
-  </si>
-  <si>
-    <t>[-4.12712281e-01 -4.66055825e-01  1.22292593e-02  1.39553273e-02
-  5.48270453e-03 -1.72908451e-01  1.05690607e-01 -2.71454735e-01
- -1.82057544e-01 -5.16005269e-02 -6.94493245e-02 -5.85691849e-02
-  9.79934864e-02 -1.70599261e-01  3.69509877e-01  2.74723943e-04
- -1.62595571e-01  9.66664897e-02  1.20432691e-01  5.84339557e-02
-  3.59939134e-02  3.27150209e-01  2.97266606e-02 -1.66952365e-02
- -9.52812305e-02 -3.40485453e-01  8.81558705e-02 -1.63556511e-01
- -1.88830991e-01  1.10890308e-01]</t>
-  </si>
-  <si>
-    <t>[ 0.16792981  0.03746281 -0.01292843  0.01049514  0.0203528  -0.00600258
- -0.01442217  0.01888206 -0.013319    0.00757938 -0.00421831  0.00964856
- -0.00092346  0.01453878  0.01902385 -0.0128779   0.0034371  -0.00432769
-  0.00067072  0.00719006 -0.00022224  0.01174709  0.00672235  0.00096226
- -0.00325237 -0.02070504  0.01614724 -0.00121487 -0.00353815  0.00635321]</t>
-  </si>
-  <si>
-    <t>[ 4.81402748e-01  2.23018688e-01  5.46730523e-04  3.21475053e-04
- -8.36410364e-04  9.09567147e-05  6.94746467e-03  1.78232999e-03
-  4.08063935e-04  4.88536641e-03 -3.05153665e-04 -1.01624005e-05
-  1.10546198e-04  1.09924897e-03 -1.21293991e-04  3.03910136e-03
-  3.14161725e-03  5.08335739e-03  2.51093521e-03  2.50815822e-03
-  4.09839202e-04 -3.34617386e-04  2.02856211e-04  3.61592414e-03
-  6.30626087e-04  7.08723776e-03  1.18527430e-02  1.27921185e-02
-  6.84607760e-03  4.69808597e-03]</t>
-  </si>
-  <si>
-    <t>[-0.79366752 -1.55545613 -0.68859673 -0.63557538 -1.12284114  0.76752176
- -0.97610358 -0.03242245  0.64557505  1.9962556  -1.34958102 -0.35568828
- -1.67813018  0.68711234  0.3381602   1.20740664  1.73708266 -0.62196172
- -0.59206525 -0.60996549  1.31194636 -0.12622975 -1.65803018 -0.15635566
- -0.16053659 -0.56354142  0.74724074  0.55153203  0.60785404 -0.3020803 ]</t>
-  </si>
-  <si>
-    <t>[ 0.15654766 -0.09224398 -0.70345235  0.75187373  0.28180654  0.69382522
-  0.68900659 -0.76757508 -0.38569046  0.92806491 -0.17282727  1.15133423
-  1.08527897  1.5968265   0.07967455  0.32147904 -0.6279308   0.38460622
- -0.53136528 -0.66037075  0.93622989  0.16120318 -0.15102045  0.7097525
- -0.31645118 -0.16434989 -0.04243523  0.64198474 -0.4997397   1.09120384]</t>
-  </si>
-  <si>
-    <t>[ 0.02532087 -0.09187085  0.09662144  0.10063642 -0.02111589  0.30063134
- -0.08957291  0.01725019  0.22132598  0.0482008   0.01460311 -0.05516219
-  0.10056887 -0.24402686  0.07920852  0.21080339  0.05895294 -0.2515111
-  0.01272592  0.19093012  0.16604317 -0.27345433 -0.32074931 -0.054384
-  0.02822961  0.10196129 -0.15610241  0.00494981 -0.06527037 -0.06118604]</t>
-  </si>
-  <si>
-    <t>[ 1.58690362e-01  1.65953578e-02  7.28993343e-03  1.19332451e-02
-  1.89303186e-02  6.81494248e-03 -2.68961479e-03  2.38535430e-02
-  1.80211652e-03  1.64593347e-03 -4.44092284e-03  1.74376304e-02
-  5.09587792e-03  1.31056601e-02 -2.64231626e-03  1.10713897e-04
-  9.56585126e-03  3.05387283e-02  1.90171026e-02  1.33593617e-02
- -1.18380515e-04  2.04006964e-02  3.51701859e-02  1.03134263e-02
- -4.69587066e-04  1.48438979e-03  9.47888636e-03  1.80289019e-04
-  1.85696332e-03  7.31892863e-03]</t>
-  </si>
-  <si>
-    <t>[ 4.62099910e-01  2.17634558e-01  2.71635634e-02 -5.07009704e-04
-  5.81656441e-03  4.14739107e-03  8.01422651e-04 -6.61294628e-04
- -1.93506175e-03  6.16065416e-04 -5.77522286e-04  5.00158850e-03
- -6.12565204e-05  1.01492350e-02  1.27224227e-03  3.70791466e-03
-  3.21225803e-03  2.42520148e-03  7.70170075e-03  5.17151714e-03
-  9.39023232e-04  4.95717328e-03  6.28002983e-03  7.35119060e-03
-  1.38886983e-04 -1.40509576e-03 -5.71926167e-04  7.52169268e-03
-  1.62694794e-03 -1.48886343e-03]</t>
+    <t>[-1.86277865 -0.38442421 -0.76523722 -1.1481989  -1.03668036 -1.24008098
+ -0.47423404 -1.26250917 -0.15496044  0.05671877  0.16117629 -0.57407443
+ -2.20658096 -0.454593   -0.65196157  1.76153174  0.17087988  0.72655619
+ -0.52636994  0.00821351 -0.49068825  0.54264196  0.25325557  0.87723406
+ -0.46484509  0.32973972  0.69019271 -3.23135404 -2.04091843  2.92550911]</t>
+  </si>
+  <si>
+    <t>[1.9277687988407366, 2.004433467099309, 1.6730344173097575, 1.2834515224257756, 1.9840746583876352, 1.6635038714921095, 2.0040201874901697, 1.8004677913917342, 1.9986699472566003, 2.3494553023102505, 1.510604365461038, 1.688523664125457, 1.8088745094206717, 1.266959759918706, 2.1827578089577857, 1.6783614657184827, 1.8632236060104035, 1.39888721454121, 1.9523783083238877, 1.3053904114579542, 1.5063263863396783, 1.3439535635513593, 2.297562473777743, 1.7033458255196026, 1.3546749502859752, 1.4407175167111204, 1.7551828824344398, 1.5476833373581056, 1.6629964427458008, 2.8524099028305767]</t>
+  </si>
+  <si>
+    <t>[-0.05363083  0.15502707  1.00724895  0.29427881  1.1755238   0.64654634
+ -0.71928795 -1.15487952  0.30887688  0.84461131 -0.63164745  1.00873053
+ -1.08236433  0.25146008  0.13749587  0.20513487 -0.65690899 -0.52498665
+ -0.71788698 -0.30402254  0.45399437 -0.96882039 -0.93904801 -0.31937141
+  0.79448236 -0.20051209 -0.33575266 -0.74592599  0.14592613 -1.69501331]</t>
+  </si>
+  <si>
+    <t>[0.7197396507775403, 1.0423199033595443, 1.5467450291125295, 1.2754131868853216, 1.4851176063462568, 1.5447544513739428, 1.2036735205953568, 1.1910576170433684, 0.8459569998804706, 0.8219478043916557, 1.0891220246370275, 0.7612401482196877, 1.6492746280428983, 1.1549755822735523, 1.1353700712872745, 0.8466251002163899, 1.3037963188357962, 0.828855244536009, 1.4476922329017279, 0.6137469896908533, 1.5679678734609546, 1.063040532626586, 1.3826966644935754, 1.1497203669436986, 1.5383153345686291, 1.2812690289555322, 1.0327569122392777, 1.0680143766410763, 0.8787620575395272, 1.4414248174709723]</t>
+  </si>
+  <si>
+    <t>[ 5.01533686e-03 -9.35978983e-03  1.97648027e-01 -4.94357587e-02
+  3.53690623e-01  8.65717318e-02 -5.09307056e-01  1.85515717e-02
+  1.66150516e-01  3.46068207e-03 -5.98285561e-02 -1.43694500e-01
+  1.00496656e-01  1.02692969e-01 -4.34700160e-02  7.79325265e-02
+ -1.70974866e-01  3.44102219e-02  4.81571646e-02 -6.49958064e-02
+  8.72037267e-02  1.67425169e-01  1.81867027e-01 -2.50798750e-01
+  1.97464071e-01 -1.59012717e-04  8.43384832e-01  5.66416958e-01
+  1.28953358e-01  8.71783163e-01]</t>
+  </si>
+  <si>
+    <t>[0.8780443434946854, 0.5930955181936002, 1.1191667217549568, 0.45376873718929606, 0.6144098568057098, 0.5951417855926622, 0.9659084380807254, 0.875129695631897, 0.38490817210385536, 0.6717379962928917, 0.8629814465300193, 0.5837419469796706, 0.6698187093728375, 0.9461094714879911, 1.0302640200364146, 0.9685754853523445, 0.4073264459217458, 0.7880587204074575, 0.6048335319380534, 0.7828762152605343, 0.785284169894277, 0.35620925668810605, 0.7159497377578491, 0.3349047243592233, 0.878171648083935, 0.7913484547392741, 0.6491625570037045, 1.117755803703747, 1.0559474646626932, 1.5152913643857386]</t>
+  </si>
+  <si>
+    <t>[ 9.22118241e-03 -4.12747728e-02 -1.97406302e-01 -1.39969325e-03
+ -5.53230676e-03  5.84103424e-02  3.23520233e-04  5.35389650e-03
+  1.76832792e-02 -5.40441991e-02  6.05154626e-02 -9.94593077e-03
+ -2.87002080e-06  1.01139905e-01  9.41638346e-04 -1.64615103e-02
+ -6.00665514e-02  6.25993008e-02  4.63988690e-03 -9.07612450e-02
+ -1.48337467e-03 -2.42163729e-02 -7.80308420e-02 -2.00209386e-02
+ -7.53078582e-03  2.36075914e-02 -3.38432825e-02 -2.53559407e-02
+  2.95443490e-02 -4.78591870e-02]</t>
+  </si>
+  <si>
+    <t>[0.27804469983414326, 0.07724773559867922, 0.13945203977497322, 0.10541311975495424, 0.15889683117307124, 0.14356124089859576, 0.23749806364134254, 0.1366830663178413, 0.10031381713250748, 0.12716560513527628, 0.15005155015433638, 0.1762827455584371, 0.17923855348900616, 0.147997530629831, 0.13162750459677408, 0.15219809467807607, 0.2875333480193413, 0.2708473481804234, 0.2357540059326804, 0.22266437541744397, 0.17434148481007514, 0.2268062966839911, 0.23662353072744569, 0.16397641678802527, 0.11496341892529342, 0.08012136805215003, 0.08098102432213848, 0.1536898444537347, 0.1246280697612184, 0.2436768576747729]</t>
+  </si>
+  <si>
+    <t>[ 1.60543109e-01 -2.77101062e-05  9.20409172e-03  9.95149034e-03
+ -1.12553106e-04 -9.69436519e-04 -1.15648000e-05  6.70117082e-03
+  3.22544649e-03 -1.59522647e-04  3.22195302e-03  8.51366484e-04
+ -1.06155031e-03  2.88680800e-03  1.04883136e-02  3.07990829e-04
+  8.22811923e-06  3.04316343e-04  2.11867546e-03 -4.50097222e-04
+  8.92377387e-06  2.35927212e-03  4.92390979e-04 -2.11713664e-04
+ -6.48197503e-05  1.17150190e-04  9.82263951e-04 -1.66131303e-05
+  4.49587511e-03  8.14866709e-06]</t>
+  </si>
+  <si>
+    <t>[0.051728765318094665, 0.0020800423464291742, 0.0049746067483984035, 0.0032185156438486735, 0.0025796047265448994, 0.003382760832991951, 0.003617011068916399, 0.0066999917373218535, 0.0015870510641065524, 0.00707367790286857, 0.006617845628058382, 0.0026384184555042355, 0.002914497900929734, 0.003101076723367743, 0.0033974155862959822, 0.006444954672335523, 0.004161366312439911, 0.002747233850115241, 0.004130407803428146, 0.005575011181335064, 0.004838625440499318, 0.0044750207089261146, 0.006170700447618578, 0.0036713470628722657, 0.0034509335323676216, 0.0006486603775969647, 0.005924671391514737, 0.0020191113524870813, 0.0059021709589786525, 0.0039917067291810986]</t>
+  </si>
+  <si>
+    <t>[-0.01181067  0.01069455  0.26325881  0.34631744  1.28172976  0.78180623
+  0.49072989  2.28693503 -2.1811107   1.7741577   2.63826601  2.95032933
+ -0.57492527 -1.43199919  0.6067012   0.48787883  0.27186498  0.24554717
+  0.2320302   1.18875425  1.70089098  1.32830124  0.60234059  1.40668272
+  0.20788194 -0.51357283  0.8019155  -2.79751314 -1.52316665 -0.40471143]</t>
+  </si>
+  <si>
+    <t>[1.2085665546209767, 1.9194884267667307, 1.8830878270436437, 1.7434796014215397, 2.299078079757981, 1.6876543434481754, 1.6981151809288049, 1.3426343590287253, 1.1112880341844327, 1.6430345368823576, 1.5289592033854709, 1.7199970762021595, 1.594555322694993, 1.573755869358564, 2.164207774102322, 1.8826918576478888, 1.6089510363286463, 1.3970366252323958, 0.6745634250877763, 1.9014457959749067, 1.715913313133987, 2.03136968286204, 1.5482716855057848, 1.743458244333052, 0.7314996360791618, 1.1866681710437756, 1.4298484553152917, 2.0859397112210942, 1.5735189093987645, 3.0314832912096197]</t>
+  </si>
+  <si>
+    <t>[ 1.90597997 -0.15284275  0.17903256  0.53091279  0.74265215 -0.39681425
+  0.05740293 -1.1910696   0.6366948   0.24538444  0.4406094   0.3436066
+ -1.38102664  0.95626447 -1.24327678  0.61403703 -0.12281481  0.90913147
+  0.76291178 -0.24618213 -1.45887573  2.06077129  1.21021121  0.37639363
+ -0.93413106 -1.15060372  0.96659565 -1.26367718  0.08872973  0.94422399]</t>
+  </si>
+  <si>
+    <t>[1.3082679937755075, 0.9089237804948481, 1.288229962788076, 1.114140389933563, 1.2046738137495074, 1.2169604226518946, 1.4012873860599204, 1.0075751971188591, 1.0368357598056128, 1.295420742682127, 1.3569248267874143, 0.4589247391764987, 1.5898928944890878, 1.0983624054097505, 1.313511702640089, 0.9095614505951305, 1.2861982530349259, 1.1547408863562592, 1.0568440144544438, 1.23376243438763, 1.024920449122406, 1.2661001775456326, 1.408131640903829, 0.9846271204390256, 1.656732598726041, 1.3240246832206808, 1.6402901449507492, 1.0776905372712557, 1.0494207440130057, 1.3332954400743746]</t>
+  </si>
+  <si>
+    <t>[ 1.02021057  0.74693933  0.59765829  0.38811619  0.1220475  -0.07278024
+  0.08762548  0.05267458 -0.00862983  0.06797342 -0.03408103 -0.0081366
+  0.50441458  0.07193167  0.09053601  0.41102175  0.56168667 -0.50318931
+  0.57585637 -0.07022622 -0.45535769  0.00375423  0.24601553 -0.52730794
+  0.12551316  0.14811119 -0.09868869  0.23224731  0.57169827 -0.02511812]</t>
+  </si>
+  <si>
+    <t>[0.546105153340771, 0.8737222444285244, 0.7472571471571289, 0.5251892718873766, 0.7652069891206136, 0.7207575313889517, 0.6493393582567801, 0.5015727529086929, 0.5975801427904772, 0.4075524190970843, 0.3721819624486489, 0.4437158365158234, 0.9245182609889456, 0.5008380577193027, 0.5165957506009555, 0.468242028021879, 0.8889030534943887, 0.38090322333027954, 0.49332000295891354, 0.45142481236181786, 0.6601037047797691, 0.4700888678074143, 0.5277972654999954, 0.5037018463653067, 0.7002421191454753, 0.5696809533433677, 0.5035449896790644, 0.6600812198866235, 0.7606038098554412, 1.4996332040131448]</t>
+  </si>
+  <si>
+    <t>[ 3.80323911e-01  1.40474150e-01  2.47109697e-02  4.94742474e-02
+ -1.74278244e-02 -8.22897521e-03  5.94044567e-02  3.57788607e-02
+ -2.78163439e-02  1.78983481e-02  2.30732990e-02  2.16534500e-03
+  9.14825854e-03 -2.51404463e-02 -3.35695508e-02  1.73812039e-02
+  2.96139855e-02  9.77022689e-03 -7.93276693e-04  2.32454559e-02
+  2.34109430e-04  1.55939065e-03  7.26352252e-02 -7.13713324e-03
+  1.36794357e-02  9.52635711e-04 -2.07958033e-02  3.27679075e-02
+ -1.81393689e-02 -8.88866101e-02]</t>
+  </si>
+  <si>
+    <t>[0.2662749166503758, 0.05011081205169201, 0.25064558028927975, 0.06527502746051722, 0.1938622071815642, 0.04720208654225213, 0.4305240971670934, 0.27653560601418303, 0.036084722258196505, 0.2277669423472156, 0.04003277897403457, 0.15254218479522663, 0.10607208974357983, 0.10064012724215808, 0.24054165232209618, 0.23530006501890832, 0.2357825798265088, 0.08003468707502367, 0.11687140175798442, 0.0719258792829866, 0.3095776001600105, 0.157327943731835, 0.16094546985004438, 0.3063413503902475, 0.04762784481318038, 0.20386667106867468, 0.058136011863750496, 0.03002388036229946, 0.1165907813680398, 0.29938404789233275]</t>
+  </si>
+  <si>
+    <t>[ 4.08048678e-01  1.67354490e-01  1.10918727e-02  7.38685141e-04
+ -4.79164638e-04  3.95818967e-03  1.10121808e-04  6.28564882e-04
+  6.44653692e-04  5.67467677e-03  1.27762826e-04 -1.12535805e-03
+ -2.67056639e-03 -8.48218936e-04 -4.77381127e-04  9.63257348e-03
+  2.97061463e-03 -4.34465078e-04  1.07810049e-04  3.05658134e-04
+ -2.43418615e-04  5.06142656e-04 -1.47872839e-03  2.30411565e-03
+  6.08267131e-03  9.38998221e-03  3.41793619e-04 -2.77246634e-04
+  8.80869485e-03  4.53160587e-03]</t>
+  </si>
+  <si>
+    <t>[0.17632403890387804, 0.11835320701194359, 0.005980784406280915, 0.07511865210267521, 0.0833460586265302, 0.027881620173768492, 0.006308156505391764, 0.005253234128864665, 0.023650218438113668, 0.010626956858086832, 0.09573942978286097, 0.046359392563833576, 0.033974830629233885, 0.020381448676409984, 0.11126976603063492, 0.13539319862031754, 0.05693995544230812, 0.034366334957032875, 0.019646483768820475, 0.06515024285384768, 0.016692373539807997, 0.011975544323441946, 0.022155036984397556, 0.012922429559884036, 0.11919834224787297, 0.020005948203690616, 0.040052389091833715, 0.011659690542013431, 0.15914812096985967, 0.1899692698166442]</t>
+  </si>
+  <si>
+    <t>[-0.05577758  1.31077229  0.27157605 -0.11064689  0.90433529  0.91130534
+ -0.6270007   1.05403683  0.40346178  0.45301724  1.26574283  1.99425734
+  3.10561976  1.40989413  0.89835144 -0.89689536 -0.00335223 -0.811427
+ -0.45922622 -0.71285508 -2.71492566  0.53255036  0.70963752 -1.21871944
+ -1.51089317 -0.20214911  0.69699323 -0.84850237 -0.40896862  3.09130287]</t>
+  </si>
+  <si>
+    <t>[1.3539339240297419, 1.9078178775817893, 1.3348521000755846, 1.6518433743762573, 1.0474818787620637, 1.0594379961928464, 1.2862120941037434, 1.435836327936282, 1.84949264898733, 1.451741801689186, 1.7445927035063795, 1.5218922103403196, 1.8205291205385914, 1.0802447383899707, 1.2343283144382118, 1.4732733345097186, 1.9254594281880844, 1.3652125813087603, 1.562412859384483, 1.56082838941508, 1.605164503285752, 1.760485030777461, 1.5887309261880973, 0.7724243599412728, 1.629116424912936, 1.6786557100273913, 1.2882865846650577, 1.560396887875524, 1.3159376711074813, 3.0253338837651738]</t>
+  </si>
+  <si>
+    <t>[ 0.14432102  0.19991681 -0.33223925 -0.01700013 -1.24749634 -0.09371817
+  0.86511748 -0.04720642  0.65999326  0.03768767 -0.29260664  0.6375549
+  1.51488713  0.69830484  0.22734134  0.01411154  0.12345681 -1.12707789
+  0.8694235   0.07685391 -0.14238282 -0.11040295 -0.32088634 -0.58998741
+  0.54466075 -0.42444056  0.01119136  0.13368532  0.35620303  0.24484655]</t>
+  </si>
+  <si>
+    <t>[0.7246932231049924, 0.6606245931123154, 0.9882940075907533, 0.4437769341855555, 1.092910763903151, 0.964010425215266, 0.5868335833090453, 0.8518709467857261, 1.574893481479669, 1.2211508714703068, 0.6488580139485612, 0.9258927451582407, 1.1028619459131737, 1.4625445636218914, 1.0590015208599586, 0.7114118110392458, 0.7007863400455475, 0.9859417763074455, 0.7806485937825322, 1.0348472064900334, 0.8528675299589457, 0.9193600825944062, 1.3318286183245192, 1.3440803854052998, 0.7092317688844738, 1.1035320111319835, 1.0563031679900141, 0.8108220794454, 1.0723280276459575, 1.8532400446161634]</t>
+  </si>
+  <si>
+    <t>[-1.04703166  0.68260606  0.5108057   0.13523123  0.22162875  0.08839137
+ -0.05581194 -0.201141   -0.08831264  0.00609309 -0.11639499 -0.10543551
+ -0.25035034 -0.16092852 -0.0210985   0.09658502 -0.05297643  0.15748347
+  0.11968411  0.08375057 -0.05446027  0.06333799  0.43294257  0.37331076
+  0.20337127  0.14406151  0.02581603 -0.20809667  0.06302816 -0.25421293]</t>
+  </si>
+  <si>
+    <t>[0.6824175425798524, 0.37466905512048954, 0.37953884107703456, 0.4306263237437451, 0.7258833134231164, 0.5160431620448943, 0.7546481663530773, 0.612582901003253, 0.1693653649972186, 0.6567397532118353, 0.4843559141374047, 0.47212018331221606, 0.32078702066593934, 0.44813662347586136, 0.44204025568859623, 0.29156735840665093, 0.4863853516527736, 0.4177798103969956, 0.6304052839419296, 0.3608994690350974, 0.2801764523805652, 0.4475442671688766, 0.4098412749858071, 0.3278425373738148, 0.33899228031559137, 0.48671327368085615, 0.26585183500742493, 0.3497676229645747, 0.31967715926121, 0.4017030618719079]</t>
+  </si>
+  <si>
+    <t>[ 0.01062927  0.00056643  0.02549906 -0.00612652  0.00082188  0.00227197
+  0.0104027   0.03642635  0.00846448 -0.01043877  0.00860054 -0.02304096
+  0.04801675  0.06382283  0.0531911  -0.00858377  0.04080818  0.0031482
+  0.01924118  0.005669    0.00604028  0.02819283  0.03439254  0.01568136
+ -0.00326692  0.03509408 -0.00704177  0.00039592 -0.00103969  0.0029726 ]</t>
+  </si>
+  <si>
+    <t>[0.2437894679088685, 0.1958447718047969, 0.1616793803884898, 0.0500770760878476, 0.03675590241087695, 0.10157203904507851, 0.05315673457933256, 0.15899287833436895, 0.08039001331241354, 0.1038646989917248, 0.047618427297488955, 0.07684834027127146, 0.06224631288242894, 0.08069910182308938, 0.09899582753384936, 0.03355165764542121, 0.04456171450154393, 0.052388943308737265, 0.08015453880009982, 0.047268140820708536, 0.051696147699424246, 0.06321619844097148, 0.07975361304148036, 0.0788787882656613, 0.0472569814277592, 0.11935018780854266, 0.07588921935998921, 0.04834959956630874, 0.16273181768706224, 0.053301175498084254]</t>
+  </si>
+  <si>
+    <t>[ 5.00858979e-01  2.44565113e-01  3.94111254e-02  1.03673315e-02
+  9.71407891e-03  2.34457001e-03  6.79057963e-03  3.01993863e-03
+  2.29002893e-03  1.64177757e-04 -9.20876488e-04  5.15333711e-03
+  1.33412360e-03  1.02385418e-03  1.82199511e-03  8.84991309e-03
+  1.62408521e-02 -2.41816562e-04  2.50736568e-03  3.61096002e-03
+  7.03178578e-03  5.25144593e-03  4.53772557e-03 -1.63859525e-03
+  9.64958637e-04 -4.48825520e-03  6.16875873e-04 -1.29175328e-03
+  1.24620207e-03  3.07709978e-03]</t>
+  </si>
+  <si>
+    <t>[0.1799486671244307, 0.09297017739006332, 0.017514124430959743, 0.0036023056913061465, 0.005770618752561341, 0.003752349170281942, 0.0033514818683589988, 0.0036565058841503653, 0.003358974705300202, 0.0035935439125284172, 0.004111999731282431, 0.0038677487677370296, 0.003787861686068078, 0.003199093487611782, 0.0022384766115671993, 0.003394247317528041, 0.004673666608869541, 0.003990388468993745, 0.0028263801271518735, 0.0036163291016949586, 0.004213510506821507, 0.002522430923578448, 0.003531020448691555, 0.0033151545649702367, 0.002247541563430442, 0.003711010002845845, 0.004539144538719972, 0.004078806427106662, 0.003127544876170504, 0.0030386893389890927]</t>
+  </si>
+  <si>
+    <t>[-1.43496442  0.91418444 -1.02919737  1.61246077 -1.73699591  1.85895959
+  0.09693931  2.66578528  0.9490093  -2.5988042  -0.87368654  1.23293639
+ -1.13633756  0.34988707  0.98416624 -0.56254916 -0.21667655  1.06333039
+  1.723472    0.14928794 -0.68781252  0.01306508  1.61084848  0.91950891
+  0.21062635  0.83673724  0.80366197 -1.167892    0.48754967 -0.49208013]</t>
+  </si>
+  <si>
+    <t>[1.2832064899757707, 1.5792718002993482, 1.7301465521553885, 1.2463926678910657, 1.4202033630109603, 0.9486507225996503, 1.6458931404964638, 1.6685535533327251, 1.1240155610412823, 1.4503903614537987, 0.4579305056142821, 1.3707368420577202, 1.4959116199657634, 1.498702583593944, 1.2598287153640029, 0.8359528549321353, 1.511237803906183, 1.0425381732238268, 1.2124734156563621, 1.185522795112155, 1.309571706931243, 1.1453683276313773, 0.9985081197586809, 1.2607456341270407, 1.594135254410475, 1.3268927003443631, 1.4748936721098125, 1.3928275325752866, 1.0307465071996966, 2.4806804350967404]</t>
+  </si>
+  <si>
+    <t>[ 0.29099379  0.02132925  0.15857363  0.13554727  0.00648393  0.12695979
+ -1.1311676   0.24812892  0.14768741 -0.08387524 -1.32089731  1.04283828
+  0.28214857  0.6029984  -0.56154399  0.05263391  0.28307424  0.23632475
+  0.2426391  -1.49193437  0.76096251  0.7350026   0.4572824  -0.36499076
+  0.34404719  0.32076298  0.43427746 -0.31732952 -1.07034422  1.82027746]</t>
+  </si>
+  <si>
+    <t>[0.930162993787753, 0.6349325097158278, 0.6651325563312663, 1.0316297625204567, 0.6498039337435633, 0.7454304564120289, 0.971708707515101, 0.5114732285303565, 0.5710757192594074, 0.6471620906526327, 0.7468970471429223, 0.9508648132434059, 0.7442731045475728, 0.6702470647109551, 0.5312893680454447, 0.7305408659215427, 0.4225088750836337, 0.7212498312233441, 0.648285918296165, 0.9272124890793639, 0.597764757003, 0.5373466533168413, 0.7752720704688735, 0.7399173042435262, 0.5307484682817766, 0.5127534594941624, 0.516845091417919, 0.7937100586514731, 0.7170682528233681, 1.4439491190717466]</t>
+  </si>
+  <si>
+    <t>[-0.53916655  0.18789334  0.39960507  0.57717917  0.38920825  0.02417106
+ -0.17757375  0.04937337  0.02923448  0.07824692 -0.2296117   0.01642286
+ -0.07444601  0.12989457  0.25897497 -0.09319413  0.00793311 -0.13780028
+  0.0568515   0.12569456 -0.02191823 -0.0672332   0.19987602  0.17704885
+  0.15759617 -0.037279    0.11523122 -0.05526316  0.05196675  0.01436897]</t>
+  </si>
+  <si>
+    <t>[0.3679752546505586, 0.21324217679870583, 0.28840197011102114, 0.43116593891372257, 0.31149301762579373, 0.2605759546622971, 0.21906487350710097, 0.15655031178487455, 0.1875261606543628, 0.1767077385268757, 0.17496191342388137, 0.21989933228851893, 0.17054388794393086, 0.14506033623387912, 0.1595835785267326, 0.1449735043841586, 0.1927201552171986, 0.21886714165764123, 0.186225517703063, 0.22964311863283535, 0.2024011425052623, 0.2730936868849255, 0.23693278391629805, 0.1406196056571596, 0.2257376312082161, 0.28260061256585883, 0.27040351299721227, 0.2217656095872848, 0.4010619966065254, 0.28752637177515994]</t>
+  </si>
+  <si>
+    <t>[ 3.67478548e-01  1.03284188e-01  9.38999461e-03  2.36708330e-02
+  4.14397256e-03  9.02617688e-03  2.96058395e-03 -1.05909684e-02
+  8.38491241e-03 -8.15894731e-03  8.31151720e-03  1.41127273e-02
+  1.09516453e-02  3.26175371e-02  2.71840978e-04  3.87603883e-02
+  7.62545515e-03 -5.87484786e-03  1.37010756e-02  9.32471279e-03
+  2.34544095e-03  1.19523954e-02  1.11376397e-02 -2.98986650e-04
+  8.17080328e-04  1.64607432e-02  1.55505797e-02  2.06380683e-03
+ -1.19953195e-02 -7.18904481e-03]</t>
+  </si>
+  <si>
+    <t>[0.12058668616104616, 0.02975522976908214, 0.010660209803931299, 0.010162421543403055, 0.01756178125595935, 0.02236852430713166, 0.03170967217638517, 0.013491710515134231, 0.010644591636947098, 0.015723257764246455, 0.02139149609280179, 0.01851513394902177, 0.027029253398176124, 0.01795621103521194, 0.016278819308454134, 0.015143489296086176, 0.01595658083454145, 0.02404469931210739, 0.021622271336470014, 0.007416156080070952, 0.007404252110173402, 0.020779233432069312, 0.016590341394351407, 0.011643032230491877, 0.013014843836722332, 0.025408236791291883, 0.01821909558197132, 0.01710390274276286, 0.01625423888565389, 0.016498184241033807]</t>
+  </si>
+  <si>
+    <t>[ 4.64346097e-01  2.07387502e-01  2.01287688e-02  3.36873727e-03
+  5.92822475e-03  4.27599434e-03  3.51972694e-04  1.11297977e-02
+  9.55208740e-03 -6.78578973e-04  1.47396665e-03  6.96878224e-03
+  1.60982435e-03  8.90578366e-03  4.39524923e-03 -1.84216903e-04
+  3.60184379e-03  2.74153993e-03 -8.60089596e-04  6.81817558e-03
+  6.96004728e-03  6.08315084e-03  6.87462490e-03  4.73408173e-03
+  2.86954527e-03  1.27892821e-02  8.71265114e-03  1.38726529e-02
+  3.36353515e-03  5.78976005e-03]</t>
+  </si>
+  <si>
+    <t>[0.22210078059175042, 0.09426557187136941, 0.015440234542120344, 0.04362056930977758, 0.02034059140957276, 0.014549125952728765, 0.011318799442207208, 0.05278587979558417, 0.07805407749988755, 0.015178163016639183, 0.04227077431604194, 0.042020676274785534, 0.018165380394888714, 0.04178132884123287, 0.007107760189456095, 0.005432122518234538, 0.003981714458865624, 0.050839043394897636, 0.030309069963550622, 0.029457128928265734, 0.0367676445094698, 0.01257980095844734, 0.005086043926294727, 0.013598253160955672, 0.02145447004995128, 0.06693392489721232, 0.14068695547869703, 0.17557211231404482, 0.1746120640657813, 0.12933352758645356]</t>
   </si>
   <si>
     <t>bukin</t>
   </si>
   <si>
-    <t>[-12.87229173   1.65726743]</t>
-  </si>
-  <si>
-    <t>[-5.          0.25074823]</t>
-  </si>
-  <si>
-    <t>[-7.75454485  0.60137771]</t>
-  </si>
-  <si>
-    <t>[-5.          0.24997826]</t>
-  </si>
-  <si>
-    <t>[-5.          0.25000076]</t>
-  </si>
-  <si>
-    <t>[-9.26321106  0.85800015]</t>
-  </si>
-  <si>
-    <t>[-5.         0.2500958]</t>
-  </si>
-  <si>
-    <t>[-15.           2.24997508]</t>
-  </si>
-  <si>
-    <t>[-14.55964316   2.11983636]</t>
-  </si>
-  <si>
-    <t>[-7.95682894  0.63311846]</t>
-  </si>
-  <si>
-    <t>[-5.          0.24819642]</t>
-  </si>
-  <si>
-    <t>[-5.          0.25000268]</t>
-  </si>
-  <si>
-    <t>[-5.          0.24996229]</t>
-  </si>
-  <si>
-    <t>[-5.         0.2499984]</t>
-  </si>
-  <si>
-    <t>[-10.78325314   1.16278464]</t>
-  </si>
-  <si>
-    <t>[-8.17535344  0.66794373]</t>
-  </si>
-  <si>
-    <t>[-11.8906843    1.41399157]</t>
-  </si>
-  <si>
-    <t>[-5.2608996   0.27675443]</t>
-  </si>
-  <si>
-    <t>[-5.          0.24999919]</t>
-  </si>
-  <si>
-    <t>[-5.          0.25000021]</t>
+    <t>[-7.25946784  0.52738338]</t>
+  </si>
+  <si>
+    <t>[3.613867604556241, 0.736845377621767]</t>
+  </si>
+  <si>
+    <t>[-5.          0.24988894]</t>
+  </si>
+  <si>
+    <t>[3.30205388625515, 0.6005399227559947]</t>
+  </si>
+  <si>
+    <t>[-5.44749911  0.29674049]</t>
+  </si>
+  <si>
+    <t>[3.5519807077317207, 0.7040360056418353]</t>
+  </si>
+  <si>
+    <t>[-14.59865118   2.13122838]</t>
+  </si>
+  <si>
+    <t>[3.7604935936975457, 0.7073256633353708]</t>
+  </si>
+  <si>
+    <t>[-5.          0.24999997]</t>
+  </si>
+  <si>
+    <t>[2.11144909170692, 0.3599367634248297]</t>
+  </si>
+  <si>
+    <t>[-5.          0.25071492]</t>
+  </si>
+  <si>
+    <t>[3.9165366754319297, 0.7544721481205641]</t>
+  </si>
+  <si>
+    <t>[-5.00107183  0.25001476]</t>
+  </si>
+  <si>
+    <t>[4.3525284449215755, 0.85736696560263]</t>
+  </si>
+  <si>
+    <t>[-12.72551357   1.61938024]</t>
+  </si>
+  <si>
+    <t>[3.722999281206528, 0.7000270849080608]</t>
+  </si>
+  <si>
+    <t>[-5.97749388  0.35730362]</t>
+  </si>
+  <si>
+    <t>[3.156957610720404, 0.6069382679593808]</t>
+  </si>
+  <si>
+    <t>[-5.          0.25000084]</t>
+  </si>
+  <si>
+    <t>[2.8200466766725585, 0.49285349396058753]</t>
+  </si>
+  <si>
+    <t>[-10.0719419    1.01509488]</t>
+  </si>
+  <si>
+    <t>[3.370127799288244, 0.6999212948742162]</t>
+  </si>
+  <si>
+    <t>[-11.50298949   1.32332479]</t>
+  </si>
+  <si>
+    <t>[2.962329898069998, 0.5495563186982285]</t>
+  </si>
+  <si>
+    <t>[-5.46098928  0.298307  ]</t>
+  </si>
+  <si>
+    <t>[3.6601320218510303, 0.7397204409775627]</t>
+  </si>
+  <si>
+    <t>[-8.35424804  0.6979358 ]</t>
+  </si>
+  <si>
+    <t>[3.821558555519943, 0.7501243631232115]</t>
+  </si>
+  <si>
+    <t>[-5.          0.24999709]</t>
+  </si>
+  <si>
+    <t>[2.9097217667190844, 0.5430645538554086]</t>
+  </si>
+  <si>
+    <t>[-5.          0.24989128]</t>
+  </si>
+  <si>
+    <t>[2.5405608999589306, 0.40860610159978067]</t>
+  </si>
+  <si>
+    <t>[-5.          0.25007267]</t>
+  </si>
+  <si>
+    <t>[3.3170234269692522, 0.6229153223674578]</t>
+  </si>
+  <si>
+    <t>[-8.5103193   0.72424178]</t>
+  </si>
+  <si>
+    <t>[3.1744655308602447, 0.6146984055407834]</t>
+  </si>
+  <si>
+    <t>[-5.00131816  0.25013274]</t>
+  </si>
+  <si>
+    <t>[3.399635393752466, 0.6516650244683518]</t>
+  </si>
+  <si>
+    <t>[-8.00736787  0.64117906]</t>
+  </si>
+  <si>
+    <t>[1.7077867074611268, 0.25709359818034017]</t>
   </si>
   <si>
     <t>himmelblau</t>
   </si>
   <si>
-    <t>[-2.84129975  3.12292407]</t>
-  </si>
-  <si>
-    <t>[ 3.57192876 -1.89218394]</t>
-  </si>
-  <si>
-    <t>[2.99075498 1.99290388]</t>
-  </si>
-  <si>
-    <t>[2.9986165  1.99783198]</t>
-  </si>
-  <si>
-    <t>[3.0005023  1.99897109]</t>
-  </si>
-  <si>
-    <t>[-2.77643884  3.12564353]</t>
-  </si>
-  <si>
-    <t>[ 3.58516507 -1.84376829]</t>
-  </si>
-  <si>
-    <t>[ 3.58667377 -1.84954895]</t>
-  </si>
-  <si>
-    <t>[2.999593   1.99990808]</t>
-  </si>
-  <si>
-    <t>[ 3.58483753 -1.84827477]</t>
-  </si>
-  <si>
-    <t>[ 3.58914474 -1.83876734]</t>
-  </si>
-  <si>
-    <t>[3.00411918 1.98997549]</t>
-  </si>
-  <si>
-    <t>[ 3.58408237 -1.84703577]</t>
-  </si>
-  <si>
-    <t>[-2.80496121  3.13132103]</t>
-  </si>
-  <si>
-    <t>[3.0000873  1.99997236]</t>
-  </si>
-  <si>
-    <t>[ 3.57172716 -1.85672626]</t>
-  </si>
-  <si>
-    <t>[ 3.58189175 -1.84602085]</t>
-  </si>
-  <si>
-    <t>[2.99915912 2.00182034]</t>
-  </si>
-  <si>
-    <t>[-3.77915852 -3.28330372]</t>
-  </si>
-  <si>
-    <t>[3.00005339 2.0000409 ]</t>
+    <t>[2.98311047 2.01003605]</t>
+  </si>
+  <si>
+    <t>[2.538955035422408, 2.079582546913462]</t>
+  </si>
+  <si>
+    <t>[-2.83316192  3.14480554]</t>
+  </si>
+  <si>
+    <t>[3.1457089278672283, 2.4083306972539904]</t>
+  </si>
+  <si>
+    <t>[-3.7750639  -3.28279733]</t>
+  </si>
+  <si>
+    <t>[3.16972891692964, 2.5118182673943106]</t>
+  </si>
+  <si>
+    <t>[-3.77900303 -3.28299077]</t>
+  </si>
+  <si>
+    <t>[2.5600123075363324, 1.9399168411566348]</t>
+  </si>
+  <si>
+    <t>[-2.80490596  3.13179017]</t>
+  </si>
+  <si>
+    <t>[3.1280459048664357, 2.4131148085752097]</t>
+  </si>
+  <si>
+    <t>[-3.75161734 -3.26572671]</t>
+  </si>
+  <si>
+    <t>[3.3044121653740977, 2.52451721425511]</t>
+  </si>
+  <si>
+    <t>[ 3.58581686 -1.83609586]</t>
+  </si>
+  <si>
+    <t>[2.7768284568327117, 2.0486240301605294]</t>
+  </si>
+  <si>
+    <t>[2.99789214 1.99673488]</t>
+  </si>
+  <si>
+    <t>[2.6284651722248795, 2.219721869048896]</t>
+  </si>
+  <si>
+    <t>[-2.8060259   3.13222972]</t>
+  </si>
+  <si>
+    <t>[2.557868799538137, 1.9376708702814192]</t>
+  </si>
+  <si>
+    <t>[3.00007602 1.99927149]</t>
+  </si>
+  <si>
+    <t>[3.274551682353117, 2.65924158152736]</t>
+  </si>
+  <si>
+    <t>[2.99420341 1.99026933]</t>
+  </si>
+  <si>
+    <t>[3.2635693981322142, 2.5290333252540647]</t>
+  </si>
+  <si>
+    <t>[ 3.58707974 -1.85181491]</t>
+  </si>
+  <si>
+    <t>[3.1363573523785657, 2.338953338217732]</t>
+  </si>
+  <si>
+    <t>[-3.77951921 -3.28277978]</t>
+  </si>
+  <si>
+    <t>[2.8112402814888315, 2.2667738307763874]</t>
+  </si>
+  <si>
+    <t>[3.00032569 2.00000188]</t>
+  </si>
+  <si>
+    <t>[2.9052149689959186, 2.2048705538559186]</t>
+  </si>
+  <si>
+    <t>[ 3.5844624  -1.84839706]</t>
+  </si>
+  <si>
+    <t>[2.896516927198129, 1.4100548387169307]</t>
+  </si>
+  <si>
+    <t>[-2.79015942  3.13706073]</t>
+  </si>
+  <si>
+    <t>[3.073171542870959, 2.2687448803380197]</t>
+  </si>
+  <si>
+    <t>[2.99773122 2.00513453]</t>
+  </si>
+  <si>
+    <t>[2.4543713931919657, 2.10135178145184]</t>
+  </si>
+  <si>
+    <t>[ 3.58347635 -1.84586852]</t>
+  </si>
+  <si>
+    <t>[1.8581973801562799, 2.060520149245942]</t>
+  </si>
+  <si>
+    <t>[-2.80474428  3.13153498]</t>
+  </si>
+  <si>
+    <t>[2.6255494196771654, 2.2127208444849114]</t>
+  </si>
+  <si>
+    <t>[3.00003078 1.99988648]</t>
+  </si>
+  <si>
+    <t>[2.4231441984883264, 1.9586694155859612]</t>
   </si>
   <si>
     <t>f1</t>
   </si>
   <si>
-    <t>[-32.31861893   9.44376853 -38.14467943  31.85363326  12.45422074
-  42.12644159 -87.1921686  -40.42356769  14.13262187  29.38625244
-   9.75858847 -33.43283373 -21.11404986  19.13015855   1.30885883
-  10.01188087  -1.16104389 -20.20529824 -35.52090582  -0.17614264
-  10.17023286  25.53830307 -31.39789155   7.90969686 -23.87585099
-   4.84535361 -13.64534109   5.62320931 -11.36691877  63.24969979]</t>
-  </si>
-  <si>
-    <t>[ 3.13728312e+01 -7.03681243e+00  3.31715694e-01  1.33805155e+01
-  4.50846892e+00 -1.21100042e+00 -1.68254167e+00 -4.07802010e+00
- -1.97039640e-01  1.20756513e+00  6.41015876e-02 -3.46326216e+00
- -6.32736529e+00  1.30369192e+00 -4.11021049e+00 -2.98735956e+00
- -5.56456796e+00 -4.61935410e-01 -1.04878805e+00 -3.73178371e+01
-  2.59002899e+01  3.38944363e+00  1.63280000e+00  1.52489137e+01
-  3.40190629e+00 -2.21048197e+01  4.12909118e+00 -3.08556079e+00
-  3.48110526e-02 -3.26220110e+01]</t>
-  </si>
-  <si>
-    <t>[  0.15868735  -3.08281118   2.75569021   0.48467566   0.73423548
-   5.81994887   1.86695623   1.99600057   4.67342608   1.39903407
- -11.91210582  -9.82676312   0.46886934  -9.03865821   0.31119606
-   4.06423265   2.59327881  -0.13974876  -2.74732774   7.08687048
-   2.2276504    1.40270937   0.44962575   4.58648763  -2.9276608
- -13.11882606  -5.4884207   -0.25436872  -0.14296743   3.76579444]</t>
-  </si>
-  <si>
-    <t>[ 8.89597649e-02  2.00902103e-01  1.97743928e+00  1.79039516e+00
-  4.28708643e-01 -3.48302912e-02 -1.03086520e+00 -1.22815161e-02
- -1.95552644e-02 -1.95339598e-01 -5.11570713e-03  2.09923665e-02
-  4.21174200e-01 -5.89421128e-02 -2.34191675e-01 -5.05056520e-02
-  1.54849653e-01 -2.17119560e-01 -3.31384945e-03 -4.41746253e-01
-  3.12245195e-02  1.16846497e+00  1.45799056e-03  8.39248333e-02
- -6.85025016e-01 -3.34858360e-01  1.55433782e-02 -7.64500271e-01
-  8.48428936e-02  2.24873953e-02]</t>
-  </si>
-  <si>
-    <t>[ 0.15861782  0.04359746  0.33892707  0.15033871  0.07050988 -0.12325603
-  0.07817947  0.14617312 -0.005602    0.04672179  0.02454124  0.03359341
-  0.49043915 -0.00618245  0.00234546  0.06735721  0.11685797  0.37478331
-  0.33570163  0.0200532   0.35912631 -0.01402614  0.02361547  0.39705052
-  0.85533061  0.18564116  0.00147185  0.20413836  0.20109433  0.49301732]</t>
-  </si>
-  <si>
-    <t>[ 25.23942208  45.42546099  -8.23624508   7.89964209  -4.01176632
-  30.24510321   6.90061792 -20.92134363 -34.92803961 -31.14067567
-   3.56521439  31.99411396  -6.93744882   0.84004179  18.32176643
-  21.01765273   9.79462439  18.54641049   4.81850112  12.90876752
- -19.33069167 -14.22576889  36.41952797  48.94402568 -23.25479767
-  20.44067911  -6.06658402 -10.74608283 -16.93161893 -44.93594226]</t>
-  </si>
-  <si>
-    <t>[  4.39920745  -2.66957781  -6.28357541  10.87721453   5.10910957
-   4.95376909   0.24567539  -1.87992199  -0.22004955   9.63777711
-  -2.07842305 -24.87194492  -3.24656915  -9.18107209 -11.07488364
-  23.69758557  -1.69560745 -14.31284501   5.79077259   9.18114404
-  -2.61987134   0.04240061  -3.20589624  -8.97639085  -1.87638089
-  -4.04282166   6.92846381   7.89354888  13.08127715   3.29045972]</t>
-  </si>
-  <si>
-    <t>[-7.31121718 -0.10159669 -0.78729668  4.14027356  0.63189881  5.11157286
- -3.88953063 -1.48854595  0.60130318 -1.14399172 -0.28990397  0.66575552
-  0.15327995 -0.29360234 -1.82641329 -5.67472936  1.42716542 -1.57531397
- -0.12965278  7.81424895  5.6183074  -3.0588253  -1.39826489 -1.08737003
-  2.97395338 -1.16847803 -3.42019491 -1.03985759  1.8930632  -1.14106842]</t>
-  </si>
-  <si>
-    <t>[-0.7417959  -0.33008579 -0.21130002  0.1909242  -0.13201388  0.07922704
-  0.17211191 -0.08050631  0.01086045  0.18364183  1.10927443  0.09902519
- -0.40561054  0.7408793   0.79146504 -0.07056857  1.27973235  0.12556811
-  0.80723591  0.44292727 -0.09028888  0.47375619 -0.05730526  0.0027189
-  0.07449092  0.18094347  0.24479108 -0.11634558  0.09163607  0.43176015]</t>
-  </si>
-  <si>
-    <t>[ 2.43400064e-02  7.59669727e-02  2.70078168e-01 -4.49969596e-02
-  1.23186101e-01  1.67626081e-01  3.41430348e-01  3.09951971e-01
-  1.96450147e-01  2.47596308e-01 -1.04952725e-02 -1.69957015e-02
-  5.34889835e-02  3.89274309e-01 -8.69391212e-03  7.44007929e-02
-  6.67305469e-01  2.76670950e-01  3.78690685e-01  3.16319600e-01
- -1.97925443e-02 -3.90955031e-04  2.03239331e-01  3.10349082e-01
-  4.69567995e-01  4.98134878e-01  4.26200218e-02  6.07312248e-01
-  1.83517307e-01  4.48715510e-01]</t>
-  </si>
-  <si>
-    <t>[  0.56766715   1.4593727   -5.72262201 -14.71091644   4.09390313
-  26.78707295 -14.29195057 -39.17234984  -0.97656784 -46.96314513
-   8.11018687  13.74977755 -25.56332382   6.91407062 -26.83226796
-   0.21411915 -47.66895496   2.2407905   -3.63995652  34.51090174
-  -4.87574984   4.02131782  -4.76595203  35.29165268 -16.48377325
-  -0.69453026  42.61869467 -26.39814407 -13.37330613 -21.10446297]</t>
-  </si>
-  <si>
-    <t>[-16.38028676 -14.96147647  -0.70351155  -2.4902804    0.73110347
-   6.30631803   5.44128252   2.97925744  -0.97833689   0.58389913
-  -4.95113333   8.09138127  -0.49816319 -13.02566147  -9.9685792
-  15.51743147  10.73029451   4.56907177  13.85455203  -4.23365833
-  -2.17973752   8.92828374  -3.40149343  -3.56907163   0.68505946
-   1.62101261   6.46939769 -16.12531144  -9.35438118  24.22744496]</t>
-  </si>
-  <si>
-    <t>[ 3.51632181 -2.94587948  1.64003854  1.74164704 -1.00092831 -2.0778937
-  1.23063769  0.04952477  0.39181644 -1.47699606 -0.93100681  2.81192791
- -5.83897483  0.75586328  1.87101494  5.76722581  6.26698067  2.29007783
-  2.55044944 -0.41040677  4.91825543  6.19542149 -1.37877155  1.26551887
- -0.23976375  0.59652798  2.89909144 -0.80334358 -0.97639496  0.19204197]</t>
-  </si>
-  <si>
-    <t>[ 1.02872528 -0.04465718  0.22022501  0.42374033 -0.00801503  0.12360009
-  0.06826565 -0.14501815  0.59141315  0.00517054  0.02162354 -0.00355313
-  0.20401353  0.49193605  0.02964117  0.15271238  0.41472379 -0.02671826
-  0.77279137  0.03180517 -0.01377128 -0.03750703  0.47296157  0.4821033
-  0.33266323  0.55833845 -0.03557219 -0.03827439  0.55762352  0.05842029]</t>
-  </si>
-  <si>
-    <t>[ 1.24172325e-01  3.04926778e-01  6.11062495e-01  3.32767252e-01
-  7.31016343e-02  3.94347087e-01  2.81741972e-01  3.26851292e-01
-  3.21905692e-01  2.84919227e-01  3.33607455e-01  3.87415094e-01
-  3.07988200e-01  9.26224325e-02  5.99907629e-03  3.45990869e-01
-  2.16535019e-01 -2.38845905e-02  4.95915210e-01  3.28839287e-01
-  1.20046399e-01  6.83230516e-01 -9.07920398e-05  1.02414009e-01
-  1.77655501e-01  3.87871988e-01  2.47367658e-01  6.38043361e-01
-  2.20117187e-02  4.31576697e-01]</t>
-  </si>
-  <si>
-    <t>[  7.96707943   9.65523373   2.3653837  -35.95094602  14.4559607
-  44.74210624  29.13471213  -3.56337219  10.88809028  -7.21684213
- -20.81806109  -2.31934348  -0.08818329   8.50669055  -0.62834681
-  28.57901106   4.88440366  41.97990325  -3.38027216 -12.76103297
-   8.78356355  11.44743275   3.18570509  -9.36034354 -16.89873816
-  17.94670376   5.61495612 -37.27326251  23.95001913 -32.0803512 ]</t>
-  </si>
-  <si>
-    <t>[  3.99471441   7.14743483  -3.89635876  -2.45501777 -11.91221892
-   2.80630296  22.93217347  -0.66048904  -5.34283562  -0.38281867
-   3.94014756   0.27967287  -1.0764007   21.49940526 -12.3059225
-  -3.66801307   3.35565269  -0.5942525   12.90753753   8.84034764
-  -2.5764011   -7.12304191   2.50768319   4.09894374   8.87846394
-   9.23243812  -8.09170285 -15.6573303   -0.0520745  -20.35168962]</t>
-  </si>
-  <si>
-    <t>[-0.30923395  1.18746984 -0.32854807  0.89466478  1.6885849   0.24671763
- -0.42985662  2.12680518  0.08325577 -1.43064772  1.21365707 -1.6792431
-  0.20628501  0.24949115  0.20583945  0.90750997  1.11918079 -0.37522634
- -0.14431156  0.59570652 -0.39104827 -2.83362946  1.15541005  2.77146224
- -1.19760879  0.34263148  0.90925356  0.04783984 -0.05822594 -1.7030112 ]</t>
-  </si>
-  <si>
-    <t>[ 0.32863627 -0.16204822  0.41158183  0.07068538  0.45139169 -0.00335293
-  0.08473082  0.56188268  0.31177035  0.06592305  0.73860797  0.24167074
-  0.67395724  0.43015039  0.22978601  0.81794065  0.59691311  0.12719297
-  0.26007374  0.44617021  0.42350231  0.26879978  0.38807981  0.46485167
- -0.02515266  0.01484427  0.15256575 -0.04378642  0.10774508  0.00863913]</t>
-  </si>
-  <si>
-    <t>[ 1.74102933e-01  4.91632180e-01  2.62150220e-01  5.61459260e-01
- -3.71206397e-02  6.79593567e-01  3.27819900e-01  4.02029818e-01
-  4.64662999e-01  2.81038110e-01  5.56918817e-01  3.86506016e-01
-  2.85308532e-01  9.40119534e-02  3.38963659e-01  2.03991347e-01
-  2.42760629e-01  5.61902589e-01  3.15583010e-04  4.23755051e-01
-  9.03298389e-02  2.39449322e-01 -3.06369319e-02  2.16661854e-01
-  5.92062186e-01  2.27185781e-01  3.04387382e-01  3.22278641e-01
-  3.30797905e-01  2.62592293e-01]</t>
+    <t>[ -2.03484654  -4.75733082  24.79278933 -14.86075948   9.46784709
+ -36.37509681   3.53666792  66.35204931  -3.42994232  49.93262191
+   8.13016578   2.94213149 -24.1811306   15.03122434  -0.42376624
+   2.76954991 -97.72609978  -5.16413935   4.36764967 -28.22449314
+  -1.24637842  39.07987226  -7.92682735  14.92543827  -1.33194787
+  39.0089616    0.1055489    1.27465448 -17.98978892  10.60568498]</t>
+  </si>
+  <si>
+    <t>[22.26646105256035, 21.77813034824224, 32.765096555555104, 34.88419556504254, 27.966556934945107, 47.82272659019073, 19.304942715895216, 33.094925460105486, 15.785737253448701, 40.01904046594343, 23.403665838438602, 22.733764425981065, 33.38458624666604, 48.770695777157144, 36.33061052712867, 23.671048274844004, 49.00040515762389, 35.535886169747265, 24.370639056622142, 31.50905427627497, 34.05009698076702, 25.434185344929187, 35.89206872226538, 38.710644705066564, 31.72864655391225, 30.570018814755773, 40.45289122961933, 27.556075026163963, 20.695805386355328, 32.04520242109456]</t>
+  </si>
+  <si>
+    <t>[  2.88476947   0.92148935 -36.37734847   2.25884126   1.25343222
+ -31.46139833  15.79743948   8.68347446 -15.28855833  20.75978162
+   2.87008653  -0.50549011   4.29052519   1.25711279 -12.09469065
+  -1.61513273   3.92917883  -1.02042533 -12.77135348  42.22713952
+   7.70661462   0.50277462   2.8516801   -1.90856395  21.24599893
+ -23.55490614  31.50610476 -16.27287517   9.08605349  24.4142089 ]</t>
+  </si>
+  <si>
+    <t>[23.794832558618662, 30.370101056026275, 21.023387152713088, 22.218609541894953, 43.43525179115956, 24.96792658861376, 26.954409941902504, 30.292304328778496, 8.934883122433943, 13.389230778862055, 21.430817175993376, 19.80789514992902, 17.880426382144407, 24.819017512909568, 12.948909128962507, 24.45479014104574, 29.25330218008363, 27.631904995555892, 30.955940587927113, 33.42302310401693, 21.33912823661784, 20.877742564604645, 30.2842748534202, 24.783885888141477, 11.984268268474473, 20.690088561982243, 26.316277151046798, 15.35689129467735, 21.774669759123828, 23.471655663575465]</t>
+  </si>
+  <si>
+    <t>[ -1.95365453   0.84142562  -1.6513404    0.7137924   -3.38871597
+  -1.32584581  -1.65170413   9.42522539  -2.67892013  -2.16026788
+  -2.58141604   2.62240893   2.67182609  -3.6092006  -12.39618488
+   5.51638153   5.59549852   0.61934676  -0.71288224  -1.69671417
+   0.30496495  -1.33406985  -0.13730919   6.70275299   1.04640853
+  11.05365107   4.87391531  -5.33076887   0.2015457   -1.74563653]</t>
+  </si>
+  <si>
+    <t>[8.664859911417329, 6.609890295304799, 15.670608556243398, 11.689089299250012, 7.225776647417757, 11.09117942543859, 10.897489343490852, 8.827734297031444, 9.318870086586463, 8.782943615172124, 16.532430520120982, 9.840838467040617, 3.7662535042386573, 7.615300051720561, 11.267513389512608, 13.534281817970347, 14.441936456223587, 12.372979223903727, 12.787839511693322, 9.48943316804334, 13.04674934248799, 15.596555377897227, 12.275690245633752, 7.441211399108394, 12.16720716532855, 13.969400893964877, 17.288518968393973, 14.566421973173176, 7.248903282684068, 14.826349132708708]</t>
+  </si>
+  <si>
+    <t>[-3.35222923e-01  1.35024729e-02 -6.53995694e-01 -6.50136163e-01
+ -1.14180631e-03 -4.89307621e-02  6.11002769e-02  6.41622652e-03
+ -1.70209623e-01  5.97837816e-01  9.01926756e-01  1.21819274e-02
+  6.59371587e-01  2.21279159e-01 -2.82943017e-02  8.67502517e-02
+  1.00589442e-01  4.64016265e-02 -8.37526955e-01  1.37780529e-01
+ -6.97931528e-01  1.35276109e+00  7.57409072e-02  7.80356468e-01
+ -2.91135403e-01  1.01437698e+00  3.03188456e-01  3.35327885e+00
+  6.74631312e-01  1.47228275e+00]</t>
+  </si>
+  <si>
+    <t>[13.288671388988387, 2.1547929910417873, 7.555059107398541, 1.6924002967043583, 4.649144509170649, 3.8246732913436006, 1.6797267508165763, 2.305694624724915, 2.910426294528598, 1.3666939146722248, 4.778708741672967, 4.493219012146427, 3.7463013612737956, 2.9354320767581203, 1.3026046371277993, 1.7780210617804364, 1.6240303320288345, 1.5949163480579465, 3.72005962983816, 2.089119029812421, 4.652142713711411, 7.861876999094682, 2.20334654646154, 5.252320916745197, 6.552215239776119, 4.787539410904058, 1.6430191267116319, 2.0540414854753966, 4.356974708324306, 3.0469671819387685]</t>
+  </si>
+  <si>
+    <t>[ 4.43598186e-01 -1.57380443e-02 -1.61225598e-01 -8.61588366e-05
+  1.14857527e-01  2.47426729e-01  5.46470997e-01  1.88145526e-01
+ -2.48218241e-03  2.25487455e-01  1.63942545e-02  4.01304575e-01
+  1.22473538e-01  1.99932625e-01  1.53688781e-01  2.21498715e-01
+  3.42841479e-01 -1.68223434e-01  1.77084843e-01  1.70831536e-01
+  1.25466974e-01  2.65960144e-01  3.98300720e-02  6.42700586e-01
+ -3.96153654e-03  1.06000778e-01  3.96796029e-01 -1.85759155e-03
+  4.76420683e-01  4.91838272e-01]</t>
+  </si>
+  <si>
+    <t>[0.14529456170663227, 0.1552472244983504, 0.307339279687333, 0.2378532550605943, 0.20290728315593268, 0.10285888810157501, 0.33969360906825957, 0.26386323417259155, 0.09393439837062124, 0.1972826939749351, 0.15418048450643487, 0.19325300472762666, 0.2909711383363637, 0.3373874887454535, 0.17596827530680473, 0.15194232785821404, 0.14102622696291978, 0.5163512916885827, 0.18694171163596324, 0.16691410530066783, 0.2016545538650807, 0.21159793539143112, 0.1635134159087426, 0.25735295116563095, 0.35633975538307233, 0.24976552125489085, 0.1361647019172894, 0.2560857424355146, 0.16293120487871507, 0.41692239948582066]</t>
+  </si>
+  <si>
+    <t>[ 3.55662156e-01 -1.06626753e+01  1.39449276e+00  4.49837161e+01
+ -5.28811500e+00 -1.46574446e+01 -2.39093603e+01 -4.14083328e+00
+  7.21896388e+00 -1.17802120e+01 -2.29936316e+00  8.02326781e+00
+  1.37886533e+01  1.33794256e+01 -3.38324595e+01 -2.31041571e+01
+  7.62666156e+00 -2.24359409e+00  5.17040645e+01 -1.18464170e+01
+  1.29366863e+01 -1.66637426e+01  2.44367771e+01  2.48629827e+01
+ -2.90020732e+01 -1.34743076e+01 -3.18091352e+01  1.60558997e-02
+ -1.23252801e+00 -1.84205445e+01]</t>
+  </si>
+  <si>
+    <t>[36.26210565509046, 40.404510546851526, 28.63616811529991, 24.177102083160097, 44.62030130970905, 34.17510231893552, 29.798556342278633, 27.515579148431957, 22.261926843707943, 34.986204853279865, 27.511324168706828, 24.764301042288217, 14.42339402142389, 34.5092098110255, 29.718018469746536, 21.276746973978874, 22.855467953299897, 29.21827980997464, 26.65189643117336, 33.40786595789217, 23.364108323291447, 15.73056879020737, 24.465181250382035, 39.62564030664403, 28.029926765501916, 31.982455367142713, 29.092514818504583, 30.862615336421715, 29.83927436101282, 20.247375812299147]</t>
+  </si>
+  <si>
+    <t>[  8.72659106   4.43630354 -14.45589689 -19.27561804  -4.34299901
+  -4.8889983    6.30545498  15.64277628  -8.74752617  10.15143976
+   8.92356349  -4.18666465  11.98397053  -9.39222434  10.51905888
+  16.83891309   0.60655681 -17.16970258   1.46885817 -16.50046568
+   3.19347538 -29.62116399  -0.76237167   9.20611853  11.62624487
+ -20.38022869   9.21193914   3.08005961   1.80313482  -1.23218784]</t>
+  </si>
+  <si>
+    <t>[17.11541906555854, 23.88965455925918, 15.722475809657297, 9.715093155332369, 7.108879696317175, 11.98315307315332, 24.31314408216911, 14.727253192914079, 9.241084375188153, 21.610036091472796, 10.796556846245716, 26.64705369161344, 16.142518114283988, 22.08464020190124, 18.442769075872224, 24.98433579676176, 11.428388665943714, 17.830088708683657, 17.966077559879754, 9.031635626124467, 16.236083283785547, 16.937227681310077, 14.102474488727669, 10.821892930992295, 6.62406639094786, 15.558867191458667, 11.972550801432398, 12.703980429794928, 27.814069978070115, 15.52134207961344]</t>
+  </si>
+  <si>
+    <t>[ 2.67943788  0.62186412 -1.57308101  4.36166405  5.63069507  7.60769651
+  2.67564409 -3.76384002  1.27038415 -0.89737232 -3.67287712  1.71765949
+ -0.29056668 -5.35682282 -0.28394547  4.79052372 -0.60707317  3.69129084
+  0.13884655 -3.41536477 -0.5354406   0.1860187   1.05364683  1.08731747
+  0.50985444  0.02041956  1.2518421  -3.67941957 -0.49656553 -1.56769514]</t>
+  </si>
+  <si>
+    <t>[5.42794894950087, 4.7694356895030765, 8.03598466539396, 5.420349385544087, 4.972850013730211, 4.6920734154289025, 4.166499531863856, 4.886944429458465, 5.895884296409519, 5.869104200355339, 4.101105445903289, 6.15792692972589, 3.3794276447774725, 4.319894037576022, 4.72023336180447, 4.106268696467427, 6.374879214400739, 4.303029056754061, 4.243376751987518, 4.729055754494798, 3.715849071575032, 7.357766046348929, 3.906096185247017, 7.7160440961785985, 5.438225588612431, 6.103883307372226, 5.808345948407523, 8.406676337399153, 5.6512475681106835, 6.989218831816602]</t>
+  </si>
+  <si>
+    <t>[ 2.40045799e-02  1.90807533e-02  1.53892691e-01 -2.84846678e-01
+ -6.29568899e-03  4.38047664e-01  5.24875449e-01  7.30118350e-01
+  3.73129873e-02  2.95954704e-01  5.11972650e-02 -8.55565494e-02
+  2.46548814e-01  5.72835350e-01 -2.97831224e-03  8.36607935e-01
+  1.11981861e-01  1.25930939e-01  6.26956680e-01 -1.40643772e-01
+  1.02105575e+00  2.80748351e-01  5.84629402e-05  6.40556031e-01
+  1.00323455e-01  3.94335529e-02  2.30503687e-02  9.42599028e-01
+  7.83598287e-01  7.07081711e-02]</t>
+  </si>
+  <si>
+    <t>[1.401585050164614, 2.2128907978453247, 1.1972366212559375, 1.636218178995569, 2.2333160102159946, 1.3022757295195035, 0.8474412604473774, 0.9445689547622431, 0.7519509565573871, 1.1528937138307243, 1.7149353769556113, 0.7085370421677549, 1.0370932242235686, 1.476059105556082, 0.7963140784737096, 1.9314229803696168, 0.5420213491283823, 0.4990636444028504, 0.9536311025680158, 2.0019375707621467, 0.4243303780006944, 0.6555827493927467, 0.5041771524940161, 0.29654748056822, 2.025238089049554, 1.323995945220097, 1.593128511415967, 0.7521909447354758, 0.681747094422723, 1.3919764202506053]</t>
+  </si>
+  <si>
+    <t>[ 0.059556    0.25444283  0.54621617  0.26298247  0.17224283  0.3734841
+  0.38882635  0.32405324  0.46257455  0.00466368  0.57843577  0.09927886
+  0.29385259  0.64375204  0.29395741  0.03570694  0.40620668  0.07703422
+  0.03523982  0.22054925 -0.07121761  0.61202614  0.41170617  0.14727691
+  0.33461093  0.36973594 -0.02565978  0.00697264  0.16960857  0.37544264]</t>
+  </si>
+  <si>
+    <t>[0.2372661975559321, 0.3295908362223074, 0.47663341331175035, 0.24969052949793796, 0.17232770266437486, 0.2866914302660246, 0.46608468285299953, 0.7136720352122256, 0.2655861252009128, 0.27356373576595444, 0.23469332098830842, 0.22614825918358405, 0.7396825627069396, 0.26420342559736326, 0.20072299604498944, 0.2922001728338733, 0.41684651141043877, 0.5306129603443274, 0.22078419129243504, 0.2819999294646295, 0.5688339379962123, 0.2627898804129892, 0.18579953750523623, 0.16916723062402708, 0.6082702080098095, 0.37959062418649864, 0.34649814566386933, 0.22346417651494765, 0.6186565057064581, 0.5119338065172601]</t>
+  </si>
+  <si>
+    <t>[  6.49591184  12.66198216 -15.55873001  -1.61466327  17.44426984
+  -3.06604255  11.96721593  37.22622017 -28.40458926  -4.57137486
+  -4.84295909  41.22137883 -26.91277467  -8.71354401  -3.20548049
+  58.39915839  -8.95428353  14.23176201   6.84164852  -0.13290738
+  -8.02387763  -5.2241805    2.17659362 -15.8946644  -11.74462546
+  -1.74846477   7.14474694 -23.47784284 -31.44302322  38.31480743]</t>
+  </si>
+  <si>
+    <t>[30.516737290965093, 33.99509917715845, 27.539063064493565, 25.636376916793477, 35.11147623272362, 20.118206013464285, 18.35260132789811, 21.72267206780863, 27.622435815998035, 19.92696778066906, 31.53370671946607, 27.890222574242767, 25.101700042491288, 30.435019337631026, 27.885147850268694, 29.21900292233718, 13.073960514192706, 29.972103158869903, 19.664405958942165, 20.81335849529227, 32.17567230306235, 28.588139165103357, 13.832096465424248, 34.814352425961985, 23.67105541595814, 28.738884623586785, 18.463508003369164, 32.735926486782645, 23.730566180153737, 22.057138051840074]</t>
+  </si>
+  <si>
+    <t>[  6.79992558  -1.57224254   1.96022811   5.96476812 -10.7272477
+  -7.04596735  -6.85005427   3.58132432 -10.32415305   7.15198041
+   1.01802805  -2.80475557   1.01249096   4.51902817  15.25852381
+ -26.96998894  18.39899338  -0.03923387  -3.79603753  -7.35986899
+  -4.57490454   2.82285434  17.71596337  24.9454887    0.50809095
+  -6.65483544  10.64297402  -2.96886467  -1.44518972   5.12348943]</t>
+  </si>
+  <si>
+    <t>[16.42979155125517, 12.359266576463245, 15.52083780552224, 11.185161357708218, 25.52672722178524, 20.79005031140011, 14.695177692760256, 15.926931901903254, 15.472084261200177, 9.788053402739939, 18.336211952337262, 24.690893771908232, 11.642504255836736, 13.482055848186448, 23.88275267610666, 21.112328602286464, 17.70868545909004, 20.074868002034815, 15.111759222612399, 13.081125260687658, 9.178850417548725, 21.69150378771338, 15.947878586519373, 10.988299241895808, 6.589050116072022, 13.186786110682482, 7.880604657699745, 13.838756586402763, 18.423361438161898, 18.281327199415237]</t>
+  </si>
+  <si>
+    <t>[ 6.29786326 -0.41623128  0.87974858 -2.75260179  5.96589227 -0.88606361
+ -2.33877526  2.34529427 -1.06514183 -0.40172012 -2.02056325 -0.48769488
+ -3.37582556 -0.2178267   2.00696182 -1.46815935 -1.61898177  0.12230257
+  0.1706428  -1.69345401  2.83734472 -0.90972828 -0.9973497  -1.82117086
+ -0.04652713  0.17279725  2.9490774   0.48063636  0.41634041  5.35749555]</t>
+  </si>
+  <si>
+    <t>[4.075541370185814, 5.1832080285692745, 4.909663358148096, 2.9280994928344652, 4.945761771924846, 10.454634000002835, 8.138606068089848, 7.710891433275823, 6.071065526373223, 10.216816026763134, 3.633249247747316, 8.342384104625935, 4.281136399241213, 7.352282428160757, 4.131166468578182, 7.01069099316337, 11.230458603122962, 4.731379975678935, 6.3527411863986005, 4.461910182143133, 6.390881798238425, 7.391344917175158, 4.251344424997288, 5.763272740328879, 6.161172196705971, 8.40273998240769, 5.007454296230057, 5.922646861897909, 7.615437134722141, 6.355795683632263]</t>
+  </si>
+  <si>
+    <t>[-0.07104473  0.41185509  0.03105038  0.47080802  0.43402933  0.47079105
+  0.46606836  0.4736593   0.44109371  0.50282297  0.18622129  0.46185053
+  0.07485055  0.14282124  0.31613085 -0.02555914  0.18889402  0.22469085
+  0.23193746 -0.00197698 -0.05888804  0.22050312 -0.04524466  0.56928696
+  0.28068181  0.75827724  0.17835911  0.59950936 -0.02133165  0.15003873]</t>
+  </si>
+  <si>
+    <t>[0.5151399937712331, 0.30157669512415763, 0.439827685717568, 0.604669846285159, 0.34163357809918327, 0.32755575041007606, 0.8768871038636971, 0.4886872784628961, 0.4918727439067742, 0.4922535747553684, 0.9212795314243104, 0.338250405977046, 0.2141251273718866, 0.5581519090319189, 0.6807317567977768, 0.430704453989867, 0.5172625655020618, 0.21843039184366528, 0.20099013931492507, 0.5161802311852347, 0.7844401076543526, 0.4196115094306864, 0.48570812588282725, 0.5428096843579927, 1.105962797310658, 0.48410759986282054, 0.33823784700223825, 0.2426989059883518, 0.4153600891847231, 0.32336511430438547]</t>
+  </si>
+  <si>
+    <t>[ 0.36493658  0.77225344 -0.02028718  0.26156382  0.10688637  0.20713655
+  0.5295049   0.1392722   0.42281751  0.46962395  0.04452106  0.79193705
+  0.19223576 -0.00299421  0.41191213  0.41898229  0.23327938  0.00228996
+  0.50227281  0.54734402  0.00901081  0.19978666  0.0146007   0.1923873
+  0.43309319  0.30724732  0.33917119  0.37688316  0.49265212  0.49276728]</t>
+  </si>
+  <si>
+    <t>[0.1986700406184269, 0.2263931400615461, 0.22732151439484524, 0.20507287099922733, 0.23816806306955735, 0.14959291835716873, 0.19543111952068248, 0.2074041741301399, 0.1582292604775266, 0.20344990500342788, 0.19375935593046256, 0.2539746857388071, 0.1821098188465668, 0.19508746093593402, 0.2223521979585609, 0.19211721956114325, 0.16427598436345342, 0.24168345716658843, 0.19099066960281436, 0.21680455795677675, 0.2709718705067832, 0.1708901052271555, 0.2243261574118023, 0.18680049500228016, 0.20171450406442373, 0.1444504836382606, 0.18653527841164277, 0.1870909255866321, 0.16461215824922865, 0.22740410078621184]</t>
+  </si>
+  <si>
+    <t>[ 16.94741158   3.69477836  -5.47075723  21.90586332   0.64021021
+   3.96851647   8.17991104  13.88699926  31.86329678 -25.01263328
+  26.41524622  -6.50227138  36.76876269  20.9871082   -0.98772458
+ -11.46415181  -5.14424759 -25.1427248  -21.3844474  -16.45337277
+   5.05466882   2.28790387  24.09860706  28.47863797   1.61023009
+ -47.05737603  -2.89689815 -29.34488745  -6.48461632  36.14123231]</t>
+  </si>
+  <si>
+    <t>[30.441427136670423, 20.214695450127966, 31.86030412303992, 18.667119922786043, 17.76505898257733, 25.069781701465427, 19.11254346596606, 22.631187459078195, 22.034105299417252, 31.53175285120975, 21.849702505175728, 9.791073478788318, 22.30962819316715, 16.61493037150872, 20.826694680733475, 15.393697770345895, 29.614811308044892, 32.5077349360684, 21.99214030924082, 13.63513900457096, 33.97160095045417, 22.85277330237635, 23.856223098988607, 25.016312827887575, 18.371501334910004, 17.973929417227065, 25.665969284660743, 25.300635373903013, 21.296252145154007, 20.442728994695422]</t>
+  </si>
+  <si>
+    <t>[ -3.48781048  15.46341447  -4.35589302  -3.48199725   1.40954334
+  -9.34366792  -6.42145104  -4.51522777  -9.11572103  -6.56358151
+  -5.52046756  -8.39126175  -1.72213161  -1.06783989  -0.03500661
+  10.45841215   0.83159305  -1.30804978  -3.09653232  -2.82633484
+ -11.59498705  -2.19705289   0.04383513   5.7346878    3.43339791
+  -3.17180981 -12.07861366   3.11527895  -8.16232581  -3.84842437]</t>
+  </si>
+  <si>
+    <t>[6.544887743663009, 13.182935650737189, 6.28291732107246, 12.225027254511481, 7.738437450278716, 7.857486729779803, 6.549379827539087, 8.78605468788086, 7.786916710149811, 8.844605683704987, 12.886943211021391, 13.725241892362085, 8.25521458393859, 7.908856284578096, 9.19957135981478, 10.212702573225933, 10.807848587780203, 5.9056863325293145, 10.396155869101879, 9.880353299625087, 9.11685696094682, 3.8602061147987214, 10.926138938167087, 8.135079757951079, 8.470685030734943, 7.6102252192326025, 8.14393316448889, 10.754641375631682, 9.873698122951332, 6.475864158792615]</t>
+  </si>
+  <si>
+    <t>[ 2.33564571e-01 -4.95375808e+00 -4.20077391e-03 -2.39741207e+00
+  1.70869208e+00  2.13522999e+00 -1.42364267e+00 -3.04886787e+00
+  1.41668297e+00  6.87310138e-02  1.73917854e+00 -3.09632978e+00
+  1.97345904e+00 -2.28885767e+00  3.01063936e+00  3.60024314e-01
+  2.13610239e-01  3.09515337e+00 -4.10738218e+00 -2.57184837e+00
+ -1.52624317e+00  2.84612987e+00  2.66324073e+00 -2.26324747e+00
+ -6.95670648e-01  7.96052346e-01  1.38106637e+00  2.23138391e+00
+ -7.68149005e-01  6.74285561e-01]</t>
+  </si>
+  <si>
+    <t>[4.776621905362215, 3.008693907750756, 5.445681557824096, 5.61892292344616, 4.591120503918715, 4.255538643693269, 3.317727706632539, 4.415139328271842, 7.141906895977406, 5.995873378765076, 5.362459813512311, 3.6138635487540527, 6.886580065428528, 7.324599025717134, 4.56508365005313, 4.708536609300226, 2.5734955036742115, 5.683554025546016, 4.679609669668525, 2.0251261707554207, 6.259194721264357, 3.456677335864633, 4.129868556860344, 3.405753708216118, 3.364219994395413, 5.565376789511833, 3.32282215181255, 2.9099855906493715, 2.698034819998063, 5.364968587736791]</t>
+  </si>
+  <si>
+    <t>[ 0.09683223  0.24016636  0.44523682  0.80415723  0.22409869  0.45197323
+  0.93155218  0.28693497  0.07956683  0.85781582  0.06980266  0.72010155
+ -0.17369539  0.03399212  0.12627534  0.75286185  0.11479479 -0.07467209
+  0.03099773  0.31516802 -0.08690134  0.3517473   0.28479145  0.85436721
+  0.42329336  0.5108117   0.45100085  0.05964624  0.00396739  0.40115512]</t>
+  </si>
+  <si>
+    <t>[0.3011840513578858, 0.3710170850023815, 0.2866227276052782, 0.8122331725332589, 1.0989727025118052, 0.2782476116033399, 1.0572459549824107, 0.2570769592836683, 0.8347049825601728, 0.7768275410005465, 0.6307346617825005, 0.7186822297153689, 0.5928587608152543, 0.6147820173133026, 0.7738686337218331, 0.27961489074483653, 0.6565071898158765, 0.6756947233149845, 0.45436308105694323, 0.4630936381049424, 0.4985479800030312, 0.7200641267125334, 0.8065689796593806, 0.8845662985414315, 0.39400176720241753, 0.2377367815447701, 0.6068450259588554, 0.620856136253894, 0.6413102386475552, 0.3039266617821485]</t>
+  </si>
+  <si>
+    <t>[0.23606802 0.21285731 0.51092204 0.01620931 0.56839521 0.36178435
+ 0.14710109 0.23658542 0.74194103 0.41257521 0.09271375 0.30124792
+ 0.35201137 0.21370093 0.04621594 0.42706448 0.4682325  0.23807144
+ 0.14202982 0.41110875 0.3541799  0.01417387 0.33872614 0.16260753
+ 0.46845491 0.24496148 0.55125325 0.38854951 0.56071783 0.59299438]</t>
+  </si>
+  <si>
+    <t>[0.19607870049460727, 0.21785479446731779, 0.23358452844984212, 0.12754998392397207, 0.19387802320637204, 0.1964246830023567, 0.11055440624355678, 0.1528819079568524, 0.23539465685418912, 0.11358256727236245, 0.260028987628043, 0.14661511867557322, 0.09507314406761151, 0.20199574123337255, 0.19557230402901804, 0.2300665473266729, 0.24249252120981135, 0.11194649612156239, 0.2802623118545072, 0.18640643847886382, 0.2819850180880754, 0.1746154904428703, 0.22386597385263668, 0.26687167264230294, 0.17305141886134714, 0.20308287735290106, 0.17812863179731317, 0.18104435452286263, 0.20557181934874788, 0.1839196572626865]</t>
   </si>
   <si>
     <t>f2</t>
   </si>
   <si>
-    <t>[  -5.46983821 -142.20027129  -40.29887223  380.80407572  423.13459606
-   72.95177242  -33.97887553 -102.71028745 -500.         -352.06886079
-  277.26759721  481.14379301  -37.25267442   19.86738378  466.91883405
-  205.61208923 -500.           22.91334344 -295.62744938  -32.73983967
- -188.73157907  433.29970725 -304.74870516  384.1225782  -278.59695623
- -449.75195691   11.25989547 -290.82279426 -312.24229357  419.93766038]</t>
-  </si>
-  <si>
-    <t>[-169.86318934  222.7419454   -26.82439556 -432.08808529 -498.24522172
-   39.42094195 -111.2972499   -31.60662261  433.02902874 -492.71874717
-   51.68295006  209.76875906  437.6712004  -500.           11.98422824
-  -19.071455   -225.25863017 -142.92273952   77.46857865 -314.63714419
-  418.35518225  -41.66164682  440.20281937 -498.44677884  396.11020328
-  375.51110864 -264.22910061   -6.68438236  389.72383686   94.50296935]</t>
-  </si>
-  <si>
-    <t>[ -32.51551859 -500.         -279.3349087  -305.74603079  418.80246987
-   21.71053384  457.26557929   75.32623123  250.83339184  424.26688155
- -108.17750885  378.43137294 -289.51434975  413.61488811  420.93633573
- -112.34617559  -40.91620578 -270.2211101    -7.63084017 -251.62135209
- -298.44312084 -198.43094964  107.81627884   63.38228653 -154.47845145
- -112.82883191  -25.77433448 -498.5831333    35.97708746  446.81621048]</t>
-  </si>
-  <si>
-    <t>[ 434.45379133  171.90041801 -261.365056   -111.26395061  180.58970781
-  396.08452007 -271.132538      1.2259692  -153.28370868  203.99101254
- -293.62269321   48.92896037 -291.22042312  410.13058682 -222.40095708
-  184.22114231 -151.23474692   26.54747551  411.92338921   77.6860763
-  189.6384941    50.45183822 -325.59956077  193.4088293   212.96931171
-  -56.08851986 -295.17761076  431.67170715   75.26482601  -39.69216088]</t>
-  </si>
-  <si>
-    <t>[ 188.21107039  197.51081596   46.80868746  398.40224725  408.19711369
-  122.1294068   181.25540877 -292.11796575  201.7596943   189.78888963
- -259.11313086 -115.16573787  234.15984115  394.05703821  395.61853
- -210.71518068 -293.10940952   70.22153209  221.23706835 -500.
-  392.31019968 -498.26376912  407.07361933 -300.0186225  -325.77588103
-  371.9867715  -496.73317698 -291.14339013  -22.06703176 -277.65643765]</t>
-  </si>
-  <si>
-    <t>[-309.62419894  176.45322636   15.21777584   52.40654841  200.24162348
-  382.20797541  -27.54130239 -306.075779     98.24572407   76.84608407
-  164.41008324  -86.3131657   411.21946384 -285.93123527  319.6865956
-  401.31280404 -296.20637711  232.70722311   32.1259662   -48.85774783
-  103.71473774  371.57191334   88.22658702   52.05803152  169.10845839
- -144.73308027  448.12124989 -127.27995017   90.03588503  147.47654216]</t>
-  </si>
-  <si>
-    <t>[ 366.17676313  408.92646304 -296.35702457  474.44673292  369.0838561
-   70.87235909  -57.73654989  413.74679288 -116.01130165  412.43247202
-   72.26599115 -333.18293576 -279.41903533  161.76656694   10.38702281
- -302.3594396  -300.91662568  -98.58387097 -124.48744756  393.25301451
- -158.78829253  412.64576321 -467.99003162 -118.86109083   -9.11640011
- -470.78143264  428.20407565  -88.78121774 -254.34535975 -214.3072042 ]</t>
-  </si>
-  <si>
-    <t>[-323.51611173  188.02076311 -103.53870876  211.00165556  -87.87488195
- -310.86292207 -134.50542493   75.57497977 -329.79358477   35.69347492
-  -64.21136881  434.80364723  403.97868555 -298.19448012  395.06662782
- -498.23245671  198.84142854  140.57381977 -272.32505246  416.41834437
-  134.11781101  232.41328994   57.90494261  445.03077892  197.18401626
- -125.28402765  196.08509796   29.26925387  205.4801203  -270.75132992]</t>
-  </si>
-  <si>
-    <t>[ 211.0218178    73.76944442  168.45669636 -500.          404.17976362
- -146.21147823  390.51351436  429.00901949  419.7012124    18.1559631
-  203.8765452    -5.95057745 -197.45823472  440.95704945  444.87595245
-  413.03491108 -120.62865471  387.13519898  -88.30252947  226.64314826
- -307.59162897  430.17431077  430.7066397  -307.58867632  458.0276426
-   68.43695954  431.57082487  381.92047815  190.39313128   59.43749337]</t>
-  </si>
-  <si>
-    <t>[ 183.78633577  428.53066326  423.93716297 -310.55425369  433.06663896
-  186.70754104 -121.65592132   52.09224347 -116.58303183 -287.65213678
-  -25.61564555 -117.54752999  411.45492686 -294.05312854 -305.8074999
-  421.91005698   65.59550349  425.46549467   86.23493277  392.24847223
- -499.67471244  395.41344764 -316.46888712  -40.33266179 -304.33743928
-  168.00147639  409.46883074  392.15841135  406.90937803  400.45459215]</t>
-  </si>
-  <si>
-    <t>[-319.20501569 -128.57336319  425.91762191  372.6875735   180.36070694
- -500.         -146.5209615    63.88767042 -322.54126663  417.50732502
- -323.59211645  397.13571801  145.22300089 -322.15746412 -128.98291112
-  232.44851203  220.71112488 -312.90497729 -481.49135783 -413.69018312
-   89.72894406   61.57946276  394.16699636 -450.19138152  215.92849225
- -500.          168.72812131  113.53272048  397.50614556  -42.48444298]</t>
-  </si>
-  <si>
-    <t>[-303.21360379 -120.80330924  442.90150184  232.57632301  425.2376188
-  247.72074523 -188.42972446  279.39031309  386.11111297  -41.2913389
-  185.43720122   88.15714192  424.41915035  447.43667147  238.75821185
-  399.17946359 -295.39178231  126.47623857 -133.11814178  461.12135623
-  435.22588752  415.60631121 -500.          207.65217115  226.60737169
- -270.36668422 -151.2507489     5.30512428  164.18226149 -350.92978292]</t>
-  </si>
-  <si>
-    <t>[  45.46834303   15.25876442  438.7440454   395.30478989  175.85422211
- -138.88151101  -62.30675098  364.8583373    50.39767827 -299.93566041
-  241.97225477  177.0186342  -213.51363834 -303.45798993  238.8804286
- -284.5538561   445.29334757  213.19939486 -307.53838953  404.06915206
-  -88.64222105  439.89366352  438.14634802  244.12428757  378.86161394
- -146.37963643  226.15540027 -143.75606746  415.46720345  398.67268455]</t>
-  </si>
-  <si>
-    <t>[-324.35779787  390.69524206  446.41859076   57.69435804    6.60884046
- -336.92241237 -106.64656287   79.51130481   86.88558344  421.85483126
-  392.79259003  193.39281786  411.38977184  405.25099408 -301.24679037
-   29.84787247 -134.06688525  216.1589284   195.61367048  406.24247454
-  383.05748624  427.76901945 -269.14030317  -55.80000036    2.82052091
- -266.84663194 -313.37980312  198.31043693 -321.28823126  381.66602692]</t>
-  </si>
-  <si>
-    <t>[  43.26332872  198.19028288 -319.13681553 -282.58111126  388.32250563
- -280.46909241 -266.52353534  425.18744898 -480.76580368  -19.5203374
-  -90.7042746  -110.50021088 -274.47765618 -266.22858199  411.80808605
-  440.80271613 -285.57630765  424.95653021  419.6443145   189.01809862
- -111.64595921 -189.51000592  434.40143909  423.0772977  -500.
-  -30.43891585 -314.17031191  389.09630033 -333.00087131  444.06275472]</t>
-  </si>
-  <si>
-    <t>[ 142.16863837  378.57573853   46.28550608  417.94882249 -305.8528998
- -147.39912712   52.43115177  416.727297     84.39795664  372.88367728
- -273.87830862  183.41545602  280.40356824 -169.01500019  235.72575583
- -112.7922949  -321.75958464  395.69923194   40.26613     395.23626037
- -290.76538903 -342.70827562  328.64455049  454.03276068 -311.79953825
-  407.55065512 -338.4923132   243.48444745  412.39883803  228.18553506]</t>
-  </si>
-  <si>
-    <t>[ 255.49732836 -500.         -494.69714379  419.5514739   464.89349535
-  412.53487681 -290.51777848  439.71518782 -497.0737617   -12.98970813
- -286.97063774 -500.         -266.8103256   410.38095628  -69.12430601
- -498.616033   -137.70343783  128.16010208 -496.93772617  253.96199015
-   28.92320332  427.17507177  411.31361561 -303.82407256 -105.22776373
- -327.47135696  450.86203021 -312.41676068 -279.62764864 -115.13356368]</t>
-  </si>
-  <si>
-    <t>[  18.64819481  410.69237792  397.3405454  -305.61791749  389.15646152
-   -3.02978193  488.50559448  400.93211547  367.82990848 -498.14783586
- -317.28673531 -244.54588332  197.15088183 -500.          181.11825806
-  -90.60605486  378.10709847  454.65379623  407.20308847 -498.13113198
- -123.89151288 -284.59370639  406.11473235   88.24358929  210.933908
-  427.95517903  365.76116847  394.69414544 -499.95358655 -311.81466168]</t>
-  </si>
-  <si>
-    <t>[ 419.16576559  396.97205093 -294.01413715  395.62495651 -298.7563926
-  411.58989109  212.83136812 -288.03020011  418.80639359  449.40218404
-  100.1420526  -272.81453232  146.80436187  460.97977534  118.70016761
-  213.94434339  391.88839696 -310.21670087  434.74006521  428.47823639
-   17.36680819  355.29322233 -296.21723806 -256.14845606  418.59658508
-  188.35350739 -297.6891549   -77.74428202  234.35690841  399.11392864]</t>
-  </si>
-  <si>
-    <t>[ 412.59794453  406.71258246 -499.27790276  419.96547611 -303.3425548
-  417.53011214 -318.24580243  197.41226084  426.46449457  396.29094302
-  414.12990062  431.36144151  436.03824425  440.75419436 -305.72190148
-  430.18834497  440.60562829  434.45494975  413.81937561  394.10500312
-  407.24946032  426.38027186  419.10433522  183.94453029 -302.46078443
-  429.37976327 -133.47229086 -277.60930282 -308.38189954  445.79923373]</t>
+    <t>[ 160.57188991 -193.85312203 -164.67538052  393.9261858  -113.61909213
+ -500.         -304.74169405 -120.57126695  112.43682868  384.92304496
+  152.22599732  425.77566057  125.52391137    9.65986564  467.08217817
+ -327.16821344 -272.08120343 -218.71672391   24.19919762  224.6227269
+ -314.52377214  461.6069543  -279.75738794  102.98746235  451.68178834
+  219.3990564   -40.28626411  444.16002073 -424.04704243  409.02012045]</t>
+  </si>
+  <si>
+    <t>[249.17807545155293, 252.3868728564616, 282.044464669238, 288.984925119454, 253.83410479538378, 352.8453206068407, 214.44922896235215, 310.21053419677946, 276.72229624114453, 220.66414187430496, 239.9071172197042, 216.7392788429745, 274.8870626760735, 355.9048685111085, 304.9730465702415, 246.92783068210682, 291.47022930235545, 217.84393837258023, 266.6524424825417, 291.5872073504022, 250.71251175112707, 255.90719219424986, 284.9752321153149, 242.213128123394, 315.1186395702522, 267.9561420377227, 287.09974810071253, 363.2205495167863, 340.6575271913436, 189.639051516876]</t>
+  </si>
+  <si>
+    <t>[-500.          384.74046553 -500.         -290.96956089 -184.39569454
+ -500.         -101.43959962 -258.13643524   18.99065441  433.36420776
+  376.15360509 -334.53910351 -500.          155.0218086   450.82593345
+    5.96221009 -334.23408316 -317.68251605  439.81440203 -500.
+ -130.9228794   133.88829339  500.          423.40542858  391.03528247
+ -500.         -128.0940891   -22.03169238    3.66752265  146.44771216]</t>
+  </si>
+  <si>
+    <t>[253.62416923773748, 232.83414241358298, 303.9429365093779, 309.788054599031, 280.27167296515864, 331.525717826082, 320.59289575751257, 237.52523615780106, 208.0836133300911, 195.5404915984191, 335.37037643174676, 257.485768390574, 222.38341122293158, 253.09272928812516, 184.58676312849204, 268.5372164077822, 258.8343238920046, 258.734410095509, 308.86814772974634, 247.17854261076707, 264.60915487993213, 289.690439528968, 258.55651954386224, 297.9603788504922, 285.656642266173, 273.52246330387584, 306.5702307683377, 242.92767017375368, 245.66702514194546, 356.11405623203467]</t>
+  </si>
+  <si>
+    <t>[  12.36632327 -305.5109272  -500.          384.22128689  426.50278709
+ -500.          500.         -340.436862   -116.47306651 -500.
+  301.79875136 -301.85238884  184.98474971 -500.          405.5685796
+ -382.87000007  448.03870805  189.3227508  -167.86571716 -323.92959552
+  174.42627585 -276.55083502 -298.77523404  396.43203234  469.93561022
+  -17.21996739  168.19549987 -250.9272702   171.18962576 -346.82110304]</t>
+  </si>
+  <si>
+    <t>[298.1614156848291, 254.3716387991397, 240.47715871872103, 319.4379100333367, 268.6302346945953, 316.42554640778303, 270.85846874535656, 262.7667680177074, 199.32536620471475, 332.2369018923239, 258.6780830394674, 244.43974698433544, 226.3235066933311, 320.2040870661176, 285.7463676690385, 253.13112954947772, 298.83284984243164, 229.91587354718214, 254.97231929184858, 263.4244367999928, 163.11333591303676, 215.67646644413705, 194.84914198374256, 318.0170609326426, 311.1432843474554, 191.63489628966084, 200.71677806592342, 264.8191853441917, 297.68933054670157, 265.928652793795]</t>
+  </si>
+  <si>
+    <t>[ 467.20756611  450.96055996  477.57733842 -117.2554965   188.14968412
+  383.35800467   34.1227061   214.53216684 -500.           36.47389836
+  124.45170385   20.74464577  451.27724995 -134.80367248   41.3943922
+ -258.23280071  410.85546656  230.93906351 -104.06326954  163.78726795
+   35.5229349    88.10907495  369.15310228  422.99489351  392.18261353
+ -113.02519406  420.0103111  -111.55313011  432.2728698   401.91389754]</t>
+  </si>
+  <si>
+    <t>[253.30465562714193, 266.96730093377266, 306.04949428005284, 230.44956961543085, 232.11311424915988, 321.7459535518198, 249.1514466486445, 172.63787671782842, 307.8971415069884, 246.21489935768142, 211.20037371705146, 209.70588694207564, 291.00521558188666, 218.47878477786057, 273.2397071209152, 273.14599748505884, 328.9081728998361, 199.55676070408265, 266.81820582341766, 222.72628809338175, 227.13611006711335, 308.281245840691, 206.26160000704687, 266.9495990101488, 316.88669141380944, 292.3910724973789, 228.32968699185815, 213.54632868550354, 290.84725933326223, 272.8157874830347]</t>
+  </si>
+  <si>
+    <t>[-277.0903254   112.64803142  453.63941352  405.35253026  407.84600271
+  380.71188318 -164.75543859   38.63475655  227.06033299  412.08992372
+ -309.24015115  424.77613686   -0.86265341 -500.           44.06009063
+ -500.         -306.8071727   200.12911711  446.42161538   35.87967661
+  194.32318384  462.12835563 -154.97654193  168.65556519  -43.24324618
+  413.76910047 -282.36076931  239.39464505  381.39568008 -310.63639383]</t>
+  </si>
+  <si>
+    <t>[356.5504799955988, 251.6056783340227, 325.11350999874617, 352.55401670022087, 352.8257464163149, 249.06377360618401, 218.85613214206174, 241.39439059189561, 330.71752101752463, 292.76045194184024, 316.7409392769111, 253.9416782940093, 297.2943057434998, 316.55555979113336, 364.4495721396791, 283.1420441460762, 277.4571136627905, 282.8038161716636, 276.5867297752024, 253.03468676791377, 284.96539555117306, 250.0787791195423, 196.54197627108888, 287.99889256223327, 247.49204096472428, 325.50224911558496, 281.38739099662695, 238.61880095452747, 223.5397726367655, 249.2898559967429]</t>
+  </si>
+  <si>
+    <t>[ 206.02111917  433.85150184  380.59766035 -302.5704767  -151.8094014
+ -300.00754587   38.74822705  417.97507678 -271.20820122   80.14086774
+ -499.69502007    1.39634534  439.9252245   150.26896659  -12.29811468
+   10.63023328 -306.88386955 -346.91118126 -101.92111037   -3.92700632
+  442.50398384   90.09637725 -370.25931409 -311.01064805   16.77086186
+  337.7596145  -500.            9.23704611 -324.15731684  126.76773459]</t>
+  </si>
+  <si>
+    <t>[252.57863343144308, 319.24687441599406, 276.72501707789587, 315.51555510447713, 255.2454756630497, 173.31029512614157, 235.27446636432714, 255.5499082999706, 291.10205441250906, 284.94469134965055, 242.90518675990097, 228.202362558205, 192.7841836411868, 188.73608202735218, 245.1860173935586, 195.72982440732625, 304.5573084833644, 265.96358244395765, 339.4126673298369, 279.9665208313665, 376.6034823594578, 342.6799425090798, 289.01439088690967, 283.85768328574824, 274.8625041657314, 285.46920257364957, 242.55783167232707, 273.2312456841852, 259.2595496448906, 240.30800949494162]</t>
+  </si>
+  <si>
+    <t>[-264.57454213 -500.          467.51577697  181.89312889  202.47535049
+  233.13701555 -124.6297475   388.45793201  191.89452706  314.91755823
+ -212.41260951  220.09404852  219.76962692 -484.74566548 -284.20036925
+  193.08868182  -22.79428264 -127.99302493  447.9511656  -130.6300119
+  219.2716384   444.4406512   327.29659824  392.53073472  -12.79094934
+  133.23211487 -318.50747422 -270.83911297  172.10105461 -500.        ]</t>
+  </si>
+  <si>
+    <t>[254.17539862665453, 315.0321068513162, 290.24093312028947, 302.3360673799621, 267.3694055360387, 233.7132451208743, 182.58561662229337, 285.32270452166944, 233.63140117060928, 253.1660267047509, 261.81986752032975, 240.2250809994266, 318.7417350416232, 344.8776083257236, 304.75132243428993, 317.5782434765435, 294.9931154844525, 313.2889851420465, 291.94518549628935, 211.9293093251252, 270.62355342666325, 300.2918715318354, 284.49505236134155, 208.2840741349958, 333.5747824402346, 310.122004158666, 347.80548044264174, 297.6355910489775, 285.06336732778846, 285.53742520637087]</t>
+  </si>
+  <si>
+    <t>[ -33.86564584 -309.48605469 -499.87333296  448.80719247  411.29661279
+ -299.36897928 -130.2123113  -312.15836147 -490.92813735   97.28582645
+  452.03558842 -479.12736605  367.05001359 -120.46020443   86.23298565
+  168.72303892 -304.9367393     6.42963858  458.90383372    5.87304615
+   65.20176292  431.11643008  401.32184265 -120.70245229 -290.11714124
+ -254.21745307  232.24299937 -283.3651017   359.36273804  177.82623561]</t>
+  </si>
+  <si>
+    <t>[235.56372811945772, 335.8312726152575, 316.8532952494685, 245.05002269832613, 254.918476563967, 312.3832936672481, 340.67512601025896, 254.8133018483918, 378.1427048522446, 266.4134937288226, 241.0824906942954, 302.0034829464371, 285.7660629191526, 295.1803841148052, 155.25992270675616, 242.04251439236268, 374.90870968729877, 304.12280133515054, 255.05380849799877, 194.15461876756788, 206.74976017251194, 308.8234854931033, 175.20061460352298, 226.83826741699175, 311.3393854021848, 231.34032839235405, 268.73212445135823, 269.73507882396126, 264.6484367815107, 279.8301787260029]</t>
+  </si>
+  <si>
+    <t>[ 415.36221398   13.42166031  340.5792908   468.10346096 -498.66632565
+  412.27950869  420.84532738 -138.56395758  434.00524652    8.50610161
+  422.04756901 -175.05731714   -0.78698612   49.76213785 -285.8181919
+   76.27974121 -500.         -283.93793043  381.22449011  -20.84578917
+ -494.4779759   396.89477495  172.15830405  358.17637411   21.24947819
+ -334.55253756  405.65201397  398.9345441   219.50389155  401.50967446]</t>
+  </si>
+  <si>
+    <t>[231.80294451394977, 180.66331923367298, 233.98508333105082, 309.3938169354459, 312.9210704867403, 300.3453854005673, 287.90003312006957, 226.55761685145487, 315.0078133316489, 200.4940554036797, 228.6791513090069, 239.7633981620064, 305.4400451079363, 273.7574053107975, 313.36813958327616, 178.58708647963024, 316.3739640300893, 233.76410132702512, 303.5304150840716, 290.5429459121203, 337.7589409775259, 208.2665392773235, 174.01208973402225, 261.44854056110074, 308.75865861025363, 293.14920909287116, 298.9976329948762, 285.17563200764243, 348.35846324798854, 334.9293004308735]</t>
+  </si>
+  <si>
+    <t>[-306.19120808 -499.11214088 -303.95256068  415.13902373 -286.48649304
+ -499.90354025  413.21965182  408.7399051    75.15813858   50.94235834
+  416.52930583  411.42464433  214.79074292 -276.04609231  424.18353181
+  391.92914545 -292.10281413  440.82275484  421.61776603  414.93411693
+ -500.          410.40901074 -306.00378761  -59.8651988   415.35020984
+ -500.          -52.5219748   197.10440019  163.65467994  420.00766424]</t>
+  </si>
+  <si>
+    <t>[271.55132682130846, 318.0062842764642, 340.614819843785, 283.7236218670653, 244.1985566925053, 277.41825609579865, 296.10043429426304, 339.75785372695674, 283.2435799641092, 219.9489603915972, 311.14603533988594, 309.1479449900279, 220.3071910250706, 287.9042631261295, 339.4616502371639, 252.63420801167663, 224.3409762928413, 265.73267283404294, 329.6998003738884, 303.57504611412213, 280.12783939915965, 320.75753863090875, 224.74003947290677, 229.15965309512936, 315.64628843777564, 288.7968469699507, 236.50106808608, 290.8360465661749, 248.18694696435372, 340.6451224183748]</t>
+  </si>
+  <si>
+    <t>[-500.         -114.99400566  221.09137922  -10.3160111    77.43552161
+ -498.93920547  161.62001321 -383.03421785  -31.083301    164.99711016
+  426.12299976  404.69012788 -144.9541007     2.16979607  434.20555119
+ -346.57078573  437.17866977 -194.53233359   89.37069961  369.30418389
+ -325.38002672  392.06532024  211.44072906  -88.11322863  410.44581267
+ -308.05745683 -498.56723761  433.78212771 -212.84532965 -325.29415028]</t>
+  </si>
+  <si>
+    <t>[317.3442895262299, 244.4700703887496, 217.63201381433026, 283.1306050456548, 334.90508650081506, 300.81960162770247, 137.49594537698349, 261.4134080652195, 118.01438396184267, 199.61607714199084, 331.80598128046444, 209.7458519036487, 262.7134465504051, 268.5787919389645, 255.2589244404666, 282.5755436638838, 355.92847109522626, 309.25976394064924, 270.47164855087965, 200.8886396758507, 289.3580976939763, 279.6825785412886, 233.49446960162607, 278.48910054298545, 236.96711295314898, 268.93048794063327, 332.7356470946186, 336.18331489777603, 302.00276465424486, 268.1666609939098]</t>
+  </si>
+  <si>
+    <t>[-268.30750426 -255.1095256   456.83365994 -302.84258474  -10.52943987
+    2.01395374  458.24468668 -130.51418892 -321.23530424   76.22957068
+  416.80643491  399.34443243 -342.86776865  431.58419536  186.72958086
+ -500.          204.56836982 -150.48288478  231.89639182   -3.98164126
+  431.07473049  436.50388226  389.95165001 -499.77155109   -5.53799174
+  -60.48042169  183.94608323 -265.6655211  -108.44220677   60.60740788]</t>
+  </si>
+  <si>
+    <t>[302.00490770745733, 364.942838706078, 313.8973265182484, 309.1734190233948, 255.23813062137904, 263.81724656225634, 275.09217003763337, 265.100349972557, 332.37085848452716, 247.58622107799604, 314.97948732161734, 295.2174596994637, 258.73570503811936, 279.7137834310555, 290.2447398551483, 279.4531741979591, 264.4686138658994, 222.3368552947762, 236.47850467758585, 273.1041143468697, 217.8251007585282, 299.3270172366491, 344.73939279930715, 333.3014527144949, 297.75071861272244, 231.34571835052546, 320.2340519282967, 257.04432048648454, 242.99002307562205, 219.23473665788626]</t>
+  </si>
+  <si>
+    <t>[ 358.31343892   56.31565608  418.88642573 -499.40429462 -482.49917462
+ -487.19279738 -100.36012384 -298.95963661  412.65083259  260.40821606
+ -122.20713628  399.62581098  390.70561864  432.54357024  475.83480337
+ -190.41639927 -500.          189.55045237  -91.14084184 -277.6497638
+  454.76265804 -301.51703416  413.48514145  392.23928512 -495.33491012
+  451.40988559  427.04600651  263.60002012  202.17331668  411.03229268]</t>
+  </si>
+  <si>
+    <t>[242.9405386065111, 289.17591460491997, 271.2541113903434, 304.8561542870203, 330.84919430558017, 223.14590537943025, 239.29942216605434, 321.9474733283059, 259.46021837418795, 164.44412103171734, 292.6861658728768, 200.96378359664703, 311.9081537695569, 196.44557285907496, 283.67060088680506, 275.30402658582204, 334.53362255374935, 173.47623903024598, 233.96234565043792, 266.5002149230111, 262.1770372169903, 279.37084216078057, 164.6940152776747, 258.2776562048238, 338.5324079050475, 399.2119663908058, 332.7827358723387, 299.5718550832129, 262.0807834335515, 227.07672892208922]</t>
+  </si>
+  <si>
+    <t>[-307.04031801 -497.45044362 -126.73630505 -474.50391588  373.08240837
+  410.80891268  388.0351322    -5.31451142   48.89557792  -92.90870969
+ -273.09931488  428.0581984   434.46909605 -274.5415203   359.21408634
+ -264.07595871  446.92071865  213.93636162  178.76713072  203.07991567
+  427.18179494 -283.13508902  418.51373853  422.69695943  423.27815573
+  185.13161561  211.27419455  425.31179404  -16.39113577  385.18174939]</t>
+  </si>
+  <si>
+    <t>[279.7537934208873, 335.60556217150406, 292.6518385842392, 303.95415571194036, 267.06326530625864, 316.72751739850986, 256.0016018878855, 177.35553546526202, 248.15239655395587, 323.68589687799374, 291.41609984591554, 317.9061159634674, 311.1505812040544, 301.34993151796124, 303.67331738611585, 336.51099870347286, 349.73924226207913, 269.3151320009423, 204.14222808042865, 247.11934908561935, 285.42674485500197, 347.60879205659177, 282.3775511536016, 304.36537505482397, 249.79990956413945, 314.8275004440196, 253.16691794955995, 288.21908866243734, 236.21467825952132, 326.67613890135755]</t>
+  </si>
+  <si>
+    <t>[ 382.80999164 -299.10140593 -499.44056936  415.38958972 -291.96482231
+  385.8342803   406.33741524  190.51458567  422.69223606  166.28071354
+  411.09195309  418.53467851  411.84010958 -298.17633241  398.90403566
+  407.90552136  427.11786847  392.63394586  425.71013694 -498.25847058
+ -271.22576136  417.65890351 -112.62188558  428.57086643  425.72120986
+ -115.50753818 -317.0038622   400.57526506  427.76833455 -269.62514676]</t>
+  </si>
+  <si>
+    <t>[372.51972396044255, 313.80242644018887, 336.2881523498759, 366.95663068698246, 273.2315078328099, 290.8579078121313, 338.4324897493933, 281.18693124948385, 293.3105000371418, 292.25294880034687, 292.74891430186256, 323.49201489784144, 336.6742434106739, 260.2923593543229, 206.9520220119785, 220.92243678565728, 354.8594238128188, 311.5980772773799, 343.75635007939377, 185.18106968239823, 239.71167425641013, 280.16583781044244, 256.49283297093666, 258.5969800256332, 383.19405768013615, 259.6353477881028, 282.03032161196876, 246.2255596568217, 198.37020855717617, 272.20981298945134]</t>
+  </si>
+  <si>
+    <t>[ 413.88338338 -139.70734161 -312.35487863   41.10507155  211.44193953
+   -1.01677358 -285.29241128  406.66219879  195.58962677  375.93572521
+ -339.7947702  -295.48564957  -46.87611753  -79.16066996  247.22739927
+  257.6256973    62.46299378 -237.536621    172.09908974  422.00431936
+  412.34864362 -294.2591873  -312.14991544  -97.84150178  -97.3524322
+ -119.8526098   433.7356574   -91.45314052  178.61415692  -22.21777223]</t>
+  </si>
+  <si>
+    <t>[320.1262025494695, 206.0242000379745, 279.9079014392002, 333.5160814396858, 275.3632217686637, 259.3118688127728, 301.2007281714097, 365.29550350867794, 260.8419552963563, 219.31159986589466, 350.99313987456696, 331.79508741331455, 371.6577000321557, 204.59662011337247, 203.85693600031667, 313.6075870352065, 283.2383740854216, 344.1990045444262, 325.01452199101857, 303.27585313908116, 296.5673778116152, 246.63709754426526, 363.0893989565125, 321.34023258261635, 317.37945467779, 239.50094411899718, 322.3966401070541, 264.9734588846939, 331.93985329518904, 314.8979590237854]</t>
+  </si>
+  <si>
+    <t>[-130.11174962  224.50327371  472.4475509   256.57854477 -149.8769644
+  378.54304058  386.03747193 -113.8499911  -499.00180983  -13.89953078
+ -139.12161892  195.88692419 -338.24565759  410.682005    463.74372804
+ -500.          445.6227355   431.20654359 -152.5699935   417.1017338
+  101.37773169  -58.6200566   429.02649433  370.257694    225.47969181
+  100.31862512  402.80132461  182.71581259 -318.1406949  -302.38372349]</t>
+  </si>
+  <si>
+    <t>[238.0801698265725, 217.01906501782082, 351.09320042376817, 310.0597641219051, 207.90194258564028, 236.99087938681083, 308.4005671180901, 289.1821219602792, 290.8461212242015, 179.60461830574303, 238.9442881209289, 248.97797787333386, 341.5928306111658, 383.12590870221646, 304.2536144711037, 256.32974650227453, 322.20962906276, 353.77572072361664, 281.20906895676654, 354.29599261314496, 315.76651116979616, 242.0631949876665, 363.72372293921876, 227.37502642801306, 254.45532413170514, 255.153865532857, 320.2716028862558, 295.72937695647823, 259.86165782023863, 271.7248526743652]</t>
+  </si>
+  <si>
+    <t>[ 428.8878784   420.32094898  179.05920009 -138.40967531 -327.12358603
+ -292.75483543  386.21024228 -297.66947963   57.73366158 -242.99847153
+  373.20946227  424.86646468  438.79897229  410.4200782  -126.76453479
+  448.83571819 -277.90989731  201.89536237 -282.934133    378.03481387
+    8.70108886 -263.69112901  460.13934425  186.6477348   -49.08836982
+   51.31587955  437.03603254  407.76926468  403.62328722  373.51873972]</t>
+  </si>
+  <si>
+    <t>[201.38886897552572, 338.8684502288392, 260.72074083831063, 282.2623076188352, 262.47149115637245, 287.8060416622972, 241.5134631781722, 187.70737687621863, 268.2857319957253, 222.3131285579154, 298.513421774168, 236.99479524182874, 268.8053950250182, 289.53467298811984, 257.53571838029285, 325.57714275050233, 317.6702700874129, 305.85748737149305, 251.73696401937778, 289.8216158060699, 224.71074010539067, 284.43477500671594, 300.7505567035036, 216.93578919202892, 293.89705121922765, 283.79789783574483, 226.6599732879084, 183.74296528008009, 314.84261225973705, 295.5199017608316]</t>
+  </si>
+  <si>
+    <t>[-497.43662963  191.82938887 -128.61968852  422.4274619  -143.28519175
+  210.38779496  436.93736497 -305.26955134   83.79805871  410.38581408
+ -272.14358558  435.81098663  398.56594752 -293.33042342 -500.
+  176.45388914 -492.44522849  429.56546715  422.15762732  161.18870968
+  429.79962293 -496.06096841  379.28876851 -323.63222275 -302.65460628
+  406.88585671  447.3971896   397.70799837 -294.48038017 -281.97038279]</t>
+  </si>
+  <si>
+    <t>[349.1271828077018, 273.78043893726743, 295.42849709753244, 331.1074680062548, 305.69436563218824, 308.0436393109295, 270.7676311264487, 251.90664409436656, 209.67792282086214, 281.2341075396346, 179.16553355186906, 239.99826436003156, 287.3139151028286, 272.116702752368, 265.3772690164957, 285.95133789925137, 256.58670596060654, 300.2103988381655, 290.5181298057008, 260.01215827767874, 358.6146842208075, 299.64677169771005, 238.22763682384536, 251.6520670618576, 300.0182962912658, 230.39359243017054, 223.82188777466422, 282.15155841704893, 312.2695509981643, 185.19777610015612]</t>
+  </si>
+  <si>
+    <t>[-284.30429508 -294.55516238  411.18659432  424.79235867   54.92762495
+  416.234178   -114.01905029 -323.95717522  423.03260132  409.61987271
+  413.05109769  407.14645654 -301.46225419 -297.07755296 -136.06853462
+  198.86219476  401.03609034  408.268536   -300.01180149 -296.246918
+  411.81375313  413.46321477  223.54742925  406.83841948  403.86739305
+  420.41749534  426.8623242   198.93881596  411.95903221 -288.72576795]</t>
+  </si>
+  <si>
+    <t>[315.15737040556775, 287.02022313014265, 248.43490117203558, 309.52259737505943, 289.5054185060035, 256.71020654716676, 306.9812847315886, 324.2950713824412, 328.6075977865676, 289.482250770909, 297.84263503311644, 288.69557109281675, 278.6893191762292, 311.55756544859423, 281.0580619003152, 281.40649842930594, 290.9238200209916, 261.60665141480945, 350.6431817092093, 318.401806709178, 269.97993694985894, 285.2750598682285, 275.64557400809684, 293.5115952359861, 291.3651212316304, 303.013102223566, 267.27730723523285, 201.38279205469848, 275.5180885401442, 333.93915324698423]</t>
   </si>
   <si>
     <t>f3</t>
   </si>
   <si>
-    <t>[ 4.14811778e+02  2.11796910e+02  2.74733777e+01 -2.79907599e-01
- -1.23941270e+01  1.73216619e+02  3.79800908e+02  1.48546138e+02
- -2.39307011e+02 -2.67660796e+01 -1.85534041e+02  1.25764685e+02
- -7.81548752e+01  3.05757653e+01  5.43474016e+01 -8.66875890e+01
-  1.14588732e+02  8.15396335e+01  1.46772948e+02 -7.12750485e+01
- -5.16126127e+01  9.98170716e+01  3.50419182e+00  7.63113237e+01
-  3.34739853e+02 -3.80834547e+01 -9.54808733e+00  3.59427979e+02
- -3.46854347e+01 -1.83564033e+02]</t>
-  </si>
-  <si>
-    <t>[  11.78326323    1.24992968    6.72269962  117.89106799  -80.21515391
-  -17.39961922   -8.68766301   20.6953123   -84.26760267  -97.68369522
-  -12.22874688  -10.75897872 -111.47893338  -32.79037623    8.23636757
- -174.27399296  -43.1267224     3.92961225  -74.35712245  107.45687337
- -115.89395826  -47.56768528   36.48616284  -93.09898254   27.279712
-   23.19780861   20.08497134  -35.37992546   -1.1622368    29.14713717]</t>
-  </si>
-  <si>
-    <t>[-25.75537514  21.64685545 -30.98436923 -35.96046871  11.51378009
- -63.3436693   -3.89421393   6.94645445 -29.00612571   0.68224367
- -12.34884255  12.02824137  51.0525614    7.73749853  -6.02343956
-  46.94836859  16.09203463  27.14099629  -7.90082716 -13.10891065
-   2.28102208  21.94826952  33.2150858  -17.33583098  -7.29524218
- -27.00148666   5.07217804  57.51079253   2.41646436  -0.85390419]</t>
-  </si>
-  <si>
-    <t>[ 5.54187802e-01  7.56549081e-02  7.75503708e-01 -2.99369650e-01
- -1.04195048e+00 -4.29602854e+00  9.83787838e-02 -3.60595192e+00
- -2.23013209e+00 -2.38620168e+00  8.69525593e-01 -7.31005077e+00
- -6.47204791e-02 -3.43986888e+00  3.81788292e+00 -4.33788018e-01
-  1.48088400e+00  1.64035509e-04 -1.96804638e-01 -4.37511105e+00
-  4.47818789e+00 -6.37745733e+00  3.25820820e+00  3.86693631e+00
-  1.07315320e-01 -6.02890933e+00  1.41909158e+00  7.72898679e+00
-  2.63664236e+00  7.10276322e+00]</t>
-  </si>
-  <si>
-    <t>[-5.01412999e-04 -1.25335233e-03  3.29316034e-03 -3.15513341e-03
-  5.02212424e-03 -2.18699458e-03  1.31144913e-02 -6.70671237e-03
-  5.18390845e-04 -1.43572231e-02 -4.40938065e-04  2.73365824e-03
- -1.29504404e-02  2.10222025e-03 -2.39435452e-02  2.61194399e-05
-  2.31084545e-02 -1.75297277e-02 -1.74126103e-02  7.77762263e-03
-  1.21006810e-03  6.55163755e-03 -3.90003540e-02  1.67152319e-02
- -7.51555897e-02 -2.67794590e-04  4.75429660e-03 -8.97957359e-05
- -4.77485133e-03  6.03384768e-03]</t>
-  </si>
-  <si>
-    <t>[ -36.92563607   55.61400815   12.4657546   -40.50700238  202.87438488
-  -55.34040769   63.02786562  -79.49255549  333.27177302  164.44143344
-  -51.72672392  259.99788427  107.41206757 -262.33567358 -117.72912366
-  -45.48144099   55.03275481 -108.18531676  -39.62996047  -73.70809508
-  105.04332685   47.62843306   51.61230177  -50.17851927   92.18180021
- -260.13010972  411.03958619  -32.92834409  -39.8902258    -0.87256807]</t>
-  </si>
-  <si>
-    <t>[  99.66857283  162.31421901   25.4230148   -42.45324822   33.53860079
-  -27.83668661  -21.39299741   52.52940949  215.17975708   76.06453473
-  -76.37577952    7.06498452  -69.71916886  125.17578477   31.32325348
-   59.61060712   -9.29846314   62.94789603  -55.29864489 -246.7970758
-   12.76534435  126.98050953  -73.22104087    7.45261928  146.05956234
-   79.21374906  143.49112993  -99.88185435    6.67383601   76.55743907]</t>
-  </si>
-  <si>
-    <t>[-16.91795977  30.31768229   2.91448088  -2.58140874  -6.12647268
-  35.42234488 -33.95614267   5.4939204   -6.92374053   0.87102821
-  48.19198878 -15.79220335  25.95666153 -21.88784002  31.68761332
-  -4.5548371    0.49187891 -40.87869282  -3.2423158   23.66590407
-  -8.99441051  -6.18267319  27.21827394  22.23369165 -23.35870206
-   2.64193062  64.95336095 -66.30938958   3.39088926   5.42184209]</t>
-  </si>
-  <si>
-    <t>[-0.57699641  0.03635364  0.04296586 -0.42160767 -0.39373627  1.23344872
-  0.47697896  0.14416124  0.01171836  1.00141477  2.50967723 -0.0128272
- -2.73844365 -0.74804085 -0.03607467 -2.56470086  1.45783084 -3.64004898
- -1.03941559  0.13035187 -0.14816257  0.03960132 -0.91754367  0.79842567
-  0.14057702 -1.80963006  0.03448301 -0.30874742  0.00930321  0.88945711]</t>
-  </si>
-  <si>
-    <t>[ 2.69918974e-03 -2.68277368e-04 -5.91196438e-03  7.55013264e-05
-  2.12806408e-03  2.21945899e-04 -4.48742714e-03 -6.11087426e-04
-  4.22269457e-02  9.93378388e-03 -4.09313871e-03  7.59247581e-02
- -2.12639708e-02 -5.44897024e-03  1.84948125e-02  1.68242654e-02
- -2.82163644e-02  2.25905612e-02  7.02546375e-02  1.27725096e-02
- -1.59473953e-03 -2.83367341e-04  2.81038061e-03 -5.76492334e-03
- -3.72047106e-02  2.07330275e-02 -4.14476060e-02 -7.97173595e-04
-  2.17068460e-02  9.88424813e-04]</t>
-  </si>
-  <si>
-    <t>[  21.3614063     2.31451264 -164.28255538  -49.01626908   68.08772163
-   -6.65212037  243.98850931  -54.3029121   -43.85864602   -2.01680714
-  101.07228736  115.8932135    68.68251321  -65.86476874 -101.05714132
-  108.15778844 -133.8166819  -200.8336514    46.29362621 -250.93001255
-   59.69007281 -261.48239333 -154.53027966 -132.94346967  366.5981572
-   23.76189062  102.7609281   118.2671518   190.70244423 -111.67283681]</t>
-  </si>
-  <si>
-    <t>[ -73.06445118   69.00964616   28.31801354 -105.20914127    4.74488582
-  -25.80281078  139.12603513   10.41317802  -12.364428      0.23805654
-  -16.62985644   32.25454     -79.87006544   14.70251423  -25.01472027
-    9.4497518   143.04318973  -95.9206868   -31.83218882  -43.75032105
-    4.57953658   -8.63066906    2.98277021  -62.7438668    70.37735909
-   90.38513234    0.74388741  -38.39855594  -37.36160398  -28.39615856]</t>
-  </si>
-  <si>
-    <t>[  2.33599742  -5.94222125  -2.54969082  -1.2922868    5.5564458
- -11.54857224  -1.59937513   5.49061117 -15.96330835  -3.28697568
-  -4.92970572   0.21421496  24.92359153  -1.51278582 -13.75770827
-   2.29777058  28.38996687  18.72379574  12.67390356  -0.14314388
-  40.59755807  18.72624588   8.28067358  26.27416776  11.10799678
-  -4.17963384   4.22545005   3.85434722   6.33140855   3.44983195]</t>
-  </si>
-  <si>
-    <t>[-1.48935158  0.05289645 -0.12432658  0.0821115   0.46720827 -0.82594484
-  0.37990447  0.72020058 -1.77100024  1.90245478  1.93563603 -0.89862971
- -0.05297488  0.15556259 -0.97620819  1.51409629  0.18905446 -0.02378774
-  1.41056504 -0.6419119   3.92010929 -0.5168817  -0.18064624 -0.7304148
- -0.30269749 -0.05077073  3.74282011  0.28316751 -2.59615452  1.63599868]</t>
-  </si>
-  <si>
-    <t>[-1.37808346e-04 -1.74010851e-05 -5.97765115e-04 -3.15859775e-05
-  1.91726776e-04  8.54917520e-05 -2.70048661e-04  4.01901627e-03
- -1.59140507e-03 -1.50222029e-03  8.74000124e-03  3.15079864e-03
- -1.92392638e-03 -8.23848180e-04 -2.78495323e-03 -5.28262791e-03
-  1.54920104e-03  7.94366115e-03 -1.54526011e-03  1.44167234e-04
-  3.08565563e-04  6.05094561e-03  8.35723371e-03 -7.60926560e-05
-  9.90737117e-04 -1.06590959e-03 -5.90847368e-03  8.71213277e-05
-  2.49084241e-03  2.90219367e-03]</t>
-  </si>
-  <si>
-    <t>[-8.38682444e+01 -1.62585976e+02  5.57536802e+01  1.00383934e+02
- -9.69435252e+01  1.94010150e+02  1.70837664e+02 -3.40188822e+01
-  1.25208184e+02  3.23003960e+00  9.09491604e+01  4.67144413e+01
- -3.22663500e+01  1.36240302e+02  2.23519847e+01  1.98131106e+02
- -9.41851276e+01 -1.64220482e+02  1.31838737e+02  1.24901562e+02
-  1.42155981e-01  9.85831272e+01  8.53453154e+01 -1.87400365e+02
- -2.65890685e+01 -1.17220012e+02  6.95032948e+01  7.06220973e+01
-  2.68440509e+02  1.39626274e+02]</t>
-  </si>
-  <si>
-    <t>[106.52382089  21.50996603   5.31100991 -63.68024876 131.29398777
-   5.39738704  56.92380196 -43.06963028 -72.88668659  33.02780741
- 101.4398284   -1.75945148  57.1533751   -3.78536908  71.64201624
- -57.77230361  32.95965589  18.53483367  81.42598903  19.79052512
- -88.94524819  24.92306608  99.99341504  67.57351158  28.18114015
-   3.84686812  -2.56461117 -56.2750539   -7.34824296 -78.41410584]</t>
-  </si>
-  <si>
-    <t>[ 10.57261653  -0.26119218 -13.83330642 -21.03404612  -0.36522853
-  -1.33145406 -11.97495769  -0.11237798  15.440004    10.25658318
-  -8.66362661   4.75387179  -3.79974857  -7.9693461   22.04181607
-   7.73020702  12.8223944  -21.93268905   3.14481904  18.41482847
-   3.19275397  -6.65873016  12.99249524  -7.92588466  -9.82693618
-  12.19824488   8.88111657  17.77092213  -1.80066717  13.32104569]</t>
-  </si>
-  <si>
-    <t>[ 0.05236923  0.01101836 -0.06729888 -0.12229426 -0.30566995  0.06878827
-  0.28243501 -0.71561132  0.49409352 -0.4215914   0.05975121 -0.31682293
- -0.79479415 -0.52702947  0.65086468  1.62880909  0.54737319  0.90584111
- -0.11990045 -0.39460758  0.24781299 -0.35168767 -0.14296739  0.02657758
- -0.64204968  0.9891315  -0.99811598  0.17311923  0.2692341   0.34518065]</t>
-  </si>
-  <si>
-    <t>[-9.09377417e-04  5.86885537e-05 -4.44286537e-05  7.15114952e-05
-  3.62434387e-04  5.84978548e-04  4.87527468e-04  2.49894314e-03
- -2.44234667e-03 -1.36964082e-03  9.09763492e-04  7.33174890e-04
-  4.04502545e-04  1.09567224e-03  1.06414459e-03 -4.02677681e-04
- -7.05567831e-04 -2.84937443e-03 -2.96292443e-04  5.32391827e-03
-  4.69292656e-03  1.02356685e-05 -5.17877308e-04 -2.59694481e-03
- -1.92960054e-04 -1.48655608e-04 -1.73953577e-03 -2.76257524e-03
-  4.56674515e-04 -2.64961568e-03]</t>
+    <t>[-290.86816383  -46.22978203 -465.57991926 -112.02131117 -109.78393037
+  -40.17914806 -351.54810802  177.66719878  -82.93266115  184.35482652
+  245.87797587   11.10015691  -70.03138288   97.05752436  -43.51430787
+ -110.40761589 -292.25359972  156.74499939 -231.30872482    7.73057039
+   38.54795317  273.16344643    5.43021158   62.09720387  118.04950456
+  215.11301767  205.35174567  177.87415301   91.40520478   24.69402422]</t>
+  </si>
+  <si>
+    <t>[180.5901087975385, 224.9490718378565, 318.29394509869445, 194.40347990616573, 187.12512394736336, 159.95608904376357, 196.68785546562663, 184.25156214344992, 169.13621012268237, 120.35025364782403, 119.65356254679854, 122.1453552508776, 157.34613830558823, 295.9283129412438, 285.9553263174784, 108.1125707529355, 210.19218845963388, 168.3591412094355, 164.60864748588295, 226.03427652469802, 114.3744194372722, 211.03391984187428, 168.07945822311117, 186.52841174654898, 221.54438150645666, 112.77989437583638, 205.9072524945267, 136.78775966246872, 171.99004849325814, 210.3882775247457]</t>
+  </si>
+  <si>
+    <t>[  -1.51938055    0.27280732  -45.05521238  -78.55391787 -138.84612434
+   37.46562307   82.44569556   67.41868735   19.5177391    -2.453079
+   -6.33703104  -70.04720079   30.95547986 -111.91992142    1.54290281
+  -11.91105117 -113.64564308 -187.05642386   11.93387031  -16.55754279
+   91.12792014  -36.54378898   83.37888826   -6.70806748  -16.98389654
+  -98.45339544   27.49852857   43.98402876   36.64495861  140.07071819]</t>
+  </si>
+  <si>
+    <t>[102.26226272098555, 96.96758630214372, 123.91436691398502, 104.52687216958782, 141.50574185970075, 124.31841488569698, 72.82827723921801, 99.18266461902587, 88.78715544330701, 91.67766422209323, 102.43249063975318, 113.43601425706882, 86.6395528074308, 95.43496669707616, 58.86648255953184, 165.5721771354333, 155.1398789889067, 186.27903709799546, 114.22710129231899, 171.11640051247642, 87.30511469395226, 89.96590413126916, 68.94213702256638, 76.63872428566316, 160.3589562223203, 174.50058722250677, 62.66735334899675, 138.5426965148605, 75.0333765137336, 67.48085317930057]</t>
+  </si>
+  <si>
+    <t>[-44.24107482  56.8177182    7.99885334 -16.1589708  -22.89254069
+   7.71158    -37.14512475  -0.40739782   4.57004182  18.83051089
+  -1.03187273  14.32900496  29.93173457  -0.60473234  -0.65128531
+  95.60199343  -0.49940494 -96.0275858   11.80672831  53.77249863
+  -2.80611466  66.35143055  70.12223282  68.76675358  -8.1297411
+   0.15623619  37.72062085  -4.85637324 -10.88193207   3.89186457]</t>
+  </si>
+  <si>
+    <t>[43.377432766936856, 126.85932667673187, 41.87676463820201, 90.07536748797887, 50.00372487965811, 56.09590662033197, 69.63013130186079, 58.857484658825186, 113.8667732400642, 84.19026419883498, 40.96440830608727, 65.91059169864974, 82.23736757320155, 121.61046919963871, 72.20430628271507, 36.21175894543003, 59.86866921411933, 88.78575415536645, 50.67247541353167, 60.78734689109806, 46.40343221043183, 69.84965422117827, 121.46829726207551, 71.43298307112654, 43.93862988934143, 67.72713419176455, 55.36185088581276, 48.8265372869812, 78.49298006145011, 66.02234560722995]</t>
+  </si>
+  <si>
+    <t>[-2.18493280e-01 -8.97614218e-02 -7.02177776e-01  1.22571200e-01
+  1.34465019e+00  4.39516376e+00 -5.65459336e+00  3.14065240e-01
+ -2.28327318e+00 -2.31401824e+00 -8.20078826e-01 -1.34225080e+00
+ -3.43094625e+00 -9.74004620e-01  5.67103694e+00 -1.94924994e+00
+ -1.22175006e+00  4.44886658e+00 -8.82286479e+00 -2.15949853e+00
+ -4.81697374e-01 -8.96877240e-02  3.40502971e-03 -1.12760637e-01
+ -4.83827352e-01  1.04566642e+00  9.66485739e-01 -1.64021756e+01
+ -3.08404562e-01  1.53597278e-01]</t>
+  </si>
+  <si>
+    <t>[9.138351761565994, 9.479560664223742, 7.416654882525552, 8.85313849737903, 15.550890043093174, 9.772563595844561, 4.262681256988673, 5.318982954658341, 10.755554233889779, 9.794203107947958, 4.840664885497089, 12.703175555628318, 7.986487292933838, 14.833499983104527, 8.1482241019282, 8.683453181340466, 7.827150082747508, 10.930239972841665, 6.679213642628895, 6.308745998755959, 6.487114551193235, 4.115739790721988, 13.568197998563813, 16.939331606862527, 12.929885395820445, 8.40401974184482, 7.319981220040053, 15.88673506792208, 9.14167030052098, 6.091035163528547]</t>
+  </si>
+  <si>
+    <t>[-2.48118557e-04 -1.07053763e-04  1.98053035e-03  1.20853832e-02
+  5.96544850e-03  7.68231519e-03  3.51917670e-05 -2.25902794e-04
+ -2.19617305e-02 -7.82699635e-02  1.02929162e-02 -9.26610320e-05
+  1.14513127e-03 -3.59674444e-03 -3.11416072e-02  7.29106480e-03
+ -1.81234560e-05  1.03320283e-02 -4.61576866e-03 -2.58726304e-03
+ -5.04390160e-06  3.52548674e-05  3.03848455e-04 -8.69705749e-03
+  4.80971840e-04 -6.58890122e-06 -3.90135489e-07 -3.89295618e-03
+  6.81467810e-03 -3.82282594e-03]</t>
+  </si>
+  <si>
+    <t>[1.2380710396827812, 3.1620204832035244, 6.50895363160214, 0.33518995874742513, 0.3188929732461376, 1.0303488557208609, 1.3322459258692039, 0.64124307999054, 1.2960426146315323, 1.694900773755424, 0.7910003744133162, 1.228802534178691, 1.9856514984304248, 0.7589835623541513, 0.9318416881424147, 1.0418148416025912, 0.539066971028738, 1.231141933723438, 1.1160033528747313, 0.9399683395767529, 2.431414996186876, 2.277983405847834, 0.8404734615234281, 2.198226681342269, 1.1971255907877594, 3.2749614205451225, 0.5703912241272576, 1.9609111780193191, 3.0010418905502596, 1.5380540056751963]</t>
+  </si>
+  <si>
+    <t>[ -33.50739621  108.07267698   47.76787793 -124.59203626   28.889397
+ -430.98243054   87.50231018   12.49339085  -70.33951588   53.0811053
+ -286.89201578  -43.26391411   13.47073937  -22.44368166    4.10217666
+   56.04139681 -133.02114898  -91.28354145 -321.91452854  166.45758687
+ -277.32153066  151.6779469   176.61670972   58.74205062 -228.34500759
+   -6.91697085   22.90063934  -30.93115918  171.50595466 -105.24486974]</t>
+  </si>
+  <si>
+    <t>[173.1209101659834, 119.61783647065018, 156.53924511474136, 268.40886222786736, 222.90192701050051, 201.4255774763816, 210.1209095368732, 172.04800577728903, 161.02047959789914, 227.09793401081134, 157.03058271137044, 189.2607417834949, 93.15122719715143, 220.97564976042207, 244.5741756047485, 145.9060800780685, 215.86941711103594, 216.0742007339895, 253.89816372113938, 154.82424012995813, 229.4535154214931, 82.0466845903996, 169.6250431349343, 133.80671849306293, 166.02334173037465, 155.11788684547292, 214.1196057697981, 237.6095066679335, 216.090201025532, 160.3240045860818]</t>
+  </si>
+  <si>
+    <t>[ 1.20353608e+02  2.46157362e+01 -1.51559112e+01  2.20504449e+01
+  6.10318721e+01 -3.28911269e+01  8.01695692e+00  3.52279670e+01
+  1.52667942e+02  5.86819932e+01 -6.51585674e+01 -5.84391403e+01
+ -1.44283602e+02 -8.25284000e+00  1.51604744e+01 -1.02399462e+01
+ -2.85032131e+01  4.20098224e+01  1.39946474e+02  2.91510428e+01
+  2.77637207e+01  5.56922778e+00  8.80180312e+01 -6.01581296e+01
+  5.01061967e+01 -2.59139157e+01  7.13548259e+01 -2.44021816e+01
+  1.97394206e+01  2.63008427e-02]</t>
+  </si>
+  <si>
+    <t>[132.69753985770907, 130.75653945388675, 88.16763726631827, 133.79684559154057, 77.68186986993413, 150.99490357014042, 69.8942400609944, 118.15958102645473, 89.63898422561248, 162.2475564521985, 81.66344661355564, 75.9883739828967, 110.59790940524181, 149.60692317265006, 83.33117586240624, 108.205169164851, 49.52124501908172, 123.75926722797576, 129.06297932777846, 142.89056177030687, 82.70110182636624, 100.00341223876161, 135.38604094522987, 61.384439924810394, 122.55441773147433, 69.23203071380583, 119.74869226686367, 75.56224671887159, 73.73234380222185, 72.89715727380727]</t>
+  </si>
+  <si>
+    <t>[-44.70558499  -8.39363965   0.2063701  -36.36180113   2.08202016
+  12.18483617  -9.68301864   3.12879605  -4.80238538 -22.53489127
+  25.36593334 -22.09577396  -1.31535576   2.63061567  10.77663253
+   5.1487089   -8.46210651  28.28493982 -30.73820634   0.61538767
+   8.37094265  -1.64548282   0.2893855   23.74610163   5.58339065
+  10.14739247 -22.14573117 -70.28517859   1.42893431   0.56780577]</t>
+  </si>
+  <si>
+    <t>[37.26374148019063, 49.016557922449, 16.72738846849805, 42.1864051658609, 39.610590842162665, 46.17661224616178, 37.793456963854474, 35.18484843815467, 45.4507762377223, 39.258970164737605, 25.466990961350724, 14.025157072828609, 22.71767745328301, 26.79145358988549, 37.03735531720349, 38.31299405999457, 36.204577494145695, 33.73856354807969, 26.839472088764733, 30.4018045725676, 40.40356404435637, 22.027604199004255, 31.105827419378627, 16.824542979340727, 50.64540180385245, 58.756503413553204, 30.890552308922885, 39.224992100909716, 19.42817144684336, 43.94202019689204]</t>
+  </si>
+  <si>
+    <t>[ 2.19352523 -0.13123776  0.54604087  1.04617311 -2.80090844 -0.11410019
+ -0.70647819 -1.32361906 -0.83064814 -0.1023868   0.31288372  0.00693881
+  3.0852931   4.85934686 -4.40420927  0.38210648 -0.93654558  1.11547363
+  0.70279527  0.22793831 -1.50960516  3.0219066   1.69929788  0.02474045
+ -0.06596755 -1.28648353  3.51259601 -1.79244137  1.09668848  0.92843999]</t>
+  </si>
+  <si>
+    <t>[2.8818726217658717, 7.587967450729635, 11.338563683040004, 10.070872721938638, 2.1356447938096177, 5.034541461078929, 3.568121461371254, 4.649333334565854, 1.9985732788937962, 3.8924297743191714, 3.143155819449966, 3.617884749618879, 7.543303124818077, 5.884602354625815, 4.812389280491611, 2.1884946583167313, 6.5204006110974655, 5.3874744078391155, 2.6177792451189372, 2.0249220241444297, 4.966558064488059, 5.812585324404064, 6.703682246789443, 5.9513212044441826, 9.082284949281116, 4.773181240074504, 2.116845945804855, 6.151954441876348, 3.254110383409779, 1.5499070294250328]</t>
+  </si>
+  <si>
+    <t>[-6.49509369e-02 -9.15973069e-04 -1.59575509e-03  1.80424312e-03
+ -4.16333247e-04  1.60550025e-02 -5.13828826e-04 -1.74360410e-02
+ -5.84164727e-04 -4.94573783e-03 -1.39933738e-04  2.96166487e-03
+ -3.33233597e-02 -1.62739697e-03  1.89013931e-02 -6.86600293e-02
+  6.13605935e-04 -2.35156171e-04 -4.23570040e-04  8.32797859e-05
+  6.51613498e-03  3.03141214e-02  4.42529903e-03 -1.92325439e-04
+  4.35394432e-02 -2.42209001e-02  2.96171195e-02  3.33571654e-02
+ -3.29843484e-02  1.47934120e-02]</t>
+  </si>
+  <si>
+    <t>[1.194156534570503, 2.4124101604836437, 5.540515139025497, 0.47715945588551867, 0.2862961904576134, 0.5643541196555992, 0.6823742603708752, 1.2256647804708531, 0.40051682528644605, 0.08014104588397546, 0.48789752929252156, 0.44822246445850955, 0.6479367300559875, 0.4661901770945202, 0.6232451821099516, 0.7851487101727862, 0.9966615889948834, 1.2556047402459154, 0.4700403824095699, 0.2157278979257046, 0.7794382757159415, 1.00818913658696, 0.3347570484952155, 0.19033219847975513, 0.3238222554224184, 0.3959439782906497, 0.5018488972092863, 0.32650679044270536, 1.296342431971369, 0.5132296748795435]</t>
+  </si>
+  <si>
+    <t>[ 226.76120682 -132.09493237 -127.24436182  -41.7161072   -80.84162778
+  -62.11783197  -49.59146324   79.58471001 -169.53275983 -200.69536666
+ -229.10566865 -175.5556403  -145.14225264   -4.21222768   69.26639924
+ -111.09381583 -190.77132063  213.00569202  151.16421466  -48.31349566
+  -41.16593932  140.7030083    86.4153121  -103.8289477   147.83195871
+  181.7878435  -156.09674439   45.30852481   24.28822059  255.16003718]</t>
+  </si>
+  <si>
+    <t>[124.01809435158691, 100.0945857907468, 245.54554247891238, 142.186553835249, 72.41197573412315, 121.24372538991449, 205.60832671438325, 152.23627943654085, 174.43360553187412, 145.24387458463448, 180.0745301794481, 89.82574815899846, 103.94107995127894, 131.0898598135609, 148.5380407715493, 205.85213286145915, 165.93735969584228, 142.4233144574027, 227.92411793018934, 95.70840283882012, 221.52185007584356, 152.29515916613275, 104.86529193749192, 159.73044324279945, 177.28356151673577, 122.06500700278063, 247.772816456815, 107.67245380895598, 107.76617137380391, 138.15375688741855]</t>
+  </si>
+  <si>
+    <t>[   1.39212937   -5.42516071 -137.45639806   -4.36222453  -24.72208208
+  150.05525905    6.53182542   12.49059547  -51.5686008    39.66257508
+  137.44833583  -81.18337613  -44.67248644   17.1199451    -2.96171155
+  -13.03120341   19.79452478  -51.83586726   13.35401577   47.7196558
+  -86.46915296    3.64419535   -5.45049804  -86.21609786   58.01975667
+  -71.73300133    1.36733397   25.39231136   82.93412745    1.07251444]</t>
+  </si>
+  <si>
+    <t>[62.45875560916106, 85.45274971999793, 128.30726879209055, 80.31321358866252, 87.30767798389266, 92.12440346322599, 63.032553611018855, 88.02796540768918, 64.38659401878965, 82.3391002481537, 99.06969172958851, 99.94895092171768, 90.06591023070439, 84.63277697731566, 79.05165152022288, 53.046953882687205, 74.96058559873613, 104.33166917176983, 76.26142498877489, 128.46151553328085, 69.20780064692313, 129.69110085416392, 102.82640860546353, 73.93187837295164, 99.70414859993426, 48.024322515032836, 92.52177247114894, 76.97637436192352, 137.57047177780763, 103.65535487224214]</t>
+  </si>
+  <si>
+    <t>[ 2.41591160e+00  3.15333547e+01  1.34624223e+01 -2.85717816e+01
+  1.95205223e-02  1.36135522e+01 -6.90641385e+00 -1.12486099e+01
+  1.04671905e+00 -7.32694140e+00 -1.63149652e+01  1.68834176e+01
+  2.74916046e+01  2.59175534e+00  2.44859382e+00  4.36500061e+00
+ -1.88844295e+01  7.16316779e+00  5.31115779e+00  2.25081409e+00
+  8.59344151e-01 -6.00433466e-01 -2.16338128e+01 -4.93457489e+00
+  1.96216590e+00  7.60340175e+00 -4.41616343e-01  1.33188671e+01
+ -8.11090027e+00 -1.64152100e+01]</t>
+  </si>
+  <si>
+    <t>[29.450293053445836, 18.473574935823045, 19.315038617279512, 13.502785748363504, 22.564028828084137, 35.40630004476309, 20.93753485334617, 33.608504349891035, 30.68344106506165, 35.10002207078306, 35.669076185412166, 30.584770947599917, 45.3626260964358, 26.791440903034022, 37.73937855091814, 37.950626815900826, 35.35852068914565, 20.141779143234096, 42.03175536732443, 18.026807449589853, 44.8666077814783, 19.804126501319278, 23.773582810684907, 52.3656937487336, 28.124341617467095, 51.175014564503876, 38.07069379246694, 44.64041156091198, 36.94944692132343, 15.285988358165413]</t>
+  </si>
+  <si>
+    <t>[-5.74779329e-04  2.28896880e-02  3.64754602e-02 -7.16051684e-01
+ -9.81369718e-01  4.85429299e-01 -4.22298901e-01  7.45254961e-02
+  2.00485730e+00 -2.45002578e+00 -5.54950346e-01 -1.54855531e+00
+ -1.22728134e+00 -1.12745348e+00 -5.54288271e+00 -1.90624638e+00
+ -2.80614746e-01  8.17167425e-01 -1.87424305e+00  3.07576954e+00
+  6.01298375e-01  7.73179692e-02 -2.92423299e-01  2.26599675e+00
+  9.45406785e-02  1.13522098e-01  2.46690323e+00 -2.50306813e-01
+  3.52100968e-01 -9.51605693e-02]</t>
+  </si>
+  <si>
+    <t>[16.03211132540377, 10.769451300361645, 16.17126799941288, 9.119960764849267, 12.73395366443004, 8.923197510334019, 8.413478643518777, 12.615050304819682, 9.035359179944697, 9.50037402628287, 3.234684463214483, 10.612631004307577, 11.376204739043887, 12.858693994718436, 11.975117615075527, 7.690311195064304, 9.34565133218822, 5.319159477414712, 13.780839508935863, 9.892304536912645, 14.115295875644591, 9.615825555907394, 7.128805156934339, 9.553756005020848, 16.4961338684716, 4.931271207000929, 11.106632234602671, 7.280884554736827, 6.542100047836109, 9.691904313022846]</t>
+  </si>
+  <si>
+    <t>[-7.34232138e-03 -4.78850997e-05 -6.64088478e-04 -6.53212302e-05
+ -3.75145683e-03  5.53333489e-03 -9.25402260e-03  9.65421442e-04
+  5.08038254e-03 -9.26002041e-03  9.18120843e-03  2.26627793e-02
+ -3.88402003e-03 -5.56313601e-03 -8.21678648e-03  7.50278346e-03
+  4.16753938e-03 -1.52986918e-03  1.18979351e-02 -9.97832950e-03
+  5.44283042e-03  2.04793226e-03 -1.24842981e-02 -2.36793303e-03
+ -1.97142316e-03 -4.93446277e-03  2.01697430e-03  1.04836487e-02
+ -9.02730593e-03 -1.30353858e-02]</t>
+  </si>
+  <si>
+    <t>[1.2071556141569086, 3.1253321667419947, 5.571746255959629, 0.4796037922320815, 1.2173170886162765, 1.0276513208843372, 1.9570595081680162, 2.497871962601551, 1.8740416227130416, 1.4694770081079374, 0.49850315124283073, 1.986536160471988, 0.5109870145752899, 1.4499467056553228, 0.3404222089468824, 2.110018587901382, 1.6069147910118584, 0.8816909318999022, 1.7120518607695907, 1.6238895056263807, 0.8738508886693157, 0.3463159013136909, 0.30829186548192083, 0.8388359478309165, 1.2773645013606918, 0.4809587467237416, 1.346711459460671, 1.744392966244962, 2.5991707389931413, 1.391596723345846]</t>
+  </si>
+  <si>
+    <t>[ -76.77669722   42.41084828 -161.89722744   68.42077474 -155.80603768
+   76.16932485   87.85729603   85.97673246   91.41789624  191.96736352
+  -41.89598749  -37.41189836   75.50548544  -80.40769813    8.57061101
+   27.45188667  127.38525612 -196.57602467 -236.50629234  194.04274887
+  104.75741919   89.90033058 -119.33506701 -291.13621316  -24.56529452
+   51.66192411 -281.56909811   83.4166034   105.54936267  -73.38080304]</t>
+  </si>
+  <si>
+    <t>[103.31023413806645, 126.50698542572462, 177.61657246388836, 168.2702147313036, 125.21419444699232, 89.96697878414565, 99.63229378559193, 213.91905704319464, 121.1484349019946, 167.5637312292689, 99.13637921100897, 110.571508407324, 137.4384967646651, 112.7028655586759, 105.74672510403552, 107.51748455138542, 199.15669881694018, 118.03019858971179, 151.8511289885133, 157.73020353200656, 118.38935693141903, 131.94593404099072, 165.48424757346035, 108.86152096053515, 198.6788114296434, 160.63023540804429, 145.51666174413128, 93.23930939009665, 193.86580353910497, 154.69181425330788]</t>
+  </si>
+  <si>
+    <t>[  14.20234205   31.06235141    3.38537296 -153.69110366   30.64522335
+   65.77723752   -6.41935235   71.94881876  -33.44054593  -54.82752773
+    6.6882799    40.44843086  -35.61634265  -89.4173793    19.1395274
+  -71.78574491  -69.58857518   85.57118797   93.35963579   37.17807052
+  -29.1379912   105.60094663   35.70560133  104.15628066   75.40513348
+   67.77621316   80.60747668  -38.09153141   18.32456881   -6.34560872]</t>
+  </si>
+  <si>
+    <t>[63.30571757748001, 80.95287549446901, 79.8002183975321, 69.429731871905, 91.16670001782238, 36.25235113145298, 71.44168517451996, 79.51139946891072, 59.08546001644415, 67.25631420164608, 91.3499912633216, 102.654297008512, 95.48098124930145, 139.42884627869526, 58.358428185277546, 92.69278828356894, 102.4980281325193, 75.31366830475065, 83.71643631213783, 41.19912277559318, 84.76205541910365, 114.88138167695169, 101.76323012660758, 85.65818938186392, 47.987866040084704, 86.89964474426843, 62.953375631616645, 81.17512363350274, 70.47578854154281, 55.41446281993522]</t>
+  </si>
+  <si>
+    <t>[ -4.17336377 -19.05550254  -3.12666403   6.0407737    0.73961316
+  22.26938658 -14.18320665   3.21062548  -9.00668955  -4.87466874
+  -4.48396249   2.83459625  21.30128996   4.0633672   -1.25011394
+ -20.0561794    7.19694737  19.92933361   0.80743144 -12.5598768
+   1.01965293 -13.49102631   0.06970669 -14.04559575  25.1039142
+   9.87200121 -16.07373189 -23.13184569  -0.74931881   6.34247024]</t>
+  </si>
+  <si>
+    <t>[19.333946706737745, 39.200217481616434, 40.14775675285392, 16.497040807857005, 24.62727852797021, 18.531627539818857, 8.42875794939122, 55.27037502484934, 20.636654090159098, 17.273443522946653, 12.267493898214001, 24.789131541440064, 22.242287894031037, 16.26788443516524, 23.43103106068606, 50.492195336432, 59.4921207731384, 43.57692532859223, 47.78991979783792, 18.468871220787165, 20.42784833822464, 23.29201449114415, 45.55514096198681, 37.64677017566909, 45.07468309873858, 21.48640472145881, 22.23737974745972, 31.094272265562026, 24.834191978287553, 15.961976273911489]</t>
+  </si>
+  <si>
+    <t>[ 7.49605241e-02 -1.29788224e-02 -2.40873350e-02 -2.02079611e-01
+  6.03232096e-01  1.09371331e-03 -3.72796276e-02 -6.08876256e-01
+  3.40030763e-02 -7.01807350e-01 -9.29434392e-01  1.58776982e-01
+ -1.18678262e+00  3.12272870e-01  8.85883607e-01 -1.79763762e-01
+ -2.27077525e-01  1.47065789e+00  7.24140837e-01  1.85006239e+00
+  7.51074297e-01  4.00998495e-01  1.92486547e+00 -1.15709053e+00
+  6.57812256e-01  1.06944356e+00  4.41926129e-01  7.13952954e-02
+ -1.25489657e+00  6.46248478e-02]</t>
+  </si>
+  <si>
+    <t>[5.793067805228502, 7.690267548075054, 7.31822701249537, 0.42042242701915217, 3.4202357769460314, 6.4429695523043025, 2.256305620889769, 2.327917748622218, 4.9756491274958226, 2.893949809639198, 5.850243384048821, 3.7442446969880185, 5.34752383769536, 11.580565765586282, 7.411091783970758, 5.639002855734768, 3.0574146598695275, 8.522290971076774, 3.998967253555732, 13.31852174134381, 2.0409997217161493, 5.922894200495519, 2.105296850573823, 6.891294315167821, 6.359379581256418, 4.409548296787246, 2.16677645420659, 1.986256381410963, 1.7653367164275124, 2.8167487427830387]</t>
+  </si>
+  <si>
+    <t>[ 4.95238530e-03  8.76116001e-05  4.75722517e-04  3.86410234e-04
+ -1.33701643e-04  8.94285914e-04 -3.72949424e-03  2.90157364e-04
+ -6.40672664e-05  1.07774550e-04  1.17956508e-04  3.02889153e-03
+  9.02988935e-04  1.30191349e-03  4.65956068e-07  9.53531446e-04
+ -5.14632364e-03  1.72630172e-03  1.47678723e-03 -1.54443330e-03
+ -1.58457617e-03  6.69332357e-04  1.95070988e-03 -3.16371984e-04
+ -5.26807321e-04  1.27164342e-04  5.94981498e-03  4.08531679e-03
+ -2.82082244e-04  2.69817325e-03]</t>
+  </si>
+  <si>
+    <t>[2.827553691689186, 4.833008030997895, 5.022469466616943, 0.13403849846382998, 0.5145078446496668, 0.6554529974477827, 0.9863035893013569, 1.2292592492476098, 0.48842990591861074, 1.199840731126014, 1.1234314237140937, 0.6819615220936368, 0.5372816222899336, 0.33896130866637564, 1.206036643915628, 1.3181422504963156, 0.8605434431512596, 1.7909428565224383, 1.8570651902508228, 0.6635835089760608, 0.9908087423173044, 0.2299254074120345, 1.315883114908156, 1.204324430381851, 1.188304138440274, 0.20245520595541666, 1.2419790421001928, 1.7964534237782266, 0.7878490676808125, 1.8039905059139367]</t>
   </si>
   <si>
     <t>f4</t>
   </si>
   <si>
-    <t>[-9.20161921e+00  2.64004900e+01 -1.57950382e+01  2.09845081e+00
- -2.93094258e+00 -3.05490424e+00 -2.59212324e-02  8.40410452e-01
-  3.79461518e-01  3.22539060e+00  1.21986892e+01 -2.30855260e+01
-  1.72613889e+01  1.39164519e+01  6.30227595e+00  2.34792022e+00
-  7.46386457e+00 -1.16189482e+01  1.69996073e+01 -1.15581652e+01
- -1.81729069e+01 -2.51162918e+00  2.38915051e+00  2.18558462e+01
-  4.07959406e+00  7.53748769e+00 -4.60614654e-01  8.75956476e+00
-  6.09393153e+00 -1.58870463e-01]</t>
-  </si>
-  <si>
-    <t>[-3.50480127e+00 -4.78213085e-01 -1.19298480e+00  8.63070760e-01
-  7.81023142e+00  2.17703629e-01  1.51964434e+00  5.21921600e-01
- -2.70903893e+00 -3.76688973e+00  1.11760359e+00 -2.98746437e+00
- -3.54940957e+00 -2.02452439e-01  9.49511752e+00 -3.86382544e-03
-  3.11946790e+00  1.46276641e+00 -3.24699034e+00 -4.46955117e+00
- -1.14419641e+00 -3.18028337e+00  6.31518418e-01 -8.05634297e-02
- -8.09948968e+00 -1.02348317e+00  5.20300688e+00  5.94677947e+00
- -1.30930478e+01  1.75351887e+01]</t>
-  </si>
-  <si>
-    <t>[ 0.15575007 -1.77966884 -1.93695042  0.1018237  -0.1540255  -5.7456887
- -4.21991207 -1.7758455   4.41000662  0.07725553  9.97675296 -1.43058775
- -6.34809805  0.02451616 -0.50673203  2.10336346 -0.07945303 -1.87711805
-  2.92422084 -0.90858217  1.69474146 -0.92271184  4.25029217  0.22507542
-  0.59946067 -0.226097    0.93929043  2.82619611 -0.14530106  1.41597768]</t>
-  </si>
-  <si>
-    <t>[-9.66342732e-05  8.43289281e-03 -9.76770070e-02 -3.31406496e-02
- -1.49081898e-01  7.44777387e-01  2.62662597e-02  1.17368747e-01
- -1.10328124e-01 -1.33819689e-01  4.66360703e-02 -7.08126596e-03
- -8.62874978e-05  8.28911589e-02 -4.73296956e-04  2.44709297e-01
-  1.57744450e-02  8.82948673e-01 -8.67526428e-02  2.23650278e-04
-  1.28739165e-04 -1.25497895e-02  5.38537853e-03  6.21351322e-02
-  2.75995388e-02 -2.30732579e-03  8.96634495e-02 -2.39577571e-02
- -2.79714580e-02  8.71669330e-02]</t>
-  </si>
-  <si>
-    <t>[-1.32244375e-02 -1.35987895e-02  2.18793975e-04 -1.03824231e-03
- -4.33673753e-03 -5.04799130e-04 -1.94875672e-02  6.01448644e-03
-  9.32251047e-04 -2.31334913e-03  6.92530904e-04  4.52646113e-05
-  8.61888209e-03 -2.86329147e-03  3.04320359e-04  4.66238819e-03
-  2.42031136e-04  6.62232099e-04 -1.77456086e-03  2.91788943e-03
- -2.62614927e-08 -1.40735105e-04  1.06966158e-03 -1.94806530e-02
- -4.09651676e-03  6.07338081e-05 -9.89404627e-04 -8.92418878e-04
- -1.33955135e-05 -3.74152608e-03]</t>
-  </si>
-  <si>
-    <t>[  9.60318116   5.94895239  -5.41318198   4.64060044   1.73225219
-  -8.08251736   9.85089861  11.05391533  -3.87718322   1.41885128
-   0.97712858   1.56920682  -0.75437212  -5.06300895   4.6177637
-  -5.16036067  -9.16206579   1.97405855   8.80059325  -4.23558648
- -15.68331098 -10.55210207  -1.69505845 -13.30385042  -8.91586794
-   5.89174995   5.13131944  16.13233835   4.72939131  -6.38737207]</t>
-  </si>
-  <si>
-    <t>[-2.35148845e+00  2.45905498e-03  6.40493899e+00 -7.23734744e+00
-  3.96839850e+00  3.93184664e+00 -9.29352768e+00 -4.35505254e+00
- -1.16608641e+01 -6.40469254e+00 -9.16534643e-01  9.75038236e+00
- -6.04762776e+00 -5.05102246e+00  2.82025221e+00 -4.79390845e+00
-  9.33922633e+00  6.01386657e-01  9.72259429e+00  2.41393155e+00
-  4.89357867e+00 -6.00324307e+00  4.72794257e+00  7.66219239e-01
-  8.06845079e+00  2.27146468e+00 -1.07883043e-01 -4.46244937e+00
- -3.35432596e-01  4.35295328e-01]</t>
-  </si>
-  <si>
-    <t>[-0.36991553  2.12020339  0.66246102 -0.16085525 -0.75041806 -0.55363083
- -2.4297393  -0.13206464  2.07690946 -1.90969947 -0.07041929  0.7200618
- -0.13387634  1.91230113  0.32120417  0.64108664  1.03134534 -1.23150067
- -1.2902172  -0.60779768 -0.55238738  2.02036743  2.25514861 -0.82425436
- -1.44228291  1.92995373  0.70088365  0.01556034  0.14819225 -0.15506665]</t>
-  </si>
-  <si>
-    <t>[-0.04608737 -0.07167699  0.00852575  0.04745572  0.08915628  0.93009419
- -0.05030563  0.09763764  0.00748236 -0.94696855  0.009941   -0.00514823
-  1.03358959  0.07947437 -0.1651529  -0.17616442  0.00747537 -0.05121438
- -0.05968575 -0.04429572 -0.006273   -0.00440637 -0.99010277 -0.00489108
-  0.04891208  0.02237284 -0.07452007 -0.98435527 -0.98582327 -0.04231459]</t>
-  </si>
-  <si>
-    <t>[ 5.46511623e-04 -1.97889350e-04 -7.74445789e-04  1.75443383e-03
-  1.12999485e-03 -2.16805368e-04  2.32037882e-05  2.57004773e-03
-  2.61769863e-03 -1.20495865e-04 -1.22643394e-04  1.00013650e-04
-  5.37351005e-04  6.39763666e-04  2.36623543e-04 -2.28026006e-04
- -3.02011696e-05 -6.63181122e-04  1.03939839e-04  6.96976654e-07
- -1.46065726e-03 -1.82721313e-04 -3.83638134e-05  1.43279471e-03
- -1.60584950e-03  3.09102405e-03 -1.09840255e-03  5.17540567e-04
- -2.14726103e-04 -1.55546021e-03]</t>
-  </si>
-  <si>
-    <t>[ -7.94871202  -4.00160868  17.86405297 -10.37476918  10.47921422
- -15.91720105  -7.35016796  -1.69310112   5.40381863  -0.9407575
- -13.526268   -13.83875972  -9.05649801   5.85308598  -2.50109582
-  -5.82836407  -0.22112259  -9.92408344  -1.2392658   -8.75199974
-  -6.55962151  16.60002022   0.23695118  10.47418009   6.86675571
- -10.78803146   5.61855677   1.29462825   4.09740112   1.85498824]</t>
-  </si>
-  <si>
-    <t>[ 6.18614034 -1.45365371  0.06180366 -0.51526096  0.42462082 -2.8923335
- -3.63321056 -2.13594035 -2.12034467 -2.39233011  1.21539362 -0.95022017
- -2.11504709 -1.62799368  3.09611731  0.55605193 -8.79474442  5.27881271
- -1.07579477 -3.29529706  1.34431259 -0.36028382 -0.57907081  0.92521731
-  0.03958346  8.99621744  1.7372006  -1.72694578  0.8754048   0.24517357]</t>
-  </si>
-  <si>
-    <t>[ 4.89263923e-01  2.69682167e-01  8.32506612e-02 -5.93416206e-02
- -1.15008455e+00 -1.07138553e+00 -3.87926783e-01 -5.34231334e-01
- -3.98451422e-01 -2.10625848e+00 -4.26343513e-03 -1.78522497e-01
-  1.13910288e+00  2.79137254e-01 -1.07358997e-01  4.52611590e-01
-  1.28247611e-01 -1.00582860e-01  7.97090287e-01 -8.10643094e-01
-  2.95914457e+00  8.81029612e-01 -6.21365141e-04 -1.98518304e-01
-  3.16961240e-01 -2.14772575e+00  8.13822323e-02  4.98154575e-01
- -1.68191542e-01  4.02101371e-01]</t>
-  </si>
-  <si>
-    <t>[ 6.38571539e-02  2.10925606e-02  8.16419721e-03  9.67720643e-01
-  6.70030093e-03  3.16847211e-02  1.00053282e-01 -3.67116116e-03
-  1.74600845e-03  9.00084358e-01 -1.14420751e-02 -2.51399894e-02
-  1.00890104e+00  5.05538266e-02  4.36266532e-02  3.35351508e-02
-  2.63722884e-02  3.04142203e-02 -1.26669899e-02 -8.71304089e-03
- -7.24288834e-02 -4.28866117e-03 -4.89082815e-02 -1.08153034e-02
-  7.37788973e-04  9.74427581e-02  6.56017862e-03  7.70295619e-03
- -2.64305167e-02  3.63222114e-03]</t>
-  </si>
-  <si>
-    <t>[-3.09856886e-05  2.35542314e-04 -3.68168738e-04 -8.42393888e-05
-  7.83855402e-05 -1.16652479e-05 -6.83819302e-04  7.73785770e-05
- -4.55691896e-05 -4.36146340e-04  3.30827802e-04 -8.25833749e-05
- -5.47305339e-04 -8.85393853e-05 -4.80220964e-05 -2.92345594e-04
- -4.74355983e-04  8.10761815e-04  8.20237709e-05 -4.93491244e-04
-  6.95419629e-04 -2.93242064e-04  1.89352131e-04 -8.51717860e-05
- -5.92051749e-05  1.58481194e-04 -1.56083815e-04  1.59784433e-04
-  7.79809932e-04  1.16070137e-05]</t>
-  </si>
-  <si>
-    <t>[ -1.32097493   6.11339427  -0.03581652   1.26122594  -2.1829715
-   4.36619305  -2.39594651  -1.076276   -16.88246573   1.32558271
-  12.64452145   6.36060549   3.95508685   0.07691534  -4.77397928
-  -2.87354542 -13.56408421   5.82144409  -1.5871125   -4.98903149
-  10.26348274   0.72702061  -4.65464419   0.76816389   3.41958492
- -11.50467322   1.14311261  -4.00825585 -10.90601739   3.6193119 ]</t>
-  </si>
-  <si>
-    <t>[ 1.8751459   2.33507493  1.2465745  -1.00794306 -2.90317096 -1.80038707
-  0.48034243 -0.41851862 -3.66871025  1.12220545 -2.14200915  5.68336881
-  1.89394976 -1.85517937 -1.41175029  6.93794212  0.86578964 -5.23410687
- -0.6141547   6.56479902 -4.33412478 -3.08914029  6.51606742 -4.28007935
- -4.63219933  4.41221483  1.9005663  -1.99613261  1.56999707 -0.77347081]</t>
-  </si>
-  <si>
-    <t>[ 0.05236462 -0.2628197  -1.20412271  1.32234905  0.14605062  0.13964666
- -0.92503777 -0.28484085  0.94168521  0.21209698 -2.85011256 -0.05450372
-  2.07456985  1.70359    -1.87557767  0.45217267  0.72944075 -0.05473332
-  0.15582523 -1.29866271  0.04397339 -2.10293657 -0.15159412 -0.02828743
-  0.08719799  0.55642291 -1.92271203 -0.00354533 -0.15400249  0.96612264]</t>
-  </si>
-  <si>
-    <t>[-0.02039512 -0.00370536 -0.04034997 -0.06384949  0.02094866  0.00732603
- -0.00287045 -0.00334306  0.02420667 -0.02472022 -0.01954733  0.00081214
- -0.00073185 -0.00990918 -0.00131135 -0.00529603 -0.00062438 -0.00525675
- -0.001077    0.00092805  0.00292762  0.00102038 -0.00501502  0.01606481
-  0.04711492  0.01163356 -0.002461    0.01767209  0.02577697 -0.01219838]</t>
-  </si>
-  <si>
-    <t>[ 1.96809412e-05 -1.44866053e-04 -5.14452828e-07  1.64252714e-06
-  1.67623643e-05 -1.81790815e-04 -2.31680049e-05  1.16193495e-04
-  9.56841521e-05 -3.71384008e-07 -2.08487647e-05  1.66541435e-04
- -1.71442847e-04  1.37543605e-06  2.20380620e-05 -7.18896639e-05
-  2.84955413e-05  1.04826199e-04  8.38093072e-06  1.41685084e-04
-  1.39883727e-04 -6.54013052e-05 -4.18603903e-05  1.67254298e-05
-  4.89476847e-06 -9.10467401e-05 -6.53560454e-06 -6.30951576e-05
-  3.47305441e-05 -2.96640256e-06]</t>
+    <t>[ 1.76993536  6.54639582  3.40379847 28.9253676  -2.05373726 -0.95453976
+ -5.3182524  15.1993242  29.07197449 -2.44204703  4.50667523  6.08950656
+  1.99385036 -6.68624457 14.1985061  14.07799483 -5.66675272 -5.23423679
+ -8.6822963  -8.58688821  6.07090705  0.25519962  1.17661948  1.28811311
+  2.60233108  0.55993664 -4.88975128 -0.03957747  1.59886736 -6.97947501]</t>
+  </si>
+  <si>
+    <t>[10.730162628354364, 14.492647171175188, 10.93751020497267, 14.316546994160673, 13.039997153822826, 15.82382673502496, 10.782109097981856, 13.788575849009169, 12.501206075244696, 8.220965027111752, 5.318968891614971, 10.45953692319988, 11.756865517475852, 17.707747236990862, 12.312005751117463, 10.257781783166624, 13.355257391531511, 14.903482010015242, 12.556885321611244, 13.506613476773662, 7.008895685877122, 11.314963729643777, 13.038413443412, 12.242734417184208, 10.418706551474807, 15.952263377404796, 17.921669868122535, 12.845353948791033, 14.78484584609593, 19.06675649642929]</t>
+  </si>
+  <si>
+    <t>[-1.90159698  6.9812809  -2.6551359  -0.72549434 -0.94707719  2.52471997
+ -6.368389    5.79811828  0.41520106 -3.09717777  4.73756723  2.59541183
+ -0.49908978 -4.48401359 -2.29981385  5.32946014 -0.85232048  1.28580988
+ -0.57256315 -0.70956404 -0.68709216 -1.86000989 -2.13181234  5.84548028
+ -1.38991166 -9.1286701  -0.79881576  0.54498551  1.92221959  3.38876376]</t>
+  </si>
+  <si>
+    <t>[8.905909067368633, 8.014792360234521, 14.80813398124039, 12.154197911806023, 9.066556417120893, 7.079878839310409, 6.066773056265683, 14.493189104313688, 13.998041141447695, 9.141883928257242, 13.060301047105659, 11.165501961684013, 6.937438690200817, 15.05627930910166, 11.457553063582996, 13.406168772238546, 10.191293926642139, 13.295176600067768, 12.376757318599909, 13.670206486290605, 13.697344921924644, 13.37772908539254, 9.15013825674023, 11.822149538097555, 6.707141100494453, 8.887682655423813, 7.364369848142428, 10.755796790366214, 16.90698604230188, 10.012119584247634]</t>
+  </si>
+  <si>
+    <t>[ 2.80222778e-03  7.00573400e+00 -3.51537115e+00 -2.98701263e+00
+ -4.87732827e+00  2.01882185e-01  2.68453539e-01  2.93785696e+00
+  1.50988770e+00  1.51313146e+00 -1.95484409e+00  2.81395378e-01
+  6.18105498e-02  5.84987139e-01 -1.81574304e+00  4.53926969e-01
+  2.27504336e+00 -2.20671588e+00 -8.31191067e-01  8.26071998e-01
+  5.41351756e-01 -1.49578186e-01  1.13555492e+00  4.16316271e-02
+ -9.17058496e-01  1.90419507e-02  1.39736825e-02  5.57283393e-01
+ -1.31625706e+00 -1.98522680e+00]</t>
+  </si>
+  <si>
+    <t>[10.216206734817368, 12.006497827449872, 14.3054762480911, 9.353733851967295, 15.025133578610413, 15.251500783128638, 10.248466153224006, 11.312432706994036, 8.582656775827893, 10.324669570974207, 10.255264476485657, 7.058502835609432, 14.494664408720377, 10.52787050479094, 12.505963488736928, 9.52121691482344, 7.265177758274802, 15.238997265017298, 6.106886891020557, 13.374633391543227, 13.971520705739453, 11.78446889372185, 16.074625605763472, 8.154036336164515, 8.894962703256827, 13.748862127601065, 11.572758669610165, 14.728967452507598, 11.658854297301396, 12.679632588934187]</t>
+  </si>
+  <si>
+    <t>[ 2.27851175e-02 -3.25390543e-02 -1.58239321e+00 -4.93442557e-03
+ -6.84725368e-02  1.73825095e-02  9.66849353e-02 -3.22977493e-04
+  2.52767702e-01  1.90105009e-04  9.35694918e-05  1.75415191e-01
+  9.24013305e-01  3.66516165e-02 -6.06755680e-04  8.20940183e-05
+  5.80545561e-03  3.25724130e-02  3.12456897e-02  5.57587438e-02
+ -1.13224466e-01  3.64757681e-02  1.76045174e-03  3.89879488e-02
+  7.81879984e-03 -6.29978544e-03 -4.65017032e-02 -8.29049632e-02
+ -2.27032940e-04  1.04170050e+00]</t>
+  </si>
+  <si>
+    <t>[10.4234239176358, 8.9187932635497, 6.251201771595993, 11.595597598550693, 9.586773350930594, 5.703148834166534, 9.960995714589716, 10.21121647921805, 9.538420161012224, 9.669675917478045, 10.495987217049825, 10.306181600053376, 3.090423007569018, 9.44277956260963, 10.361192284565474, 8.677414873347995, 11.903725896054471, 1.5195721737401433, 5.0316097160316104, 9.691215900051775, 7.571969896394646, 9.97763195392045, 14.316638622368139, 10.458701554019193, 9.24834406556596, 9.818592533683441, 5.326379378434818, 12.443470191284712, 11.641701635413984, 12.462353543328634]</t>
+  </si>
+  <si>
+    <t>[-1.01244697e-05  5.70899586e-03  1.89791883e-02 -8.20271766e-04
+  1.31499653e-03 -2.17210220e-03 -4.11315655e-07  4.46141630e-03
+  8.09745261e-05 -3.51035112e-03  3.29824296e-04 -1.73074730e-03
+  1.73782773e-02 -4.82371058e-03  1.22921168e-03 -4.03010561e-03
+ -3.72078872e-03 -2.40564653e-04 -3.25776757e-04 -4.06816210e-04
+ -8.02769634e-07 -7.97819134e-03 -2.42753750e-06  6.26146795e-04
+ -1.71680024e-04 -4.05544884e-05  1.01689345e-03 -8.79086183e-05
+  8.88876078e-04  1.82737953e-03]</t>
+  </si>
+  <si>
+    <t>[0.34644659610362655, 0.5106138108672713, 0.5033678849751042, 0.21333978516147764, 0.5368803401856934, 0.039813114332133456, 0.3507522094182088, 0.051883071942567235, 0.2097813803362294, 0.02800315462349504, 0.39228256771505526, 0.0106008960456166, 0.4666484003292566, 0.5780373515965519, 0.0367455271850598, 0.6554942323211596, 0.6877351459629748, 0.293616274225307, 0.38532977977592203, 0.3367249462184306, 0.057487106874321584, 0.24193270791328647, 0.45763397032237607, 0.2017081692941757, 0.4498354917149228, 0.48902177778913364, 0.5508699303149085, 0.027255345094361897, 0.36976046496551923, 0.07263620045817462]</t>
+  </si>
+  <si>
+    <t>[ -1.91320385   8.24946735   6.09921909   1.8855343   -2.87112836
+ -11.66550933   0.08389274   9.34441713   2.82584627  -4.59221748
+  -4.7190948   11.87305882  -8.37235114 -11.30726652  -4.02587683
+  24.07635938  -3.22884366  -1.86139044   2.39300633   0.94441584
+  16.65701228  -5.12293452  -7.01073026   4.43001156   8.62554785
+  -1.86176854  -9.56851447  -7.36711921  -4.13489755   6.72589342]</t>
+  </si>
+  <si>
+    <t>[11.846941505524514, 13.756136967155845, 10.213926012719684, 13.110524204802106, 14.950152217514807, 7.691893314006359, 9.97543365988278, 13.274126520766858, 13.281743382244015, 12.874754963796315, 9.465637239963783, 13.407945252053759, 13.050257627065534, 8.349371921724158, 8.713078248452826, 13.982825703815143, 16.274119150105346, 10.054758230552936, 12.164747780944733, 8.268403902042497, 12.979956007094675, 11.842322058490216, 12.957565059080231, 12.510001618505518, 12.02794224191757, 13.155790648698035, 12.78331454995656, 15.602494623995321, 11.609806020570772, 14.114275554228639]</t>
+  </si>
+  <si>
+    <t>[  3.01654025  -1.50323213   0.66035496   8.15106248   8.92243362
+   0.50681997  -7.40982301 -10.37432154   0.03909087   4.25573429
+   3.70231404  -6.38800321  -5.23290298  -5.67082766   1.20029475
+   0.49640653  -1.0412334    5.44611386   1.12847531   7.78464504
+ -10.99056542   1.04901264  -2.10663723  -5.97379113   4.36802747
+   0.56587741   1.72916488  -3.10068954   3.98778581  -5.9952873 ]</t>
+  </si>
+  <si>
+    <t>[12.818094786430544, 12.466352829682403, 9.750224787329067, 6.8797813837121415, 7.0268135072204245, 9.483282300399894, 5.482798613625672, 9.969985062541586, 10.741360308622339, 5.936518982152665, 11.836476731436466, 9.662866949128155, 11.775702891282007, 11.547202312162918, 9.030823024585045, 10.122146289311738, 9.730140293211733, 6.610737364233248, 5.380300704888721, 8.494291740283979, 11.628999155206998, 7.637937582049277, 5.868827167708367, 13.27717994562636, 11.026195748289993, 8.78740629913154, 10.481943791229558, 7.290303290489439, 5.367453286332157, 9.252109080553982]</t>
+  </si>
+  <si>
+    <t>[-0.97730016 -0.05903843  0.3055172  -6.0363422  -1.04938037  0.82262604
+  0.07295278 -0.05351362  2.43196353  1.49764678  0.87760931  0.3574508
+ -0.94485108 -1.9506305  -0.247562    1.13639738 -1.12449349  0.2449395
+ -0.37107119 -0.49783526  2.09895293 -0.94561491  3.96450879  0.41922992
+ -0.53199266  0.30717141  1.09927953  0.0747212   0.05577113 -1.67032884]</t>
+  </si>
+  <si>
+    <t>[17.429204467093857, 13.225244224032735, 9.721102536200144, 12.204700084507254, 8.908309680943894, 6.624453048331571, 10.78738687823584, 14.139466773096617, 14.287035644076129, 12.474612705246033, 15.13743013412645, 16.831513380362974, 10.041243285458263, 4.4050517084023255, 13.812507914082664, 9.808835216731858, 11.694135009341649, 11.541987264534535, 17.59803832686633, 12.901408646076668, 14.82212930019744, 17.02588502743256, 11.021102804982908, 12.34163494337135, 10.673114914817644, 10.009573787190064, 8.51289897241956, 13.045888789393828, 12.971353534662121, 11.34288951248829]</t>
+  </si>
+  <si>
+    <t>[ 0.02070304 -0.22847867  0.02184074  0.72355525 -0.92584429 -0.00182552
+  0.10002086 -1.09454708 -1.03063435 -0.01291403 -0.021509   -0.05031715
+  1.69501063  0.00794392  0.99846555  0.02431455  0.84247988  0.13712966
+ -0.87201267  0.00392355 -0.0158898  -0.0883155  -0.80115868  0.09793125
+  0.01162543 -1.03007626 -0.02831053  0.03797699 -0.09140406 -0.89475627]</t>
+  </si>
+  <si>
+    <t>[0.8917832700333739, 0.7701514443317963, 0.8117987290469946, 0.7018409212890468, 0.9532186095699947, 0.41798952576827253, 1.079868398147711, 0.7392875940750679, 0.8292179234011672, 0.6534892599039708, 0.8004946286286561, 0.9530973913759722, 0.8042981741407177, 0.7717652966261277, 0.9560264336979224, 0.4952039934601809, 0.603307321065004, 0.6186859666751656, 1.0913731659043966, 0.8659547171631811, 0.9432694628300127, 0.2996919967590641, 0.7465186563260136, 0.567832256705196, 0.6125605184924473, 0.35168563709243467, 0.6073498773409632, 0.6461909237296978, 0.6490778008624639, 1.0385087832950455]</t>
+  </si>
+  <si>
+    <t>[ 7.51568840e-05  4.27568577e-04  4.21245201e-04 -6.18308324e-04
+  5.02338459e-06 -5.84556080e-07 -4.31258198e-04  4.96027228e-04
+ -5.05857693e-05 -1.31830762e-03  8.15457998e-04 -2.30224121e-04
+  2.97355452e-04  7.87690951e-04  7.70196370e-07  9.21495209e-07
+  1.16561326e-04  8.65469292e-04 -9.22637120e-04 -5.09406920e-05
+  1.33006546e-05 -8.53265527e-04  5.84016161e-04 -3.49099401e-06
+  2.50025630e-06 -8.00033286e-08 -7.48652899e-05  2.70554550e-04
+ -2.31352676e-04 -8.76513128e-05]</t>
+  </si>
+  <si>
+    <t>[9.559898945219038, 12.79140664997108, 14.30634764132658, 9.924769878418553, 12.805828054762582, 14.061105188937216, 12.387469154359726, 12.45617366059048, 5.857606571976361, 8.661654116337859, 9.671390786412134, 9.655801121207446, 12.774911152058909, 9.869825207564224, 8.064299629664717, 9.567397853345419, 8.70724989426558, 9.548676908063378, 10.297727124225505, 10.18758672073444, 4.352464388511993, 8.860939360454688, 7.856542836360189, 10.72007992860524, 13.862924397923415, 9.5973571354216, 10.400309649553929, 12.031105326187568, 14.313663477593618, 14.310891116215197]</t>
+  </si>
+  <si>
+    <t>[  4.37830708  -3.57876161   8.3004912    0.82929637   6.04336345
+   1.04243026   0.21697453   0.85355959   4.29325605   1.98671431
+  -6.63533626  -3.45843512  -2.22912124  -5.32792673   5.29574762
+   1.29923844  -4.34998771  16.41392122   6.36376973   0.70952818
+   5.71403871  -4.22343361   3.70158977 -18.83464321   0.17239234
+   4.57354537  12.62245041 -10.71887341   3.1288872   -0.6591989 ]</t>
+  </si>
+  <si>
+    <t>[7.922573257276457, 14.130264188554618, 13.534256769744642, 10.39666881622292, 8.350692161381152, 9.522459628919574, 13.07253089519863, 8.209699518566213, 10.58184596362855, 13.027375652792939, 12.978883144115645, 10.148967588734324, 5.922639877483815, 14.781736532115003, 13.95319736176838, 12.037241591335258, 10.137031622154456, 9.278694159322317, 8.207368632536971, 8.15379946179498, 6.131618649361153, 8.256480452131257, 11.1171974006435, 13.406608133588826, 11.923905845318824, 6.636031171378835, 10.164822663231305, 12.5271623003878, 13.578237568694245, 12.954082619958825]</t>
+  </si>
+  <si>
+    <t>[ 2.77212820e+00  8.45835069e-01 -1.87125384e+00  1.34194634e+00
+ -5.37623860e+00 -1.93971874e+00 -3.96494416e+00  1.69399449e-01
+ -6.38789373e-03  1.43984270e+00  1.63310406e+00  2.85539573e+00
+  3.60972077e+00  3.18208510e+00 -6.63472260e+00  7.78237749e+00
+ -3.93127811e+00 -3.36432136e+00 -8.57910163e-01 -1.43286495e+00
+  2.16208765e-01  1.89911243e-01 -1.25187419e-01  3.47961329e+00
+  7.80490754e+00  2.55235978e+00  4.90866081e-01  2.53781328e+00
+ -4.62804386e+00 -1.44453302e+00]</t>
+  </si>
+  <si>
+    <t>[11.999138456592712, 10.790612455072292, 8.357164364227234, 14.019906750405827, 12.69584149064121, 12.637067594179099, 4.67360964040482, 5.7607752661992535, 12.760652044259327, 9.09456319439121, 11.017047708702373, 11.662138595342546, 12.743986738611731, 8.143588063823675, 8.378342691721507, 5.885934702047419, 10.199828694203443, 8.99746526797434, 10.806673302364992, 7.208795720811167, 8.147522698895434, 10.34524720917646, 9.874753120432684, 11.146201656327916, 10.112833971736434, 11.691666383887188, 3.4764621993431737, 10.153321452558314, 12.642085408920043, 4.378948362680157]</t>
+  </si>
+  <si>
+    <t>[ 0.28207554 -0.26475699 -0.06701381  0.99310833  0.00756665  0.69695596
+ -2.76981914 -0.26179936 -1.12863965 -1.01664144  0.31112148 -1.08147487
+  0.08136995 -0.736006    0.36228068 -0.03206062 -0.91767486 -0.23456831
+ -0.47774304  1.95190059  2.13997262 -1.09196342  0.09231297  0.8976913
+  0.69956248 -0.21482902 -0.58012803 -0.01021825 -0.09521931 -1.11435176]</t>
+  </si>
+  <si>
+    <t>[3.8365691903913044, 5.023150330107098, 4.96054470536045, 2.2723337944514173, 2.8592309211064473, 2.6300319778425294, 4.15918537774892, 2.922851431031437, 3.7823097352686927, 2.7122684148808256, 2.709897246306273, 4.964946625779124, 3.6171437030636318, 5.224178003931813, 3.37496851282171, 1.622982170029813, 5.140187019122217, 3.6876350388117682, 5.65400101467857, 5.4216563172217835, 3.516750958626884, 4.489222236371621, 3.6107847774194792, 8.813622040550671, 3.981839285161775, 3.7582182812929403, 3.3742160173413915, 3.2828942379756336, 5.139416161933019, 6.3086852770979105]</t>
+  </si>
+  <si>
+    <t>[ 8.59966776e-02  2.46789466e-02 -1.86943017e-02  1.23406038e-02
+ -5.38817357e-02  6.54467015e-04  2.38300851e-02  6.00369611e-03
+  1.23121835e-01 -1.23751119e-02 -4.63450272e-03  2.31227418e-02
+  2.00064647e-02  3.79313504e-02  6.25199970e-02 -5.34414188e-02
+ -9.62878497e-02 -2.09636173e-02 -1.03265161e-02 -5.33424759e-02
+  5.75723799e-02  1.07563204e-03 -5.14796308e-02  1.87359215e-02
+ -6.01494060e-03 -2.25050417e-02  2.18421413e-02  8.79285895e-01
+  9.59170772e-01 -2.56102989e-02]</t>
+  </si>
+  <si>
+    <t>[0.45515712598455216, 1.4575931571073488, 1.11978631941831, 0.9448046705897468, 1.1451826697650314, 0.43701982621002, 0.834167748308021, 1.2792458321591829, 1.3770376405658211, 0.7880199354568899, 0.6026990041347724, 1.2731071142866193, 0.8321791942379976, 0.6987500413365257, 0.9247012306341738, 1.4755587004023836, 0.3826972833482054, 1.8314684164371346, 0.8979946274246836, 1.4271628187646976, 0.8293843673532758, 0.9311699186423176, 0.694380947964044, 0.6763673247196067, 0.8554445041248419, 0.9855934626355433, 0.5353902017984536, 1.068842648126775, 1.259906408334551, 1.2573275275102092]</t>
+  </si>
+  <si>
+    <t>[-5.30334077e-04 -5.01111122e-05 -5.79722677e-04  1.87629520e-04
+ -2.03784747e-07 -8.60151098e-05 -3.29088865e-04  8.22465416e-05
+  2.23859354e-04  1.86390364e-04 -8.93999109e-05  3.04036590e-04
+  5.52066937e-05  1.60788878e-04  4.39160482e-04 -1.11138690e-04
+  1.39586172e-05  2.58124909e-06 -8.84308548e-05  2.05908177e-04
+ -5.07788794e-05  1.66793647e-04 -2.38882564e-04  2.26475621e-06
+  6.38656070e-04 -9.45044590e-05 -2.61984880e-04 -5.63322905e-04
+ -6.02947502e-04 -3.60738656e-04]</t>
+  </si>
+  <si>
+    <t>[9.600265142047988, 6.043127064399994, 3.118226150295339, 8.512493782158204, 9.598931211062828, 2.912856059506366, 9.597576036700366, 9.598822434459727, 9.572187625255607, 9.57311530569689, 0.9667204622630416, 9.601812151169158, 9.61130344378298, 8.107082586388694, 9.298619033731857, 9.637516885952573, 9.571843287496929, 9.605062320531236, 4.238267357267302, 5.458191914955047, 6.795497564205985, 1.2161227477122583, 9.601199860536417, 9.568095253192155, 9.597300826891175, 9.598779896949374, 1.1279111000645927, 1.2112680027278324, 9.601455245756426, 9.54277494110083]</t>
+  </si>
+  <si>
+    <t>[-2.87073564 10.14736215 12.11093955 -1.66110256  9.07005845 -0.40185421
+ -0.2349243  -3.4404505   7.61458565  4.93461644 -3.67800106 -1.98242598
+ -4.48196649 -7.20229873  2.18160075  4.24716306  6.13433075 -9.07495906
+ -2.54285037 -3.36768173 -0.262793   -9.55011728 -9.07303489  3.20959068
+ -5.9579987  -0.20994709  1.561552    2.40802626  2.26758356 -2.72214143]</t>
+  </si>
+  <si>
+    <t>[13.38770069781921, 12.30392173860417, 11.6699123610715, 10.619745277581298, 15.600853736644051, 12.915207031352734, 6.68866676634948, 10.490380528776232, 10.226487395329334, 12.05031752585875, 11.235747093278805, 7.575479315281081, 9.845695084403067, 10.803287454525531, 7.241002421242575, 8.557172209630235, 12.752352210221563, 10.171031804506558, 9.95548982739819, 11.33710304568094, 10.395696739803787, 7.13109062142998, 6.759532303881905, 9.236817978113065, 13.504925965803174, 8.98004848247091, 6.513359890734344, 8.521591502330068, 9.414144593803115, 11.094261849835924]</t>
+  </si>
+  <si>
+    <t>[ 6.18249036  2.47377863 -1.77059137 -0.06311848  0.24531951 -5.32220738
+  4.62887569  2.1920857   4.91596865  1.06323722 -7.10604288  3.77524891
+ -2.5465918  -3.08876331 -4.27790008 -2.76350694  0.80871477 -5.15091909
+  3.67572112 -0.52568504 -0.90741574 -2.51505507  3.10249369 -2.56674258
+ -5.36612459 -1.2255891  -4.60199499  3.93799861 -1.17224144 -2.7480263 ]</t>
+  </si>
+  <si>
+    <t>[5.80030158912672, 5.043365490076995, 12.001795799249882, 4.401416534712232, 4.009380631773462, 7.355835560861366, 6.04457875818472, 7.709156157275496, 10.526246457972304, 9.64607528142574, 6.587099154489908, 7.125329729243158, 6.616277025525425, 9.649478644086134, 7.698519710962643, 4.2105268030036855, 5.944105629468403, 3.807972234212976, 5.31634027625832, 5.098298183091707, 4.2929969141796125, 7.841418217880333, 4.2749559521207745, 6.6478684444280685, 11.145335676758634, 3.511301862785675, 6.381763656885768, 7.00953545414092, 5.29339927585023, 7.884496029267705]</t>
+  </si>
+  <si>
+    <t>[ 0.10650256  0.74419424 -0.96223024  0.02258464 -0.72795829 -0.06843765
+ -0.96198042 -0.88813448 -0.32995831 -1.93844351 -0.05014687  0.08722005
+ -0.14326378  0.02610162 -0.03861031 -0.07400428 -2.14224733 -0.04048755
+ -0.44244341  0.68919176  0.08670922 -0.61579372 -2.15110506  0.07137233
+  0.0696756  -0.118044    1.91188136 -0.33480959  0.05706218  0.19089054]</t>
+  </si>
+  <si>
+    <t>[1.6912715832718517, 0.8713464523109365, 1.1835850080906947, 1.13269507928822, 1.2863045182433894, 1.6846369122403888, 1.1539661254221336, 1.7336967609320455, 1.4031545087630617, 1.236933938470522, 1.2013380101131474, 1.9515243686348254, 1.2881433758647414, 2.073826582451346, 1.1932865826984727, 1.0730954914589907, 1.5595212110551473, 0.8565420790349659, 2.5220994915464234, 1.3282913214884997, 1.8868035549535693, 1.7237364663555717, 2.001530636603244, 1.504588542809825, 2.877338432811559, 2.30862796481111, 2.8145562475053523, 1.5024164687349064, 2.543593518885641, 0.9041073940753603]</t>
+  </si>
+  <si>
+    <t>[ 0.02137603  0.0018851  -1.06983739 -0.03220718  0.00361738 -0.00477304
+ -0.0936238  -0.05469782  0.07245793 -0.03087179 -0.00253648 -0.03986471
+ -0.03442754 -0.0128284  -0.03156748  0.02986031 -0.01314534 -0.0264881
+  1.00302988 -1.0742213   0.08041049  0.04395635  0.07277064  0.02351565
+ -0.00191898  0.0065627  -0.03859034  0.0231188   0.02391454  0.00700976]</t>
+  </si>
+  <si>
+    <t>[1.473759991485613, 0.7112846398626189, 0.7614427785329585, 0.6904454704764919, 0.7010847201323136, 0.4562590481041939, 1.1819939727132505, 0.5165899574741394, 0.6219671484686844, 1.0220082582416827, 2.3100987464413882, 0.8263042925672691, 2.2932814655874885, 1.2571587490439657, 0.8427674612861656, 1.9286060951285167, 2.5783737207964834, 1.9096238094819364, 0.8657283616823849, 0.6792865418130402, 2.232198897759621, 0.4586097805075731, 1.4469321439882237, 0.5406406279388807, 2.088802667471075, 0.3056148268349752, 2.234919461034618, 2.083445411264718, 1.0918808819601127, 1.6938063957218918]</t>
+  </si>
+  <si>
+    <t>[ 1.92460062e-04 -1.50722224e-04 -7.97419016e-04  1.78920532e-04
+  2.94390300e-05 -3.65455475e-04 -2.10995934e-04  2.69392272e-04
+  7.82549060e-05 -9.07987293e-05  6.96514100e-05 -2.00030217e-04
+  2.09809777e-04 -4.82877691e-04  5.15539380e-05  2.82562349e-04
+  1.36952855e-04  1.97879090e-04  1.98715022e-05 -3.67046272e-04
+ -1.95130187e-04  3.16017765e-04 -2.30065548e-04 -7.67969872e-05
+  1.60637316e-04 -1.43017641e-04  3.57182174e-05 -7.99851873e-06
+ -3.82521842e-04 -4.72956674e-05]</t>
+  </si>
+  <si>
+    <t>[0.5759663076417219, 0.29602673414667896, 0.45594344479159005, 0.03048283104565135, 0.26932791302707926, 0.3686168701398845, 0.27578935340727007, 0.01581771111769614, 0.2865918718012799, 0.26920863079361323, 0.2846134422562487, 0.25936294344467575, 0.29084344507110266, 0.016792030970812596, 0.014370043151867965, 0.0215196919306054, 0.4061872337222345, 0.6896178397937736, 0.30962853626828174, 0.39283665816871866, 0.019938732340967824, 0.42872037893731313, 0.03313711647772186, 0.2964432588791111, 0.5973946372763665, 0.30462650195853147, 0.31108223118628064, 0.2929994617780308, 0.30840277107567565, 0.3956451747869102]</t>
+  </si>
+  <si>
+    <t>Coefficient of variation of goal function value (%)</t>
   </si>
 </sst>
 </file>
@@ -1562,19 +2045,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K161"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.08984375" customWidth="1"/>
-    <col min="2" max="2" width="19.08984375" customWidth="1"/>
-    <col min="5" max="5" width="15.26953125" customWidth="1"/>
-    <col min="6" max="6" width="17.6328125" customWidth="1"/>
-    <col min="7" max="7" width="31.453125" customWidth="1"/>
-    <col min="8" max="8" width="30.54296875" customWidth="1"/>
-    <col min="9" max="9" width="26.54296875" customWidth="1"/>
-    <col min="10" max="10" width="34" customWidth="1"/>
-    <col min="11" max="11" width="42.36328125" customWidth="1"/>
+    <col min="7" max="7" width="41.08984375" customWidth="1"/>
+    <col min="8" max="8" width="22.90625" customWidth="1"/>
+    <col min="9" max="9" width="23.90625" customWidth="1"/>
+    <col min="10" max="10" width="33.81640625" customWidth="1"/>
+    <col min="11" max="11" width="39.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
@@ -1609,12 +2090,12 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>10</v>
+        <v>338</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>30</v>
@@ -1632,24 +2113,24 @@
         <v>0.88</v>
       </c>
       <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2">
+        <v>244.69381532539529</v>
+      </c>
+      <c r="I2">
+        <v>372.73662667864528</v>
+      </c>
+      <c r="J2" t="s">
         <v>12</v>
       </c>
-      <c r="H2">
-        <v>298.08741007747381</v>
-      </c>
-      <c r="I2">
-        <v>364.09813409405268</v>
-      </c>
-      <c r="J2">
-        <v>18.689587680477619</v>
-      </c>
       <c r="K2">
-        <v>5.406858755848833</v>
+        <v>13.02762231801967</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>30</v>
@@ -1670,21 +2151,21 @@
         <v>13</v>
       </c>
       <c r="H3">
-        <v>189.7656546374113</v>
+        <v>195.04385742808759</v>
       </c>
       <c r="I3">
-        <v>381.43562604563022</v>
-      </c>
-      <c r="J3">
-        <v>55.527849114141212</v>
+        <v>351.22063449373849</v>
+      </c>
+      <c r="J3" t="s">
+        <v>14</v>
       </c>
       <c r="K3">
-        <v>19.948873964702639</v>
+        <v>13.34543687790123</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>30</v>
@@ -1702,24 +2183,24 @@
         <v>0.88</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H4">
-        <v>121.28752485546291</v>
+        <v>125.7116379125053</v>
       </c>
       <c r="I4">
-        <v>260.06136126420779</v>
-      </c>
-      <c r="J4">
-        <v>48.740594865162528</v>
+        <v>296.79886146791557</v>
+      </c>
+      <c r="J4" t="s">
+        <v>16</v>
       </c>
       <c r="K4">
-        <v>22.44662150962974</v>
+        <v>23.177670964941189</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>30</v>
@@ -1737,24 +2218,24 @@
         <v>0.88</v>
       </c>
       <c r="G5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H5">
-        <v>44.861006516100993</v>
+        <v>15.896702950821631</v>
       </c>
       <c r="I5">
-        <v>221.02528279680499</v>
-      </c>
-      <c r="J5">
-        <v>55.309069285535379</v>
+        <v>186.1515075382014</v>
+      </c>
+      <c r="J5" t="s">
+        <v>18</v>
       </c>
       <c r="K5">
-        <v>47.515621103175668</v>
+        <v>35.098223830859219</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <v>30</v>
@@ -1772,24 +2253,24 @@
         <v>0.88</v>
       </c>
       <c r="G6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H6">
-        <v>4.026866164945659</v>
+        <v>6.0620945953360206E-3</v>
       </c>
       <c r="I6">
-        <v>138.5780395057011</v>
-      </c>
-      <c r="J6">
-        <v>39.533894543007698</v>
+        <v>91.246671970512693</v>
+      </c>
+      <c r="J6" t="s">
+        <v>20</v>
       </c>
       <c r="K6">
-        <v>99.849624602164496</v>
+        <v>167.92386335074161</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>30</v>
@@ -1807,24 +2288,24 @@
         <v>0.88</v>
       </c>
       <c r="G7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H7">
-        <v>312.75330328390783</v>
+        <v>320.32199945491362</v>
       </c>
       <c r="I7">
-        <v>389.4205057264204</v>
-      </c>
-      <c r="J7">
-        <v>23.602208536164561</v>
+        <v>387.35703742137417</v>
+      </c>
+      <c r="J7" t="s">
+        <v>22</v>
       </c>
       <c r="K7">
-        <v>6.7268896148065149</v>
+        <v>5.6418615362170206</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>30</v>
@@ -1842,24 +2323,24 @@
         <v>0.88</v>
       </c>
       <c r="G8" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H8">
-        <v>162.77443069401539</v>
+        <v>192.44240312221751</v>
       </c>
       <c r="I8">
-        <v>298.16344309094438</v>
-      </c>
-      <c r="J8">
-        <v>38.424375983479813</v>
+        <v>318.29242792384088</v>
+      </c>
+      <c r="J8" t="s">
+        <v>24</v>
       </c>
       <c r="K8">
-        <v>16.045415164623961</v>
+        <v>14.66580691357866</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>30</v>
@@ -1877,24 +2358,24 @@
         <v>0.88</v>
       </c>
       <c r="G9" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H9">
-        <v>124.68830105947571</v>
+        <v>101.72251469572021</v>
       </c>
       <c r="I9">
-        <v>230.90796411686509</v>
-      </c>
-      <c r="J9">
-        <v>34.601691789324803</v>
+        <v>218.6324135746066</v>
+      </c>
+      <c r="J9" t="s">
+        <v>26</v>
       </c>
       <c r="K9">
-        <v>19.659982844839899</v>
+        <v>26.808464539413109</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>30</v>
@@ -1912,24 +2393,24 @@
         <v>0.88</v>
       </c>
       <c r="G10" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H10">
-        <v>69.697537840629423</v>
+        <v>32.149248777499217</v>
       </c>
       <c r="I10">
-        <v>145.06410902560171</v>
-      </c>
-      <c r="J10">
-        <v>22.380206563242371</v>
+        <v>162.9811619351801</v>
+      </c>
+      <c r="J10" t="s">
+        <v>28</v>
       </c>
       <c r="K10">
-        <v>21.1798589792316</v>
+        <v>35.6409923366963</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>30</v>
@@ -1947,24 +2428,24 @@
         <v>0.88</v>
       </c>
       <c r="G11" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="H11">
-        <v>2.150765875746345</v>
+        <v>0.1136689390553443</v>
       </c>
       <c r="I11">
-        <v>82.787603534178004</v>
-      </c>
-      <c r="J11">
-        <v>26.640681926906659</v>
+        <v>93.298414934631865</v>
+      </c>
+      <c r="J11" t="s">
+        <v>30</v>
       </c>
       <c r="K11">
-        <v>78.778789981984659</v>
+        <v>91.976522253201026</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>30</v>
@@ -1982,24 +2463,24 @@
         <v>0.88</v>
       </c>
       <c r="G12" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H12">
-        <v>268.59498306975598</v>
+        <v>272.17230067045898</v>
       </c>
       <c r="I12">
-        <v>377.61385600098572</v>
-      </c>
-      <c r="J12">
-        <v>29.470154841131919</v>
+        <v>361.68744915377658</v>
+      </c>
+      <c r="J12" t="s">
+        <v>32</v>
       </c>
       <c r="K12">
-        <v>9.4172582315589892</v>
+        <v>8.9602201041249465</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13">
         <v>30</v>
@@ -2017,24 +2498,24 @@
         <v>0.88</v>
       </c>
       <c r="G13" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="H13">
-        <v>179.53263381993611</v>
+        <v>144.1928299635878</v>
       </c>
       <c r="I13">
-        <v>293.15117527282513</v>
-      </c>
-      <c r="J13">
-        <v>30.093322704423869</v>
+        <v>255.31063747654409</v>
+      </c>
+      <c r="J13" t="s">
+        <v>34</v>
       </c>
       <c r="K13">
-        <v>12.56689049848344</v>
+        <v>13.234342987616399</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14">
         <v>30</v>
@@ -2052,24 +2533,24 @@
         <v>0.88</v>
       </c>
       <c r="G14" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="H14">
-        <v>83.755142357085418</v>
+        <v>78.228471018608474</v>
       </c>
       <c r="I14">
-        <v>202.98165640764179</v>
-      </c>
-      <c r="J14">
-        <v>33.110835019259817</v>
+        <v>214.66953090755271</v>
+      </c>
+      <c r="J14" t="s">
+        <v>36</v>
       </c>
       <c r="K14">
-        <v>21.135298903216981</v>
+        <v>33.766968979990807</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15">
         <v>30</v>
@@ -2087,24 +2568,24 @@
         <v>0.88</v>
       </c>
       <c r="G15" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="H15">
-        <v>2.6444254589999332</v>
+        <v>0.32154932349374121</v>
       </c>
       <c r="I15">
-        <v>132.65922240850949</v>
-      </c>
-      <c r="J15">
-        <v>45.303910476677054</v>
+        <v>98.835383326502892</v>
+      </c>
+      <c r="J15" t="s">
+        <v>38</v>
       </c>
       <c r="K15">
-        <v>62.867405629934012</v>
+        <v>45.377368874546733</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B16">
         <v>30</v>
@@ -2122,24 +2603,24 @@
         <v>0.88</v>
       </c>
       <c r="G16" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="H16">
-        <v>1.1189560637774321E-2</v>
+        <v>2.786894788187055E-5</v>
       </c>
       <c r="I16">
-        <v>46.788441194424877</v>
-      </c>
-      <c r="J16">
-        <v>13.02749853318852</v>
+        <v>17.361079206283481</v>
+      </c>
+      <c r="J16" t="s">
+        <v>40</v>
       </c>
       <c r="K16">
-        <v>119.9324969815092</v>
+        <v>84.765733586772569</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B17">
         <v>30</v>
@@ -2157,24 +2638,24 @@
         <v>0.88</v>
       </c>
       <c r="G17" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="H17">
-        <v>218.8115019504983</v>
+        <v>252.56045449422331</v>
       </c>
       <c r="I17">
-        <v>361.29917484843662</v>
-      </c>
-      <c r="J17">
-        <v>38.732401080302132</v>
+        <v>355.04636654917982</v>
+      </c>
+      <c r="J17" t="s">
+        <v>42</v>
       </c>
       <c r="K17">
-        <v>13.333854881989909</v>
+        <v>11.670709868730039</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B18">
         <v>30</v>
@@ -2192,24 +2673,24 @@
         <v>0.88</v>
       </c>
       <c r="G18" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="H18">
-        <v>189.8229812578916</v>
+        <v>192.15367531160049</v>
       </c>
       <c r="I18">
-        <v>241.61631535977079</v>
-      </c>
-      <c r="J18">
-        <v>20.134292297020782</v>
+        <v>255.67100129280101</v>
+      </c>
+      <c r="J18" t="s">
+        <v>44</v>
       </c>
       <c r="K18">
-        <v>9.2977453557170584</v>
+        <v>9.0972455955177285</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B19">
         <v>30</v>
@@ -2227,24 +2708,24 @@
         <v>0.88</v>
       </c>
       <c r="G19" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="H19">
-        <v>85.820136648981247</v>
+        <v>82.945168612284363</v>
       </c>
       <c r="I19">
-        <v>155.3305062167411</v>
-      </c>
-      <c r="J19">
-        <v>29.139039669097709</v>
+        <v>164.6509434458342</v>
+      </c>
+      <c r="J19" t="s">
+        <v>46</v>
       </c>
       <c r="K19">
-        <v>24.755497550495839</v>
+        <v>20.057963207013781</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B20">
         <v>30</v>
@@ -2262,24 +2743,24 @@
         <v>0.88</v>
       </c>
       <c r="G20" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="H20">
-        <v>4.1967359174135481</v>
+        <v>15.820395705413199</v>
       </c>
       <c r="I20">
-        <v>89.583169783095883</v>
-      </c>
-      <c r="J20">
-        <v>30.888091669271919</v>
+        <v>103.99792749943801</v>
+      </c>
+      <c r="J20" t="s">
+        <v>48</v>
       </c>
       <c r="K20">
-        <v>66.435669731178848</v>
+        <v>44.821782668812368</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B21">
         <v>30</v>
@@ -2297,24 +2778,24 @@
         <v>0.88</v>
       </c>
       <c r="G21" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="H21">
-        <v>1.703868607103232E-2</v>
+        <v>5.02563424163327E-4</v>
       </c>
       <c r="I21">
-        <v>18.844075618732919</v>
-      </c>
-      <c r="J21">
-        <v>6.3081633167909814</v>
+        <v>27.78259769879833</v>
+      </c>
+      <c r="J21" t="s">
+        <v>50</v>
       </c>
       <c r="K21">
-        <v>107.58109387076679</v>
+        <v>88.408913167725188</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="B22">
         <v>30</v>
@@ -2332,24 +2813,24 @@
         <v>0.88</v>
       </c>
       <c r="G22" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="H22">
-        <v>33780.912627253478</v>
+        <v>26176.072427026029</v>
       </c>
       <c r="I22">
-        <v>240131.4815999573</v>
-      </c>
-      <c r="J22">
-        <v>58710.585312040967</v>
+        <v>208458.91312773639</v>
+      </c>
+      <c r="J22" t="s">
+        <v>53</v>
       </c>
       <c r="K22">
-        <v>57.236948839342503</v>
+        <v>65.628906099040023</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="B23">
         <v>30</v>
@@ -2367,24 +2848,24 @@
         <v>0.88</v>
       </c>
       <c r="G23" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="H23">
-        <v>3917.9476551425801</v>
+        <v>3157.9084018763729</v>
       </c>
       <c r="I23">
-        <v>33651.809442989877</v>
-      </c>
-      <c r="J23">
-        <v>7811.1822808801708</v>
+        <v>38140.115637271469</v>
+      </c>
+      <c r="J23" t="s">
+        <v>55</v>
       </c>
       <c r="K23">
-        <v>47.958624593660367</v>
+        <v>46.656591766144828</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="B24">
         <v>30</v>
@@ -2402,24 +2883,24 @@
         <v>0.88</v>
       </c>
       <c r="G24" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="H24">
-        <v>708.98111677783641</v>
+        <v>253.51130050217739</v>
       </c>
       <c r="I24">
-        <v>25635.898348513329</v>
-      </c>
-      <c r="J24">
-        <v>7340.8156514818656</v>
+        <v>49493.714982138663</v>
+      </c>
+      <c r="J24" t="s">
+        <v>57</v>
       </c>
       <c r="K24">
-        <v>132.91802980211631</v>
+        <v>177.0421789434254</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="B25">
         <v>30</v>
@@ -2437,24 +2918,24 @@
         <v>0.88</v>
       </c>
       <c r="G25" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="H25">
-        <v>31.980210419563541</v>
+        <v>38.918333693019022</v>
       </c>
       <c r="I25">
-        <v>21169.00622618942</v>
-      </c>
-      <c r="J25">
-        <v>7965.578903836682</v>
+        <v>304.43680200729438</v>
+      </c>
+      <c r="J25" t="s">
+        <v>59</v>
       </c>
       <c r="K25">
-        <v>173.47688224316369</v>
+        <v>60.731858023568918</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="B26">
         <v>30</v>
@@ -2472,24 +2953,24 @@
         <v>0.88</v>
       </c>
       <c r="G26" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="H26">
-        <v>27.40212938288402</v>
+        <v>28.7024182533785</v>
       </c>
       <c r="I26">
-        <v>38.148274622468847</v>
-      </c>
-      <c r="J26">
-        <v>2.882235334605344</v>
+        <v>29.18656973908422</v>
+      </c>
+      <c r="J26" t="s">
+        <v>61</v>
       </c>
       <c r="K26">
-        <v>9.6772746620821408</v>
+        <v>0.4428455678317883</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="B27">
         <v>30</v>
@@ -2507,24 +2988,24 @@
         <v>0.88</v>
       </c>
       <c r="G27" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="H27">
-        <v>47945.683608508691</v>
+        <v>29521.521840904439</v>
       </c>
       <c r="I27">
-        <v>110022.23189741631</v>
-      </c>
-      <c r="J27">
-        <v>17565.095394481821</v>
+        <v>135063.04099896309</v>
+      </c>
+      <c r="J27" t="s">
+        <v>63</v>
       </c>
       <c r="K27">
-        <v>22.309419840335678</v>
+        <v>35.160486962301022</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="B28">
         <v>30</v>
@@ -2542,24 +3023,24 @@
         <v>0.88</v>
       </c>
       <c r="G28" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="H28">
-        <v>4703.9924270007969</v>
+        <v>5492.8414779931009</v>
       </c>
       <c r="I28">
-        <v>86100.981911197086</v>
-      </c>
-      <c r="J28">
-        <v>23600.160619870669</v>
+        <v>100411.0591687337</v>
+      </c>
+      <c r="J28" t="s">
+        <v>65</v>
       </c>
       <c r="K28">
-        <v>96.446729215023652</v>
+        <v>111.9840824674388</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="B29">
         <v>30</v>
@@ -2577,24 +3058,24 @@
         <v>0.88</v>
       </c>
       <c r="G29" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="H29">
-        <v>332.89799708362028</v>
+        <v>305.36539806711357</v>
       </c>
       <c r="I29">
-        <v>24673.06938080641</v>
-      </c>
-      <c r="J29">
-        <v>7129.1734463739158</v>
+        <v>12390.500348270851</v>
+      </c>
+      <c r="J29" t="s">
+        <v>67</v>
       </c>
       <c r="K29">
-        <v>209.92624303968441</v>
+        <v>142.78463148216741</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="B30">
         <v>30</v>
@@ -2612,24 +3093,24 @@
         <v>0.88</v>
       </c>
       <c r="G30" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="H30">
-        <v>30.23336506385786</v>
+        <v>30.432487073928659</v>
       </c>
       <c r="I30">
-        <v>3158.3121420954299</v>
-      </c>
-      <c r="J30">
-        <v>937.36630496238593</v>
+        <v>1813.9715088279561</v>
+      </c>
+      <c r="J30" t="s">
+        <v>69</v>
       </c>
       <c r="K30">
-        <v>215.3385706290729</v>
+        <v>250.155936608953</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="B31">
         <v>30</v>
@@ -2647,24 +3128,24 @@
         <v>0.88</v>
       </c>
       <c r="G31" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="H31">
-        <v>28.079445065575911</v>
+        <v>28.00108732795303</v>
       </c>
       <c r="I31">
-        <v>439.53050654907258</v>
-      </c>
-      <c r="J31">
-        <v>123.2411975269748</v>
+        <v>156.88808738231239</v>
+      </c>
+      <c r="J31" t="s">
+        <v>71</v>
       </c>
       <c r="K31">
-        <v>176.54385208642111</v>
+        <v>92.635204753483933</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="B32">
         <v>30</v>
@@ -2682,24 +3163,24 @@
         <v>0.88</v>
       </c>
       <c r="G32" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="H32">
-        <v>15695.686549759121</v>
+        <v>17320.070283293429</v>
       </c>
       <c r="I32">
-        <v>108852.576353557</v>
-      </c>
-      <c r="J32">
-        <v>26194.85578452858</v>
+        <v>101488.51275828559</v>
+      </c>
+      <c r="J32" t="s">
+        <v>73</v>
       </c>
       <c r="K32">
-        <v>72.694656992323488</v>
+        <v>45.650081149890561</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="B33">
         <v>30</v>
@@ -2717,24 +3198,24 @@
         <v>0.88</v>
       </c>
       <c r="G33" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="H33">
-        <v>2772.4815255681401</v>
+        <v>1430.351976894101</v>
       </c>
       <c r="I33">
-        <v>46395.118553116467</v>
-      </c>
-      <c r="J33">
-        <v>13606.382932556249</v>
+        <v>28887.527732349601</v>
+      </c>
+      <c r="J33" t="s">
+        <v>75</v>
       </c>
       <c r="K33">
-        <v>109.0081472595201</v>
+        <v>79.771126671615349</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="B34">
         <v>30</v>
@@ -2752,24 +3233,24 @@
         <v>0.88</v>
       </c>
       <c r="G34" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="H34">
-        <v>152.31981763796449</v>
+        <v>113.9323252627196</v>
       </c>
       <c r="I34">
-        <v>4410.8344964124508</v>
-      </c>
-      <c r="J34">
-        <v>1219.810467032959</v>
+        <v>9751.3537810209564</v>
+      </c>
+      <c r="J34" t="s">
+        <v>77</v>
       </c>
       <c r="K34">
-        <v>151.35923377246661</v>
+        <v>222.97919652461181</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="B35">
         <v>30</v>
@@ -2787,24 +3268,24 @@
         <v>0.88</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="H35">
-        <v>28.873947752021571</v>
+        <v>29.92507158613569</v>
       </c>
       <c r="I35">
-        <v>85.347748753030473</v>
-      </c>
-      <c r="J35">
-        <v>16.336849166853831</v>
+        <v>135.78158015612269</v>
+      </c>
+      <c r="J35" t="s">
+        <v>79</v>
       </c>
       <c r="K35">
-        <v>42.81100850084384</v>
+        <v>64.993208148598313</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="B36">
         <v>30</v>
@@ -2822,24 +3303,24 @@
         <v>0.88</v>
       </c>
       <c r="G36" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="H36">
-        <v>28.030608829759661</v>
+        <v>27.69243994784998</v>
       </c>
       <c r="I36">
-        <v>32.994502551491948</v>
-      </c>
-      <c r="J36">
-        <v>1.3567025683884091</v>
+        <v>28.84945614902567</v>
+      </c>
+      <c r="J36" t="s">
+        <v>81</v>
       </c>
       <c r="K36">
-        <v>4.6494465002291543</v>
+        <v>1.5111809376752059</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="B37">
         <v>30</v>
@@ -2857,24 +3338,24 @@
         <v>0.88</v>
       </c>
       <c r="G37" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="H37">
-        <v>9925.8850426877107</v>
+        <v>18513.6195574181</v>
       </c>
       <c r="I37">
-        <v>63143.902681807776</v>
-      </c>
-      <c r="J37">
-        <v>15407.42786018221</v>
+        <v>65738.775416364428</v>
+      </c>
+      <c r="J37" t="s">
+        <v>83</v>
       </c>
       <c r="K37">
-        <v>60.369902222944937</v>
+        <v>48.987891534126852</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="B38">
         <v>30</v>
@@ -2892,24 +3373,24 @@
         <v>0.88</v>
       </c>
       <c r="G38" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="H38">
-        <v>1910.200712655497</v>
+        <v>1427.165393772505</v>
       </c>
       <c r="I38">
-        <v>7176.4264935473857</v>
-      </c>
-      <c r="J38">
-        <v>1680.570174565979</v>
+        <v>14779.56527052938</v>
+      </c>
+      <c r="J38" t="s">
+        <v>85</v>
       </c>
       <c r="K38">
-        <v>41.646707908451752</v>
+        <v>84.221680344615422</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="B39">
         <v>30</v>
@@ -2927,24 +3408,24 @@
         <v>0.88</v>
       </c>
       <c r="G39" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="H39">
-        <v>105.0315494679637</v>
+        <v>94.757394858406371</v>
       </c>
       <c r="I39">
-        <v>444.83657700431371</v>
-      </c>
-      <c r="J39">
-        <v>113.03675127226001</v>
+        <v>321.00028640946721</v>
+      </c>
+      <c r="J39" t="s">
+        <v>87</v>
       </c>
       <c r="K39">
-        <v>43.256873685405218</v>
+        <v>43.900687640671563</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="B40">
         <v>30</v>
@@ -2962,24 +3443,24 @@
         <v>0.88</v>
       </c>
       <c r="G40" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="H40">
-        <v>28.69542187487351</v>
+        <v>28.393613679771679</v>
       </c>
       <c r="I40">
-        <v>121.1818510041423</v>
-      </c>
-      <c r="J40">
-        <v>27.109212081321129</v>
+        <v>31.883539394782911</v>
+      </c>
+      <c r="J40" t="s">
+        <v>89</v>
       </c>
       <c r="K40">
-        <v>60.704869549844339</v>
+        <v>3.3272352245103902</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="B41">
         <v>30</v>
@@ -2997,24 +3478,24 @@
         <v>0.88</v>
       </c>
       <c r="G41" t="s">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="H41">
-        <v>27.79296904946208</v>
+        <v>27.776747539658469</v>
       </c>
       <c r="I41">
-        <v>28.829535655021271</v>
-      </c>
-      <c r="J41">
-        <v>0.38837149048369218</v>
+        <v>94.166484596790724</v>
+      </c>
+      <c r="J41" t="s">
+        <v>91</v>
       </c>
       <c r="K41">
-        <v>1.3759118828562009</v>
+        <v>56.331458920061969</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="B42">
         <v>2</v>
@@ -3032,24 +3513,24 @@
         <v>0.88</v>
       </c>
       <c r="G42" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="H42">
-        <v>1.785109550175868</v>
+        <v>1.9886454413658281</v>
       </c>
       <c r="I42">
-        <v>37.232411321473009</v>
-      </c>
-      <c r="J42">
-        <v>11.02960366682546</v>
+        <v>26.080168649508149</v>
+      </c>
+      <c r="J42" t="s">
+        <v>94</v>
       </c>
       <c r="K42">
-        <v>61.002412075884187</v>
+        <v>66.64226638752946</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="B43">
         <v>2</v>
@@ -3067,24 +3548,24 @@
         <v>0.88</v>
       </c>
       <c r="G43" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="H43">
-        <v>2.7853736017832809</v>
+        <v>1.103845427631607</v>
       </c>
       <c r="I43">
-        <v>28.105603605841889</v>
-      </c>
-      <c r="J43">
-        <v>7.1532725476721399</v>
+        <v>16.426364673605629</v>
+      </c>
+      <c r="J43" t="s">
+        <v>96</v>
       </c>
       <c r="K43">
-        <v>67.431097036927511</v>
+        <v>72.081587895702086</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="B44">
         <v>2</v>
@@ -3102,24 +3583,24 @@
         <v>0.88</v>
       </c>
       <c r="G44" t="s">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="H44">
-        <v>0.71566973036411063</v>
+        <v>0.39158750157197492</v>
       </c>
       <c r="I44">
-        <v>6.7914008831781461</v>
-      </c>
-      <c r="J44">
-        <v>1.6170755212316821</v>
+        <v>4.1322231977512276</v>
+      </c>
+      <c r="J44" t="s">
+        <v>98</v>
       </c>
       <c r="K44">
-        <v>56.267971136052573</v>
+        <v>52.154168763693342</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="B45">
         <v>2</v>
@@ -3137,24 +3618,24 @@
         <v>0.88</v>
       </c>
       <c r="G45" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
       <c r="H45">
-        <v>0.51628180091069187</v>
+        <v>0.51729179094480549</v>
       </c>
       <c r="I45">
-        <v>2.9586062071285042</v>
-      </c>
-      <c r="J45">
-        <v>0.86612753369957762</v>
+        <v>3.9058467316321601</v>
+      </c>
+      <c r="J45" t="s">
+        <v>100</v>
       </c>
       <c r="K45">
-        <v>59.94554231995555</v>
+        <v>55.944516036403577</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="B46">
         <v>2</v>
@@ -3172,24 +3653,24 @@
         <v>0.88</v>
       </c>
       <c r="G46" t="s">
-        <v>58</v>
+        <v>101</v>
       </c>
       <c r="H46">
-        <v>0.13729875638037539</v>
+        <v>6.6633847837620261E-2</v>
       </c>
       <c r="I46">
-        <v>1.233506927345321</v>
-      </c>
-      <c r="J46">
-        <v>0.30592692904455587</v>
+        <v>0.81573450028461403</v>
+      </c>
+      <c r="J46" t="s">
+        <v>102</v>
       </c>
       <c r="K46">
-        <v>57.473593859236168</v>
+        <v>51.258246024478503</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="B47">
         <v>2</v>
@@ -3207,24 +3688,24 @@
         <v>0.88</v>
       </c>
       <c r="G47" t="s">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="H47">
-        <v>0.84786367365300386</v>
+        <v>2.723802494596177</v>
       </c>
       <c r="I47">
-        <v>18.551142377746359</v>
-      </c>
-      <c r="J47">
-        <v>5.7238977547475507</v>
+        <v>21.044786732217009</v>
+      </c>
+      <c r="J47" t="s">
+        <v>104</v>
       </c>
       <c r="K47">
-        <v>71.623265932291048</v>
+        <v>68.453464394421758</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="B48">
         <v>2</v>
@@ -3242,24 +3723,24 @@
         <v>0.88</v>
       </c>
       <c r="G48" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="H48">
-        <v>1.028781304866462</v>
+        <v>1.0114296896506569</v>
       </c>
       <c r="I48">
-        <v>9.1469367957644323</v>
-      </c>
-      <c r="J48">
-        <v>2.380953003437678</v>
+        <v>7.7378849369867844</v>
+      </c>
+      <c r="J48" t="s">
+        <v>106</v>
       </c>
       <c r="K48">
-        <v>58.751192782708827</v>
+        <v>58.021134319325533</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="B49">
         <v>2</v>
@@ -3277,24 +3758,24 @@
         <v>0.88</v>
       </c>
       <c r="G49" t="s">
-        <v>61</v>
+        <v>107</v>
       </c>
       <c r="H49">
-        <v>0.54915668823983199</v>
+        <v>0.28643750639751792</v>
       </c>
       <c r="I49">
-        <v>3.8106100207496678</v>
-      </c>
-      <c r="J49">
-        <v>0.90170436098511775</v>
+        <v>5.979038688006848</v>
+      </c>
+      <c r="J49" t="s">
+        <v>108</v>
       </c>
       <c r="K49">
-        <v>38.060125913523521</v>
+        <v>73.781182086479447</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="B50">
         <v>2</v>
@@ -3312,24 +3793,24 @@
         <v>0.88</v>
       </c>
       <c r="G50" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
       <c r="H50">
-        <v>0.25215733750703873</v>
+        <v>0.1243663485439004</v>
       </c>
       <c r="I50">
-        <v>0.93653537902343098</v>
-      </c>
-      <c r="J50">
-        <v>0.221483644802039</v>
+        <v>2.7251407096142342</v>
+      </c>
+      <c r="J50" t="s">
+        <v>110</v>
       </c>
       <c r="K50">
-        <v>35.573359689199563</v>
+        <v>60.255290334883071</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="B51">
         <v>2</v>
@@ -3347,24 +3828,24 @@
         <v>0.88</v>
       </c>
       <c r="G51" t="s">
-        <v>63</v>
+        <v>111</v>
       </c>
       <c r="H51">
-        <v>0.28869444146281242</v>
+        <v>0.14145215988011031</v>
       </c>
       <c r="I51">
-        <v>0.9975973695220709</v>
-      </c>
-      <c r="J51">
-        <v>0.252777708368357</v>
+        <v>0.98454490058725697</v>
+      </c>
+      <c r="J51" t="s">
+        <v>112</v>
       </c>
       <c r="K51">
-        <v>45.024660665291407</v>
+        <v>60.434006211863156</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="B52">
         <v>2</v>
@@ -3382,24 +3863,24 @@
         <v>0.88</v>
       </c>
       <c r="G52" t="s">
-        <v>64</v>
+        <v>113</v>
       </c>
       <c r="H52">
-        <v>4.2968555814648788</v>
+        <v>2.559525073295017</v>
       </c>
       <c r="I52">
-        <v>16.1538550856672</v>
-      </c>
-      <c r="J52">
-        <v>3.6429774853703059</v>
+        <v>10.8262376840951</v>
+      </c>
+      <c r="J52" t="s">
+        <v>114</v>
       </c>
       <c r="K52">
-        <v>47.236211420059547</v>
+        <v>34.517524602406922</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="B53">
         <v>2</v>
@@ -3417,24 +3898,24 @@
         <v>0.88</v>
       </c>
       <c r="G53" t="s">
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="H53">
-        <v>0.2138588495448526</v>
+        <v>1.1860131792909401</v>
       </c>
       <c r="I53">
-        <v>5.3426246575297931</v>
-      </c>
-      <c r="J53">
-        <v>1.848843508946743</v>
+        <v>6.0006518092068379</v>
+      </c>
+      <c r="J53" t="s">
+        <v>116</v>
       </c>
       <c r="K53">
-        <v>79.69859374322786</v>
+        <v>42.575013374305982</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="B54">
         <v>2</v>
@@ -3452,24 +3933,24 @@
         <v>0.88</v>
       </c>
       <c r="G54" t="s">
-        <v>66</v>
+        <v>117</v>
       </c>
       <c r="H54">
-        <v>0.66407351710584595</v>
+        <v>0.95623074236483285</v>
       </c>
       <c r="I54">
-        <v>2.760535510749659</v>
-      </c>
-      <c r="J54">
-        <v>0.58077538079852675</v>
+        <v>2.9990840503815108</v>
+      </c>
+      <c r="J54" t="s">
+        <v>118</v>
       </c>
       <c r="K54">
-        <v>39.54268210256005</v>
+        <v>39.541949807670072</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="B55">
         <v>2</v>
@@ -3487,24 +3968,24 @@
         <v>0.88</v>
       </c>
       <c r="G55" t="s">
-        <v>67</v>
+        <v>119</v>
       </c>
       <c r="H55">
-        <v>0.17660550818908821</v>
+        <v>0.125665635467515</v>
       </c>
       <c r="I55">
-        <v>1.1001441346950329</v>
-      </c>
-      <c r="J55">
-        <v>0.27272425762294611</v>
+        <v>1.8615790570721269</v>
+      </c>
+      <c r="J55" t="s">
+        <v>120</v>
       </c>
       <c r="K55">
-        <v>42.388247490719287</v>
+        <v>58.352340821634982</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="B56">
         <v>2</v>
@@ -3522,24 +4003,24 @@
         <v>0.88</v>
       </c>
       <c r="G56" t="s">
-        <v>68</v>
+        <v>121</v>
       </c>
       <c r="H56">
-        <v>9.9536394708303971E-2</v>
+        <v>0.22044442740160619</v>
       </c>
       <c r="I56">
-        <v>0.77897646061753711</v>
-      </c>
-      <c r="J56">
-        <v>0.17984725188836179</v>
+        <v>1.1043091111319041</v>
+      </c>
+      <c r="J56" t="s">
+        <v>122</v>
       </c>
       <c r="K56">
-        <v>62.06945812575502</v>
+        <v>60.620380817543612</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="B57">
         <v>2</v>
@@ -3557,24 +4038,24 @@
         <v>0.88</v>
       </c>
       <c r="G57" t="s">
-        <v>69</v>
+        <v>123</v>
       </c>
       <c r="H57">
-        <v>2.068384642094665</v>
+        <v>1.092707011540317</v>
       </c>
       <c r="I57">
-        <v>9.2206357742558893</v>
-      </c>
-      <c r="J57">
-        <v>2.086345830468975</v>
+        <v>7.8601197615670308</v>
+      </c>
+      <c r="J57" t="s">
+        <v>124</v>
       </c>
       <c r="K57">
-        <v>45.842021118439128</v>
+        <v>60.386819812741578</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="B58">
         <v>2</v>
@@ -3592,24 +4073,24 @@
         <v>0.88</v>
       </c>
       <c r="G58" t="s">
-        <v>70</v>
+        <v>125</v>
       </c>
       <c r="H58">
-        <v>1.057352391438291</v>
+        <v>0.90244775262927557</v>
       </c>
       <c r="I58">
-        <v>3.514632915276191</v>
-      </c>
-      <c r="J58">
-        <v>0.805904500761771</v>
+        <v>3.0426031157237441</v>
+      </c>
+      <c r="J58" t="s">
+        <v>126</v>
       </c>
       <c r="K58">
-        <v>36.752252375721618</v>
+        <v>38.548715127912978</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="B59">
         <v>2</v>
@@ -3627,24 +4108,24 @@
         <v>0.88</v>
       </c>
       <c r="G59" t="s">
-        <v>71</v>
+        <v>127</v>
       </c>
       <c r="H59">
-        <v>0.45003282899437108</v>
+        <v>0.38327212743313821</v>
       </c>
       <c r="I59">
-        <v>1.9687375350654841</v>
-      </c>
-      <c r="J59">
-        <v>0.46035837217009012</v>
+        <v>1.9697883321890031</v>
+      </c>
+      <c r="J59" t="s">
+        <v>128</v>
       </c>
       <c r="K59">
-        <v>46.894411300754733</v>
+        <v>49.659257113867653</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="B60">
         <v>2</v>
@@ -3662,24 +4143,24 @@
         <v>0.88</v>
       </c>
       <c r="G60" t="s">
-        <v>72</v>
+        <v>129</v>
       </c>
       <c r="H60">
-        <v>0.1398853656456302</v>
+        <v>0.14499386199432379</v>
       </c>
       <c r="I60">
-        <v>0.8719134657787081</v>
-      </c>
-      <c r="J60">
-        <v>0.27108195707732569</v>
+        <v>0.5631495593015351</v>
+      </c>
+      <c r="J60" t="s">
+        <v>130</v>
       </c>
       <c r="K60">
-        <v>50.597611769438018</v>
+        <v>30.984941167274538</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="B61">
         <v>2</v>
@@ -3697,24 +4178,24 @@
         <v>0.88</v>
       </c>
       <c r="G61" t="s">
-        <v>73</v>
+        <v>131</v>
       </c>
       <c r="H61">
-        <v>9.6289217261439297E-2</v>
+        <v>7.8287273294972023E-2</v>
       </c>
       <c r="I61">
-        <v>0.53183166157266426</v>
-      </c>
-      <c r="J61">
-        <v>0.1464164344187259</v>
+        <v>0.52309067849149515</v>
+      </c>
+      <c r="J61" t="s">
+        <v>132</v>
       </c>
       <c r="K61">
-        <v>49.564140141055233</v>
+        <v>57.686428349598202</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="B62">
         <v>2</v>
@@ -3732,24 +4213,24 @@
         <v>0.88</v>
       </c>
       <c r="G62" t="s">
-        <v>75</v>
+        <v>134</v>
       </c>
       <c r="H62">
-        <v>4.6238015422887718E-2</v>
+        <v>8.8293676554513836E-3</v>
       </c>
       <c r="I62">
-        <v>11.98153686788533</v>
-      </c>
-      <c r="J62">
-        <v>4.1819853424759597</v>
+        <v>4.3925855419222124</v>
+      </c>
+      <c r="J62" t="s">
+        <v>135</v>
       </c>
       <c r="K62">
-        <v>110.9849243345846</v>
+        <v>67.500580668701332</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="B63">
         <v>2</v>
@@ -3767,24 +4248,24 @@
         <v>0.88</v>
       </c>
       <c r="G63" t="s">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="H63">
-        <v>4.1016500791584427E-2</v>
+        <v>3.2658761297570567E-2</v>
       </c>
       <c r="I63">
-        <v>4.7018797819666283</v>
-      </c>
-      <c r="J63">
-        <v>1.3345190728156631</v>
+        <v>4.1966999188054102</v>
+      </c>
+      <c r="J63" t="s">
+        <v>137</v>
       </c>
       <c r="K63">
-        <v>181.35752377596279</v>
+        <v>141.40872599747979</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="B64">
         <v>2</v>
@@ -3802,24 +4283,24 @@
         <v>0.88</v>
       </c>
       <c r="G64" t="s">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="H64">
-        <v>5.3160397753257886E-3</v>
+        <v>1.007119373505053E-3</v>
       </c>
       <c r="I64">
-        <v>0.3621270959192831</v>
-      </c>
-      <c r="J64">
-        <v>0.11805200285734591</v>
+        <v>1.155928004309323</v>
+      </c>
+      <c r="J64" t="s">
+        <v>139</v>
       </c>
       <c r="K64">
-        <v>96.780616431829031</v>
+        <v>229.00840938229101</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="B65">
         <v>2</v>
@@ -3837,24 +4318,24 @@
         <v>0.88</v>
       </c>
       <c r="G65" t="s">
-        <v>78</v>
+        <v>140</v>
       </c>
       <c r="H65">
-        <v>2.1058019638969729E-4</v>
+        <v>5.4734242246144603E-6</v>
       </c>
       <c r="I65">
-        <v>5.3770244897941771E-2</v>
-      </c>
-      <c r="J65">
-        <v>1.5831055635447022E-2</v>
+        <v>2.6121668060770171E-2</v>
+      </c>
+      <c r="J65" t="s">
+        <v>141</v>
       </c>
       <c r="K65">
-        <v>249.58488466987561</v>
+        <v>127.5686340819678</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="B66">
         <v>2</v>
@@ -3872,24 +4353,24 @@
         <v>0.88</v>
       </c>
       <c r="G66" t="s">
-        <v>79</v>
+        <v>142</v>
       </c>
       <c r="H66">
-        <v>1.6989269171241339E-5</v>
+        <v>1.077116028372464E-5</v>
       </c>
       <c r="I66">
-        <v>2.6954373396842909E-3</v>
-      </c>
-      <c r="J66">
-        <v>7.0926730770020643E-4</v>
+        <v>9.6722236737905795E-3</v>
+      </c>
+      <c r="J66" t="s">
+        <v>143</v>
       </c>
       <c r="K66">
-        <v>114.9872584170645</v>
+        <v>173.98758803968411</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="B67">
         <v>2</v>
@@ -3907,24 +4388,24 @@
         <v>0.88</v>
       </c>
       <c r="G67" t="s">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="H67">
-        <v>2.7517139931715121E-2</v>
+        <v>4.4024540084190197E-2</v>
       </c>
       <c r="I67">
-        <v>4.5871104048760323</v>
-      </c>
-      <c r="J67">
-        <v>1.3502390157697619</v>
+        <v>6.6264428885474169</v>
+      </c>
+      <c r="J67" t="s">
+        <v>145</v>
       </c>
       <c r="K67">
-        <v>133.30426058365859</v>
+        <v>90.279300057384063</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="B68">
         <v>2</v>
@@ -3942,24 +4423,24 @@
         <v>0.88</v>
       </c>
       <c r="G68" t="s">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="H68">
-        <v>3.2866331346997619E-4</v>
+        <v>2.3268417118847261E-3</v>
       </c>
       <c r="I68">
-        <v>1.0900529059294819</v>
-      </c>
-      <c r="J68">
-        <v>0.31645467474504962</v>
+        <v>0.80354585871305462</v>
+      </c>
+      <c r="J68" t="s">
+        <v>147</v>
       </c>
       <c r="K68">
-        <v>217.85454832821071</v>
+        <v>105.0816958688595</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="B69">
         <v>2</v>
@@ -3977,24 +4458,24 @@
         <v>0.88</v>
       </c>
       <c r="G69" t="s">
-        <v>82</v>
+        <v>148</v>
       </c>
       <c r="H69">
-        <v>2.7182245786407149E-4</v>
+        <v>4.8281527492566382E-4</v>
       </c>
       <c r="I69">
-        <v>0.1123921046960301</v>
-      </c>
-      <c r="J69">
-        <v>3.122979440569813E-2</v>
+        <v>7.8180163858098992E-2</v>
+      </c>
+      <c r="J69" t="s">
+        <v>149</v>
       </c>
       <c r="K69">
-        <v>123.516153162824</v>
+        <v>136.691017278489</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="B70">
         <v>2</v>
@@ -4012,24 +4493,24 @@
         <v>0.88</v>
       </c>
       <c r="G70" t="s">
-        <v>83</v>
+        <v>150</v>
       </c>
       <c r="H70">
-        <v>7.0199451225798994E-6</v>
+        <v>5.9530453805763551E-5</v>
       </c>
       <c r="I70">
-        <v>4.7335872554397831E-3</v>
-      </c>
-      <c r="J70">
-        <v>1.538415094361503E-3</v>
+        <v>1.3372960784742561E-2</v>
+      </c>
+      <c r="J70" t="s">
+        <v>151</v>
       </c>
       <c r="K70">
-        <v>93.085775830445698</v>
+        <v>193.3288845178617</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="B71">
         <v>2</v>
@@ -4047,24 +4528,24 @@
         <v>0.88</v>
       </c>
       <c r="G71" t="s">
-        <v>84</v>
+        <v>152</v>
       </c>
       <c r="H71">
-        <v>8.6741786115454472E-6</v>
+        <v>8.1255821219591374E-6</v>
       </c>
       <c r="I71">
-        <v>4.5703023391887942E-4</v>
-      </c>
-      <c r="J71">
-        <v>1.5916718432865511E-4</v>
+        <v>1.016780500609469E-4</v>
+      </c>
+      <c r="J71" t="s">
+        <v>153</v>
       </c>
       <c r="K71">
-        <v>132.02554451047811</v>
+        <v>59.920695782615283</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="B72">
         <v>2</v>
@@ -4082,24 +4563,24 @@
         <v>0.88</v>
       </c>
       <c r="G72" t="s">
-        <v>85</v>
+        <v>154</v>
       </c>
       <c r="H72">
-        <v>2.7530429245011261E-3</v>
+        <v>3.9695244305992406E-3</v>
       </c>
       <c r="I72">
-        <v>0.52251057209650498</v>
-      </c>
-      <c r="J72">
-        <v>0.1754950462666256</v>
+        <v>1.4140643797910419</v>
+      </c>
+      <c r="J72" t="s">
+        <v>155</v>
       </c>
       <c r="K72">
-        <v>88.339760511631326</v>
+        <v>125.93558600212189</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="B73">
         <v>2</v>
@@ -4117,24 +4598,24 @@
         <v>0.88</v>
       </c>
       <c r="G73" t="s">
-        <v>86</v>
+        <v>156</v>
       </c>
       <c r="H73">
-        <v>1.5035692838629841E-3</v>
+        <v>5.0052197981076928E-4</v>
       </c>
       <c r="I73">
-        <v>7.4907889312501766E-2</v>
-      </c>
-      <c r="J73">
-        <v>2.6341921764395329E-2</v>
+        <v>0.120325110503971</v>
+      </c>
+      <c r="J73" t="s">
+        <v>157</v>
       </c>
       <c r="K73">
-        <v>77.641224650290312</v>
+        <v>96.804949373558415</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="B74">
         <v>2</v>
@@ -4152,24 +4633,24 @@
         <v>0.88</v>
       </c>
       <c r="G74" t="s">
-        <v>87</v>
+        <v>158</v>
       </c>
       <c r="H74">
-        <v>2.1084062233983629E-5</v>
+        <v>1.2214787038847081E-5</v>
       </c>
       <c r="I74">
-        <v>5.4975219586051942E-2</v>
-      </c>
-      <c r="J74">
-        <v>1.620151753574773E-2</v>
+        <v>5.7945052404433407E-3</v>
+      </c>
+      <c r="J74" t="s">
+        <v>159</v>
       </c>
       <c r="K74">
-        <v>145.8215792822364</v>
+        <v>95.182806189421157</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="B75">
         <v>2</v>
@@ -4187,24 +4668,24 @@
         <v>0.88</v>
       </c>
       <c r="G75" t="s">
-        <v>88</v>
+        <v>160</v>
       </c>
       <c r="H75">
-        <v>8.0384654980847962E-7</v>
+        <v>3.9375351355550887E-6</v>
       </c>
       <c r="I75">
-        <v>3.7415143731899681E-3</v>
-      </c>
-      <c r="J75">
-        <v>1.068332633407482E-3</v>
+        <v>4.915173971846257E-4</v>
+      </c>
+      <c r="J75" t="s">
+        <v>161</v>
       </c>
       <c r="K75">
-        <v>191.4684938917172</v>
+        <v>103.81627274122</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="B76">
         <v>2</v>
@@ -4222,24 +4703,24 @@
         <v>0.88</v>
       </c>
       <c r="G76" t="s">
-        <v>89</v>
+        <v>162</v>
       </c>
       <c r="H76">
-        <v>2.4672223090033892E-7</v>
+        <v>1.070059411968712E-6</v>
       </c>
       <c r="I76">
-        <v>5.2815177508697907E-5</v>
-      </c>
-      <c r="J76">
-        <v>1.7814911660068799E-5</v>
+        <v>4.3842964790526053E-5</v>
+      </c>
+      <c r="J76" t="s">
+        <v>163</v>
       </c>
       <c r="K76">
-        <v>99.547883901221169</v>
+        <v>73.368449733607363</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="B77">
         <v>2</v>
@@ -4257,24 +4738,24 @@
         <v>0.88</v>
       </c>
       <c r="G77" t="s">
-        <v>90</v>
+        <v>164</v>
       </c>
       <c r="H77">
-        <v>1.026561620706116E-2</v>
+        <v>8.6761964202711536E-3</v>
       </c>
       <c r="I77">
-        <v>0.38243546077009172</v>
-      </c>
-      <c r="J77">
-        <v>0.1145074627270008</v>
+        <v>0.32913052182222557</v>
+      </c>
+      <c r="J77" t="s">
+        <v>165</v>
       </c>
       <c r="K77">
-        <v>87.945542411602574</v>
+        <v>99.613696613974085</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="B78">
         <v>2</v>
@@ -4292,24 +4773,24 @@
         <v>0.88</v>
       </c>
       <c r="G78" t="s">
-        <v>91</v>
+        <v>166</v>
       </c>
       <c r="H78">
-        <v>3.6472393024427718E-4</v>
+        <v>4.0652470177420571E-4</v>
       </c>
       <c r="I78">
-        <v>1.555720811489811E-2</v>
-      </c>
-      <c r="J78">
-        <v>4.3876188126808994E-3</v>
+        <v>5.264796611635085E-2</v>
+      </c>
+      <c r="J78" t="s">
+        <v>167</v>
       </c>
       <c r="K78">
-        <v>91.234165068574342</v>
+        <v>106.7348331162693</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="B79">
         <v>2</v>
@@ -4327,24 +4808,24 @@
         <v>0.88</v>
       </c>
       <c r="G79" t="s">
-        <v>92</v>
+        <v>168</v>
       </c>
       <c r="H79">
-        <v>5.1918009590065253E-5</v>
+        <v>1.0720771271410899E-4</v>
       </c>
       <c r="I79">
-        <v>5.6389461259294376E-3</v>
-      </c>
-      <c r="J79">
-        <v>2.2772178603890111E-3</v>
+        <v>2.8070613190547562E-3</v>
+      </c>
+      <c r="J79" t="s">
+        <v>169</v>
       </c>
       <c r="K79">
-        <v>105.9714459350044</v>
+        <v>115.7577301410405</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="B80">
         <v>2</v>
@@ -4362,24 +4843,24 @@
         <v>0.88</v>
       </c>
       <c r="G80" t="s">
-        <v>93</v>
+        <v>170</v>
       </c>
       <c r="H80">
-        <v>2.454568124211545E-6</v>
+        <v>6.6363144017688886E-6</v>
       </c>
       <c r="I80">
-        <v>1.1772536610125659E-3</v>
-      </c>
-      <c r="J80">
-        <v>3.6975100553681892E-4</v>
+        <v>4.0580119010185072E-4</v>
+      </c>
+      <c r="J80" t="s">
+        <v>171</v>
       </c>
       <c r="K80">
-        <v>139.56250404473019</v>
+        <v>188.8914903279728</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="B81">
         <v>2</v>
@@ -4397,24 +4878,24 @@
         <v>0.88</v>
       </c>
       <c r="G81" t="s">
-        <v>94</v>
+        <v>172</v>
       </c>
       <c r="H81">
-        <v>1.7760016238383971E-7</v>
+        <v>1.8423597002590691E-7</v>
       </c>
       <c r="I81">
-        <v>3.3723515266902207E-5</v>
-      </c>
-      <c r="J81">
-        <v>9.4970740797129914E-6</v>
+        <v>6.5968401432106173E-5</v>
+      </c>
+      <c r="J81" t="s">
+        <v>173</v>
       </c>
       <c r="K81">
-        <v>139.25144112162241</v>
+        <v>208.51879685609671</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>95</v>
+        <v>174</v>
       </c>
       <c r="B82">
         <v>30</v>
@@ -4432,24 +4913,24 @@
         <v>0.88</v>
       </c>
       <c r="G82" t="s">
-        <v>96</v>
+        <v>175</v>
       </c>
       <c r="H82">
-        <v>26476.62701064059</v>
+        <v>24217.711641216622</v>
       </c>
       <c r="I82">
-        <v>49012.129490117877</v>
-      </c>
-      <c r="J82">
-        <v>7606.3263172242623</v>
+        <v>42096.559348563722</v>
+      </c>
+      <c r="J82" t="s">
+        <v>176</v>
       </c>
       <c r="K82">
-        <v>21.139391248677111</v>
+        <v>14.555723690865239</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>95</v>
+        <v>174</v>
       </c>
       <c r="B83">
         <v>30</v>
@@ -4467,24 +4948,24 @@
         <v>0.88</v>
       </c>
       <c r="G83" t="s">
-        <v>97</v>
+        <v>177</v>
       </c>
       <c r="H83">
-        <v>5303.4855151313104</v>
+        <v>8428.3570438335591</v>
       </c>
       <c r="I83">
-        <v>24096.890944949089</v>
-      </c>
-      <c r="J83">
-        <v>5431.7528338189813</v>
+        <v>43045.614197580428</v>
+      </c>
+      <c r="J83" t="s">
+        <v>178</v>
       </c>
       <c r="K83">
-        <v>38.873608467845408</v>
+        <v>57.81821498131896</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>95</v>
+        <v>174</v>
       </c>
       <c r="B84">
         <v>30</v>
@@ -4502,24 +4983,24 @@
         <v>0.88</v>
       </c>
       <c r="G84" t="s">
-        <v>98</v>
+        <v>179</v>
       </c>
       <c r="H84">
-        <v>757.11426906502413</v>
+        <v>602.3128138942659</v>
       </c>
       <c r="I84">
-        <v>12208.229891068309</v>
-      </c>
-      <c r="J84">
-        <v>3317.1749949103369</v>
+        <v>9534.5631210669726</v>
+      </c>
+      <c r="J84" t="s">
+        <v>180</v>
       </c>
       <c r="K84">
-        <v>99.407820678417409</v>
+        <v>60.219079066809392</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>95</v>
+        <v>174</v>
       </c>
       <c r="B85">
         <v>30</v>
@@ -4537,24 +5018,24 @@
         <v>0.88</v>
       </c>
       <c r="G85" t="s">
-        <v>99</v>
+        <v>181</v>
       </c>
       <c r="H85">
-        <v>16.59937958241526</v>
+        <v>20.741284290254111</v>
       </c>
       <c r="I85">
-        <v>3695.426222193315</v>
-      </c>
-      <c r="J85">
-        <v>1067.1374118525789</v>
+        <v>5161.288371226603</v>
+      </c>
+      <c r="J85" t="s">
+        <v>182</v>
       </c>
       <c r="K85">
-        <v>187.21042319923589</v>
+        <v>223.9835205876816</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>95</v>
+        <v>174</v>
       </c>
       <c r="B86">
         <v>30</v>
@@ -4572,24 +5053,24 @@
         <v>0.88</v>
       </c>
       <c r="G86" t="s">
-        <v>100</v>
+        <v>183</v>
       </c>
       <c r="H86">
-        <v>4.536899139852455</v>
+        <v>4.0528991845749829</v>
       </c>
       <c r="I86">
-        <v>103.84554351922939</v>
-      </c>
-      <c r="J86">
-        <v>29.673779827141821</v>
+        <v>13.757194043894931</v>
+      </c>
+      <c r="J86" t="s">
+        <v>184</v>
       </c>
       <c r="K86">
-        <v>200.1292667266932</v>
+        <v>47.389766699140708</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>95</v>
+        <v>174</v>
       </c>
       <c r="B87">
         <v>30</v>
@@ -4607,24 +5088,24 @@
         <v>0.88</v>
       </c>
       <c r="G87" t="s">
-        <v>101</v>
+        <v>185</v>
       </c>
       <c r="H87">
-        <v>16549.58795182161</v>
+        <v>12242.71084262564</v>
       </c>
       <c r="I87">
-        <v>52411.400848251469</v>
-      </c>
-      <c r="J87">
-        <v>10504.445613180929</v>
+        <v>61820.107709266609</v>
+      </c>
+      <c r="J87" t="s">
+        <v>186</v>
       </c>
       <c r="K87">
-        <v>32.38397803569606</v>
+        <v>43.852185751720249</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>95</v>
+        <v>174</v>
       </c>
       <c r="B88">
         <v>30</v>
@@ -4642,24 +5123,24 @@
         <v>0.88</v>
       </c>
       <c r="G88" t="s">
-        <v>102</v>
+        <v>187</v>
       </c>
       <c r="H88">
-        <v>2469.452897421419</v>
+        <v>4123.2398858871229</v>
       </c>
       <c r="I88">
-        <v>14354.8636803502</v>
-      </c>
-      <c r="J88">
-        <v>3142.5919944386469</v>
+        <v>26751.654732969961</v>
+      </c>
+      <c r="J88" t="s">
+        <v>188</v>
       </c>
       <c r="K88">
-        <v>33.21977658385044</v>
+        <v>65.510271048250544</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>95</v>
+        <v>174</v>
       </c>
       <c r="B89">
         <v>30</v>
@@ -4677,24 +5158,24 @@
         <v>0.88</v>
       </c>
       <c r="G89" t="s">
-        <v>103</v>
+        <v>189</v>
       </c>
       <c r="H89">
-        <v>303.76975756310293</v>
+        <v>251.34839220385359</v>
       </c>
       <c r="I89">
-        <v>17152.4638685768</v>
-      </c>
-      <c r="J89">
-        <v>5332.8851938151593</v>
+        <v>2843.2282594856169</v>
+      </c>
+      <c r="J89" t="s">
+        <v>190</v>
       </c>
       <c r="K89">
-        <v>128.60462782229999</v>
+        <v>68.184927004685818</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>95</v>
+        <v>174</v>
       </c>
       <c r="B90">
         <v>30</v>
@@ -4712,24 +5193,24 @@
         <v>0.88</v>
       </c>
       <c r="G90" t="s">
-        <v>104</v>
+        <v>191</v>
       </c>
       <c r="H90">
-        <v>8.6656810289194315</v>
+        <v>5.1094780974603156</v>
       </c>
       <c r="I90">
-        <v>2462.8623384311381</v>
-      </c>
-      <c r="J90">
-        <v>732.99015648961245</v>
+        <v>489.07456798598872</v>
+      </c>
+      <c r="J90" t="s">
+        <v>192</v>
       </c>
       <c r="K90">
-        <v>277.40399461455712</v>
+        <v>245.33406238005631</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>95</v>
+        <v>174</v>
       </c>
       <c r="B91">
         <v>30</v>
@@ -4747,24 +5228,24 @@
         <v>0.88</v>
       </c>
       <c r="G91" t="s">
-        <v>105</v>
+        <v>193</v>
       </c>
       <c r="H91">
-        <v>3.5003069886547289</v>
+        <v>2.855251964983613</v>
       </c>
       <c r="I91">
-        <v>26.830381619524939</v>
-      </c>
-      <c r="J91">
-        <v>6.8811320799848072</v>
+        <v>39.03031200831591</v>
+      </c>
+      <c r="J91" t="s">
+        <v>194</v>
       </c>
       <c r="K91">
-        <v>111.0298268231173</v>
+        <v>131.90865918172091</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>95</v>
+        <v>174</v>
       </c>
       <c r="B92">
         <v>30</v>
@@ -4782,24 +5263,24 @@
         <v>0.88</v>
       </c>
       <c r="G92" t="s">
-        <v>106</v>
+        <v>195</v>
       </c>
       <c r="H92">
-        <v>14946.85362084298</v>
+        <v>12896.694383885109</v>
       </c>
       <c r="I92">
-        <v>44368.668259052443</v>
-      </c>
-      <c r="J92">
-        <v>7869.6768271217061</v>
+        <v>35845.8922748884</v>
+      </c>
+      <c r="J92" t="s">
+        <v>196</v>
       </c>
       <c r="K92">
-        <v>31.190139524328028</v>
+        <v>33.781314477364631</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>95</v>
+        <v>174</v>
       </c>
       <c r="B93">
         <v>30</v>
@@ -4817,24 +5298,24 @@
         <v>0.88</v>
       </c>
       <c r="G93" t="s">
-        <v>107</v>
+        <v>197</v>
       </c>
       <c r="H93">
-        <v>2612.701856105019</v>
+        <v>3001.205161360806</v>
       </c>
       <c r="I93">
-        <v>10923.63923604873</v>
-      </c>
-      <c r="J93">
-        <v>2294.205123579572</v>
+        <v>19955.198183567241</v>
+      </c>
+      <c r="J93" t="s">
+        <v>198</v>
       </c>
       <c r="K93">
-        <v>39.820912006748593</v>
+        <v>63.25503456446274</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>95</v>
+        <v>174</v>
       </c>
       <c r="B94">
         <v>30</v>
@@ -4852,24 +5333,24 @@
         <v>0.88</v>
       </c>
       <c r="G94" t="s">
-        <v>108</v>
+        <v>199</v>
       </c>
       <c r="H94">
-        <v>222.48889412052651</v>
+        <v>175.351895343302</v>
       </c>
       <c r="I94">
-        <v>3057.51376176433</v>
-      </c>
-      <c r="J94">
-        <v>791.2371282752124</v>
+        <v>5352.6209345521793</v>
+      </c>
+      <c r="J94" t="s">
+        <v>200</v>
       </c>
       <c r="K94">
-        <v>102.7786148117987</v>
+        <v>125.35811322151589</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>95</v>
+        <v>174</v>
       </c>
       <c r="B95">
         <v>30</v>
@@ -4887,24 +5368,24 @@
         <v>0.88</v>
       </c>
       <c r="G95" t="s">
-        <v>109</v>
+        <v>201</v>
       </c>
       <c r="H95">
-        <v>4.7661788248579349</v>
+        <v>3.094826776695156</v>
       </c>
       <c r="I95">
-        <v>190.37632918823971</v>
-      </c>
-      <c r="J95">
-        <v>66.53177747444839</v>
+        <v>67.946828807181461</v>
+      </c>
+      <c r="J95" t="s">
+        <v>202</v>
       </c>
       <c r="K95">
-        <v>134.1696999943176</v>
+        <v>161.24131703584371</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>95</v>
+        <v>174</v>
       </c>
       <c r="B96">
         <v>30</v>
@@ -4922,24 +5403,24 @@
         <v>0.88</v>
       </c>
       <c r="G96" t="s">
-        <v>110</v>
+        <v>203</v>
       </c>
       <c r="H96">
-        <v>2.4822793675613619</v>
+        <v>2.518128888042853</v>
       </c>
       <c r="I96">
-        <v>4.0997285310067353</v>
-      </c>
-      <c r="J96">
-        <v>0.47620589716428441</v>
+        <v>5.2445975382408303</v>
+      </c>
+      <c r="J96" t="s">
+        <v>204</v>
       </c>
       <c r="K96">
-        <v>14.539573696747709</v>
+        <v>23.920561896851559</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>95</v>
+        <v>174</v>
       </c>
       <c r="B97">
         <v>30</v>
@@ -4957,24 +5438,24 @@
         <v>0.88</v>
       </c>
       <c r="G97" t="s">
-        <v>111</v>
+        <v>205</v>
       </c>
       <c r="H97">
-        <v>11839.433170035951</v>
+        <v>12564.17752029127</v>
       </c>
       <c r="I97">
-        <v>35210.934948212547</v>
-      </c>
-      <c r="J97">
-        <v>6931.9094165873648</v>
+        <v>36665.217283178623</v>
+      </c>
+      <c r="J97" t="s">
+        <v>206</v>
       </c>
       <c r="K97">
-        <v>35.721160240120263</v>
+        <v>36.559423325763802</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>95</v>
+        <v>174</v>
       </c>
       <c r="B98">
         <v>30</v>
@@ -4992,24 +5473,24 @@
         <v>0.88</v>
       </c>
       <c r="G98" t="s">
-        <v>112</v>
+        <v>207</v>
       </c>
       <c r="H98">
-        <v>2653.865460259422</v>
+        <v>1304.1797949136869</v>
       </c>
       <c r="I98">
-        <v>15283.25006216469</v>
-      </c>
-      <c r="J98">
-        <v>4376.5481340090946</v>
+        <v>5108.4125101292339</v>
+      </c>
+      <c r="J98" t="s">
+        <v>208</v>
       </c>
       <c r="K98">
-        <v>67.52972477954934</v>
+        <v>40.571671407344198</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>95</v>
+        <v>174</v>
       </c>
       <c r="B99">
         <v>30</v>
@@ -5027,24 +5508,24 @@
         <v>0.88</v>
       </c>
       <c r="G99" t="s">
-        <v>113</v>
+        <v>209</v>
       </c>
       <c r="H99">
-        <v>44.032153080253359</v>
+        <v>156.99663953193419</v>
       </c>
       <c r="I99">
-        <v>6540.6606765380293</v>
-      </c>
-      <c r="J99">
-        <v>1910.523987685759</v>
+        <v>2928.080303579879</v>
+      </c>
+      <c r="J99" t="s">
+        <v>210</v>
       </c>
       <c r="K99">
-        <v>172.9021135155165</v>
+        <v>109.0263460682249</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>95</v>
+        <v>174</v>
       </c>
       <c r="B100">
         <v>30</v>
@@ -5062,24 +5543,24 @@
         <v>0.88</v>
       </c>
       <c r="G100" t="s">
-        <v>114</v>
+        <v>211</v>
       </c>
       <c r="H100">
-        <v>3.253351526373589</v>
+        <v>3.7777909716621219</v>
       </c>
       <c r="I100">
-        <v>197.86585274900941</v>
-      </c>
-      <c r="J100">
-        <v>58.167207078448193</v>
+        <v>60.707020417971172</v>
+      </c>
+      <c r="J100" t="s">
+        <v>212</v>
       </c>
       <c r="K100">
-        <v>248.8860039038822</v>
+        <v>132.81371858467881</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>95</v>
+        <v>174</v>
       </c>
       <c r="B101">
         <v>30</v>
@@ -5097,24 +5578,24 @@
         <v>0.88</v>
       </c>
       <c r="G101" t="s">
-        <v>115</v>
+        <v>213</v>
       </c>
       <c r="H101">
-        <v>2.0772296258596841</v>
+        <v>1.88687645560774</v>
       </c>
       <c r="I101">
-        <v>3.2512881770591862</v>
-      </c>
-      <c r="J101">
-        <v>0.36124405246648439</v>
+        <v>6.1264926704558222</v>
+      </c>
+      <c r="J101" t="s">
+        <v>214</v>
       </c>
       <c r="K101">
-        <v>12.906715991790129</v>
+        <v>41.116754088338489</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>116</v>
+        <v>215</v>
       </c>
       <c r="B102">
         <v>30</v>
@@ -5132,24 +5613,24 @@
         <v>0.88</v>
       </c>
       <c r="G102" t="s">
-        <v>117</v>
+        <v>216</v>
       </c>
       <c r="H102">
-        <v>-3406.9291365483141</v>
+        <v>-3273.124909346091</v>
       </c>
       <c r="I102">
-        <v>-2341.8520709813679</v>
-      </c>
-      <c r="J102">
-        <v>334.31128776807822</v>
+        <v>-1798.1596435205761</v>
+      </c>
+      <c r="J102" t="s">
+        <v>217</v>
       </c>
       <c r="K102">
-        <v>-12.199504028705469</v>
+        <v>-18.82331413062732</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>116</v>
+        <v>215</v>
       </c>
       <c r="B103">
         <v>30</v>
@@ -5167,24 +5648,24 @@
         <v>0.88</v>
       </c>
       <c r="G103" t="s">
-        <v>118</v>
+        <v>218</v>
       </c>
       <c r="H103">
-        <v>-3455.8746951324551</v>
+        <v>-4142.6638456877436</v>
       </c>
       <c r="I103">
-        <v>-2286.7591972994542</v>
-      </c>
-      <c r="J103">
-        <v>336.56725485685581</v>
+        <v>-3072.667357590637</v>
+      </c>
+      <c r="J103" t="s">
+        <v>219</v>
       </c>
       <c r="K103">
-        <v>-11.962334210228841</v>
+        <v>-8.774336001675783</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>116</v>
+        <v>215</v>
       </c>
       <c r="B104">
         <v>30</v>
@@ -5202,24 +5683,24 @@
         <v>0.88</v>
       </c>
       <c r="G104" t="s">
-        <v>119</v>
+        <v>220</v>
       </c>
       <c r="H104">
-        <v>-4274.9056342102949</v>
+        <v>-4132.4527289568587</v>
       </c>
       <c r="I104">
-        <v>-3064.2929618825892</v>
-      </c>
-      <c r="J104">
-        <v>336.61440185961641</v>
+        <v>-2779.1767445529649</v>
+      </c>
+      <c r="J104" t="s">
+        <v>221</v>
       </c>
       <c r="K104">
-        <v>-9.2614510970234658</v>
+        <v>-10.987053772512731</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>116</v>
+        <v>215</v>
       </c>
       <c r="B105">
         <v>30</v>
@@ -5237,24 +5718,24 @@
         <v>0.88</v>
       </c>
       <c r="G105" t="s">
-        <v>120</v>
+        <v>222</v>
       </c>
       <c r="H105">
-        <v>-4603.6921751361351</v>
+        <v>-4699.4802539610391</v>
       </c>
       <c r="I105">
-        <v>-3323.9793291952469</v>
-      </c>
-      <c r="J105">
-        <v>401.26192906759093</v>
+        <v>-3833.894935844181</v>
+      </c>
+      <c r="J105" t="s">
+        <v>223</v>
       </c>
       <c r="K105">
-        <v>-10.04035688999263</v>
+        <v>-7.1196356504599834</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>116</v>
+        <v>215</v>
       </c>
       <c r="B106">
         <v>30</v>
@@ -5272,24 +5753,24 @@
         <v>0.88</v>
       </c>
       <c r="G106" t="s">
-        <v>121</v>
+        <v>224</v>
       </c>
       <c r="H106">
-        <v>-5555.4515476511506</v>
+        <v>-5577.438281615935</v>
       </c>
       <c r="I106">
-        <v>-4063.430196472907</v>
-      </c>
-      <c r="J106">
-        <v>496.3497372614072</v>
+        <v>-4466.2678144766542</v>
+      </c>
+      <c r="J106" t="s">
+        <v>225</v>
       </c>
       <c r="K106">
-        <v>-10.39638572101741</v>
+        <v>-7.2333503329195086</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>116</v>
+        <v>215</v>
       </c>
       <c r="B107">
         <v>30</v>
@@ -5307,24 +5788,24 @@
         <v>0.88</v>
       </c>
       <c r="G107" t="s">
-        <v>122</v>
+        <v>226</v>
       </c>
       <c r="H107">
-        <v>-3028.3960164032951</v>
+        <v>-3693.5435354996821</v>
       </c>
       <c r="I107">
-        <v>-2445.834129896376</v>
-      </c>
-      <c r="J107">
-        <v>187.85348677738281</v>
+        <v>-2294.6531015012361</v>
+      </c>
+      <c r="J107" t="s">
+        <v>227</v>
       </c>
       <c r="K107">
-        <v>-6.6718203809587564</v>
+        <v>-14.47783171104898</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>116</v>
+        <v>215</v>
       </c>
       <c r="B108">
         <v>30</v>
@@ -5342,24 +5823,24 @@
         <v>0.88</v>
       </c>
       <c r="G108" t="s">
-        <v>123</v>
+        <v>228</v>
       </c>
       <c r="H108">
-        <v>-4078.1366522639701</v>
+        <v>-3687.7602964882531</v>
       </c>
       <c r="I108">
-        <v>-2969.966818074015</v>
-      </c>
-      <c r="J108">
-        <v>371.81450709651688</v>
+        <v>-2875.4431115372472</v>
+      </c>
+      <c r="J108" t="s">
+        <v>229</v>
       </c>
       <c r="K108">
-        <v>-10.602243564124031</v>
+        <v>-8.5210057402776744</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>116</v>
+        <v>215</v>
       </c>
       <c r="B109">
         <v>30</v>
@@ -5377,24 +5858,24 @@
         <v>0.88</v>
       </c>
       <c r="G109" t="s">
-        <v>124</v>
+        <v>230</v>
       </c>
       <c r="H109">
-        <v>-4832.6386446816032</v>
+        <v>-4912.7714252615924</v>
       </c>
       <c r="I109">
-        <v>-3120.535961994749</v>
-      </c>
-      <c r="J109">
-        <v>504.34937270131849</v>
+        <v>-3397.4050317313081</v>
+      </c>
+      <c r="J109" t="s">
+        <v>231</v>
       </c>
       <c r="K109">
-        <v>-13.381369495207901</v>
+        <v>-10.75301290609565</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>116</v>
+        <v>215</v>
       </c>
       <c r="B110">
         <v>30</v>
@@ -5412,24 +5893,24 @@
         <v>0.88</v>
       </c>
       <c r="G110" t="s">
-        <v>125</v>
+        <v>232</v>
       </c>
       <c r="H110">
-        <v>-6355.8082121054586</v>
+        <v>-5326.9768652937037</v>
       </c>
       <c r="I110">
-        <v>-3722.7679904369179</v>
-      </c>
-      <c r="J110">
-        <v>774.55735545691562</v>
+        <v>-4264.6704924612341</v>
+      </c>
+      <c r="J110" t="s">
+        <v>233</v>
       </c>
       <c r="K110">
-        <v>-16.3591217510989</v>
+        <v>-6.3901110242008548</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>116</v>
+        <v>215</v>
       </c>
       <c r="B111">
         <v>30</v>
@@ -5447,24 +5928,24 @@
         <v>0.88</v>
       </c>
       <c r="G111" t="s">
-        <v>126</v>
+        <v>234</v>
       </c>
       <c r="H111">
-        <v>-7402.6721277954539</v>
+        <v>-8018.4515260383423</v>
       </c>
       <c r="I111">
-        <v>-4479.125095820591</v>
-      </c>
-      <c r="J111">
-        <v>759.86493973059464</v>
+        <v>-4540.5390897891293</v>
+      </c>
+      <c r="J111" t="s">
+        <v>235</v>
       </c>
       <c r="K111">
-        <v>-14.2347255503634</v>
+        <v>-16.29528794024997</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>116</v>
+        <v>215</v>
       </c>
       <c r="B112">
         <v>30</v>
@@ -5482,24 +5963,24 @@
         <v>0.88</v>
       </c>
       <c r="G112" t="s">
-        <v>127</v>
+        <v>236</v>
       </c>
       <c r="H112">
-        <v>-3842.588370880771</v>
+        <v>-4242.5837024708744</v>
       </c>
       <c r="I112">
-        <v>-2344.3974485111098</v>
-      </c>
-      <c r="J112">
-        <v>432.56644850363898</v>
+        <v>-2485.3733270159091</v>
+      </c>
+      <c r="J112" t="s">
+        <v>237</v>
       </c>
       <c r="K112">
-        <v>-14.62732485501245</v>
+        <v>-20.005271098716278</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>116</v>
+        <v>215</v>
       </c>
       <c r="B113">
         <v>30</v>
@@ -5517,24 +5998,24 @@
         <v>0.88</v>
       </c>
       <c r="G113" t="s">
-        <v>128</v>
+        <v>238</v>
       </c>
       <c r="H113">
-        <v>-4637.4201812978908</v>
+        <v>-5137.996900514001</v>
       </c>
       <c r="I113">
-        <v>-3243.4266281967321</v>
-      </c>
-      <c r="J113">
-        <v>420.98360124011782</v>
+        <v>-2976.0954512003941</v>
+      </c>
+      <c r="J113" t="s">
+        <v>239</v>
       </c>
       <c r="K113">
-        <v>-11.02109083125012</v>
+        <v>-15.559552684603229</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>116</v>
+        <v>215</v>
       </c>
       <c r="B114">
         <v>30</v>
@@ -5552,24 +6033,24 @@
         <v>0.88</v>
       </c>
       <c r="G114" t="s">
-        <v>129</v>
+        <v>240</v>
       </c>
       <c r="H114">
-        <v>-5161.0476945250657</v>
+        <v>-5694.2774677149519</v>
       </c>
       <c r="I114">
-        <v>-3692.0149721851349</v>
-      </c>
-      <c r="J114">
-        <v>376.49879296435489</v>
+        <v>-3322.7620490641252</v>
+      </c>
+      <c r="J114" t="s">
+        <v>241</v>
       </c>
       <c r="K114">
-        <v>-8.6545802710780766</v>
+        <v>-15.790938794280351</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>116</v>
+        <v>215</v>
       </c>
       <c r="B115">
         <v>30</v>
@@ -5587,24 +6068,24 @@
         <v>0.88</v>
       </c>
       <c r="G115" t="s">
-        <v>130</v>
+        <v>242</v>
       </c>
       <c r="H115">
-        <v>-6055.5723455008456</v>
+        <v>-6610.5702379765726</v>
       </c>
       <c r="I115">
-        <v>-4349.1516635508333</v>
-      </c>
-      <c r="J115">
-        <v>600.19918389636939</v>
+        <v>-3996.8149844824579</v>
+      </c>
+      <c r="J115" t="s">
+        <v>243</v>
       </c>
       <c r="K115">
-        <v>-12.209420592116199</v>
+        <v>-15.896279622234029</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>116</v>
+        <v>215</v>
       </c>
       <c r="B116">
         <v>30</v>
@@ -5622,24 +6103,24 @@
         <v>0.88</v>
       </c>
       <c r="G116" t="s">
-        <v>131</v>
+        <v>244</v>
       </c>
       <c r="H116">
-        <v>-6408.257123234649</v>
+        <v>-9230.5473138447851</v>
       </c>
       <c r="I116">
-        <v>-4563.5461621264067</v>
-      </c>
-      <c r="J116">
-        <v>563.68181841427975</v>
+        <v>-4899.7592661354474</v>
+      </c>
+      <c r="J116" t="s">
+        <v>245</v>
       </c>
       <c r="K116">
-        <v>-10.35049994732738</v>
+        <v>-19.830235938537161</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>116</v>
+        <v>215</v>
       </c>
       <c r="B117">
         <v>30</v>
@@ -5657,24 +6138,24 @@
         <v>0.88</v>
       </c>
       <c r="G117" t="s">
-        <v>132</v>
+        <v>246</v>
       </c>
       <c r="H117">
-        <v>-4609.6209798968221</v>
+        <v>-4574.5109365257913</v>
       </c>
       <c r="I117">
-        <v>-2775.9861905634289</v>
-      </c>
-      <c r="J117">
-        <v>541.62620387957008</v>
+        <v>-2978.706259143099</v>
+      </c>
+      <c r="J117" t="s">
+        <v>247</v>
       </c>
       <c r="K117">
-        <v>-15.224239780342829</v>
+        <v>-12.12067329942743</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>116</v>
+        <v>215</v>
       </c>
       <c r="B118">
         <v>30</v>
@@ -5692,24 +6173,24 @@
         <v>0.88</v>
       </c>
       <c r="G118" t="s">
-        <v>133</v>
+        <v>248</v>
       </c>
       <c r="H118">
-        <v>-5602.2903089188203</v>
+        <v>-5184.4101084236754</v>
       </c>
       <c r="I118">
-        <v>-3927.371950180891</v>
-      </c>
-      <c r="J118">
-        <v>487.94694975628062</v>
+        <v>-3718.8855956675502</v>
+      </c>
+      <c r="J118" t="s">
+        <v>249</v>
       </c>
       <c r="K118">
-        <v>-10.682780226920899</v>
+        <v>-9.784528007695144</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>116</v>
+        <v>215</v>
       </c>
       <c r="B119">
         <v>30</v>
@@ -5727,24 +6208,24 @@
         <v>0.88</v>
       </c>
       <c r="G119" t="s">
-        <v>134</v>
+        <v>250</v>
       </c>
       <c r="H119">
-        <v>-6053.7880678378879</v>
+        <v>-6769.5423847343363</v>
       </c>
       <c r="I119">
-        <v>-3762.4308276909001</v>
-      </c>
-      <c r="J119">
-        <v>697.91324020327261</v>
+        <v>-4093.1606387053221</v>
+      </c>
+      <c r="J119" t="s">
+        <v>251</v>
       </c>
       <c r="K119">
-        <v>-14.67254408164861</v>
+        <v>-15.658488707106761</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>116</v>
+        <v>215</v>
       </c>
       <c r="B120">
         <v>30</v>
@@ -5762,24 +6243,24 @@
         <v>0.88</v>
       </c>
       <c r="G120" t="s">
-        <v>135</v>
+        <v>252</v>
       </c>
       <c r="H120">
-        <v>-6759.3297592873096</v>
+        <v>-7680.0235288252479</v>
       </c>
       <c r="I120">
-        <v>-4780.4159933171504</v>
-      </c>
-      <c r="J120">
-        <v>579.3340564133407</v>
+        <v>-4734.5651446311676</v>
+      </c>
+      <c r="J120" t="s">
+        <v>253</v>
       </c>
       <c r="K120">
-        <v>-10.35926033356907</v>
+        <v>-15.79744080660552</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>116</v>
+        <v>215</v>
       </c>
       <c r="B121">
         <v>30</v>
@@ -5797,24 +6278,24 @@
         <v>0.88</v>
       </c>
       <c r="G121" t="s">
-        <v>136</v>
+        <v>254</v>
       </c>
       <c r="H121">
-        <v>-10211.58670657656</v>
+        <v>-9558.1028536852609</v>
       </c>
       <c r="I121">
-        <v>-5255.9726351937761</v>
-      </c>
-      <c r="J121">
-        <v>1445.0808670752449</v>
+        <v>-5340.1664716012647</v>
+      </c>
+      <c r="J121" t="s">
+        <v>255</v>
       </c>
       <c r="K121">
-        <v>-22.011508103637691</v>
+        <v>-19.724283589924099</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>137</v>
+        <v>256</v>
       </c>
       <c r="B122">
         <v>30</v>
@@ -5832,24 +6313,24 @@
         <v>0.88</v>
       </c>
       <c r="G122" t="s">
-        <v>138</v>
+        <v>257</v>
       </c>
       <c r="H122">
-        <v>221.6106854878696</v>
+        <v>251.31076907374461</v>
       </c>
       <c r="I122">
-        <v>586.19104163235124</v>
-      </c>
-      <c r="J122">
-        <v>119.3466178311712</v>
+        <v>434.04661376700881</v>
+      </c>
+      <c r="J122" t="s">
+        <v>258</v>
       </c>
       <c r="K122">
-        <v>34.313148547241937</v>
+        <v>15.52537258510328</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>137</v>
+        <v>256</v>
       </c>
       <c r="B123">
         <v>30</v>
@@ -5867,24 +6348,24 @@
         <v>0.88</v>
       </c>
       <c r="G123" t="s">
-        <v>139</v>
+        <v>259</v>
       </c>
       <c r="H123">
-        <v>33.65217680074322</v>
+        <v>40.446438943771469</v>
       </c>
       <c r="I123">
-        <v>569.15924971609945</v>
-      </c>
-      <c r="J123">
-        <v>163.28806578404831</v>
+        <v>191.42409469520331</v>
+      </c>
+      <c r="J123" t="s">
+        <v>260</v>
       </c>
       <c r="K123">
-        <v>81.749013327869761</v>
+        <v>37.690247043028599</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>137</v>
+        <v>256</v>
       </c>
       <c r="B124">
         <v>30</v>
@@ -5902,24 +6383,24 @@
         <v>0.88</v>
       </c>
       <c r="G124" t="s">
-        <v>140</v>
+        <v>261</v>
       </c>
       <c r="H124">
-        <v>6.2528471639838221</v>
+        <v>12.507087443457261</v>
       </c>
       <c r="I124">
-        <v>225.17683027485239</v>
-      </c>
-      <c r="J124">
-        <v>85.122520731790274</v>
+        <v>211.068052972348</v>
+      </c>
+      <c r="J124" t="s">
+        <v>262</v>
       </c>
       <c r="K124">
-        <v>112.93639809564959</v>
+        <v>124.3307243270291</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>137</v>
+        <v>256</v>
       </c>
       <c r="B125">
         <v>30</v>
@@ -5937,24 +6418,24 @@
         <v>0.88</v>
       </c>
       <c r="G125" t="s">
-        <v>141</v>
+        <v>263</v>
       </c>
       <c r="H125">
-        <v>0.14178038890744599</v>
+        <v>0.17507901206065399</v>
       </c>
       <c r="I125">
-        <v>102.9225149614312</v>
-      </c>
-      <c r="J125">
-        <v>31.40558769190341</v>
+        <v>4.1594432431990924</v>
+      </c>
+      <c r="J125" t="s">
+        <v>264</v>
       </c>
       <c r="K125">
-        <v>212.5349128996007</v>
+        <v>114.9728914583838</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>137</v>
+        <v>256</v>
       </c>
       <c r="B126">
         <v>30</v>
@@ -5972,24 +6453,24 @@
         <v>0.88</v>
       </c>
       <c r="G126" t="s">
-        <v>142</v>
+        <v>265</v>
       </c>
       <c r="H126">
-        <v>3.8645133675352383E-6</v>
+        <v>3.7628529955258121E-6</v>
       </c>
       <c r="I126">
-        <v>2.985913844681062</v>
-      </c>
-      <c r="J126">
-        <v>0.96782374945611205</v>
+        <v>0.17249808498279171</v>
+      </c>
+      <c r="J126" t="s">
+        <v>266</v>
       </c>
       <c r="K126">
-        <v>172.88744449266579</v>
+        <v>130.46211964684011</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>137</v>
+        <v>256</v>
       </c>
       <c r="B127">
         <v>30</v>
@@ -6007,24 +6488,24 @@
         <v>0.88</v>
       </c>
       <c r="G127" t="s">
-        <v>143</v>
+        <v>267</v>
       </c>
       <c r="H127">
-        <v>164.362950413476</v>
+        <v>177.71757375528739</v>
       </c>
       <c r="I127">
-        <v>370.33809019799588</v>
-      </c>
-      <c r="J127">
-        <v>54.996781061324043</v>
+        <v>648.83985954973843</v>
+      </c>
+      <c r="J127" t="s">
+        <v>268</v>
       </c>
       <c r="K127">
-        <v>22.02375553450732</v>
+        <v>44.863664384985761</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>137</v>
+        <v>256</v>
       </c>
       <c r="B128">
         <v>30</v>
@@ -6042,24 +6523,24 @@
         <v>0.88</v>
       </c>
       <c r="G128" t="s">
-        <v>144</v>
+        <v>269</v>
       </c>
       <c r="H128">
-        <v>71.169982738718545</v>
+        <v>31.483882972414481</v>
       </c>
       <c r="I128">
-        <v>193.69141400475539</v>
-      </c>
-      <c r="J128">
-        <v>34.97606235037221</v>
+        <v>175.8402987300401</v>
+      </c>
+      <c r="J128" t="s">
+        <v>270</v>
       </c>
       <c r="K128">
-        <v>31.142410784932441</v>
+        <v>46.241889096108281</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>137</v>
+        <v>256</v>
       </c>
       <c r="B129">
         <v>30</v>
@@ -6077,24 +6558,24 @@
         <v>0.88</v>
       </c>
       <c r="G129" t="s">
-        <v>145</v>
+        <v>271</v>
       </c>
       <c r="H129">
-        <v>6.3027884682615687</v>
+        <v>4.1291543571684697</v>
       </c>
       <c r="I129">
-        <v>77.131546288408202</v>
-      </c>
-      <c r="J129">
-        <v>27.71114322704528</v>
+        <v>27.793957293434609</v>
+      </c>
+      <c r="J129" t="s">
+        <v>272</v>
       </c>
       <c r="K129">
-        <v>92.57938399481435</v>
+        <v>62.769416507965161</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>137</v>
+        <v>256</v>
       </c>
       <c r="B130">
         <v>30</v>
@@ -6112,24 +6593,24 @@
         <v>0.88</v>
       </c>
       <c r="G130" t="s">
-        <v>146</v>
+        <v>273</v>
       </c>
       <c r="H130">
-        <v>1.580960049185676E-2</v>
+        <v>6.7434729607423138E-2</v>
       </c>
       <c r="I130">
-        <v>14.35406902843817</v>
-      </c>
-      <c r="J130">
-        <v>4.4902984925101546</v>
+        <v>0.59879198831337554</v>
+      </c>
+      <c r="J130" t="s">
+        <v>274</v>
       </c>
       <c r="K130">
-        <v>155.29554346423751</v>
+        <v>45.679984349267222</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>137</v>
+        <v>256</v>
       </c>
       <c r="B131">
         <v>30</v>
@@ -6147,24 +6628,24 @@
         <v>0.88</v>
       </c>
       <c r="G131" t="s">
-        <v>147</v>
+        <v>275</v>
       </c>
       <c r="H131">
-        <v>6.4476215482223154E-6</v>
+        <v>5.3201424060622671E-6</v>
       </c>
       <c r="I131">
-        <v>0.1101640413536142</v>
-      </c>
-      <c r="J131">
-        <v>3.1446521164421808E-2</v>
+        <v>7.6776840342556496E-2</v>
+      </c>
+      <c r="J131" t="s">
+        <v>276</v>
       </c>
       <c r="K131">
-        <v>157.53069785402269</v>
+        <v>162.15722351126101</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>137</v>
+        <v>256</v>
       </c>
       <c r="B132">
         <v>30</v>
@@ -6182,24 +6663,24 @@
         <v>0.88</v>
       </c>
       <c r="G132" t="s">
-        <v>148</v>
+        <v>277</v>
       </c>
       <c r="H132">
-        <v>150.6873275095034</v>
+        <v>148.5619140382741</v>
       </c>
       <c r="I132">
-        <v>306.40548700852469</v>
-      </c>
-      <c r="J132">
-        <v>46.060881419862767</v>
+        <v>252.68117877911729</v>
+      </c>
+      <c r="J132" t="s">
+        <v>278</v>
       </c>
       <c r="K132">
-        <v>23.46155140575253</v>
+        <v>16.935895662242931</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>137</v>
+        <v>256</v>
       </c>
       <c r="B133">
         <v>30</v>
@@ -6217,24 +6698,24 @@
         <v>0.88</v>
       </c>
       <c r="G133" t="s">
-        <v>149</v>
+        <v>279</v>
       </c>
       <c r="H133">
-        <v>27.180270239356819</v>
+        <v>28.74578335518612</v>
       </c>
       <c r="I133">
-        <v>159.6504522713314</v>
-      </c>
-      <c r="J133">
-        <v>40.041497223069392</v>
+        <v>164.6076791760799</v>
+      </c>
+      <c r="J133" t="s">
+        <v>280</v>
       </c>
       <c r="K133">
-        <v>66.465543124851436</v>
+        <v>60.20370840576151</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>137</v>
+        <v>256</v>
       </c>
       <c r="B134">
         <v>30</v>
@@ -6252,24 +6733,24 @@
         <v>0.88</v>
       </c>
       <c r="G134" t="s">
-        <v>150</v>
+        <v>281</v>
       </c>
       <c r="H134">
-        <v>1.8283066764351521</v>
+        <v>1.562923769939355</v>
       </c>
       <c r="I134">
-        <v>60.743868974807228</v>
-      </c>
-      <c r="J134">
-        <v>18.12849244376881</v>
+        <v>37.002833888587212</v>
+      </c>
+      <c r="J134" t="s">
+        <v>282</v>
       </c>
       <c r="K134">
-        <v>125.87427893432699</v>
+        <v>117.2886253951896</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>137</v>
+        <v>256</v>
       </c>
       <c r="B135">
         <v>30</v>
@@ -6287,24 +6768,24 @@
         <v>0.88</v>
       </c>
       <c r="G135" t="s">
-        <v>151</v>
+        <v>283</v>
       </c>
       <c r="H135">
-        <v>1.920218710275956E-2</v>
+        <v>2.6544113916669661E-2</v>
       </c>
       <c r="I135">
-        <v>4.1918795006374072</v>
-      </c>
-      <c r="J135">
-        <v>1.221838508004762</v>
+        <v>5.9169397976050568</v>
+      </c>
+      <c r="J135" t="s">
+        <v>284</v>
       </c>
       <c r="K135">
-        <v>229.04851255520171</v>
+        <v>147.8562845538504</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>137</v>
+        <v>256</v>
       </c>
       <c r="B136">
         <v>30</v>
@@ -6322,24 +6803,24 @@
         <v>0.88</v>
       </c>
       <c r="G136" t="s">
-        <v>152</v>
+        <v>285</v>
       </c>
       <c r="H136">
-        <v>1.140950296463217E-7</v>
+        <v>6.1459356714976821E-7</v>
       </c>
       <c r="I136">
-        <v>0.26733547201262131</v>
-      </c>
-      <c r="J136">
-        <v>8.8121597234978991E-2</v>
+        <v>0.2751390782718709</v>
+      </c>
+      <c r="J136" t="s">
+        <v>286</v>
       </c>
       <c r="K136">
-        <v>173.5567424374095</v>
+        <v>219.47883462777409</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>137</v>
+        <v>256</v>
       </c>
       <c r="B137">
         <v>30</v>
@@ -6357,24 +6838,24 @@
         <v>0.88</v>
       </c>
       <c r="G137" t="s">
-        <v>153</v>
+        <v>287</v>
       </c>
       <c r="H137">
-        <v>112.5744509373483</v>
+        <v>130.42060147605139</v>
       </c>
       <c r="I137">
-        <v>279.36500251825112</v>
-      </c>
-      <c r="J137">
-        <v>46.600657226264687</v>
+        <v>288.96651135140962</v>
+      </c>
+      <c r="J137" t="s">
+        <v>288</v>
       </c>
       <c r="K137">
-        <v>27.55935535376463</v>
+        <v>26.494798130841339</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>137</v>
+        <v>256</v>
       </c>
       <c r="B138">
         <v>30</v>
@@ -6392,24 +6873,24 @@
         <v>0.88</v>
       </c>
       <c r="G138" t="s">
-        <v>154</v>
+        <v>289</v>
       </c>
       <c r="H138">
-        <v>28.109463541148791</v>
+        <v>31.21717002393158</v>
       </c>
       <c r="I138">
-        <v>118.06699481119919</v>
-      </c>
-      <c r="J138">
-        <v>31.251606373941271</v>
+        <v>156.29336569526859</v>
+      </c>
+      <c r="J138" t="s">
+        <v>290</v>
       </c>
       <c r="K138">
-        <v>48.010440979774849</v>
+        <v>59.768590476642743</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>137</v>
+        <v>256</v>
       </c>
       <c r="B139">
         <v>30</v>
@@ -6427,24 +6908,24 @@
         <v>0.88</v>
       </c>
       <c r="G139" t="s">
-        <v>155</v>
+        <v>291</v>
       </c>
       <c r="H139">
-        <v>1.4469945769105581</v>
+        <v>1.868632119451165</v>
       </c>
       <c r="I139">
-        <v>58.95883918194059</v>
-      </c>
-      <c r="J139">
-        <v>17.901331297377808</v>
+        <v>62.421879368545547</v>
+      </c>
+      <c r="J139" t="s">
+        <v>292</v>
       </c>
       <c r="K139">
-        <v>156.75208308664699</v>
+        <v>191.0685283190551</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>137</v>
+        <v>256</v>
       </c>
       <c r="B140">
         <v>30</v>
@@ -6462,24 +6943,24 @@
         <v>0.88</v>
       </c>
       <c r="G140" t="s">
-        <v>156</v>
+        <v>293</v>
       </c>
       <c r="H140">
-        <v>3.06064113120097E-3</v>
+        <v>6.2590166080511711E-3</v>
       </c>
       <c r="I140">
-        <v>0.2394759385362881</v>
-      </c>
-      <c r="J140">
-        <v>8.1954689980852827E-2</v>
+        <v>2.9517081008207779</v>
+      </c>
+      <c r="J140" t="s">
+        <v>294</v>
       </c>
       <c r="K140">
-        <v>88.424171232911533</v>
+        <v>251.3249790633331</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>137</v>
+        <v>256</v>
       </c>
       <c r="B141">
         <v>30</v>
@@ -6497,24 +6978,24 @@
         <v>0.88</v>
       </c>
       <c r="G141" t="s">
-        <v>157</v>
+        <v>295</v>
       </c>
       <c r="H141">
-        <v>3.0891043278913337E-8</v>
+        <v>5.6826394034814598E-8</v>
       </c>
       <c r="I141">
-        <v>4.5619500299859386E-3</v>
-      </c>
-      <c r="J141">
-        <v>1.394879176936703E-3</v>
+        <v>0.22255551150250449</v>
+      </c>
+      <c r="J141" t="s">
+        <v>296</v>
       </c>
       <c r="K141">
-        <v>173.01108818026341</v>
+        <v>231.5601572597329</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>158</v>
+        <v>297</v>
       </c>
       <c r="B142">
         <v>30</v>
@@ -6532,24 +7013,24 @@
         <v>0.88</v>
       </c>
       <c r="G142" t="s">
-        <v>159</v>
+        <v>298</v>
       </c>
       <c r="H142">
-        <v>20.150058493962749</v>
+        <v>18.64196323730512</v>
       </c>
       <c r="I142">
-        <v>21.286713379449981</v>
-      </c>
-      <c r="J142">
-        <v>0.36009773079125962</v>
+        <v>21.234528462771241</v>
+      </c>
+      <c r="J142" t="s">
+        <v>299</v>
       </c>
       <c r="K142">
-        <v>1.726752475902118</v>
+        <v>4.7138097751241483</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>158</v>
+        <v>297</v>
       </c>
       <c r="B143">
         <v>30</v>
@@ -6567,24 +7048,24 @@
         <v>0.88</v>
       </c>
       <c r="G143" t="s">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="H143">
-        <v>10.507945165626101</v>
+        <v>6.3045457961244722</v>
       </c>
       <c r="I143">
-        <v>21.163158335527509</v>
-      </c>
-      <c r="J143">
-        <v>3.127872607751395</v>
+        <v>21.145055563849979</v>
+      </c>
+      <c r="J143" t="s">
+        <v>301</v>
       </c>
       <c r="K143">
-        <v>18.736202244893182</v>
+        <v>29.495492674183481</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>158</v>
+        <v>297</v>
       </c>
       <c r="B144">
         <v>30</v>
@@ -6602,24 +7083,24 @@
         <v>0.88</v>
       </c>
       <c r="G144" t="s">
-        <v>161</v>
+        <v>302</v>
       </c>
       <c r="H144">
-        <v>4.7328194465068663</v>
+        <v>3.180903876682216</v>
       </c>
       <c r="I144">
-        <v>21.026387742362239</v>
-      </c>
-      <c r="J144">
-        <v>6.9351520991819919</v>
+        <v>21.073238405920879</v>
+      </c>
+      <c r="J144" t="s">
+        <v>303</v>
       </c>
       <c r="K144">
-        <v>55.036092556184059</v>
+        <v>68.188513187293097</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>158</v>
+        <v>297</v>
       </c>
       <c r="B145">
         <v>30</v>
@@ -6637,24 +7118,24 @@
         <v>0.88</v>
       </c>
       <c r="G145" t="s">
-        <v>162</v>
+        <v>304</v>
       </c>
       <c r="H145">
-        <v>0.39533105571969118</v>
+        <v>0.43902621589633067</v>
       </c>
       <c r="I145">
-        <v>20.91509588490247</v>
-      </c>
-      <c r="J145">
-        <v>8.8113491348747512</v>
+        <v>20.85962091348549</v>
+      </c>
+      <c r="J145" t="s">
+        <v>305</v>
       </c>
       <c r="K145">
-        <v>113.5835015933354</v>
+        <v>153.9935174689322</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>158</v>
+        <v>297</v>
       </c>
       <c r="B146">
         <v>30</v>
@@ -6672,24 +7153,24 @@
         <v>0.88</v>
       </c>
       <c r="G146" t="s">
-        <v>163</v>
+        <v>306</v>
       </c>
       <c r="H146">
-        <v>2.3975571883352309E-3</v>
+        <v>1.550923750127442E-3</v>
       </c>
       <c r="I146">
-        <v>20.472591331869211</v>
-      </c>
-      <c r="J146">
-        <v>6.0527416036273642</v>
+        <v>1.5119225200422131</v>
+      </c>
+      <c r="J146" t="s">
+        <v>307</v>
       </c>
       <c r="K146">
-        <v>255.7975062234633</v>
+        <v>171.75081116783389</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>158</v>
+        <v>297</v>
       </c>
       <c r="B147">
         <v>30</v>
@@ -6707,24 +7188,24 @@
         <v>0.88</v>
       </c>
       <c r="G147" t="s">
-        <v>164</v>
+        <v>308</v>
       </c>
       <c r="H147">
-        <v>15.341042636543159</v>
+        <v>16.338942110028299</v>
       </c>
       <c r="I147">
-        <v>21.038820449052992</v>
-      </c>
-      <c r="J147">
-        <v>1.690806026763543</v>
+        <v>21.179136233555379</v>
+      </c>
+      <c r="J147" t="s">
+        <v>309</v>
       </c>
       <c r="K147">
-        <v>8.6551625565677881</v>
+        <v>7.7338102206322619</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>158</v>
+        <v>297</v>
       </c>
       <c r="B148">
         <v>30</v>
@@ -6742,24 +7223,24 @@
         <v>0.88</v>
       </c>
       <c r="G148" t="s">
-        <v>165</v>
+        <v>310</v>
       </c>
       <c r="H148">
-        <v>11.1470164577904</v>
+        <v>9.8277667070076262</v>
       </c>
       <c r="I148">
-        <v>21.143070757426219</v>
-      </c>
-      <c r="J148">
-        <v>3.756711391634064</v>
+        <v>20.912235748032739</v>
+      </c>
+      <c r="J148" t="s">
+        <v>311</v>
       </c>
       <c r="K148">
-        <v>23.563138459584088</v>
+        <v>23.585100820330961</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>158</v>
+        <v>297</v>
       </c>
       <c r="B149">
         <v>30</v>
@@ -6777,24 +7258,24 @@
         <v>0.88</v>
       </c>
       <c r="G149" t="s">
-        <v>166</v>
+        <v>312</v>
       </c>
       <c r="H149">
-        <v>2.1703654557507481</v>
+        <v>2.4605088846359848</v>
       </c>
       <c r="I149">
-        <v>20.765661051441679</v>
-      </c>
-      <c r="J149">
-        <v>6.6121260833184001</v>
+        <v>20.938001296650022</v>
+      </c>
+      <c r="J149" t="s">
+        <v>313</v>
       </c>
       <c r="K149">
-        <v>76.986476468358376</v>
+        <v>85.54593363967588</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>158</v>
+        <v>297</v>
       </c>
       <c r="B150">
         <v>30</v>
@@ -6812,24 +7293,24 @@
         <v>0.88</v>
       </c>
       <c r="G150" t="s">
-        <v>167</v>
+        <v>314</v>
       </c>
       <c r="H150">
-        <v>0.2774747988059123</v>
+        <v>0.68462242607116908</v>
       </c>
       <c r="I150">
-        <v>13.50156406848915</v>
-      </c>
-      <c r="J150">
-        <v>3.801656073794061</v>
+        <v>1.7894767709449231</v>
+      </c>
+      <c r="J150" t="s">
+        <v>315</v>
       </c>
       <c r="K150">
-        <v>175.0618679144811</v>
+        <v>30.333316767302179</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>158</v>
+        <v>297</v>
       </c>
       <c r="B151">
         <v>30</v>
@@ -6847,24 +7328,24 @@
         <v>0.88</v>
       </c>
       <c r="G151" t="s">
-        <v>168</v>
+        <v>316</v>
       </c>
       <c r="H151">
-        <v>7.2774421540078293E-5</v>
+        <v>1.292568677913053E-5</v>
       </c>
       <c r="I151">
-        <v>20.493017433804471</v>
-      </c>
-      <c r="J151">
-        <v>7.4548014169557026</v>
+        <v>20.566280287680708</v>
+      </c>
+      <c r="J151" t="s">
+        <v>317</v>
       </c>
       <c r="K151">
-        <v>186.09863619497719</v>
+        <v>190.55920093041729</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>158</v>
+        <v>297</v>
       </c>
       <c r="B152">
         <v>30</v>
@@ -6882,24 +7363,24 @@
         <v>0.88</v>
       </c>
       <c r="G152" t="s">
-        <v>169</v>
+        <v>318</v>
       </c>
       <c r="H152">
-        <v>17.382717224093689</v>
+        <v>13.627843949903371</v>
       </c>
       <c r="I152">
-        <v>21.09420067721814</v>
-      </c>
-      <c r="J152">
-        <v>1.148739100554544</v>
+        <v>21.059820656272869</v>
+      </c>
+      <c r="J152" t="s">
+        <v>319</v>
       </c>
       <c r="K152">
-        <v>5.7728247828592201</v>
+        <v>11.7770864995423</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>158</v>
+        <v>297</v>
       </c>
       <c r="B153">
         <v>30</v>
@@ -6917,24 +7398,24 @@
         <v>0.88</v>
       </c>
       <c r="G153" t="s">
-        <v>170</v>
+        <v>320</v>
       </c>
       <c r="H153">
-        <v>5.3151784937865294</v>
+        <v>5.8689227849034431</v>
       </c>
       <c r="I153">
-        <v>15.303344307084791</v>
-      </c>
-      <c r="J153">
-        <v>3.2349606646728568</v>
+        <v>21.032418719931911</v>
+      </c>
+      <c r="J153" t="s">
+        <v>321</v>
       </c>
       <c r="K153">
-        <v>29.188189399199509</v>
+        <v>45.960410002244778</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>158</v>
+        <v>297</v>
       </c>
       <c r="B154">
         <v>30</v>
@@ -6952,24 +7433,24 @@
         <v>0.88</v>
       </c>
       <c r="G154" t="s">
-        <v>171</v>
+        <v>322</v>
       </c>
       <c r="H154">
-        <v>1.790643468236226</v>
+        <v>1.621601031951756</v>
       </c>
       <c r="I154">
-        <v>15.22272434304136</v>
-      </c>
-      <c r="J154">
-        <v>3.8848270157184639</v>
+        <v>20.428954700582391</v>
+      </c>
+      <c r="J154" t="s">
+        <v>323</v>
       </c>
       <c r="K154">
-        <v>104.6964642184675</v>
+        <v>99.042779931285708</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>158</v>
+        <v>297</v>
       </c>
       <c r="B155">
         <v>30</v>
@@ -6987,24 +7468,24 @@
         <v>0.88</v>
       </c>
       <c r="G155" t="s">
-        <v>172</v>
+        <v>324</v>
       </c>
       <c r="H155">
-        <v>0.12864118320122181</v>
+        <v>0.14787213167773011</v>
       </c>
       <c r="I155">
-        <v>1.157700794448012</v>
-      </c>
-      <c r="J155">
-        <v>0.28203563469730691</v>
+        <v>4.3343945556696362</v>
+      </c>
+      <c r="J155" t="s">
+        <v>325</v>
       </c>
       <c r="K155">
-        <v>47.941735162105857</v>
+        <v>109.1122602764043</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>158</v>
+        <v>297</v>
       </c>
       <c r="B156">
         <v>30</v>
@@ -7022,24 +7503,24 @@
         <v>0.88</v>
       </c>
       <c r="G156" t="s">
-        <v>173</v>
+        <v>326</v>
       </c>
       <c r="H156">
-        <v>6.8737531830898044E-6</v>
+        <v>4.7412332802032608E-6</v>
       </c>
       <c r="I156">
-        <v>20.57196624980817</v>
-      </c>
-      <c r="J156">
-        <v>8.1979925007491268</v>
+        <v>20.535916838439721</v>
+      </c>
+      <c r="J156" t="s">
+        <v>327</v>
       </c>
       <c r="K156">
-        <v>198.92316227009971</v>
+        <v>290.48021282010001</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>158</v>
+        <v>297</v>
       </c>
       <c r="B157">
         <v>30</v>
@@ -7057,24 +7538,24 @@
         <v>0.88</v>
       </c>
       <c r="G157" t="s">
-        <v>174</v>
+        <v>328</v>
       </c>
       <c r="H157">
-        <v>13.09834453443951</v>
+        <v>10.92699807542286</v>
       </c>
       <c r="I157">
-        <v>20.198699095471341</v>
-      </c>
-      <c r="J157">
-        <v>2.601921504410273</v>
+        <v>21.061928162097441</v>
+      </c>
+      <c r="J157" t="s">
+        <v>329</v>
       </c>
       <c r="K157">
-        <v>15.806714474585061</v>
+        <v>16.01612781895426</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>158</v>
+        <v>297</v>
       </c>
       <c r="B158">
         <v>30</v>
@@ -7092,24 +7573,24 @@
         <v>0.88</v>
       </c>
       <c r="G158" t="s">
-        <v>175</v>
+        <v>330</v>
       </c>
       <c r="H158">
-        <v>5.8178735160270101</v>
+        <v>6.0819981234196874</v>
       </c>
       <c r="I158">
-        <v>17.050819938426429</v>
-      </c>
-      <c r="J158">
-        <v>3.7400011336944021</v>
+        <v>20.948236101713398</v>
+      </c>
+      <c r="J158" t="s">
+        <v>331</v>
       </c>
       <c r="K158">
-        <v>35.710693817989871</v>
+        <v>40.016546368806267</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>158</v>
+        <v>297</v>
       </c>
       <c r="B159">
         <v>30</v>
@@ -7127,24 +7608,24 @@
         <v>0.88</v>
       </c>
       <c r="G159" t="s">
-        <v>176</v>
+        <v>332</v>
       </c>
       <c r="H159">
-        <v>1.626654394352425</v>
+        <v>1.295936201033179</v>
       </c>
       <c r="I159">
-        <v>20.880822095427781</v>
-      </c>
-      <c r="J159">
-        <v>5.858934207295512</v>
+        <v>7.344397286613388</v>
+      </c>
+      <c r="J159" t="s">
+        <v>333</v>
       </c>
       <c r="K159">
-        <v>120.2251180974784</v>
+        <v>64.194034813938813</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>158</v>
+        <v>297</v>
       </c>
       <c r="B160">
         <v>30</v>
@@ -7162,24 +7643,24 @@
         <v>0.88</v>
       </c>
       <c r="G160" t="s">
-        <v>177</v>
+        <v>334</v>
       </c>
       <c r="H160">
-        <v>2.1680548846152892E-2</v>
+        <v>0.13550539423203789</v>
       </c>
       <c r="I160">
-        <v>20.405559377874191</v>
-      </c>
-      <c r="J160">
-        <v>5.9869566736933626</v>
+        <v>8.5446331899151566</v>
+      </c>
+      <c r="J160" t="s">
+        <v>335</v>
       </c>
       <c r="K160">
-        <v>233.72299594303919</v>
+        <v>214.17373604719251</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>158</v>
+        <v>297</v>
       </c>
       <c r="B161">
         <v>30</v>
@@ -7197,19 +7678,19 @@
         <v>0.88</v>
       </c>
       <c r="G161" t="s">
-        <v>178</v>
+        <v>336</v>
       </c>
       <c r="H161">
-        <v>3.8288763137828141E-7</v>
+        <v>3.575026533031433E-6</v>
       </c>
       <c r="I161">
-        <v>20.574602701129741</v>
-      </c>
-      <c r="J161">
-        <v>6.1682628822970633</v>
+        <v>0.33393947834949289</v>
+      </c>
+      <c r="J161" t="s">
+        <v>337</v>
       </c>
       <c r="K161">
-        <v>297.96546481840699</v>
+        <v>147.9397506103065</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\48509\Desktop\Zastosowanie AI\Repo Gazele\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{832F25C0-583B-40C0-9FE8-1C8A1DFB38F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC93CF76-1940-4797-A41A-3F1CDC447284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="340">
   <si>
     <t>For function</t>
   </si>
@@ -52,1635 +52,1627 @@
     <t>Standard deviation of the parameters</t>
   </si>
   <si>
+    <t>Standard deviation of the goal function value</t>
+  </si>
+  <si>
+    <t>Coefficient of variation of goal function value</t>
+  </si>
+  <si>
     <t>rastrigin</t>
   </si>
   <si>
-    <t>[-0.2311657  -1.1301583  -0.86899712  3.91176337  0.10820962 -0.27068744
- -0.01505212  0.72075875 -0.39971883 -1.00948035  0.22117984 -0.12674645
-  1.88034626  0.1303306  -0.63669771 -0.03042066  1.14769322 -1.11724374
- -2.25344123 -0.17512957 -0.8088777  -1.58530326  0.03776456  0.08931275
- -0.12503966 -0.424361   -0.87489375 -1.14103677  2.50765405 -1.23590528]</t>
-  </si>
-  <si>
-    <t>[2.8237800353660174, 1.7904053593999003, 1.903524138400461, 1.6303452220732428, 1.860931399793817, 0.8822441849076207, 1.3574596809309674, 1.303825619657319, 1.049106195615457, 1.0619013457057602, 1.1639838144300598, 1.964412795368907, 2.2219962024051596, 1.0700906769823553, 2.373570083948183, 1.7367014534705865, 2.2835530454425457, 1.22193813717472, 2.158139638374007, 1.9785324620629898, 2.1060052832119784, 1.7528582752443427, 1.773042025981289, 1.43110923304268, 1.1980959034658136, 1.8603279384444131, 1.2574616194364077, 1.7918269938631985, 1.714669220430191, 2.806693649702367]</t>
-  </si>
-  <si>
-    <t>[-0.19121463 -0.13972532  1.87999134 -0.92707861  0.03825388  0.04007092
- -2.96448548 -0.07649792  2.05137021 -0.87741757  0.06474322 -0.07219733
-  0.08889152  0.00766583 -1.45317261  0.05941136  0.28042558  0.97834174
- -0.15280473  0.7277519  -1.70391263 -1.05524989  1.84479699 -3.17067164
- -0.81910078  0.57112868  2.07271011 -0.71020301  0.79614634 -0.75357509]</t>
-  </si>
-  <si>
-    <t>[1.2087657300303765, 1.6937392848433086, 1.3669118856404587, 1.1704961774387463, 2.24730075933584, 1.2249866598897285, 1.48872787908993, 2.24163752166916, 1.271729327736406, 1.0610920115415259, 1.795659139544716, 1.4164611091476693, 1.2028987117094385, 2.8059952026075474, 2.5523717823187053, 1.9042371216830416, 2.3234740176200597, 1.5682434794025033, 2.3482260923549765, 0.8796639306695521, 2.006364596626755, 1.7220342744637192, 1.809519799396272, 2.1650215317837174, 1.7801381408479116, 1.9342184671820009, 2.3262524311823243, 1.4788009765356196, 1.3823293851503025, 1.5486263024769777]</t>
-  </si>
-  <si>
-    <t>[ 8.68164598e-01  1.86461447e+00 -1.36292698e+00  8.49887694e-01
- -1.02652440e+00 -1.01838670e-02 -4.06501299e-02  4.10781543e-02
-  4.88417053e-03  2.76619875e-01 -1.15000279e-01  1.02880032e+00
- -1.84543975e-01 -9.17536761e-01 -1.69006197e-01 -6.65354953e-01
- -7.68699203e-03 -2.76116619e-02  8.04543499e-03  1.55335326e-02
- -4.03088515e+00  1.15500464e+00 -2.03677259e-03 -1.77534287e-02
- -2.44365052e-03  4.36281316e-02  5.01054226e-01  2.91273063e-02
- -1.04660439e-01 -1.93834562e-02]</t>
-  </si>
-  <si>
-    <t>[1.8272405551802866, 1.2483877495636915, 1.3119880838675975, 1.4601308828071058, 1.6039967824957344, 1.2873917891954119, 1.2792461723391304, 2.0517483581387865, 1.9973439733425444, 1.9443859215156822, 1.0569275740065696, 0.9725746061780588, 0.915938277684108, 0.8607143727904817, 1.2928664136877746, 0.9657722248818014, 0.7628095161068206, 1.2943827079684014, 1.8162254377979847, 1.561029224875224, 1.5913701900076047, 1.1839635461558715, 0.9068202539118984, 0.9366012094746479, 1.691033404598815, 0.6712828116108961, 0.6809687760243841, 1.1292905987985322, 1.4937509974646292, 0.8732439844340123]</t>
-  </si>
-  <si>
-    <t>[-6.38899889e-03  1.05236021e-02  8.04711142e-03  3.65174075e-02
-  2.82270411e-02  9.89379468e-04 -1.31053940e-02 -5.87871468e-04
- -4.58134197e-02 -1.07621533e-04 -4.94124092e-03  7.56561567e-02
- -8.34538527e-01  9.34978685e-04 -9.23890604e-01 -1.11185266e+00
- -1.06950358e-01  1.53232255e-02 -2.84048412e-02  3.02327042e-03
-  1.39359358e-03  1.34571707e-03  3.14480075e-06 -2.62817540e-02
-  4.88163412e-03  2.40541106e-02  1.68230616e-03 -7.92255710e-04
-  2.76985187e-03 -1.77997526e-03]</t>
-  </si>
-  <si>
-    <t>[1.0709627254670273, 1.0032777428049044, 1.366072259350218, 0.49327376957400026, 1.1967018319540075, 1.469105914527282, 1.000400352126011, 0.878904922726697, 1.0657562553710769, 0.8072904502707919, 1.3223559755037895, 0.4292783536215456, 0.8087671967060159, 0.4972296399695715, 1.4880983088180852, 1.2531828299832317, 1.308165246666531, 0.8487654712256605, 0.849599310334924, 0.8843601308028461, 0.9735253077169612, 0.7279321731893169, 0.8989670427241903, 0.897505033543629, 0.9805042795826069, 0.6406556789938637, 0.9240411621015028, 1.043995704680711, 1.0471137548114766, 0.7527296137681027]</t>
-  </si>
-  <si>
-    <t>[ 7.75540405e-06  3.13068625e-04 -2.78432494e-04  1.73102039e-06
-  3.32990011e-06  1.11645100e-05  1.69940861e-04  1.51624691e-03
- -5.72754701e-04  1.04605130e-03  1.52449318e-04 -3.05895613e-05
-  4.38314988e-04 -3.08175031e-05  4.05728339e-04  5.90020266e-04
- -3.82197767e-04 -4.30655188e-03  5.76240805e-04 -2.77574314e-06
- -6.43555751e-05 -8.20146637e-04  4.69214884e-07 -2.40949031e-03
-  6.17891722e-05  1.38624486e-08  3.23182117e-04 -2.60890188e-04
-  4.66936608e-04 -1.43157105e-05]</t>
-  </si>
-  <si>
-    <t>[0.007864394976252442, 0.4471915911403097, 0.577996446028393, 0.31025027170581104, 0.5337673051232561, 0.007553211550892921, 0.07012512061598418, 0.014726653294490794, 0.015993327302672153, 0.3254948603473645, 0.28976096736318496, 0.29746198643737115, 0.4255202827234369, 0.4229650179687848, 0.41787523436878043, 0.3959834852637847, 0.2829321222681375, 0.006265923317845678, 0.4297857724757396, 0.2819449525613058, 0.15784874564203774, 0.41416078930605865, 0.6244898117037769, 0.3348143438053471, 0.0353723485123772, 0.3145088514536369, 0.03464690496315794, 0.5538758411515018, 0.00961566007593581, 0.028695014736872904]</t>
-  </si>
-  <si>
-    <t>[ 2.86582896  0.65327644 -1.08639842  2.04224799 -0.05516871  2.32612151
- -1.30214758  2.22857949  1.72006764  0.54676994  0.10067397 -0.0810986
- -1.89874769  2.0511077   1.54859056 -1.10100818 -0.34785142 -1.03541913
- -0.90711938  4.710317   -1.09537451 -4.4242267  -2.12395418 -1.28024918
- -0.6663679   0.19552619  2.19121633  1.02570323 -0.20263146  2.05239655]</t>
-  </si>
-  <si>
-    <t>[1.6793126677882786, 2.174496867070289, 2.0330318143078054, 2.3248166675509703, 1.6362898146633613, 1.9785493619984231, 1.6380165298437408, 2.524837900456403, 2.8049584653557895, 1.339466141251885, 1.826029983055538, 1.4472437423825542, 1.9287026015657844, 2.14667822854511, 1.5594222401115752, 2.0652769773343596, 1.4161283934736828, 2.1148802137263187, 1.091472166268802, 2.5047174782498933, 1.7091753623752097, 1.6754849516636758, 1.8493274309342684, 1.6244137315586473, 1.1817783854597257, 1.8702136614781397, 2.6749615654825285, 2.1645006580036754, 1.4034507041621413, 1.5634257516471346]</t>
-  </si>
-  <si>
-    <t>[-0.02015475  0.1119285   0.34327411 -1.22151821  1.26059897  0.05607427
-  0.54258343 -1.69995529  0.82491178 -0.6787045   2.23937972  0.82795745
- -0.02956175 -0.78900235  0.00771215 -0.84943987  1.20070596 -1.14202976
- -0.22937893 -0.09148881  0.14153221 -0.01139167  0.03387511 -0.0692755
-  0.04277029  0.89187986 -0.093274    0.2379066  -3.93522216 -0.92519701]</t>
-  </si>
-  <si>
-    <t>[0.897352376366113, 1.3579586850882301, 0.9018434207016197, 2.2559759569388667, 1.8798820947018453, 1.0022736354823891, 1.469520470433676, 1.8312024294793665, 1.682235837550684, 1.2198138460448351, 1.743156208940585, 1.3262453694271419, 1.1651188918019364, 1.1178013010077954, 0.9657879915209598, 1.0765779091340546, 1.607642304801071, 1.5733827544903585, 0.421917205489706, 1.4294840008379235, 1.576350467460824, 1.77875140491678, 1.2035560227765127, 2.0192316693004266, 1.553799327584753, 1.3000012061988864, 1.5827869584106866, 1.459273282096711, 2.0773175740612855, 1.5067473964782607]</t>
-  </si>
-  <si>
-    <t>[-7.64108163e-03 -6.54835559e-02  1.01017114e+00 -1.48425299e-01
- -8.18042274e-01  2.16927032e-01  1.47361017e-01  2.84998261e-02
- -1.01365678e-01  7.17886516e-02  5.32720521e-02  3.96297913e-02
- -2.02500081e+00 -9.47504288e-01 -9.61861947e-01  9.26178153e-03
- -8.86032870e-02  1.44196238e-01 -2.89523917e-02  1.27324188e+00
-  1.52298890e-01 -1.24846028e-02 -6.59618834e-01 -1.10750352e+00
-  6.41478627e-02 -4.21069929e-04  2.06994578e+00  1.49212829e-01
- -2.03982197e+00 -2.92716039e+00]</t>
-  </si>
-  <si>
-    <t>[1.0332745743261158, 0.716331808978495, 0.6002494072111152, 0.723686379928626, 1.2048398125221251, 1.0371297670407673, 1.0790607463486324, 1.0697623495263227, 0.5672526994335808, 0.9820167121575752, 1.051222703945979, 0.8295963433129603, 1.2815752425842941, 1.0905464591794591, 1.1470407558110332, 1.448880060058503, 1.0937814575410658, 1.449425932614914, 0.4044008340930079, 1.260657345687642, 0.6607409494400932, 0.7096204762013223, 0.5647326103933146, 1.4274813274770601, 0.9630876670336597, 0.6267682359622588, 1.5591265599197595, 0.6663142857542512, 0.9653635592376562, 1.437702482506365]</t>
-  </si>
-  <si>
-    <t>[-8.79447281e-01 -4.50031268e-02  9.26618913e-01  2.76140683e-02
- -4.29337477e-03 -7.82001498e-03 -7.90146004e-02  3.65399627e-03
- -9.03639170e-01 -7.06408838e-02 -9.41545324e-01  1.99815886e-02
-  2.31296700e-01  9.66757799e-01  2.62360226e-03 -3.04862724e-02
- -3.50770588e-02  1.02344200e+00  2.42881386e-02 -7.81157269e-02
-  1.10501413e-01  5.49892801e-03  1.01780758e-02  1.66023681e-02
- -8.65988664e-01 -8.35882240e-03  3.09067196e-02 -1.15641721e-02
- -1.37411276e-04 -2.33291135e-02]</t>
-  </si>
-  <si>
-    <t>[0.6319063063707984, 0.5657940580290874, 0.3859020888553389, 0.80392218969271, 0.5939288250870517, 1.2836617734024647, 0.7167328562597237, 0.8682131274968646, 0.6543723295737235, 1.7315860970179475, 1.0872455105337677, 1.646910137860803, 1.2697580022748804, 0.8242794904236547, 0.9046811352288928, 1.591183894034776, 0.8697152061316197, 1.0351430772186236, 0.7870796414434638, 0.9045311465859066, 0.8818645282946181, 0.8988171372865316, 0.5742361995478265, 0.8429829494403166, 0.7206528844352741, 1.16151404288163, 0.790742789085175, 0.8785454557277761, 1.2859895577010072, 0.8677960120844558]</t>
-  </si>
-  <si>
-    <t>[ 9.88065152e-03 -1.58392367e-02 -1.50778102e-03  6.11565986e-04
- -1.41580487e-04 -2.44365211e-03 -1.14995192e-04  7.52912379e-04
-  1.84931467e-04  8.57629115e-04 -3.74498638e-05 -2.48667525e-03
- -2.95569042e-03  2.07707320e-04  5.99115278e-06  6.40002794e-04
- -4.50462619e-05  7.27423756e-03 -1.78067201e-03 -1.04650550e-04
-  1.35438571e-03 -6.80201180e-03  3.02311764e-03  4.07998353e-03
-  5.85312482e-04  3.99244980e-03 -7.26413210e-03 -2.50261494e-05
- -3.69257736e-04 -4.15131836e-04]</t>
-  </si>
-  <si>
-    <t>[0.744329987195595, 1.581217563244021, 0.4313741548138035, 0.6548796928145179, 0.6573962931799737, 0.03352307052646459, 0.49352445503393877, 0.2791174028986034, 0.6174413981849063, 0.30155607131427326, 0.7878929491240265, 0.8107594332068809, 0.2995905041730515, 0.7784264183531676, 0.41367502426765107, 0.7193329058551129, 0.6941975867773419, 0.6179210964000504, 0.7014796971034628, 0.8040540063928249, 0.38734930705884363, 0.2750190006737246, 0.40505605015088236, 0.5527754647644956, 0.4070566303486899, 0.8140214402033333, 0.4099137048663797, 0.896221716574917, 0.05494257521740885, 0.6639637965514764]</t>
-  </si>
-  <si>
-    <t>[ 1.02000278 -1.19436537 -3.34367314  4.06039383 -2.75167609  2.63945157
-  0.16227882 -0.86393067 -0.07646024 -1.04671601  1.9804599   5.05878407
- -0.88575385  2.12877561  2.98900165  2.77464807  1.90176008 -3.88950852
-  0.93937147  1.42175636 -0.07856627  0.36643299  0.07533715 -0.11436679
- -0.955732   -0.99753622 -2.0219944   2.0999175   0.9983909   0.44719885]</t>
-  </si>
-  <si>
-    <t>[1.3776996810683124, 2.065724106412247, 1.7868905667832837, 2.179332776985405, 1.7021247274230853, 1.5350367381243637, 2.254945707841581, 1.2917091213119622, 1.3332755212268452, 1.606831182295921, 1.9659875030220078, 2.2116419556048967, 1.9328609696799393, 2.1645683261237663, 1.3350354539628844, 2.2822806964472373, 1.4391725544510787, 2.3104895667577297, 1.4869480732364808, 2.2658998588129036, 1.7853560444745953, 1.6959571274076348, 1.1330924917085925, 1.6939904210871135, 1.8214993543611295, 1.1865177391513009, 1.652287852653293, 2.2934768571057726, 1.4665215995765355, 2.6394731846785384]</t>
-  </si>
-  <si>
-    <t>[-2.03328260e-02 -1.79512534e+00 -5.12000000e+00 -1.47805337e+00
-  9.48036136e-01  9.89615743e-01  2.99785360e+00  1.69807406e+00
-  4.62158883e-02 -2.50429225e-04  1.61708162e-01  1.05547861e-02
-  3.27687916e-02  2.39099570e-01  1.58752121e-01 -7.60197818e-03
-  1.92708234e-01 -2.10361508e+00 -5.14750163e-02  1.79225516e-01
- -1.68854168e-01 -1.87112168e-03 -1.28027764e-01  1.26964588e-01
- -9.58348104e-01  1.51460245e-03  1.63195587e-02 -1.31026560e-01
-  1.18466870e-02 -6.01721533e-02]</t>
-  </si>
-  <si>
-    <t>[1.620619138203422, 1.3115244450921915, 1.8690160764910493, 1.7296720340840945, 0.9386880321970934, 0.8890823516374398, 1.762516105926984, 2.0679320025908208, 1.664921840375403, 1.4378106876775094, 1.8661645656922747, 1.5788583774081504, 1.6481889372149927, 1.1586886392556661, 1.4918910244097552, 1.1780949270214875, 1.2195348343296333, 1.6282315566507448, 1.1958761481490199, 1.8940060428163135, 1.895590299386549, 1.5961040218749147, 1.5976066955420019, 1.2413944401686718, 1.3768353877708883, 1.702227578206701, 1.5442520165045326, 2.0489331082599116, 0.9885373463531304, 1.268822753724266]</t>
-  </si>
-  <si>
-    <t>[ 0.10717948  0.01415567 -0.86655876 -1.01087839  0.84626761  1.01546314
-  0.68497858  0.93720017  0.01015193  0.14391704  0.20909326 -0.98331206
- -0.07074552  0.07188155  0.85175143  0.01404312 -0.01930916  0.14538634
-  2.01759286  0.00290558  0.00921543  0.04044804  0.90144175 -0.95405095
-  0.09001256  0.00252225  0.0099195  -2.20701029  1.0329872   1.06663751]</t>
-  </si>
-  <si>
-    <t>[0.8346549960830358, 1.2657457862772725, 0.893182509349234, 1.3616381097312311, 1.4593251818450192, 0.8463116388092837, 1.133506888659715, 1.4769492400589639, 0.6215860867465292, 0.8770799516816484, 1.35780948103037, 1.3134999239897471, 1.947120389818234, 1.1957572654246937, 0.6197960551156697, 1.3419759347612115, 0.8226660527147265, 1.0359645254825187, 1.3202875092273447, 0.7387818557339008, 0.5033505701488703, 1.214161438368462, 0.6883665733588633, 1.5969917795415263, 1.5091318578674946, 1.1217998599033976, 1.1070071970470503, 0.9196637125432329, 0.8129522325739502, 1.1581599075167557]</t>
-  </si>
-  <si>
-    <t>[ 5.84351433e-04  4.04817019e-03  1.25563100e-02 -3.36791397e-03
-  1.77148522e-04 -1.08744991e-02 -5.06624559e-03  9.36373745e-03
- -1.13130619e-02  1.17188679e-03  6.40550550e-03  5.39665651e-04
-  6.19008605e-03 -2.67548897e-04 -2.89293100e-05 -1.12362240e-02
-  2.53144927e-03  3.38050668e-03 -3.01853211e-03 -1.75767522e-03
- -4.43785163e-04  1.88685075e-02 -1.42846957e-02 -7.07265899e-03
- -1.37118065e-02 -7.38707931e-04 -1.58990670e-03 -1.28792445e-03
- -1.29251258e-03  5.85611767e-03]</t>
-  </si>
-  <si>
-    <t>[0.47790752008599713, 0.7942256953056033, 0.45040117461716567, 0.49224218581263157, 0.2846625773972637, 0.775048719778315, 0.4471720251212723, 0.5452948070586724, 0.44151195524988396, 1.5432762946543532, 0.526959668627065, 0.797920567559249, 0.6279207414325447, 0.6911432805396067, 0.49283206966831133, 0.6988715280878519, 0.6780241995287681, 0.3198279407668794, 0.5775337078385193, 1.0177053142532502, 0.5783813375348609, 0.37635970983146055, 0.4727458683663585, 0.6578241982719774, 0.41438690970052566, 0.6647117931757038, 0.5230306725570766, 0.3137620961462466, 0.8893221184344721, 0.510135918148981]</t>
-  </si>
-  <si>
-    <t>[ 6.84680415e-06  1.71333845e-06  1.07379282e-04 -2.48129252e-05
-  2.56541391e-04 -2.15050530e-05 -2.71694178e-05  1.57662104e-05
-  1.69409470e-04 -2.55736564e-05  1.31669344e-05  9.92701016e-07
- -7.26704475e-05  6.32953826e-05  3.40000380e-05 -2.35388430e-05
- -2.80939436e-05  3.51184936e-07  1.04855093e-05  3.94954742e-06
- -3.03137133e-05  6.95531320e-05  2.31318967e-05  4.53491571e-06
- -4.85397692e-06  7.02104519e-05 -3.85973740e-05  1.24423935e-06
- -1.63618320e-05  8.09385817e-05]</t>
-  </si>
-  <si>
-    <t>[0.018422601565063014, 0.2966303792966431, 0.44301947655123697, 0.428153222846307, 0.29999091921547555, 0.018475954911622988, 0.005881644748804005, 0.016389040887325332, 0.2816770739043749, 0.2995669980514439, 0.5330270293007037, 0.2863269067076563, 0.27055158075734, 0.014079286218227075, 0.025067067528691287, 0.30335636524811793, 0.01742194749324449, 0.46797110161696603, 0.3076345262183654, 0.47757277940139947, 0.30092935123346304, 0.3115777138863561, 0.4473716871927052, 0.44698612979666585, 0.008411370346467611, 0.39418181148862175, 0.30819302940543564, 0.2924701024737958, 0.4396697580774489, 0.299229905232404]</t>
-  </si>
-  <si>
-    <t>[-1.13865374  1.03067805 -1.13246126  0.76552277  1.01454897  1.04282156
-  3.27977289  0.99754677 -0.86529927  0.73544102 -1.35792933  1.96752046
-  0.24695466 -0.95184249  1.18898304 -1.9843189   1.17430454  3.17457944
- -2.03267791  0.14782785 -2.85849607  0.2547014   1.68760223  1.80764046
-  1.06596186 -1.00384877 -2.47032577  2.0084053  -0.31298456  0.57418168]</t>
-  </si>
-  <si>
-    <t>[2.364912882626742, 1.3240432025202038, 2.2239909957139834, 0.7819282113731149, 1.782405747568777, 2.1020160946992466, 1.8455315470131697, 1.2418525009353067, 1.3569423643677474, 1.4466795307440152, 2.1937267591426886, 1.4273533688864706, 1.6143602166476616, 2.304898509082012, 1.8585731357350133, 2.2009830944756694, 2.1387670701753527, 1.7856999313045965, 1.515130292184456, 1.9189692649652017, 2.155619845053427, 2.128568150710843, 2.1083175021151925, 2.057019283605212, 2.0402681815679933, 1.3872011133399769, 2.2003258788435747, 1.6320187833220952, 2.241071133712131, 2.054102871067029]</t>
-  </si>
-  <si>
-    <t>[-1.06256841  0.32055556  1.9611889  -0.21806858  0.66875319  0.15777407
- -2.86426111 -1.25681364 -0.01669779  0.01931788  0.02380738 -1.85992978
- -0.57175131 -0.71040612  0.71042657 -0.079766   -2.04092379  1.11730473
- -0.19645097  1.41760419  0.03276435 -1.06478493 -1.875017    0.06286595
- -0.22258909  0.18921041 -0.05006775 -0.03158892 -0.04149822 -0.17518334]</t>
-  </si>
-  <si>
-    <t>[1.0791698658586357, 0.9191162985499857, 1.4913585054336949, 0.9461158644516884, 1.7991564211473774, 1.724089000201837, 1.2741834071630596, 0.978919524216865, 1.4517518449723545, 0.8358057478725603, 1.180208207016265, 1.1624531579695359, 1.1727553816390297, 1.4206353380680812, 2.0070603217386442, 1.5202800882583014, 1.2796258926934518, 0.8427017560814596, 1.094075168716342, 1.330943022306437, 1.1064343785255546, 1.69159696905244, 1.3178335574349316, 1.237285601392301, 1.8532919433652058, 1.5295569589469895, 0.7591114674128476, 1.3787719223102795, 1.9544739927764203, 1.4573052954908277]</t>
-  </si>
-  <si>
-    <t>[-1.02996957 -0.99003998 -0.82919236 -0.01101743  0.1546473   0.0642579
- -0.05990916 -0.03254345  0.01735265  0.00789628 -1.16199862 -1.06541808
-  0.0635837  -0.12321095  0.04182308 -0.05668576 -0.87152003 -1.03084069
- -0.69353354  0.08016068 -0.12322354  0.01372678 -0.9535951  -0.10426807
- -0.02539863 -0.97726462  0.24077005 -2.0022205  -0.00778375  0.32409169]</t>
-  </si>
-  <si>
-    <t>[0.8444506531620183, 1.5738213599073405, 0.7696743664623297, 0.42671909739094255, 0.9562266895549909, 0.7958264804083748, 0.7531390160259716, 0.6678737583043227, 1.0914439489951124, 1.0706185827398442, 1.7493131089976035, 1.341685222187267, 1.1827085106519852, 0.6958758293976086, 1.355098924186409, 1.051202769861608, 0.6239876575269304, 1.2674353848418027, 0.8127503045215705, 1.0859035894801905, 1.1943348273446108, 0.7027080877621813, 0.7670485059838557, 0.7303271804937542, 0.3816560238834637, 0.9508562489381482, 0.7179236862793569, 0.8669255857758013, 1.0944986337177813, 1.2973467185896075]</t>
-  </si>
-  <si>
-    <t>[-1.39975453e-02  3.89016684e-02  2.08118985e-02 -2.32922686e-02
- -1.07115362e-02  1.91811267e-02 -1.93762358e+00 -1.77799170e-02
- -5.16702479e-02 -1.05510948e+00  2.65197804e-02 -1.28060875e-03
- -1.05373964e+00 -9.42039329e-01 -1.20147603e-01 -7.64956457e-03
-  4.53634409e-02 -6.43343790e-06  1.00453972e+00 -3.32580717e-02
- -3.09831012e-02  1.09320682e-02 -4.11677903e-03 -1.04720729e-02
-  3.67771668e-02 -1.87603097e-02  1.31720782e-02  1.25720203e-02
-  6.06499196e-03  1.25159455e-03]</t>
-  </si>
-  <si>
-    <t>[0.933402088682165, 0.6758798928708454, 0.7158658860439434, 0.894394775882031, 0.6048958284425058, 0.45701255614549724, 0.8093252963654519, 0.7949304851707967, 0.5805836790901802, 0.8462392854585606, 0.5721174022670046, 0.887361688757341, 0.9134542314868896, 0.6165127810432641, 0.8736872468957693, 0.44571501996484886, 0.7156846972591375, 0.7388381137641702, 0.910452182767227, 0.7298175344250424, 0.7304820936043758, 0.8516940512343287, 0.8410034838765583, 0.6515956228794849, 0.6531322055466129, 0.4528002737708029, 0.7038743316566229, 1.1381077027419886, 0.42055610912747304, 0.9127053114238176]</t>
-  </si>
-  <si>
-    <t>[-1.25673794e-04  2.06115557e-04  4.03984031e-04 -1.21007891e-04
-  2.80127865e-04  1.65923997e-04  6.93445414e-06  2.09519476e-06
- -1.82344409e-04 -1.60250520e-04 -2.83697096e-04 -2.00041548e-06
- -3.15254652e-05 -4.52765024e-04  3.34770133e-04  1.73828523e-04
- -3.50521281e-05  1.38226889e-06  7.09458545e-04  7.32264963e-06
-  5.63354393e-04 -6.42743049e-06  5.26909918e-05 -3.41623657e-04
-  1.96075600e-04 -2.05148898e-05  1.31614122e-05  7.90237100e-04
-  9.45994530e-05  2.98898714e-04]</t>
-  </si>
-  <si>
-    <t>[0.5314407239250125, 0.5285278774553869, 0.8901855148075505, 0.6995649826050097, 0.5317945407859292, 0.2859864304616196, 0.30556067515276003, 0.016898177736963203, 0.28890836416544363, 0.014105089862822698, 0.393122580883551, 0.6404845000303359, 0.48538178106509805, 0.4104549323726694, 0.4411105993647554, 0.538134583434979, 0.025047507133703257, 0.2967012944831023, 0.6985783807393927, 0.6495933087044184, 0.46300785931136834, 0.4937354169161854, 0.021651881661989853, 0.01188729624027803, 0.4366217929243099, 0.2805056270435169, 0.5477073596900917, 0.2905524279602951, 0.4315677041511936, 0.37178114165154585]</t>
+    <t>[-2.12040747  0.01507028 -1.38900846 -3.2164401   0.96308892  0.90732218
+ -4.21223471 -1.90423244  0.7699054  -2.62455199  1.90104861 -1.09595826
+  2.03555291  2.32112345 -1.26847002 -5.05153829 -0.2177224   0.30184611
+  0.9176587   2.96702984 -0.91876805  1.73607357  1.24133231  1.12173072
+  0.07905697 -2.0883758   4.19141914  0.77681968  0.86311226  0.23568597]</t>
+  </si>
+  <si>
+    <t>[1.9499888665227463, 1.4281535896343878, 1.7811874384731294, 2.3226562605677934, 2.1985485786123062, 2.1159855585888208, 2.6648810644172523, 1.4947940143295146, 2.4294106220229734, 2.0951895769174285, 2.368096308238834, 1.2020652739342088, 1.8263399250534609, 1.7687473592195224, 2.6590446089877258, 2.97271025050731, 2.450035301176344, 1.4737517437731626, 1.4513381069833837, 2.441654102265219, 1.5190989724617785, 1.9575692362066546, 2.0211597251391025, 2.963798151582581, 2.734960708814112, 2.9369809610401987, 1.7869026448805414, 2.098373433172014, 2.7115623694948483, 1.3749611903803876]</t>
+  </si>
+  <si>
+    <t>[ 0.13286042 -2.53364514 -1.93107505  0.8868281  -0.01486039 -0.0099292
+ -0.84016315  2.77067769 -3.05999482  1.51440749 -0.04690049 -2.01568776
+  1.92165022 -2.07334249 -1.95513391  1.30291893 -1.20571549  0.15100737
+  0.04936094 -0.93722467  0.97690891 -0.10619201  1.33754084  0.53754902
+  0.12515968  0.94232532 -0.13318527 -0.11567806  3.70584348 -0.90953377]</t>
+  </si>
+  <si>
+    <t>[1.6070279663293958, 1.7271635174271722, 1.1682875265273773, 1.6939759111291017, 1.5331303541813415, 1.3712202220048784, 2.1452669906269044, 1.743084320710587, 2.5373563802220693, 1.4636580227387554, 1.5042254329360525, 1.9641765113548932, 2.4490549428364035, 1.838762478170047, 0.9917068943968852, 1.7492804960249204, 1.627882766417478, 2.6520456485220607, 1.958917724112895, 1.5628220655362526, 1.869632412841006, 1.1699080841765166, 1.5534060613798026, 1.4803608468190734, 1.7163687388249176, 2.1502074025237823, 2.565572606162467, 0.9711588578763507, 2.208268665084818, 1.114812870973519]</t>
+  </si>
+  <si>
+    <t>[ 1.04027976 -1.05998996  0.0144894  -1.842282   -0.21775182 -2.28166466
+ -0.30990281  0.08921245 -0.01855724 -1.90098135 -2.01784928  2.04944351
+ -1.07358929  1.2656787  -0.83488789  0.20674489  0.9126216   0.06477981
+ -1.18096099 -1.30215433 -0.02652316 -2.95931813 -0.05844501 -0.04732213
+ -0.54492049  0.13536311 -0.38963461  0.05798142  0.12807219  0.84001427]</t>
+  </si>
+  <si>
+    <t>[0.9656484073579457, 1.3525634098332842, 0.9253896149691521, 1.2677590300850632, 1.2787941802806535, 1.761301519517756, 1.858130035194376, 1.1333087717514772, 1.1506203761483145, 1.301424246257507, 1.3342778380275855, 1.603224915731884, 1.1423000398036824, 0.8059378291471877, 1.023530083012056, 1.1301996766988287, 0.9797840083265243, 1.304688003550608, 1.4787236935014392, 1.7021877085945971, 0.6162854044183904, 1.5754644926589227, 1.1147462511922768, 1.4653604416601302, 0.8166697595323695, 1.726517738769721, 1.8234258733475388, 1.2206433831366907, 1.99737238842508, 0.99904280626808]</t>
+  </si>
+  <si>
+    <t>[ 1.94406036e-03  2.03369035e-04 -8.71039156e-01 -4.78272701e-02
+  2.06044217e+00 -7.95468591e-03  3.10656814e-01 -4.84599203e-03
+  5.65054650e-02  5.97730682e-03  5.88128995e-04 -1.74390762e-04
+ -1.81765475e-03  3.63206833e-03  8.86933039e-02  1.01413729e+00
+  3.31882202e-02 -5.26043875e-03 -7.11246069e-03  1.16044535e-02
+  1.60308585e-03  3.67444934e-04 -9.17153254e-03 -1.46323841e-03
+ -9.65470217e-01  2.42115890e-03 -1.29429552e-03 -2.88169177e-03
+  3.40780338e-03 -9.62894520e-03]</t>
+  </si>
+  <si>
+    <t>[0.5301487424653152, 0.7722206250370658, 0.36754826901491666, 0.43251749644498066, 0.9971790557892416, 0.8596899577883432, 0.8150206212072792, 1.3511284519061864, 0.7537460773745168, 0.8204475819699616, 1.2118056038590688, 0.6145453916809459, 1.291469170119898, 0.5777482950365139, 0.4620864546755662, 0.8721120036523247, 0.3821678642697743, 0.3788633339253845, 0.5709962241669136, 0.6311499182901668, 0.32571645032377844, 1.5590222486493623, 0.5629108236549105, 0.9864788827823704, 1.0517911395681558, 0.3385316840603675, 0.372262817132877, 0.4560498691410709, 0.5747917860110457, 0.7413285714630329]</t>
+  </si>
+  <si>
+    <t>[ 1.23527280e-04 -9.26971170e-04  1.03854755e-04 -6.10820586e-05
+  1.24791349e-02  4.68378328e-05  4.07683329e-03 -5.12617803e-07
+ -1.58401469e-04 -1.20912417e-03  5.47971144e-03 -8.29392284e-05
+  7.28117481e-04  7.55790892e-03 -2.90720246e-05 -1.50246260e-05
+  4.60743984e-04  1.15954520e-05 -2.62309543e-04  1.98037216e-05
+ -4.49870320e-09 -9.86649602e-05 -2.90122828e-03  2.55217412e-03
+  2.95661682e-04  1.07090353e-02  2.83722605e-03 -9.52721968e-08
+  9.23911454e-04 -1.40305223e-03]</t>
+  </si>
+  <si>
+    <t>[0.4289415424429974, 0.6274193533745562, 0.4178580615727198, 0.2902792909283328, 0.23285990783032673, 0.5857267055911711, 0.3411823693748771, 0.43884962437440067, 0.5913173663216924, 0.2909933385743784, 0.6153023620377255, 0.5686652122129562, 0.04121290525772503, 0.38602683364510465, 0.40475725597524265, 0.4355055299431947, 0.6667496679381345, 0.6649556610404465, 0.3651696182048631, 0.5237581181836151, 0.3110962193327733, 0.06469199814094445, 0.27521092664093444, 0.6102071089143579, 0.03693770131209131, 0.723909425077242, 0.04593373726834098, 0.47385892969093163, 0.5625305119124172, 0.4175412888798217]</t>
+  </si>
+  <si>
+    <t>[ 7.07796968e-01 -4.90550266e-02  9.06665507e-01 -1.16966627e+00
+  3.14370149e+00  6.84144697e-02  8.08155074e-01  2.23059609e-01
+  1.70288778e+00 -2.11307112e+00  9.77965514e-01 -1.52406483e+00
+ -5.12000000e+00  8.23610698e-02 -2.00205322e+00 -3.00913056e-01
+ -8.89139914e-01  1.78880893e-01 -1.55557577e-01  1.20319107e-02
+  9.37304586e-01  2.57188658e-03 -9.68315010e-01 -6.41376786e-01
+  1.10447040e+00 -4.86648021e+00 -2.78941525e+00  6.15772572e-02
+ -9.45768249e-01 -1.06202421e+00]</t>
+  </si>
+  <si>
+    <t>[1.3622199448931571, 1.765370608301245, 1.8802674591287505, 1.6973680477087172, 1.76714740358583, 2.4544508736144777, 1.627623733227503, 1.50816974838957, 1.7758692703227954, 1.6447197945919831, 2.0913992884115538, 2.069843027510156, 2.2748577523964206, 1.436302229149863, 1.4898506960009095, 1.9338047547357362, 2.305147319355339, 1.6655500810695807, 1.3760043137741789, 1.5808881901142635, 0.8848603577328857, 3.012353801035756, 2.792999423898519, 1.480324335146605, 2.068927924403819, 1.9315221350294713, 1.4341876357482302, 1.3540027744938115, 1.7661301599268389, 1.9757997691657727]</t>
+  </si>
+  <si>
+    <t>[-1.72186536e-01  2.65509789e-02 -1.42129016e+00  2.65620467e-01
+  1.20518476e+00  2.23712061e+00  2.05861391e+00  4.39963402e-02
+  1.14929986e-02  3.11870163e-02 -3.17160369e+00  3.10260243e-03
+ -1.42186350e-01  1.55115967e-01  9.07413526e-01  5.12000000e+00
+ -9.10004343e-01 -8.51832030e-01 -2.41420880e-01 -5.84812050e-02
+  1.57267933e-01 -2.76254626e-01 -1.28426451e-02  5.05195060e-02
+ -2.44101440e+00 -8.98247141e-03 -2.40548262e-02 -9.67251394e-01
+  7.96598395e-02  1.02155056e-01]</t>
+  </si>
+  <si>
+    <t>[1.4565265349993333, 0.9140063405338807, 1.096387071412767, 2.0163754154730826, 1.461552337788171, 1.9361041738619178, 1.4038810003780064, 0.9014819275596433, 1.3553466629187996, 0.3672181324361448, 1.797816174904327, 1.3618931420550366, 1.3530790731896536, 1.5151711719208476, 2.1845661311067412, 1.767942053232872, 1.615854645368538, 1.131886197657992, 0.9798325488952795, 1.4046688393656934, 0.6148883798206177, 1.154305487569642, 0.9527112342458053, 1.5683813675503904, 2.1005894033298325, 1.7102582675002567, 1.3902883131008454, 0.6457418934970528, 0.9975320503739689, 2.0629986113847183]</t>
+  </si>
+  <si>
+    <t>[ 2.05768854  0.01511031  0.17831627  0.04646221  0.95729317  0.01220384
+  1.03643697 -0.06100373 -0.0767741   0.0400036  -0.00542663 -0.0898924
+ -1.13895995 -0.1004984   0.06541569 -0.14968585 -1.03955729 -0.01894264
+  0.14144061 -0.08689163  0.93175429 -0.2618798  -0.05084769 -0.02999083
+  0.01978949  0.99697602 -0.90071859 -0.01744407 -0.73317875  0.02597261]</t>
+  </si>
+  <si>
+    <t>[1.1478289231563146, 1.19065470389308, 0.8027195888577465, 1.0629753687797079, 0.925921282780294, 0.7429501647314234, 1.3024500091323061, 0.8708256384180164, 1.0103405857985517, 0.637340941716271, 1.306808812700482, 0.9525150481818412, 1.2322485879053935, 1.5845787505191038, 1.2724545077760712, 1.3297098883882084, 0.6992305727078405, 1.1246420163078674, 1.8373734987420487, 1.1508434619856789, 1.2190113407328174, 1.1114222689452726, 0.8855723052188389, 0.9810884652787006, 0.6522488296156174, 2.637009662174601, 0.7456565796998214, 1.1609618931820835, 1.184875118160775, 0.8357338688496334]</t>
+  </si>
+  <si>
+    <t>[ 3.29672729e-02 -8.81758211e-03 -8.20559053e-03  9.13910693e-03
+  1.11506040e-01  1.01096885e+00  8.28921622e-02 -5.41305138e-05
+  4.52492924e-03  2.00122754e-04 -2.11817296e-02  1.60815963e-03
+ -4.88773211e-02 -4.19143126e-02  9.59966708e-02 -6.23707456e-02
+ -1.18637268e-04  9.18120741e-03  7.38357887e-02  9.18588334e-01
+  9.68186917e-01 -3.39147656e-02  2.53361038e-02 -6.92256174e-02
+  9.66344192e-02 -5.34229257e-02 -6.33347659e-04  8.67886785e-03
+  6.05674956e-02 -1.75559895e-01]</t>
+  </si>
+  <si>
+    <t>[0.4371337035712953, 0.24734823337108539, 1.0187524797511047, 0.42580139128749256, 0.6163791598362607, 1.0721837741909122, 0.7628960192171287, 0.8516805507840065, 0.9152323978831587, 1.3515174979321518, 0.525355541538036, 0.7238644575468496, 0.65738322330192, 0.4584479697313795, 0.48424123070711983, 0.47513684642349946, 0.902888372429582, 0.7634046271707009, 1.0915016269171354, 0.9659242363029318, 0.4674795343164656, 1.2954812396147188, 0.8704157909590665, 0.48275124888206356, 0.7469702684993678, 1.1524338047180396, 1.1879545515119214, 0.6341717833515391, 0.7679133402178918, 1.0437232617225405]</t>
+  </si>
+  <si>
+    <t>[-5.85421075e-04  1.27871475e-04 -7.11172345e-04  1.44162280e-04
+ -1.68555279e-05 -1.68729005e-04 -8.59982930e-07  1.44227971e-03
+  3.75892694e-04 -1.02283403e-04 -9.80656648e-07 -7.15676608e-06
+  9.30146364e-04  1.91512493e-03 -1.17301212e-04 -3.00675532e-04
+  1.03538440e-05 -1.33542472e-04 -2.70604637e-04  4.75449942e-04
+  2.00969625e-04  3.27642840e-04  7.38126808e-04 -2.94082732e-06
+ -4.52466358e-07  1.09714297e-03  5.03446396e-06  1.66296422e-03
+  2.35988658e-04  1.12779625e-04]</t>
+  </si>
+  <si>
+    <t>[0.03894967308205927, 0.04453657538494384, 0.45379528353835585, 0.299603996498353, 0.3161411140881456, 0.4394971010319592, 0.30433780067745847, 0.2833772698383194, 0.42962844540201095, 0.40015752454037595, 0.4283215641261978, 0.2516489249662242, 0.30524917210782937, 0.28049574693764606, 0.40296383645275713, 0.009116670086737744, 0.4080825208119548, 0.3513912135097157, 0.3966555857344094, 0.30868520716830455, 0.5247773871581985, 0.39066212550738855, 0.021906503553503893, 0.02017453258495173, 0.03669208520791603, 0.418070133336413, 0.4538351965522661, 0.020110030918951013, 0.31173546420267056, 0.34410780207609015]</t>
+  </si>
+  <si>
+    <t>[-0.27789631  3.03407511  2.93414767 -0.08444588 -0.07197031  2.88273212
+  1.59541963 -0.2620009   0.12323793 -1.31880209 -2.79894972  0.21749724
+ -1.3755842   0.09655834  0.76690504  0.12726852  0.68820908  0.99784764
+ -1.30171852  0.09357881  1.03260901 -1.10635087 -0.88699254 -0.14867208
+ -0.05528298 -0.8369207  -0.93733604  0.00846119 -0.26677764  1.96308699]</t>
+  </si>
+  <si>
+    <t>[2.1684885027645247, 1.3981590286282772, 2.3513768542722597, 1.7321076514045002, 2.095918906255165, 2.305582573536604, 1.9008251809569154, 1.0836610583502444, 2.4111648373967336, 1.8815610625540045, 1.8454473061067376, 1.62757877495805, 2.6638080409051645, 0.883022979313029, 2.0879020249679, 2.095859359870247, 1.8631013103794258, 1.510817808020785, 2.4687760004549397, 1.6716993749644997, 2.2393754850509073, 1.6465744564753368, 1.241706519081578, 1.576851252141868, 1.259168417741403, 2.1598006200244635, 1.7358384492341667, 1.5699541705751145, 1.883361073852004, 1.3489073925496866]</t>
+  </si>
+  <si>
+    <t>[-1.89236767e-01 -2.73091444e-01  1.85769119e+00  1.89071258e+00
+ -1.03291609e-02 -8.79876601e-01 -7.96766972e-01 -8.08616017e-01
+ -1.02871187e+00 -2.21975808e+00 -2.98937024e-01  1.23717545e+00
+  7.69816612e-03 -1.46487585e-01  1.34899751e-01 -8.20330697e-01
+ -3.24584158e-01  9.49972335e-01  9.57582015e-01  8.47599414e-01
+  7.07435405e-02  4.40665907e-01  8.94625688e-01  7.12705758e-04
+ -2.28742722e-02  7.24199210e-03 -2.24896129e+00 -7.87123622e-02
+  7.41315333e-01 -8.53964668e-01]</t>
+  </si>
+  <si>
+    <t>[1.9342394187356846, 0.5307559835229114, 1.5337968640653807, 1.3943517913258345, 0.7591717361240818, 1.27582822342613, 1.9352903425627421, 2.067126311517052, 1.297077723489196, 1.8317513006082742, 1.2582461405942644, 1.1501355920101355, 1.3020373370458616, 1.0479605899718756, 0.7304325249441622, 1.9598309381458408, 1.5027692375560024, 1.6021060126731472, 0.8598363526115496, 1.1502059417837667, 1.6605606525881111, 0.9239960711760605, 1.067322160825527, 1.188549318483963, 1.6968280734334724, 0.8823903151529012, 1.4754955660128488, 0.7827624508626523, 1.2502597369585897, 1.187824346028184]</t>
+  </si>
+  <si>
+    <t>[ 1.84308526e-01 -3.47891684e-02 -7.88315558e-02 -1.98845630e+00
+ -6.79028740e-02  5.20918403e-02 -1.61676338e-03 -1.12087538e-01
+ -1.02287160e+00 -4.30676819e-02 -8.58220157e-01 -1.99084710e-01
+  1.30455279e-01 -1.00866197e-01  5.11976744e-02 -1.98930483e+00
+  1.00018125e-01 -3.00789389e-02  8.95188416e-01 -2.92732332e-02
+ -6.59512807e-01  1.86463876e-02 -1.28742048e-01  1.12255183e+00
+  3.40484926e-02 -3.15623147e-02 -5.87622815e-02 -2.07510262e+00
+ -7.01709846e-02 -1.01304996e+00]</t>
+  </si>
+  <si>
+    <t>[0.991195580856126, 1.3359303824626574, 0.559387967471498, 1.778168225171737, 0.9627468311824785, 0.9718938880596784, 0.7511463849036266, 0.8068868068069055, 0.6701475146822726, 1.0275274523817024, 0.9396466665475479, 1.0619226521923746, 0.9030169815267624, 0.5698285570700188, 0.70892560582741, 0.8646638445858854, 0.736726922879376, 1.0198744690695687, 0.6240971677141179, 1.1454554351584718, 0.9139307251405272, 0.6933428308648611, 0.4421009380911878, 1.2510257008699868, 1.1139378824719974, 1.3529702757060253, 1.0993854400663152, 1.2187580520158259, 0.8577234470161541, 1.4771417912959706]</t>
+  </si>
+  <si>
+    <t>[-8.80701234e-03  1.22616049e-01 -6.26857954e-03  4.89358812e-02
+ -3.20044679e-04 -4.13212294e-03 -3.28922854e-02  2.19707644e-02
+  1.71910134e-02 -9.20292388e-03  2.35945015e-02  1.00709196e+00
+ -1.29147823e-02  2.02154485e-02 -2.05573607e-02  7.99393190e-02
+ -1.02167772e-01  2.19574908e-02 -1.17775120e-02  6.99375221e-03
+ -4.59084509e-03 -3.57579514e-02 -9.26749335e-01 -1.09459725e+00
+ -1.46626816e-02 -3.61641195e-03  2.16364911e-02 -8.55662383e-03
+ -1.57048797e-02  5.41427873e-02]</t>
+  </si>
+  <si>
+    <t>[0.8328785375507392, 0.40919906550077073, 0.44902202467608593, 0.6923073019154419, 0.7244049886239066, 1.09706131352291, 1.0547105614470187, 0.9462627769472043, 0.7722758042584459, 0.6770949927035207, 0.2924174162565165, 1.0778521331613364, 0.6358928303824344, 1.2473374892220537, 0.5793579975731481, 0.7427512424024123, 0.7632439327099511, 1.3187085648483723, 0.4444812343436026, 0.9480361261030584, 1.179758422548008, 0.7861010897515474, 0.7697811140601344, 1.6295171090488136, 0.831694283491086, 0.8667830313860587, 0.7996304054734387, 1.1465579372623154, 0.6443562221545189, 0.4475366445572946]</t>
+  </si>
+  <si>
+    <t>[-6.15405979e-06  1.75941778e-03  1.62891183e-03  6.12336820e-06
+  4.37385555e-04 -1.58172289e-06 -5.33029202e-04  3.07408033e-04
+  3.43283260e-04 -3.65477868e-04  3.01686685e-04  2.67717645e-05
+ -5.46631222e-04  2.02442864e-03 -2.90088099e-04  1.02668795e-06
+  8.38484874e-04 -1.25080443e-03  4.17736163e-04 -5.33471741e-05
+  4.21621879e-03 -1.08743388e-04 -1.27844023e-03 -2.17942671e-03
+ -8.71004652e-05  1.94280333e-05 -2.67535777e-04 -2.10409638e-03
+  2.35749572e-04 -1.52569279e-05]</t>
+  </si>
+  <si>
+    <t>[0.29635726952138913, 0.01974716308605708, 0.32551431096786393, 0.44155878532953785, 0.4021285173913186, 0.010081838966512126, 0.3061047561683814, 0.4368897763957525, 0.02594835287767674, 0.48239748477265637, 0.2985769394161861, 0.2946155381677391, 0.2763956702396903, 0.533127208803054, 0.3453955258619446, 0.2588062085703173, 0.2996244837448649, 0.02057605089521737, 0.018371396013053813, 0.4521001944361661, 0.024546383246099528, 0.019144841751273255, 0.6308279239163505, 0.0336259250662474, 0.030597868815642266, 0.2870966795889982, 0.3042419748392956, 0.4524271604237948, 0.30443589241166524, 0.29445911498858435]</t>
+  </si>
+  <si>
+    <t>[ 1.94178208 -1.23949988  1.17830867  1.47187318  0.07982113  0.24991288
+ -0.69847399 -0.34502208  0.80823605  1.27162995 -0.09909221  0.84785526
+  0.98676054  0.10948922 -2.02580384 -0.73982061  2.89251584  1.61181392
+  1.89931245 -2.01738133  0.85688489 -0.68598087 -0.80491786  0.24341742
+ -0.96472195 -0.78507292  1.90904849  0.30192357  1.90556558 -0.84169385]</t>
+  </si>
+  <si>
+    <t>[1.2893958728835382, 2.338903175150818, 1.1924497422654377, 1.4591304807178602, 1.1528730436200283, 1.3966177233015267, 1.1171267284557405, 1.6776353647786666, 1.5967161663070149, 1.2212560235755279, 2.0322730196064565, 2.6243606082437054, 1.4514636213664045, 1.4396096957113855, 0.8769084021976093, 1.583048437423574, 1.978762550153751, 1.1730441827712599, 1.605351871306954, 2.874610291521956, 1.3839509427032999, 2.5032573554747324, 2.053513784576931, 1.2791055055456224, 1.8239520380758372, 1.5607521933279895, 2.10922700832036, 1.3725462632988734, 1.72258064759499, 2.2551342508646597]</t>
+  </si>
+  <si>
+    <t>[-0.81411237 -4.18216757 -1.95334568 -0.83518964 -0.00688247  0.06657845
+ -1.97134206 -0.12371301  2.05419327 -1.77474785 -0.27694289 -0.16043026
+ -1.87797226 -0.01131727  0.02750702 -0.96190936 -1.13284869 -2.43988546
+  0.07054365  0.97121356 -0.99938484  0.13696556  0.0653245  -2.13262905
+  0.09447543 -0.11682759 -0.15431199  1.90440488 -0.14948323  0.14385131]</t>
+  </si>
+  <si>
+    <t>[1.0887344532984604, 2.512416614314366, 1.766257907080476, 1.41350415095175, 1.0133381148576452, 1.5335109323229705, 1.406157420274694, 1.6203474757135718, 1.2544092030712783, 1.7868588662063234, 1.1132345850723022, 1.469554720274101, 1.285451064942917, 1.9555188975794875, 1.203692315827874, 1.2626984625192172, 0.955952142518634, 2.7308327376712995, 0.7913500216158068, 1.4444658157945114, 1.6350395898535404, 1.4934162676431932, 1.2551557470798875, 1.3245116192805035, 1.2536886600581194, 1.0017318886497402, 1.0195044528448758, 1.487315544779301, 0.7257282332052929, 1.3924876898266474]</t>
+  </si>
+  <si>
+    <t>[ 0.24761636 -0.10010087 -0.79559934 -1.01121844  0.14564236  0.93484275
+  2.23071708 -0.05788507 -1.19200365  1.03643915  0.01869457 -0.57721185
+  0.03523811 -0.9545872  -0.1265032   0.06859157  1.01670691  0.00313429
+  1.88616271  0.07203971 -0.88626834 -1.95457385  0.15123879 -0.10142195
+ -0.01861188  0.95528188  0.09522254  0.85702599  1.00481427  0.78369806]</t>
+  </si>
+  <si>
+    <t>[0.6662287905196095, 0.7502590621750138, 1.1259874293248016, 0.6368022520376513, 1.0722957408417741, 0.9696128512606879, 1.3271454457005756, 1.2272086301315412, 0.9945410358374857, 1.4181763152695392, 0.7543134007191997, 0.8212946195791175, 0.9488004922645061, 1.0387595874063114, 0.740801490709245, 1.1259926945844803, 0.8685066182179508, 1.1049373542362826, 0.897651328322864, 0.63782677019235, 1.4826233776826567, 1.1900354828512618, 0.713562739079442, 1.2325713195447054, 1.774525699345171, 0.9650229055340083, 0.9979179144806871, 1.2016390165709814, 0.6433694549917965, 1.190930788485606]</t>
+  </si>
+  <si>
+    <t>[ 9.06894216e-03 -1.98989510e+00  1.06305327e+00 -8.83888219e-02
+ -9.29178973e-01  9.96363365e-01  5.56005690e-05  4.90612586e-02
+ -6.72550500e-02  4.91575941e-02  1.01701507e+00 -3.00155241e-02
+  2.62788110e-02  9.74865939e-01 -1.06375616e-02 -3.10548596e-02
+ -9.56106045e-01 -1.14787588e-02 -3.69670728e-02  1.31635340e-01
+  6.35189045e-02  6.79865472e-02  5.26204947e-02  2.97091933e-02
+ -2.35799533e-02 -1.99739488e-02  3.87840596e-02 -2.02433040e-02
+  3.89066723e-02 -1.12493947e+00]</t>
+  </si>
+  <si>
+    <t>[0.8097723445529964, 0.8711944684932426, 1.069550033066192, 0.37095483484718583, 0.36593574373563265, 1.1928435034038096, 0.7292513418909928, 0.963496963365786, 0.47447238835798783, 1.1023011313637558, 0.8286451287971546, 0.43054780352009514, 1.0065725155519465, 0.9305528586685459, 0.581829966478255, 0.5291414862016369, 0.9855779340539075, 0.7598488715222211, 0.9061733630434569, 0.8857608982907662, 0.9798940602818107, 0.6724482644054683, 0.7214413192213216, 0.7929738636031666, 0.29135119055824826, 0.9203635788819164, 0.805700619244996, 0.8548103987424246, 0.5317435337870532, 0.7931563123790789]</t>
+  </si>
+  <si>
+    <t>[ 3.76423872e-04 -5.04359581e-03  1.52306309e-02 -4.58685592e-04
+  4.80851863e-03 -4.62744638e-03  2.25750041e-03 -3.67455205e-03
+  8.57627531e-03 -1.99911034e-03  2.04674937e-03 -1.46143992e-03
+ -5.73122750e-03 -3.14399549e-03  1.18657880e-02  2.01948052e-03
+  1.11975257e-03 -7.38324706e-03 -8.46514583e-05 -3.41362794e-03
+  5.77067215e-03  9.48709987e-03 -9.88256996e-01 -4.72217802e-03
+  1.07965962e-03 -4.52826491e-03 -3.36328110e-03  7.09619112e-03
+ -4.26269706e-03 -1.00723669e+00]</t>
+  </si>
+  <si>
+    <t>[0.37525444145663545, 1.178930859803012, 0.2693750882548949, 0.5239869063638499, 0.4239306967425026, 0.307658782081757, 0.8301857085923332, 0.7933480703938419, 0.645587247937231, 0.8004803205891822, 0.6708967054347899, 0.5136435867281695, 0.9343569754597197, 0.7790296071286785, 0.6803572909673339, 0.5929361866584023, 0.7364776042914913, 0.6304314313846423, 0.46640566962833674, 0.5814083430909628, 0.45133275181563237, 0.8404742127553821, 0.9080235124157472, 0.5875595191544957, 0.5360499265583493, 0.6095581452894353, 0.790382606610916, 0.3692709757633236, 0.48793525457636433, 1.0306494314338748]</t>
   </si>
   <si>
     <t>rosenbrock</t>
   </si>
   <si>
-    <t>[-1.86277865 -0.38442421 -0.76523722 -1.1481989  -1.03668036 -1.24008098
- -0.47423404 -1.26250917 -0.15496044  0.05671877  0.16117629 -0.57407443
- -2.20658096 -0.454593   -0.65196157  1.76153174  0.17087988  0.72655619
- -0.52636994  0.00821351 -0.49068825  0.54264196  0.25325557  0.87723406
- -0.46484509  0.32973972  0.69019271 -3.23135404 -2.04091843  2.92550911]</t>
-  </si>
-  <si>
-    <t>[1.9277687988407366, 2.004433467099309, 1.6730344173097575, 1.2834515224257756, 1.9840746583876352, 1.6635038714921095, 2.0040201874901697, 1.8004677913917342, 1.9986699472566003, 2.3494553023102505, 1.510604365461038, 1.688523664125457, 1.8088745094206717, 1.266959759918706, 2.1827578089577857, 1.6783614657184827, 1.8632236060104035, 1.39888721454121, 1.9523783083238877, 1.3053904114579542, 1.5063263863396783, 1.3439535635513593, 2.297562473777743, 1.7033458255196026, 1.3546749502859752, 1.4407175167111204, 1.7551828824344398, 1.5476833373581056, 1.6629964427458008, 2.8524099028305767]</t>
-  </si>
-  <si>
-    <t>[-0.05363083  0.15502707  1.00724895  0.29427881  1.1755238   0.64654634
- -0.71928795 -1.15487952  0.30887688  0.84461131 -0.63164745  1.00873053
- -1.08236433  0.25146008  0.13749587  0.20513487 -0.65690899 -0.52498665
- -0.71788698 -0.30402254  0.45399437 -0.96882039 -0.93904801 -0.31937141
-  0.79448236 -0.20051209 -0.33575266 -0.74592599  0.14592613 -1.69501331]</t>
-  </si>
-  <si>
-    <t>[0.7197396507775403, 1.0423199033595443, 1.5467450291125295, 1.2754131868853216, 1.4851176063462568, 1.5447544513739428, 1.2036735205953568, 1.1910576170433684, 0.8459569998804706, 0.8219478043916557, 1.0891220246370275, 0.7612401482196877, 1.6492746280428983, 1.1549755822735523, 1.1353700712872745, 0.8466251002163899, 1.3037963188357962, 0.828855244536009, 1.4476922329017279, 0.6137469896908533, 1.5679678734609546, 1.063040532626586, 1.3826966644935754, 1.1497203669436986, 1.5383153345686291, 1.2812690289555322, 1.0327569122392777, 1.0680143766410763, 0.8787620575395272, 1.4414248174709723]</t>
-  </si>
-  <si>
-    <t>[ 5.01533686e-03 -9.35978983e-03  1.97648027e-01 -4.94357587e-02
-  3.53690623e-01  8.65717318e-02 -5.09307056e-01  1.85515717e-02
-  1.66150516e-01  3.46068207e-03 -5.98285561e-02 -1.43694500e-01
-  1.00496656e-01  1.02692969e-01 -4.34700160e-02  7.79325265e-02
- -1.70974866e-01  3.44102219e-02  4.81571646e-02 -6.49958064e-02
-  8.72037267e-02  1.67425169e-01  1.81867027e-01 -2.50798750e-01
-  1.97464071e-01 -1.59012717e-04  8.43384832e-01  5.66416958e-01
-  1.28953358e-01  8.71783163e-01]</t>
-  </si>
-  <si>
-    <t>[0.8780443434946854, 0.5930955181936002, 1.1191667217549568, 0.45376873718929606, 0.6144098568057098, 0.5951417855926622, 0.9659084380807254, 0.875129695631897, 0.38490817210385536, 0.6717379962928917, 0.8629814465300193, 0.5837419469796706, 0.6698187093728375, 0.9461094714879911, 1.0302640200364146, 0.9685754853523445, 0.4073264459217458, 0.7880587204074575, 0.6048335319380534, 0.7828762152605343, 0.785284169894277, 0.35620925668810605, 0.7159497377578491, 0.3349047243592233, 0.878171648083935, 0.7913484547392741, 0.6491625570037045, 1.117755803703747, 1.0559474646626932, 1.5152913643857386]</t>
-  </si>
-  <si>
-    <t>[ 9.22118241e-03 -4.12747728e-02 -1.97406302e-01 -1.39969325e-03
- -5.53230676e-03  5.84103424e-02  3.23520233e-04  5.35389650e-03
-  1.76832792e-02 -5.40441991e-02  6.05154626e-02 -9.94593077e-03
- -2.87002080e-06  1.01139905e-01  9.41638346e-04 -1.64615103e-02
- -6.00665514e-02  6.25993008e-02  4.63988690e-03 -9.07612450e-02
- -1.48337467e-03 -2.42163729e-02 -7.80308420e-02 -2.00209386e-02
- -7.53078582e-03  2.36075914e-02 -3.38432825e-02 -2.53559407e-02
-  2.95443490e-02 -4.78591870e-02]</t>
-  </si>
-  <si>
-    <t>[0.27804469983414326, 0.07724773559867922, 0.13945203977497322, 0.10541311975495424, 0.15889683117307124, 0.14356124089859576, 0.23749806364134254, 0.1366830663178413, 0.10031381713250748, 0.12716560513527628, 0.15005155015433638, 0.1762827455584371, 0.17923855348900616, 0.147997530629831, 0.13162750459677408, 0.15219809467807607, 0.2875333480193413, 0.2708473481804234, 0.2357540059326804, 0.22266437541744397, 0.17434148481007514, 0.2268062966839911, 0.23662353072744569, 0.16397641678802527, 0.11496341892529342, 0.08012136805215003, 0.08098102432213848, 0.1536898444537347, 0.1246280697612184, 0.2436768576747729]</t>
-  </si>
-  <si>
-    <t>[ 1.60543109e-01 -2.77101062e-05  9.20409172e-03  9.95149034e-03
- -1.12553106e-04 -9.69436519e-04 -1.15648000e-05  6.70117082e-03
-  3.22544649e-03 -1.59522647e-04  3.22195302e-03  8.51366484e-04
- -1.06155031e-03  2.88680800e-03  1.04883136e-02  3.07990829e-04
-  8.22811923e-06  3.04316343e-04  2.11867546e-03 -4.50097222e-04
-  8.92377387e-06  2.35927212e-03  4.92390979e-04 -2.11713664e-04
- -6.48197503e-05  1.17150190e-04  9.82263951e-04 -1.66131303e-05
-  4.49587511e-03  8.14866709e-06]</t>
-  </si>
-  <si>
-    <t>[0.051728765318094665, 0.0020800423464291742, 0.0049746067483984035, 0.0032185156438486735, 0.0025796047265448994, 0.003382760832991951, 0.003617011068916399, 0.0066999917373218535, 0.0015870510641065524, 0.00707367790286857, 0.006617845628058382, 0.0026384184555042355, 0.002914497900929734, 0.003101076723367743, 0.0033974155862959822, 0.006444954672335523, 0.004161366312439911, 0.002747233850115241, 0.004130407803428146, 0.005575011181335064, 0.004838625440499318, 0.0044750207089261146, 0.006170700447618578, 0.0036713470628722657, 0.0034509335323676216, 0.0006486603775969647, 0.005924671391514737, 0.0020191113524870813, 0.0059021709589786525, 0.0039917067291810986]</t>
-  </si>
-  <si>
-    <t>[-0.01181067  0.01069455  0.26325881  0.34631744  1.28172976  0.78180623
-  0.49072989  2.28693503 -2.1811107   1.7741577   2.63826601  2.95032933
- -0.57492527 -1.43199919  0.6067012   0.48787883  0.27186498  0.24554717
-  0.2320302   1.18875425  1.70089098  1.32830124  0.60234059  1.40668272
-  0.20788194 -0.51357283  0.8019155  -2.79751314 -1.52316665 -0.40471143]</t>
-  </si>
-  <si>
-    <t>[1.2085665546209767, 1.9194884267667307, 1.8830878270436437, 1.7434796014215397, 2.299078079757981, 1.6876543434481754, 1.6981151809288049, 1.3426343590287253, 1.1112880341844327, 1.6430345368823576, 1.5289592033854709, 1.7199970762021595, 1.594555322694993, 1.573755869358564, 2.164207774102322, 1.8826918576478888, 1.6089510363286463, 1.3970366252323958, 0.6745634250877763, 1.9014457959749067, 1.715913313133987, 2.03136968286204, 1.5482716855057848, 1.743458244333052, 0.7314996360791618, 1.1866681710437756, 1.4298484553152917, 2.0859397112210942, 1.5735189093987645, 3.0314832912096197]</t>
-  </si>
-  <si>
-    <t>[ 1.90597997 -0.15284275  0.17903256  0.53091279  0.74265215 -0.39681425
-  0.05740293 -1.1910696   0.6366948   0.24538444  0.4406094   0.3436066
- -1.38102664  0.95626447 -1.24327678  0.61403703 -0.12281481  0.90913147
-  0.76291178 -0.24618213 -1.45887573  2.06077129  1.21021121  0.37639363
- -0.93413106 -1.15060372  0.96659565 -1.26367718  0.08872973  0.94422399]</t>
-  </si>
-  <si>
-    <t>[1.3082679937755075, 0.9089237804948481, 1.288229962788076, 1.114140389933563, 1.2046738137495074, 1.2169604226518946, 1.4012873860599204, 1.0075751971188591, 1.0368357598056128, 1.295420742682127, 1.3569248267874143, 0.4589247391764987, 1.5898928944890878, 1.0983624054097505, 1.313511702640089, 0.9095614505951305, 1.2861982530349259, 1.1547408863562592, 1.0568440144544438, 1.23376243438763, 1.024920449122406, 1.2661001775456326, 1.408131640903829, 0.9846271204390256, 1.656732598726041, 1.3240246832206808, 1.6402901449507492, 1.0776905372712557, 1.0494207440130057, 1.3332954400743746]</t>
-  </si>
-  <si>
-    <t>[ 1.02021057  0.74693933  0.59765829  0.38811619  0.1220475  -0.07278024
-  0.08762548  0.05267458 -0.00862983  0.06797342 -0.03408103 -0.0081366
-  0.50441458  0.07193167  0.09053601  0.41102175  0.56168667 -0.50318931
-  0.57585637 -0.07022622 -0.45535769  0.00375423  0.24601553 -0.52730794
-  0.12551316  0.14811119 -0.09868869  0.23224731  0.57169827 -0.02511812]</t>
-  </si>
-  <si>
-    <t>[0.546105153340771, 0.8737222444285244, 0.7472571471571289, 0.5251892718873766, 0.7652069891206136, 0.7207575313889517, 0.6493393582567801, 0.5015727529086929, 0.5975801427904772, 0.4075524190970843, 0.3721819624486489, 0.4437158365158234, 0.9245182609889456, 0.5008380577193027, 0.5165957506009555, 0.468242028021879, 0.8889030534943887, 0.38090322333027954, 0.49332000295891354, 0.45142481236181786, 0.6601037047797691, 0.4700888678074143, 0.5277972654999954, 0.5037018463653067, 0.7002421191454753, 0.5696809533433677, 0.5035449896790644, 0.6600812198866235, 0.7606038098554412, 1.4996332040131448]</t>
-  </si>
-  <si>
-    <t>[ 3.80323911e-01  1.40474150e-01  2.47109697e-02  4.94742474e-02
- -1.74278244e-02 -8.22897521e-03  5.94044567e-02  3.57788607e-02
- -2.78163439e-02  1.78983481e-02  2.30732990e-02  2.16534500e-03
-  9.14825854e-03 -2.51404463e-02 -3.35695508e-02  1.73812039e-02
-  2.96139855e-02  9.77022689e-03 -7.93276693e-04  2.32454559e-02
-  2.34109430e-04  1.55939065e-03  7.26352252e-02 -7.13713324e-03
-  1.36794357e-02  9.52635711e-04 -2.07958033e-02  3.27679075e-02
- -1.81393689e-02 -8.88866101e-02]</t>
-  </si>
-  <si>
-    <t>[0.2662749166503758, 0.05011081205169201, 0.25064558028927975, 0.06527502746051722, 0.1938622071815642, 0.04720208654225213, 0.4305240971670934, 0.27653560601418303, 0.036084722258196505, 0.2277669423472156, 0.04003277897403457, 0.15254218479522663, 0.10607208974357983, 0.10064012724215808, 0.24054165232209618, 0.23530006501890832, 0.2357825798265088, 0.08003468707502367, 0.11687140175798442, 0.0719258792829866, 0.3095776001600105, 0.157327943731835, 0.16094546985004438, 0.3063413503902475, 0.04762784481318038, 0.20386667106867468, 0.058136011863750496, 0.03002388036229946, 0.1165907813680398, 0.29938404789233275]</t>
-  </si>
-  <si>
-    <t>[ 4.08048678e-01  1.67354490e-01  1.10918727e-02  7.38685141e-04
- -4.79164638e-04  3.95818967e-03  1.10121808e-04  6.28564882e-04
-  6.44653692e-04  5.67467677e-03  1.27762826e-04 -1.12535805e-03
- -2.67056639e-03 -8.48218936e-04 -4.77381127e-04  9.63257348e-03
-  2.97061463e-03 -4.34465078e-04  1.07810049e-04  3.05658134e-04
- -2.43418615e-04  5.06142656e-04 -1.47872839e-03  2.30411565e-03
-  6.08267131e-03  9.38998221e-03  3.41793619e-04 -2.77246634e-04
-  8.80869485e-03  4.53160587e-03]</t>
-  </si>
-  <si>
-    <t>[0.17632403890387804, 0.11835320701194359, 0.005980784406280915, 0.07511865210267521, 0.0833460586265302, 0.027881620173768492, 0.006308156505391764, 0.005253234128864665, 0.023650218438113668, 0.010626956858086832, 0.09573942978286097, 0.046359392563833576, 0.033974830629233885, 0.020381448676409984, 0.11126976603063492, 0.13539319862031754, 0.05693995544230812, 0.034366334957032875, 0.019646483768820475, 0.06515024285384768, 0.016692373539807997, 0.011975544323441946, 0.022155036984397556, 0.012922429559884036, 0.11919834224787297, 0.020005948203690616, 0.040052389091833715, 0.011659690542013431, 0.15914812096985967, 0.1899692698166442]</t>
-  </si>
-  <si>
-    <t>[-0.05577758  1.31077229  0.27157605 -0.11064689  0.90433529  0.91130534
- -0.6270007   1.05403683  0.40346178  0.45301724  1.26574283  1.99425734
-  3.10561976  1.40989413  0.89835144 -0.89689536 -0.00335223 -0.811427
- -0.45922622 -0.71285508 -2.71492566  0.53255036  0.70963752 -1.21871944
- -1.51089317 -0.20214911  0.69699323 -0.84850237 -0.40896862  3.09130287]</t>
-  </si>
-  <si>
-    <t>[1.3539339240297419, 1.9078178775817893, 1.3348521000755846, 1.6518433743762573, 1.0474818787620637, 1.0594379961928464, 1.2862120941037434, 1.435836327936282, 1.84949264898733, 1.451741801689186, 1.7445927035063795, 1.5218922103403196, 1.8205291205385914, 1.0802447383899707, 1.2343283144382118, 1.4732733345097186, 1.9254594281880844, 1.3652125813087603, 1.562412859384483, 1.56082838941508, 1.605164503285752, 1.760485030777461, 1.5887309261880973, 0.7724243599412728, 1.629116424912936, 1.6786557100273913, 1.2882865846650577, 1.560396887875524, 1.3159376711074813, 3.0253338837651738]</t>
-  </si>
-  <si>
-    <t>[ 0.14432102  0.19991681 -0.33223925 -0.01700013 -1.24749634 -0.09371817
-  0.86511748 -0.04720642  0.65999326  0.03768767 -0.29260664  0.6375549
-  1.51488713  0.69830484  0.22734134  0.01411154  0.12345681 -1.12707789
-  0.8694235   0.07685391 -0.14238282 -0.11040295 -0.32088634 -0.58998741
-  0.54466075 -0.42444056  0.01119136  0.13368532  0.35620303  0.24484655]</t>
-  </si>
-  <si>
-    <t>[0.7246932231049924, 0.6606245931123154, 0.9882940075907533, 0.4437769341855555, 1.092910763903151, 0.964010425215266, 0.5868335833090453, 0.8518709467857261, 1.574893481479669, 1.2211508714703068, 0.6488580139485612, 0.9258927451582407, 1.1028619459131737, 1.4625445636218914, 1.0590015208599586, 0.7114118110392458, 0.7007863400455475, 0.9859417763074455, 0.7806485937825322, 1.0348472064900334, 0.8528675299589457, 0.9193600825944062, 1.3318286183245192, 1.3440803854052998, 0.7092317688844738, 1.1035320111319835, 1.0563031679900141, 0.8108220794454, 1.0723280276459575, 1.8532400446161634]</t>
-  </si>
-  <si>
-    <t>[-1.04703166  0.68260606  0.5108057   0.13523123  0.22162875  0.08839137
- -0.05581194 -0.201141   -0.08831264  0.00609309 -0.11639499 -0.10543551
- -0.25035034 -0.16092852 -0.0210985   0.09658502 -0.05297643  0.15748347
-  0.11968411  0.08375057 -0.05446027  0.06333799  0.43294257  0.37331076
-  0.20337127  0.14406151  0.02581603 -0.20809667  0.06302816 -0.25421293]</t>
-  </si>
-  <si>
-    <t>[0.6824175425798524, 0.37466905512048954, 0.37953884107703456, 0.4306263237437451, 0.7258833134231164, 0.5160431620448943, 0.7546481663530773, 0.612582901003253, 0.1693653649972186, 0.6567397532118353, 0.4843559141374047, 0.47212018331221606, 0.32078702066593934, 0.44813662347586136, 0.44204025568859623, 0.29156735840665093, 0.4863853516527736, 0.4177798103969956, 0.6304052839419296, 0.3608994690350974, 0.2801764523805652, 0.4475442671688766, 0.4098412749858071, 0.3278425373738148, 0.33899228031559137, 0.48671327368085615, 0.26585183500742493, 0.3497676229645747, 0.31967715926121, 0.4017030618719079]</t>
-  </si>
-  <si>
-    <t>[ 0.01062927  0.00056643  0.02549906 -0.00612652  0.00082188  0.00227197
-  0.0104027   0.03642635  0.00846448 -0.01043877  0.00860054 -0.02304096
-  0.04801675  0.06382283  0.0531911  -0.00858377  0.04080818  0.0031482
-  0.01924118  0.005669    0.00604028  0.02819283  0.03439254  0.01568136
- -0.00326692  0.03509408 -0.00704177  0.00039592 -0.00103969  0.0029726 ]</t>
-  </si>
-  <si>
-    <t>[0.2437894679088685, 0.1958447718047969, 0.1616793803884898, 0.0500770760878476, 0.03675590241087695, 0.10157203904507851, 0.05315673457933256, 0.15899287833436895, 0.08039001331241354, 0.1038646989917248, 0.047618427297488955, 0.07684834027127146, 0.06224631288242894, 0.08069910182308938, 0.09899582753384936, 0.03355165764542121, 0.04456171450154393, 0.052388943308737265, 0.08015453880009982, 0.047268140820708536, 0.051696147699424246, 0.06321619844097148, 0.07975361304148036, 0.0788787882656613, 0.0472569814277592, 0.11935018780854266, 0.07588921935998921, 0.04834959956630874, 0.16273181768706224, 0.053301175498084254]</t>
-  </si>
-  <si>
-    <t>[ 5.00858979e-01  2.44565113e-01  3.94111254e-02  1.03673315e-02
-  9.71407891e-03  2.34457001e-03  6.79057963e-03  3.01993863e-03
-  2.29002893e-03  1.64177757e-04 -9.20876488e-04  5.15333711e-03
-  1.33412360e-03  1.02385418e-03  1.82199511e-03  8.84991309e-03
-  1.62408521e-02 -2.41816562e-04  2.50736568e-03  3.61096002e-03
-  7.03178578e-03  5.25144593e-03  4.53772557e-03 -1.63859525e-03
-  9.64958637e-04 -4.48825520e-03  6.16875873e-04 -1.29175328e-03
-  1.24620207e-03  3.07709978e-03]</t>
-  </si>
-  <si>
-    <t>[0.1799486671244307, 0.09297017739006332, 0.017514124430959743, 0.0036023056913061465, 0.005770618752561341, 0.003752349170281942, 0.0033514818683589988, 0.0036565058841503653, 0.003358974705300202, 0.0035935439125284172, 0.004111999731282431, 0.0038677487677370296, 0.003787861686068078, 0.003199093487611782, 0.0022384766115671993, 0.003394247317528041, 0.004673666608869541, 0.003990388468993745, 0.0028263801271518735, 0.0036163291016949586, 0.004213510506821507, 0.002522430923578448, 0.003531020448691555, 0.0033151545649702367, 0.002247541563430442, 0.003711010002845845, 0.004539144538719972, 0.004078806427106662, 0.003127544876170504, 0.0030386893389890927]</t>
-  </si>
-  <si>
-    <t>[-1.43496442  0.91418444 -1.02919737  1.61246077 -1.73699591  1.85895959
-  0.09693931  2.66578528  0.9490093  -2.5988042  -0.87368654  1.23293639
- -1.13633756  0.34988707  0.98416624 -0.56254916 -0.21667655  1.06333039
-  1.723472    0.14928794 -0.68781252  0.01306508  1.61084848  0.91950891
-  0.21062635  0.83673724  0.80366197 -1.167892    0.48754967 -0.49208013]</t>
-  </si>
-  <si>
-    <t>[1.2832064899757707, 1.5792718002993482, 1.7301465521553885, 1.2463926678910657, 1.4202033630109603, 0.9486507225996503, 1.6458931404964638, 1.6685535533327251, 1.1240155610412823, 1.4503903614537987, 0.4579305056142821, 1.3707368420577202, 1.4959116199657634, 1.498702583593944, 1.2598287153640029, 0.8359528549321353, 1.511237803906183, 1.0425381732238268, 1.2124734156563621, 1.185522795112155, 1.309571706931243, 1.1453683276313773, 0.9985081197586809, 1.2607456341270407, 1.594135254410475, 1.3268927003443631, 1.4748936721098125, 1.3928275325752866, 1.0307465071996966, 2.4806804350967404]</t>
-  </si>
-  <si>
-    <t>[ 0.29099379  0.02132925  0.15857363  0.13554727  0.00648393  0.12695979
- -1.1311676   0.24812892  0.14768741 -0.08387524 -1.32089731  1.04283828
-  0.28214857  0.6029984  -0.56154399  0.05263391  0.28307424  0.23632475
-  0.2426391  -1.49193437  0.76096251  0.7350026   0.4572824  -0.36499076
-  0.34404719  0.32076298  0.43427746 -0.31732952 -1.07034422  1.82027746]</t>
-  </si>
-  <si>
-    <t>[0.930162993787753, 0.6349325097158278, 0.6651325563312663, 1.0316297625204567, 0.6498039337435633, 0.7454304564120289, 0.971708707515101, 0.5114732285303565, 0.5710757192594074, 0.6471620906526327, 0.7468970471429223, 0.9508648132434059, 0.7442731045475728, 0.6702470647109551, 0.5312893680454447, 0.7305408659215427, 0.4225088750836337, 0.7212498312233441, 0.648285918296165, 0.9272124890793639, 0.597764757003, 0.5373466533168413, 0.7752720704688735, 0.7399173042435262, 0.5307484682817766, 0.5127534594941624, 0.516845091417919, 0.7937100586514731, 0.7170682528233681, 1.4439491190717466]</t>
-  </si>
-  <si>
-    <t>[-0.53916655  0.18789334  0.39960507  0.57717917  0.38920825  0.02417106
- -0.17757375  0.04937337  0.02923448  0.07824692 -0.2296117   0.01642286
- -0.07444601  0.12989457  0.25897497 -0.09319413  0.00793311 -0.13780028
-  0.0568515   0.12569456 -0.02191823 -0.0672332   0.19987602  0.17704885
-  0.15759617 -0.037279    0.11523122 -0.05526316  0.05196675  0.01436897]</t>
-  </si>
-  <si>
-    <t>[0.3679752546505586, 0.21324217679870583, 0.28840197011102114, 0.43116593891372257, 0.31149301762579373, 0.2605759546622971, 0.21906487350710097, 0.15655031178487455, 0.1875261606543628, 0.1767077385268757, 0.17496191342388137, 0.21989933228851893, 0.17054388794393086, 0.14506033623387912, 0.1595835785267326, 0.1449735043841586, 0.1927201552171986, 0.21886714165764123, 0.186225517703063, 0.22964311863283535, 0.2024011425052623, 0.2730936868849255, 0.23693278391629805, 0.1406196056571596, 0.2257376312082161, 0.28260061256585883, 0.27040351299721227, 0.2217656095872848, 0.4010619966065254, 0.28752637177515994]</t>
-  </si>
-  <si>
-    <t>[ 3.67478548e-01  1.03284188e-01  9.38999461e-03  2.36708330e-02
-  4.14397256e-03  9.02617688e-03  2.96058395e-03 -1.05909684e-02
-  8.38491241e-03 -8.15894731e-03  8.31151720e-03  1.41127273e-02
-  1.09516453e-02  3.26175371e-02  2.71840978e-04  3.87603883e-02
-  7.62545515e-03 -5.87484786e-03  1.37010756e-02  9.32471279e-03
-  2.34544095e-03  1.19523954e-02  1.11376397e-02 -2.98986650e-04
-  8.17080328e-04  1.64607432e-02  1.55505797e-02  2.06380683e-03
- -1.19953195e-02 -7.18904481e-03]</t>
-  </si>
-  <si>
-    <t>[0.12058668616104616, 0.02975522976908214, 0.010660209803931299, 0.010162421543403055, 0.01756178125595935, 0.02236852430713166, 0.03170967217638517, 0.013491710515134231, 0.010644591636947098, 0.015723257764246455, 0.02139149609280179, 0.01851513394902177, 0.027029253398176124, 0.01795621103521194, 0.016278819308454134, 0.015143489296086176, 0.01595658083454145, 0.02404469931210739, 0.021622271336470014, 0.007416156080070952, 0.007404252110173402, 0.020779233432069312, 0.016590341394351407, 0.011643032230491877, 0.013014843836722332, 0.025408236791291883, 0.01821909558197132, 0.01710390274276286, 0.01625423888565389, 0.016498184241033807]</t>
-  </si>
-  <si>
-    <t>[ 4.64346097e-01  2.07387502e-01  2.01287688e-02  3.36873727e-03
-  5.92822475e-03  4.27599434e-03  3.51972694e-04  1.11297977e-02
-  9.55208740e-03 -6.78578973e-04  1.47396665e-03  6.96878224e-03
-  1.60982435e-03  8.90578366e-03  4.39524923e-03 -1.84216903e-04
-  3.60184379e-03  2.74153993e-03 -8.60089596e-04  6.81817558e-03
-  6.96004728e-03  6.08315084e-03  6.87462490e-03  4.73408173e-03
-  2.86954527e-03  1.27892821e-02  8.71265114e-03  1.38726529e-02
-  3.36353515e-03  5.78976005e-03]</t>
-  </si>
-  <si>
-    <t>[0.22210078059175042, 0.09426557187136941, 0.015440234542120344, 0.04362056930977758, 0.02034059140957276, 0.014549125952728765, 0.011318799442207208, 0.05278587979558417, 0.07805407749988755, 0.015178163016639183, 0.04227077431604194, 0.042020676274785534, 0.018165380394888714, 0.04178132884123287, 0.007107760189456095, 0.005432122518234538, 0.003981714458865624, 0.050839043394897636, 0.030309069963550622, 0.029457128928265734, 0.0367676445094698, 0.01257980095844734, 0.005086043926294727, 0.013598253160955672, 0.02145447004995128, 0.06693392489721232, 0.14068695547869703, 0.17557211231404482, 0.1746120640657813, 0.12933352758645356]</t>
+    <t>[-0.63783504 -0.62535899 -1.72810703  0.44753905  0.7829458  -2.63123892
+  1.11583189 -0.02483169  2.9271848   0.58361747  0.14662661  1.21885659
+  0.25015089 -2.12934731 -0.43544043  1.02908427  0.36429998  2.698693
+ -2.07945758  1.08339035  1.78977102 -2.0866431  -0.59203445  0.94149263
+ -1.35648178  0.39629614  0.4924711   0.13701402 -0.12847447 -5.        ]</t>
+  </si>
+  <si>
+    <t>[1.5587887281850124, 1.9050463163439308, 1.9471155247065048, 1.5667536962866353, 1.253912113966445, 1.8900691221475052, 1.600086359652095, 2.3093558480018754, 1.7011385661600407, 2.212907853661751, 2.540504832062726, 1.056421091054296, 1.489718915187991, 1.4841870227688492, 1.429613137642806, 0.9295036042370682, 0.7988909349011449, 1.8833771720350352, 1.544768105979272, 1.2601604483533602, 1.0357096731920812, 1.6562412873254628, 2.18797340789615, 2.5855668737067496, 1.3044456339373147, 1.647838059281598, 1.9637511907684146, 1.39214942436887, 1.7298072132595501, 2.288779609402946]</t>
+  </si>
+  <si>
+    <t>[-2.12367872e-01 -9.72201516e-01  1.36344657e+00  1.38141594e+00
+  6.84490233e-01 -1.43372135e+00  1.44694256e+00  1.69639752e-01
+ -2.56948584e-01  2.33618442e-01  1.03595468e+00 -1.61448557e-01
+  8.43412484e-02  6.17908538e-01 -5.94665024e-01 -4.24602221e-01
+ -1.08470440e+00 -2.62818043e-03 -6.37739408e-01  3.81352542e-01
+ -2.07023128e-01 -3.25664512e-01 -6.31108403e-01 -1.10461765e+00
+ -2.88818960e-01  1.11787027e+00  2.06148433e-01  2.29349710e-01
+ -2.68781769e-01  2.77513272e+00]</t>
+  </si>
+  <si>
+    <t>[0.5289619631456329, 1.2608231043071205, 1.050981957904013, 1.0828209730051324, 1.0033119638968686, 1.164366535109344, 1.0615654185887793, 1.1191521231833523, 1.0972622143798343, 1.5163026473875418, 1.1620083075322472, 0.950401393896271, 1.7682406699833708, 1.0607193671392063, 1.081310869695033, 1.338730799210524, 1.3266617439596242, 1.4844154523674882, 1.1504995315220572, 1.2102093445741557, 0.941319523519324, 1.264552315669333, 1.3799431414139065, 1.0778173899116168, 1.029096477545395, 0.993746320711681, 1.2087649830776097, 0.5254172183288, 1.5880606746332446, 1.3169144462299769]</t>
+  </si>
+  <si>
+    <t>[-0.13433952  0.16516341  0.54175489 -0.02345592 -0.00639244 -0.76247524
+  0.52586767  0.06499685 -0.43434571  0.61332039  0.73290328  0.04041526
+  0.04714176 -0.2063281   0.22098891 -0.6452711   0.2426472   0.28033465
+  0.03200447  0.1629908   0.14703591 -0.21899597  0.44369667  0.14068166
+ -0.54437039  0.96010021  0.06468119  0.98947603  0.04047088  0.03998137]</t>
+  </si>
+  <si>
+    <t>[0.5682047276313626, 0.35138104534904824, 0.3747156895465308, 0.440869385843443, 0.48941705868863, 0.5582821233499091, 0.5997005860585275, 0.4906771113767741, 0.44454552679285214, 0.7871567363479928, 0.836247139422926, 0.6224210209564028, 0.7289665457429173, 0.5578871499225897, 0.6241081427302857, 0.7548341256533905, 0.8323434470009029, 0.47243940072579726, 0.372441923164491, 0.42670450162592705, 0.32223928635199833, 0.34369557106379883, 0.44974829254335585, 0.3468395532681349, 0.48648678250382893, 0.41892715806107833, 0.5487156885664087, 0.5856614827486358, 0.5543699800347478, 1.185933179696734]</t>
+  </si>
+  <si>
+    <t>[-0.00687239  0.00371637 -0.00342835 -0.00112446  0.02186768 -0.01230171
+ -0.00055791  0.01133135 -0.00010037 -0.00351264  0.02979685 -0.00137573
+  0.01920745 -0.01020697 -0.00409686 -0.0081249   0.02462355  0.0238028
+  0.01274712  0.02769127  0.00096583  0.00410091 -0.00052328  0.03822128
+  0.03196863 -0.00019662  0.00105601 -0.00117086  0.04657683 -0.00019826]</t>
+  </si>
+  <si>
+    <t>[0.3881074736987569, 0.38929383530579875, 0.44016383140762266, 0.5603397239267773, 0.21123415795200068, 0.39440894839622564, 0.41067310730292894, 0.5061885823610387, 0.33639077536111894, 0.4983706076324711, 0.3185522465692202, 0.4379223465843045, 0.562336896620773, 0.31414489772470927, 0.1959362197560094, 0.41523233731194037, 0.4293938364386277, 0.4484357520929422, 0.27160635651798665, 0.5483669772387669, 0.435188055183928, 0.2954089861176212, 0.32463024964953596, 0.2733411999159577, 0.39961858196490146, 0.40739812805351466, 0.2316867806191903, 0.18548377955319517, 0.3693377865774658, 1.0813403135798347]</t>
+  </si>
+  <si>
+    <t>[ 9.29821765e-02  3.66544032e-04  6.85313297e-03  9.68055673e-03
+  1.59010569e-04 -4.16520930e-04 -1.04395804e-04 -5.24168208e-06
+  6.88472904e-03 -4.50742714e-04  3.02826157e-04  8.28386414e-04
+  2.69768091e-03  2.23539532e-04 -6.27740715e-05  3.28004381e-03
+  6.23019076e-06  5.96383341e-05 -6.90737886e-05 -2.52448970e-04
+  4.10109018e-05 -5.98167218e-06  8.66334867e-04  1.48251710e-03
+  6.46076013e-03  2.07299515e-03  7.91543003e-04  7.23845471e-03
+ -1.32293059e-03 -6.48982558e-04]</t>
+  </si>
+  <si>
+    <t>[0.16764938082374864, 0.07284386329503247, 0.002933587160015842, 0.03917131695284775, 0.01934550920611176, 0.10334043474139205, 0.09504203024607472, 0.02934695061176987, 0.0283440776453651, 0.026834865001308682, 0.026891722411768952, 0.0068619077356714, 0.01974052906808232, 0.007671762779430824, 0.0220978491288345, 0.002864984130950183, 0.008392554755683844, 0.015755280688806907, 0.006433762942940543, 0.008374061551756785, 0.028637628200913732, 0.013249296303697212, 0.014184000184486517, 0.008947506112221407, 0.034946036531998785, 0.018598835170326785, 0.0035954811172288375, 0.03893077232603301, 0.020020771229218606, 0.01785120737309482]</t>
+  </si>
+  <si>
+    <t>[-1.90316728  3.07904779  0.74106718  2.45337344  1.81375538  2.87972391
+  0.17828311  0.37096869 -1.28274969  0.59102597  1.61180048 -0.12653805
+ -1.39706783 -0.89490225 -2.38063672 -0.40700277 -0.34913005  0.38702409
+  0.39989642  0.63997981  0.77029885 -0.17439908  0.0058286   0.31736751
+ -0.62120285 -1.92433988  0.23358756 -2.26124876  1.17830191 -0.64121892]</t>
+  </si>
+  <si>
+    <t>[1.0958452477530056, 1.7745739749810316, 1.1487943019535791, 2.632535526244252, 1.3257410381188348, 1.1248322967445106, 1.6054320394845003, 1.6399558398011158, 1.959292821483731, 1.8606532137805092, 1.3419662482919135, 2.0527045249960074, 1.3765494930633466, 0.8486851421188508, 1.9978446523249793, 1.2139579245025782, 1.645775158507426, 1.283915571108671, 0.7472001615142377, 1.9941959645696095, 1.152025753152174, 1.702349497082498, 1.6227215168599463, 1.6267451031800726, 0.9799235513178964, 1.7426618346640241, 1.4674754015030391, 1.4354539185178232, 1.4359473177253785, 1.7751556715859722]</t>
+  </si>
+  <si>
+    <t>[ 0.62704403  0.01978201 -0.30420443  0.62430396 -0.16425582  0.78492041
+ -0.82094206  0.74176811  0.36690847  0.15418648 -0.16664223 -0.08617555
+ -0.56168901 -0.84622396  0.13612619  1.25758304  0.67099423  1.14117695
+ -1.16405392  0.13481837 -0.43065603 -0.134332    1.2266744   0.25798431
+  0.33388187  0.31830566 -0.70328414 -1.69488726  1.54281714 -0.69254934]</t>
+  </si>
+  <si>
+    <t>[0.9497829988171862, 0.598269514380627, 1.2546729520737536, 1.2243527234473266, 0.7537893673989852, 0.962544629341313, 1.000770150889384, 0.7280026133510964, 1.292532423641472, 1.306420252376071, 1.0300291598088809, 0.7332890681006513, 0.7681197146695129, 0.9246844593048122, 1.2152013081195527, 0.8924074908847454, 1.2802908453632842, 1.1361958202584415, 0.9433034308083142, 0.8330160516290223, 1.039949862489606, 0.6104234892453044, 0.6274520560305837, 0.8930846839291463, 0.9515964639653002, 1.1203277799503957, 1.0087102946548576, 1.267614376317493, 1.0537533290979582, 1.4755052441869143]</t>
+  </si>
+  <si>
+    <t>[ 0.24108266  0.34656367  0.14236443 -0.36948129  0.23668808  0.38212289
+ -0.49221169 -0.19581124 -0.1083168  -0.04819005  0.53835029  0.02090848
+  0.10775393  0.15427099  0.09904375 -0.28872411  0.57362319  0.25859103
+ -0.0308596  -0.0524663  -0.10712823  0.1622316  -0.23738364 -0.03548883
+  0.12490746  0.31007774  0.36296285 -0.02434399  0.00079047 -0.0032388 ]</t>
+  </si>
+  <si>
+    <t>[0.4432419842313058, 0.5004267023009475, 0.32194253438853326, 0.3358917843635094, 0.4790720098509334, 0.4231634982061903, 0.452692274847046, 0.5122789248816009, 0.4670204892114672, 0.7013959424817989, 0.5334416340080609, 0.3091529233953673, 0.46488034624517366, 0.6534702560120643, 0.2742112856126337, 0.3001410412572467, 0.24312106230216346, 0.5839131288094417, 0.7242084143932063, 0.962723266441284, 0.49801727814188335, 0.4265024765944709, 0.5684114665285517, 0.7090678098695925, 0.548074401772537, 0.728849639770374, 0.33950202828464127, 0.42434431043490733, 0.7575788919116856, 0.4416296540888185]</t>
+  </si>
+  <si>
+    <t>[-0.04094803 -0.00390427  0.00396121  0.01110396  0.01528175 -0.01225698
+  0.00029744  0.02321567  0.05221568  0.0038623   0.00216258 -0.03007825
+ -0.00232166  0.00803783 -0.01601731 -0.00112151  0.02234636 -0.00858111
+  0.00146215  0.00354305  0.0090104   0.00501551 -0.00074083  0.05727035
+  0.01384177 -0.02723922 -0.0158506  -0.00036134  0.00276488  0.00130228]</t>
+  </si>
+  <si>
+    <t>[0.21241973778580647, 0.22082925126505606, 0.18312046705485185, 0.15816559699037247, 0.10200521067409495, 0.25880384088586406, 0.0951174187120941, 0.23153099354330886, 0.19601717871165494, 0.17594711570729887, 0.1445239170292955, 0.18125182616783053, 0.17042728376263178, 0.17835718156703206, 0.23282079808689798, 0.2344799278528808, 0.10478338583286793, 0.1976895477996761, 0.26780521696454784, 0.32746962154683185, 0.22009271901361654, 0.26592265811331556, 0.10841539144250371, 0.03966728366421738, 0.09808605349261727, 0.18817299983350108, 0.0773837031647783, 0.15799484180940848, 0.2187413639950677, 0.3110655622158503]</t>
+  </si>
+  <si>
+    <t>[ 2.23141281e-01  3.80464418e-02  5.17367827e-05  3.68956783e-06
+  5.98562877e-04  8.99062814e-03  4.46080850e-04  7.20707570e-05
+  2.68130521e-04  1.46737458e-03 -1.69484949e-03 -9.86395499e-05
+  1.08837286e-02  4.42822244e-03  1.49282996e-02  5.25338607e-03
+ -5.74097159e-04  4.56090370e-03  7.05653467e-03  4.91179755e-04
+  4.52761423e-03  1.05000946e-02  4.99076576e-03 -4.84605665e-05
+  7.24251217e-05  5.19227686e-03  4.28867998e-04  1.40861784e-03
+  6.10392631e-05 -4.95119978e-04]</t>
+  </si>
+  <si>
+    <t>[0.1778667257124341, 0.02288758990241932, 0.019556637370363332, 0.02514118291902369, 0.025952154106727358, 0.016011977001793156, 0.04508986296123743, 0.06800374411109963, 0.08878797754281627, 0.13536922150731515, 0.17083296497314432, 0.17640492700044078, 0.12874585792739365, 0.055688505314017755, 0.04046976242146308, 0.04107346001932852, 0.009586523745633676, 0.012341517947337798, 0.04232447046889216, 0.015689398477412082, 0.019984439536788575, 0.03271524749381796, 0.07708402242073295, 0.008859511333402553, 0.010631797177635606, 0.006705607402249445, 0.0801790513869409, 0.061059984468295345, 0.01732364149258097, 0.014598855231837406]</t>
+  </si>
+  <si>
+    <t>[ 0.2465767   0.06948639 -0.08087282  0.40156058  1.08249999 -1.1307272
+  1.06515765  1.75561066  0.52273913  0.77111292  0.76439466  0.4220867
+  1.21252335 -0.87076185  2.42231259  2.04631453  2.02575874  0.09556158
+ -0.16798345 -0.35464375 -2.10594985 -0.20016116 -2.48013007 -0.56335211
+ -0.40159213 -0.75954883  1.35051451 -0.11110321  0.58740336  4.08487914]</t>
+  </si>
+  <si>
+    <t>[1.682262697440376, 1.3231395279823648, 1.4153133661764803, 1.485906738150815, 1.1338989072450232, 1.4030741274244167, 1.3281438209137573, 1.2415291151301526, 1.1866766809320173, 1.61420493386681, 1.4171910494160884, 1.3435755451536215, 1.1096570801765482, 1.4000855470640206, 1.286086169084107, 1.5477601101602467, 1.4332919695285784, 1.3605463397378332, 1.5878527869316756, 1.0333931830481577, 1.7753516231077493, 1.5898022283268602, 1.6139026221903812, 1.546600854421718, 1.4424540219011055, 1.2926289839303742, 1.619942176591834, 1.169097957093769, 1.3493862665377305, 1.9590079730893613]</t>
+  </si>
+  <si>
+    <t>[ 1.19446182  0.30131918  0.09982466  0.90171223  0.79910665 -0.66285787
+  0.53695116 -0.17208021 -0.32713149 -0.03968017  0.8625829  -0.12436346
+ -0.2880943   0.17529907 -0.72689448  0.6960044  -0.3277087  -1.10396664
+  1.33045757  0.01962267  1.28949033  0.87452591 -0.53638419  0.17788116
+  0.69359131  0.08929976  0.96832566 -0.43189557  0.16774464 -2.25133268]</t>
+  </si>
+  <si>
+    <t>[0.8210905440215817, 1.0160625711802933, 0.561111944788599, 0.743911219173352, 0.8703221362288, 1.1850963979547384, 0.9299158424889751, 0.8364280339750848, 1.0754988315645742, 0.6917579251477026, 0.8240639579329442, 0.7272045709774331, 0.906959736932391, 0.6400811865922392, 0.9251357436121117, 0.7338875565099584, 0.4729535266235988, 0.669898968728072, 0.9889969562803912, 0.6029440256964314, 1.1856308041740409, 0.6762208289614726, 0.811408831740614, 1.048754206817578, 0.9896588043513117, 0.7620497439729543, 0.9209393262233545, 1.0150937762273118, 0.5906823888359154, 2.057502788580663]</t>
+  </si>
+  <si>
+    <t>[ 0.1861233   0.06499941 -0.059279    0.02693809  0.01707513  0.00601063
+  0.05578044 -0.1026864   0.09010428 -0.05703154 -0.00392282  0.06295683
+  0.17153964 -0.02480756 -0.03400198  0.17485248  0.25132021  0.06165865
+ -0.24463321  0.24620454 -0.01966079 -0.04619607  0.05038513  0.02134834
+ -0.15756685  0.00629901  0.17950905 -0.22546142  0.04318323  0.46272127]</t>
+  </si>
+  <si>
+    <t>[0.34123678441884575, 0.30032589879746646, 0.28890358232560304, 0.3324412514735968, 0.34460168162056054, 0.18893637830923757, 0.31233935547375136, 0.1547371520924774, 0.33816861871178183, 0.45286534667127093, 0.406922430148523, 0.4538277884745337, 0.3680845633940353, 0.4400060120384443, 0.37659016672516055, 0.43888770391329324, 0.4566873661710836, 0.42066344871616096, 0.5708743830933123, 0.4169881924875606, 0.4474525979427468, 0.36918700901288143, 0.4566057766385978, 0.3185562053801135, 0.3942507455359052, 0.24350871656737527, 0.24744173427311855, 0.3171746669191382, 0.6278899471115444, 0.6348362438007207]</t>
+  </si>
+  <si>
+    <t>[ 3.58673442e-02 -1.36175829e-02  9.49545920e-03  3.21508634e-02
+ -7.08411766e-04 -1.43671304e-02  3.99532883e-04  3.47825231e-02
+  2.41129833e-02 -2.00134259e-03 -4.68960656e-02 -1.11151146e-02
+  4.88542846e-03  5.92282088e-05  7.79083911e-03 -1.30369208e-02
+  3.31395642e-02  1.70479162e-02  1.33387359e-02 -3.16932707e-02
+  8.10086164e-03  2.11343682e-02  4.67987483e-03  6.80804972e-03
+  2.89660372e-03 -1.87118318e-02  1.60357441e-02 -1.77953606e-02
+ -2.88490974e-02 -2.36804690e-02]</t>
+  </si>
+  <si>
+    <t>[0.3329797014799419, 0.26199467478268773, 0.21651422392077024, 0.16693058868976376, 0.13241237179340357, 0.08714704170002614, 0.14185076512343345, 0.2443179703829416, 0.21038298890983845, 0.0642577313222053, 0.11367334899514421, 0.1783283403362057, 0.10490010692888665, 0.08937022777370625, 0.049048093670384284, 0.09536912340598933, 0.12718630912943502, 0.09119969319925543, 0.03433499440959056, 0.102440724328614, 0.08167447808202138, 0.10948733486171053, 0.1036197858662446, 0.1057956763678639, 0.0655891835896703, 0.19316705384267285, 0.19956783648909598, 0.2465459231885479, 0.26196854311239204, 0.2640854915370723]</t>
+  </si>
+  <si>
+    <t>[ 5.53562766e-01  3.00993070e-01  9.02641527e-02  2.11460447e-02
+  1.78460875e-02  2.02783657e-03  8.89168965e-05  3.76630902e-03
+  1.26066107e-02  2.12288190e-04  1.68034040e-04  8.66830668e-03
+ -3.20838598e-03  2.14300069e-04  1.04544416e-02 -1.97472392e-03
+ -4.38740512e-03 -8.66681738e-04  3.85818858e-03  6.60697615e-03
+  1.51435536e-02  7.93835262e-03 -1.09674570e-04  1.19246248e-03
+ -8.65786941e-04  1.41475012e-03 -1.30231270e-03  3.71814185e-03
+  4.66521764e-06 -3.17683660e-03]</t>
+  </si>
+  <si>
+    <t>[0.15715242529932416, 0.09124837424046327, 0.02565287317936819, 0.006524086084392818, 0.005577721247039914, 0.0032760407614686577, 0.002594551376783153, 0.003108956413141101, 0.0040644923872025715, 0.003624928815735121, 0.003386173287071501, 0.0034605395386130716, 0.004147664632892652, 0.00489418227934862, 0.006250302134841838, 0.004250786881998983, 0.006019502776254756, 0.002473920363966541, 0.003592834029065162, 0.002406703794544179, 0.004225064109808117, 0.00412039218761182, 0.004458344487315583, 0.002716568366647116, 0.0035441912027088327, 0.0026794404024988545, 0.0032262775409259265, 0.0034022674486230723, 0.0018611502371579864, 0.0013476435176249385]</t>
+  </si>
+  <si>
+    <t>[ 1.27868059 -1.29649937 -1.81712037  1.86772343  1.44888477  0.86477574
+  0.46888906 -0.01836321 -1.1218707  -0.1793151  -1.36913234  1.05274491
+  0.85756097 -1.0505463  -2.0610763   0.15737718 -0.71729207  0.74843902
+  0.8044894  -1.09982872  1.94202739  0.86266313  0.37973681 -1.4159184
+ -1.79182599  1.51799949  2.17955837  1.63048518  0.93999925 -0.67225876]</t>
+  </si>
+  <si>
+    <t>[1.4205108209152328, 1.6501851768392597, 1.5092015562338323, 1.470348123726537, 1.2481966524965957, 0.6860340634866336, 0.9889873124896027, 0.9760864628941296, 1.4737003161243183, 1.1632163511577067, 1.4196713995179742, 1.1417368230970462, 0.9393109270244853, 1.4016140222197155, 1.2430205390303404, 1.302677147316689, 1.8379168264341286, 1.428698632293053, 1.1802859111352813, 1.7439227614412338, 1.4389046953581375, 1.5207275215509175, 1.0912140364309808, 1.1954028083655424, 1.6224616169099304, 1.1806663996888853, 1.114540471990937, 1.3353851547981672, 0.9588569056121077, 2.5199733889998157]</t>
+  </si>
+  <si>
+    <t>[ 1.27519279  1.51875879  0.86085143  0.39460186 -0.92462305  0.09934167
+  0.00464347 -1.40527917  0.16578557 -0.1098225   0.9325803   0.2881192
+  0.79489566  0.85791277  1.09743796  0.79921632  0.31432701  0.29266732
+ -0.31332415  0.03411239  0.15159386 -0.62422371  0.82731938  0.9475628
+ -0.07544662  0.74319849 -0.38635954 -0.27535299  0.13487072 -0.1558495 ]</t>
+  </si>
+  <si>
+    <t>[0.865882060980768, 0.92766778036307, 0.632962834778465, 0.887300486916146, 1.290417667026727, 0.7829319795221764, 0.6584569856613837, 0.7913592099662627, 0.7471252685969602, 1.0030133355303648, 0.8782902191571016, 0.7310693471060858, 0.7806603204103205, 0.9372740716253306, 0.7725902844318996, 0.673657799906134, 0.5910235874346743, 0.845630827196728, 0.6076605481980792, 0.8433343367866659, 0.8863454808011024, 0.8034250948351478, 0.7695981184716391, 0.7278789793619622, 0.8883251801092467, 1.005312596175111, 0.7320214676163207, 0.44818307936698226, 1.1609030032344185, 1.3775763739238278]</t>
+  </si>
+  <si>
+    <t>[-0.02995378  0.05221691  0.20700598  0.03981298 -0.1358067   0.35671395
+  0.11234153  0.24592903  0.12737978  0.00791973 -0.11404611 -0.03754063
+ -0.13961706  0.27746598 -0.17239214 -0.06455589 -0.07420595  0.06102437
+  0.04459738 -0.03714154 -0.06123347 -0.04013549 -0.05214375  0.15644197
+  0.0957319  -0.01793343 -0.12596989 -0.03368401  0.00128652  0.21565383]</t>
+  </si>
+  <si>
+    <t>[0.4514375043489158, 0.2101197068528067, 0.2334272104321524, 0.16967230148403734, 0.27820865664956795, 0.18768895519440743, 0.4190835389415767, 0.40572193946877505, 0.3350461653453217, 0.47650382563274885, 0.44158606521326776, 0.6380688018373902, 0.23102966725573665, 0.48405500644399185, 0.3892289894667601, 0.18321995652530648, 0.40647874268816464, 0.2997350860707418, 0.32143457933186775, 0.34923361041822787, 0.2972562486532545, 0.3846490360962032, 0.36785608877130166, 0.25061139965374, 0.38108070620200535, 0.4644374753136952, 0.24705663979843087, 0.21244349801426216, 0.34016558126411706, 0.5437262882051395]</t>
+  </si>
+  <si>
+    <t>[ 0.50798379  0.25161666  0.03629699  0.0433584   0.01180138  0.00160151
+  0.00206959 -0.00263645  0.00937613  0.01208878  0.01910845 -0.00885842
+  0.00978427 -0.00216752  0.02386779 -0.00703461  0.0272058   0.00080463
+  0.01234212  0.00550907  0.02148644  0.02228782  0.00503264  0.00876728
+  0.00311941  0.02057117  0.01420089  0.01806164  0.02674546  0.00145509]</t>
+  </si>
+  <si>
+    <t>[0.4316025237755207, 0.25807329287978537, 0.19382347833071986, 0.07135294507462529, 0.04615146187774129, 0.05422408993953642, 0.054933099347371825, 0.0908528670973054, 0.04512523081898953, 0.13658521881478483, 0.119547221461372, 0.07422791987258014, 0.04330993551428665, 0.05386945661320208, 0.05964133071880482, 0.09616644946614572, 0.10087072461312718, 0.03974081220572641, 0.1825146363741029, 0.24457091260656866, 0.20998084496489933, 0.08479663065433403, 0.028412733272271184, 0.08088255767963103, 0.06012878289033221, 0.05890826964774931, 0.10531767136155604, 0.06089315711409285, 0.034630357915569246, 0.0572176179130248]</t>
+  </si>
+  <si>
+    <t>[ 6.62334167e-01  4.38551855e-01  1.88873373e-01  6.40716839e-03
+  3.77796809e-03  5.67270624e-03 -1.37371402e-03  1.32753305e-03
+  1.70588634e-03  8.92214694e-03  8.46382651e-05  2.77738603e-03
+  5.37491184e-04  4.07612201e-03  6.18960496e-03  1.07956926e-02
+ -3.61131149e-04  1.87964279e-04  4.60902941e-03  5.63174685e-04
+  2.71502912e-04  2.84886557e-03  3.52513350e-07 -1.13063945e-03
+  3.17576241e-03 -1.02691799e-03  7.59909891e-03  1.09395825e-02
+  2.99084029e-03 -7.68200956e-04]</t>
+  </si>
+  <si>
+    <t>[0.1932080036437027, 0.13179315656891513, 0.054506024095577976, 0.0038883727224826863, 0.004860573524892377, 0.004228109101088977, 0.002521208049847866, 0.004390836278535431, 0.006030673662146373, 0.0038507094885968127, 0.0034200818331909283, 0.0047139095697441465, 0.0035549741344550593, 0.003256567301327283, 0.004133123131183749, 0.003095283357603985, 0.003820690079789308, 0.005107244460413042, 0.004402376417767368, 0.0032832542048370117, 0.0018614902801626105, 0.004232933454015536, 0.004089186915142881, 0.0032560823460243897, 0.003985874578509267, 0.00470554408448531, 0.0037501650490893083, 0.0038354363166401323, 0.0041731344185500915, 0.0023585425299105746]</t>
   </si>
   <si>
     <t>bukin</t>
   </si>
   <si>
-    <t>[-7.25946784  0.52738338]</t>
-  </si>
-  <si>
-    <t>[3.613867604556241, 0.736845377621767]</t>
-  </si>
-  <si>
-    <t>[-5.          0.24988894]</t>
-  </si>
-  <si>
-    <t>[3.30205388625515, 0.6005399227559947]</t>
-  </si>
-  <si>
-    <t>[-5.44749911  0.29674049]</t>
-  </si>
-  <si>
-    <t>[3.5519807077317207, 0.7040360056418353]</t>
-  </si>
-  <si>
-    <t>[-14.59865118   2.13122838]</t>
-  </si>
-  <si>
-    <t>[3.7604935936975457, 0.7073256633353708]</t>
-  </si>
-  <si>
-    <t>[-5.          0.24999997]</t>
-  </si>
-  <si>
-    <t>[2.11144909170692, 0.3599367634248297]</t>
-  </si>
-  <si>
-    <t>[-5.          0.25071492]</t>
-  </si>
-  <si>
-    <t>[3.9165366754319297, 0.7544721481205641]</t>
-  </si>
-  <si>
-    <t>[-5.00107183  0.25001476]</t>
-  </si>
-  <si>
-    <t>[4.3525284449215755, 0.85736696560263]</t>
-  </si>
-  <si>
-    <t>[-12.72551357   1.61938024]</t>
-  </si>
-  <si>
-    <t>[3.722999281206528, 0.7000270849080608]</t>
-  </si>
-  <si>
-    <t>[-5.97749388  0.35730362]</t>
-  </si>
-  <si>
-    <t>[3.156957610720404, 0.6069382679593808]</t>
-  </si>
-  <si>
-    <t>[-5.          0.25000084]</t>
-  </si>
-  <si>
-    <t>[2.8200466766725585, 0.49285349396058753]</t>
-  </si>
-  <si>
-    <t>[-10.0719419    1.01509488]</t>
-  </si>
-  <si>
-    <t>[3.370127799288244, 0.6999212948742162]</t>
-  </si>
-  <si>
-    <t>[-11.50298949   1.32332479]</t>
-  </si>
-  <si>
-    <t>[2.962329898069998, 0.5495563186982285]</t>
-  </si>
-  <si>
-    <t>[-5.46098928  0.298307  ]</t>
-  </si>
-  <si>
-    <t>[3.6601320218510303, 0.7397204409775627]</t>
-  </si>
-  <si>
-    <t>[-8.35424804  0.6979358 ]</t>
-  </si>
-  <si>
-    <t>[3.821558555519943, 0.7501243631232115]</t>
-  </si>
-  <si>
-    <t>[-5.          0.24999709]</t>
-  </si>
-  <si>
-    <t>[2.9097217667190844, 0.5430645538554086]</t>
-  </si>
-  <si>
-    <t>[-5.          0.24989128]</t>
-  </si>
-  <si>
-    <t>[2.5405608999589306, 0.40860610159978067]</t>
-  </si>
-  <si>
-    <t>[-5.          0.25007267]</t>
-  </si>
-  <si>
-    <t>[3.3170234269692522, 0.6229153223674578]</t>
-  </si>
-  <si>
-    <t>[-8.5103193   0.72424178]</t>
-  </si>
-  <si>
-    <t>[3.1744655308602447, 0.6146984055407834]</t>
-  </si>
-  <si>
-    <t>[-5.00131816  0.25013274]</t>
-  </si>
-  <si>
-    <t>[3.399635393752466, 0.6516650244683518]</t>
-  </si>
-  <si>
-    <t>[-8.00736787  0.64117906]</t>
-  </si>
-  <si>
-    <t>[1.7077867074611268, 0.25709359818034017]</t>
+    <t>[-7.42712411  0.5527561 ]</t>
+  </si>
+  <si>
+    <t>[2.4132188444197236, 0.45451793950679603]</t>
+  </si>
+  <si>
+    <t>[-7.50368825  0.56227156]</t>
+  </si>
+  <si>
+    <t>[3.285657581694519, 0.6477324930195569]</t>
+  </si>
+  <si>
+    <t>[-8.69478429  0.75585429]</t>
+  </si>
+  <si>
+    <t>[1.726904549954836, 0.24106990812256748]</t>
+  </si>
+  <si>
+    <t>[-5.          0.24999938]</t>
+  </si>
+  <si>
+    <t>[4.337753535101085, 0.8418738046138724]</t>
+  </si>
+  <si>
+    <t>[-6.35503029  0.40386058]</t>
+  </si>
+  <si>
+    <t>[4.120853986206127, 0.8098921946196385]</t>
+  </si>
+  <si>
+    <t>[-15.           2.24877523]</t>
+  </si>
+  <si>
+    <t>[3.1916373319687295, 0.6297097493039223]</t>
+  </si>
+  <si>
+    <t>[-5.          0.25008068]</t>
+  </si>
+  <si>
+    <t>[3.5440935880193107, 0.6740600965744646]</t>
+  </si>
+  <si>
+    <t>[-6.81766085  0.46481013]</t>
+  </si>
+  <si>
+    <t>[3.287479146243837, 0.6543815401410771]</t>
+  </si>
+  <si>
+    <t>[-5.14598555  0.26483289]</t>
+  </si>
+  <si>
+    <t>[3.938086817850411, 0.7763378377471999]</t>
+  </si>
+  <si>
+    <t>[-5.91766354  0.35018365]</t>
+  </si>
+  <si>
+    <t>[3.3683408391357417, 0.701516970546117]</t>
+  </si>
+  <si>
+    <t>[-8.67134005  0.75189156]</t>
+  </si>
+  <si>
+    <t>[3.078336216950694, 0.6638717055798753]</t>
+  </si>
+  <si>
+    <t>[-5.03011399  0.2530652 ]</t>
+  </si>
+  <si>
+    <t>[3.5572732600833987, 0.6628544421136139]</t>
+  </si>
+  <si>
+    <t>[-6.43357194  0.41387272]</t>
+  </si>
+  <si>
+    <t>[1.933468405102292, 0.2954004923018936]</t>
+  </si>
+  <si>
+    <t>[-10.05451623   1.01091729]</t>
+  </si>
+  <si>
+    <t>[3.213669628951661, 0.6105310864998581]</t>
+  </si>
+  <si>
+    <t>[-7.16605963  0.51352466]</t>
+  </si>
+  <si>
+    <t>[2.2279846693876926, 0.39923261068333404]</t>
+  </si>
+  <si>
+    <t>[-5.          0.25011378]</t>
+  </si>
+  <si>
+    <t>[3.3118066577825083, 0.5998174157895378]</t>
+  </si>
+  <si>
+    <t>[-5.         0.2500215]</t>
+  </si>
+  <si>
+    <t>[4.176743652057826, 0.8439553006970283]</t>
+  </si>
+  <si>
+    <t>[-6.96120969  0.48458267]</t>
+  </si>
+  <si>
+    <t>[3.8919973882654806, 0.7566912404008823]</t>
+  </si>
+  <si>
+    <t>[-5.57688658  0.31101357]</t>
+  </si>
+  <si>
+    <t>[4.049942827250069, 0.8069060797068544]</t>
+  </si>
+  <si>
+    <t>[-5.          0.25000026]</t>
+  </si>
+  <si>
+    <t>[1.7254589037099484, 0.24256641177756028]</t>
   </si>
   <si>
     <t>himmelblau</t>
   </si>
   <si>
-    <t>[2.98311047 2.01003605]</t>
-  </si>
-  <si>
-    <t>[2.538955035422408, 2.079582546913462]</t>
-  </si>
-  <si>
-    <t>[-2.83316192  3.14480554]</t>
-  </si>
-  <si>
-    <t>[3.1457089278672283, 2.4083306972539904]</t>
-  </si>
-  <si>
-    <t>[-3.7750639  -3.28279733]</t>
-  </si>
-  <si>
-    <t>[3.16972891692964, 2.5118182673943106]</t>
-  </si>
-  <si>
-    <t>[-3.77900303 -3.28299077]</t>
-  </si>
-  <si>
-    <t>[2.5600123075363324, 1.9399168411566348]</t>
-  </si>
-  <si>
-    <t>[-2.80490596  3.13179017]</t>
-  </si>
-  <si>
-    <t>[3.1280459048664357, 2.4131148085752097]</t>
-  </si>
-  <si>
-    <t>[-3.75161734 -3.26572671]</t>
-  </si>
-  <si>
-    <t>[3.3044121653740977, 2.52451721425511]</t>
-  </si>
-  <si>
-    <t>[ 3.58581686 -1.83609586]</t>
-  </si>
-  <si>
-    <t>[2.7768284568327117, 2.0486240301605294]</t>
-  </si>
-  <si>
-    <t>[2.99789214 1.99673488]</t>
-  </si>
-  <si>
-    <t>[2.6284651722248795, 2.219721869048896]</t>
-  </si>
-  <si>
-    <t>[-2.8060259   3.13222972]</t>
-  </si>
-  <si>
-    <t>[2.557868799538137, 1.9376708702814192]</t>
-  </si>
-  <si>
-    <t>[3.00007602 1.99927149]</t>
-  </si>
-  <si>
-    <t>[3.274551682353117, 2.65924158152736]</t>
-  </si>
-  <si>
-    <t>[2.99420341 1.99026933]</t>
-  </si>
-  <si>
-    <t>[3.2635693981322142, 2.5290333252540647]</t>
-  </si>
-  <si>
-    <t>[ 3.58707974 -1.85181491]</t>
-  </si>
-  <si>
-    <t>[3.1363573523785657, 2.338953338217732]</t>
-  </si>
-  <si>
-    <t>[-3.77951921 -3.28277978]</t>
-  </si>
-  <si>
-    <t>[2.8112402814888315, 2.2667738307763874]</t>
-  </si>
-  <si>
-    <t>[3.00032569 2.00000188]</t>
-  </si>
-  <si>
-    <t>[2.9052149689959186, 2.2048705538559186]</t>
-  </si>
-  <si>
-    <t>[ 3.5844624  -1.84839706]</t>
-  </si>
-  <si>
-    <t>[2.896516927198129, 1.4100548387169307]</t>
-  </si>
-  <si>
-    <t>[-2.79015942  3.13706073]</t>
-  </si>
-  <si>
-    <t>[3.073171542870959, 2.2687448803380197]</t>
-  </si>
-  <si>
-    <t>[2.99773122 2.00513453]</t>
-  </si>
-  <si>
-    <t>[2.4543713931919657, 2.10135178145184]</t>
-  </si>
-  <si>
-    <t>[ 3.58347635 -1.84586852]</t>
-  </si>
-  <si>
-    <t>[1.8581973801562799, 2.060520149245942]</t>
-  </si>
-  <si>
-    <t>[-2.80474428  3.13153498]</t>
-  </si>
-  <si>
-    <t>[2.6255494196771654, 2.2127208444849114]</t>
-  </si>
-  <si>
-    <t>[3.00003078 1.99988648]</t>
-  </si>
-  <si>
-    <t>[2.4231441984883264, 1.9586694155859612]</t>
+    <t>[ 3.56892177 -1.83653773]</t>
+  </si>
+  <si>
+    <t>[2.9456019805637803, 2.2901805846532803]</t>
+  </si>
+  <si>
+    <t>[-3.79763243 -3.25520621]</t>
+  </si>
+  <si>
+    <t>[3.253107165183019, 2.4707060393233573]</t>
+  </si>
+  <si>
+    <t>[-3.77259363 -3.28050242]</t>
+  </si>
+  <si>
+    <t>[3.1172644808020067, 2.321388237247635]</t>
+  </si>
+  <si>
+    <t>[2.99547374 1.9993407 ]</t>
+  </si>
+  <si>
+    <t>[2.390235308802642, 1.7142952675001426]</t>
+  </si>
+  <si>
+    <t>[-3.78016378 -3.28318771]</t>
+  </si>
+  <si>
+    <t>[2.8405983705122755, 2.1810672609825117]</t>
+  </si>
+  <si>
+    <t>[2.98665589 1.95919998]</t>
+  </si>
+  <si>
+    <t>[2.9049733133766655, 2.1281905464950674]</t>
+  </si>
+  <si>
+    <t>[ 3.58513959 -1.85526963]</t>
+  </si>
+  <si>
+    <t>[2.977083409813741, 2.386826659546949]</t>
+  </si>
+  <si>
+    <t>[-2.80782326  3.12718411]</t>
+  </si>
+  <si>
+    <t>[2.9031851931780177, 1.4165982265082044]</t>
+  </si>
+  <si>
+    <t>[ 3.58565525 -1.8493783 ]</t>
+  </si>
+  <si>
+    <t>[1.819045383903199, 1.8651063317144618]</t>
+  </si>
+  <si>
+    <t>[ 3.5845862 -1.8483317]</t>
+  </si>
+  <si>
+    <t>[3.2476919675789735, 2.5174316290868677]</t>
+  </si>
+  <si>
+    <t>[-2.79600513  3.1099036 ]</t>
+  </si>
+  <si>
+    <t>[3.0307254035179496, 2.1232279419564337]</t>
+  </si>
+  <si>
+    <t>[2.99197507 2.00137499]</t>
+  </si>
+  <si>
+    <t>[2.704904851252445, 1.372572093929417]</t>
+  </si>
+  <si>
+    <t>[2.99728033 2.0039334 ]</t>
+  </si>
+  <si>
+    <t>[3.15069512645696, 2.417873039349433]</t>
+  </si>
+  <si>
+    <t>[-2.8050803   3.13105023]</t>
+  </si>
+  <si>
+    <t>[3.178738333009313, 2.4959597070213158]</t>
+  </si>
+  <si>
+    <t>[-2.80496854  3.1314198 ]</t>
+  </si>
+  <si>
+    <t>[2.4231592170912224, 1.9584704217910012]</t>
+  </si>
+  <si>
+    <t>[2.98436964 2.04249422]</t>
+  </si>
+  <si>
+    <t>[1.8427906258682605, 2.0108896253652877]</t>
+  </si>
+  <si>
+    <t>[ 3.58449167 -1.8393007 ]</t>
+  </si>
+  <si>
+    <t>[2.100834693990073, 2.093630925183758]</t>
+  </si>
+  <si>
+    <t>[-2.80546188  3.13220187]</t>
+  </si>
+  <si>
+    <t>[2.9039759562665006, 2.204054990683048]</t>
+  </si>
+  <si>
+    <t>[3.00066216 1.99923151]</t>
+  </si>
+  <si>
+    <t>[2.7854199781625066, 2.0394729720961506]</t>
+  </si>
+  <si>
+    <t>[2.99998048 2.00003975]</t>
+  </si>
+  <si>
+    <t>[2.4528962347612153, 2.110695095313783]</t>
   </si>
   <si>
     <t>f1</t>
   </si>
   <si>
-    <t>[ -2.03484654  -4.75733082  24.79278933 -14.86075948   9.46784709
- -36.37509681   3.53666792  66.35204931  -3.42994232  49.93262191
-   8.13016578   2.94213149 -24.1811306   15.03122434  -0.42376624
-   2.76954991 -97.72609978  -5.16413935   4.36764967 -28.22449314
-  -1.24637842  39.07987226  -7.92682735  14.92543827  -1.33194787
-  39.0089616    0.1055489    1.27465448 -17.98978892  10.60568498]</t>
-  </si>
-  <si>
-    <t>[22.26646105256035, 21.77813034824224, 32.765096555555104, 34.88419556504254, 27.966556934945107, 47.82272659019073, 19.304942715895216, 33.094925460105486, 15.785737253448701, 40.01904046594343, 23.403665838438602, 22.733764425981065, 33.38458624666604, 48.770695777157144, 36.33061052712867, 23.671048274844004, 49.00040515762389, 35.535886169747265, 24.370639056622142, 31.50905427627497, 34.05009698076702, 25.434185344929187, 35.89206872226538, 38.710644705066564, 31.72864655391225, 30.570018814755773, 40.45289122961933, 27.556075026163963, 20.695805386355328, 32.04520242109456]</t>
-  </si>
-  <si>
-    <t>[  2.88476947   0.92148935 -36.37734847   2.25884126   1.25343222
- -31.46139833  15.79743948   8.68347446 -15.28855833  20.75978162
-   2.87008653  -0.50549011   4.29052519   1.25711279 -12.09469065
-  -1.61513273   3.92917883  -1.02042533 -12.77135348  42.22713952
-   7.70661462   0.50277462   2.8516801   -1.90856395  21.24599893
- -23.55490614  31.50610476 -16.27287517   9.08605349  24.4142089 ]</t>
-  </si>
-  <si>
-    <t>[23.794832558618662, 30.370101056026275, 21.023387152713088, 22.218609541894953, 43.43525179115956, 24.96792658861376, 26.954409941902504, 30.292304328778496, 8.934883122433943, 13.389230778862055, 21.430817175993376, 19.80789514992902, 17.880426382144407, 24.819017512909568, 12.948909128962507, 24.45479014104574, 29.25330218008363, 27.631904995555892, 30.955940587927113, 33.42302310401693, 21.33912823661784, 20.877742564604645, 30.2842748534202, 24.783885888141477, 11.984268268474473, 20.690088561982243, 26.316277151046798, 15.35689129467735, 21.774669759123828, 23.471655663575465]</t>
-  </si>
-  <si>
-    <t>[ -1.95365453   0.84142562  -1.6513404    0.7137924   -3.38871597
-  -1.32584581  -1.65170413   9.42522539  -2.67892013  -2.16026788
-  -2.58141604   2.62240893   2.67182609  -3.6092006  -12.39618488
-   5.51638153   5.59549852   0.61934676  -0.71288224  -1.69671417
-   0.30496495  -1.33406985  -0.13730919   6.70275299   1.04640853
-  11.05365107   4.87391531  -5.33076887   0.2015457   -1.74563653]</t>
-  </si>
-  <si>
-    <t>[8.664859911417329, 6.609890295304799, 15.670608556243398, 11.689089299250012, 7.225776647417757, 11.09117942543859, 10.897489343490852, 8.827734297031444, 9.318870086586463, 8.782943615172124, 16.532430520120982, 9.840838467040617, 3.7662535042386573, 7.615300051720561, 11.267513389512608, 13.534281817970347, 14.441936456223587, 12.372979223903727, 12.787839511693322, 9.48943316804334, 13.04674934248799, 15.596555377897227, 12.275690245633752, 7.441211399108394, 12.16720716532855, 13.969400893964877, 17.288518968393973, 14.566421973173176, 7.248903282684068, 14.826349132708708]</t>
-  </si>
-  <si>
-    <t>[-3.35222923e-01  1.35024729e-02 -6.53995694e-01 -6.50136163e-01
- -1.14180631e-03 -4.89307621e-02  6.11002769e-02  6.41622652e-03
- -1.70209623e-01  5.97837816e-01  9.01926756e-01  1.21819274e-02
-  6.59371587e-01  2.21279159e-01 -2.82943017e-02  8.67502517e-02
-  1.00589442e-01  4.64016265e-02 -8.37526955e-01  1.37780529e-01
- -6.97931528e-01  1.35276109e+00  7.57409072e-02  7.80356468e-01
- -2.91135403e-01  1.01437698e+00  3.03188456e-01  3.35327885e+00
-  6.74631312e-01  1.47228275e+00]</t>
-  </si>
-  <si>
-    <t>[13.288671388988387, 2.1547929910417873, 7.555059107398541, 1.6924002967043583, 4.649144509170649, 3.8246732913436006, 1.6797267508165763, 2.305694624724915, 2.910426294528598, 1.3666939146722248, 4.778708741672967, 4.493219012146427, 3.7463013612737956, 2.9354320767581203, 1.3026046371277993, 1.7780210617804364, 1.6240303320288345, 1.5949163480579465, 3.72005962983816, 2.089119029812421, 4.652142713711411, 7.861876999094682, 2.20334654646154, 5.252320916745197, 6.552215239776119, 4.787539410904058, 1.6430191267116319, 2.0540414854753966, 4.356974708324306, 3.0469671819387685]</t>
-  </si>
-  <si>
-    <t>[ 4.43598186e-01 -1.57380443e-02 -1.61225598e-01 -8.61588366e-05
-  1.14857527e-01  2.47426729e-01  5.46470997e-01  1.88145526e-01
- -2.48218241e-03  2.25487455e-01  1.63942545e-02  4.01304575e-01
-  1.22473538e-01  1.99932625e-01  1.53688781e-01  2.21498715e-01
-  3.42841479e-01 -1.68223434e-01  1.77084843e-01  1.70831536e-01
-  1.25466974e-01  2.65960144e-01  3.98300720e-02  6.42700586e-01
- -3.96153654e-03  1.06000778e-01  3.96796029e-01 -1.85759155e-03
-  4.76420683e-01  4.91838272e-01]</t>
-  </si>
-  <si>
-    <t>[0.14529456170663227, 0.1552472244983504, 0.307339279687333, 0.2378532550605943, 0.20290728315593268, 0.10285888810157501, 0.33969360906825957, 0.26386323417259155, 0.09393439837062124, 0.1972826939749351, 0.15418048450643487, 0.19325300472762666, 0.2909711383363637, 0.3373874887454535, 0.17596827530680473, 0.15194232785821404, 0.14102622696291978, 0.5163512916885827, 0.18694171163596324, 0.16691410530066783, 0.2016545538650807, 0.21159793539143112, 0.1635134159087426, 0.25735295116563095, 0.35633975538307233, 0.24976552125489085, 0.1361647019172894, 0.2560857424355146, 0.16293120487871507, 0.41692239948582066]</t>
-  </si>
-  <si>
-    <t>[ 3.55662156e-01 -1.06626753e+01  1.39449276e+00  4.49837161e+01
- -5.28811500e+00 -1.46574446e+01 -2.39093603e+01 -4.14083328e+00
-  7.21896388e+00 -1.17802120e+01 -2.29936316e+00  8.02326781e+00
-  1.37886533e+01  1.33794256e+01 -3.38324595e+01 -2.31041571e+01
-  7.62666156e+00 -2.24359409e+00  5.17040645e+01 -1.18464170e+01
-  1.29366863e+01 -1.66637426e+01  2.44367771e+01  2.48629827e+01
- -2.90020732e+01 -1.34743076e+01 -3.18091352e+01  1.60558997e-02
- -1.23252801e+00 -1.84205445e+01]</t>
-  </si>
-  <si>
-    <t>[36.26210565509046, 40.404510546851526, 28.63616811529991, 24.177102083160097, 44.62030130970905, 34.17510231893552, 29.798556342278633, 27.515579148431957, 22.261926843707943, 34.986204853279865, 27.511324168706828, 24.764301042288217, 14.42339402142389, 34.5092098110255, 29.718018469746536, 21.276746973978874, 22.855467953299897, 29.21827980997464, 26.65189643117336, 33.40786595789217, 23.364108323291447, 15.73056879020737, 24.465181250382035, 39.62564030664403, 28.029926765501916, 31.982455367142713, 29.092514818504583, 30.862615336421715, 29.83927436101282, 20.247375812299147]</t>
-  </si>
-  <si>
-    <t>[  8.72659106   4.43630354 -14.45589689 -19.27561804  -4.34299901
-  -4.8889983    6.30545498  15.64277628  -8.74752617  10.15143976
-   8.92356349  -4.18666465  11.98397053  -9.39222434  10.51905888
-  16.83891309   0.60655681 -17.16970258   1.46885817 -16.50046568
-   3.19347538 -29.62116399  -0.76237167   9.20611853  11.62624487
- -20.38022869   9.21193914   3.08005961   1.80313482  -1.23218784]</t>
-  </si>
-  <si>
-    <t>[17.11541906555854, 23.88965455925918, 15.722475809657297, 9.715093155332369, 7.108879696317175, 11.98315307315332, 24.31314408216911, 14.727253192914079, 9.241084375188153, 21.610036091472796, 10.796556846245716, 26.64705369161344, 16.142518114283988, 22.08464020190124, 18.442769075872224, 24.98433579676176, 11.428388665943714, 17.830088708683657, 17.966077559879754, 9.031635626124467, 16.236083283785547, 16.937227681310077, 14.102474488727669, 10.821892930992295, 6.62406639094786, 15.558867191458667, 11.972550801432398, 12.703980429794928, 27.814069978070115, 15.52134207961344]</t>
-  </si>
-  <si>
-    <t>[ 2.67943788  0.62186412 -1.57308101  4.36166405  5.63069507  7.60769651
-  2.67564409 -3.76384002  1.27038415 -0.89737232 -3.67287712  1.71765949
- -0.29056668 -5.35682282 -0.28394547  4.79052372 -0.60707317  3.69129084
-  0.13884655 -3.41536477 -0.5354406   0.1860187   1.05364683  1.08731747
-  0.50985444  0.02041956  1.2518421  -3.67941957 -0.49656553 -1.56769514]</t>
-  </si>
-  <si>
-    <t>[5.42794894950087, 4.7694356895030765, 8.03598466539396, 5.420349385544087, 4.972850013730211, 4.6920734154289025, 4.166499531863856, 4.886944429458465, 5.895884296409519, 5.869104200355339, 4.101105445903289, 6.15792692972589, 3.3794276447774725, 4.319894037576022, 4.72023336180447, 4.106268696467427, 6.374879214400739, 4.303029056754061, 4.243376751987518, 4.729055754494798, 3.715849071575032, 7.357766046348929, 3.906096185247017, 7.7160440961785985, 5.438225588612431, 6.103883307372226, 5.808345948407523, 8.406676337399153, 5.6512475681106835, 6.989218831816602]</t>
-  </si>
-  <si>
-    <t>[ 2.40045799e-02  1.90807533e-02  1.53892691e-01 -2.84846678e-01
- -6.29568899e-03  4.38047664e-01  5.24875449e-01  7.30118350e-01
-  3.73129873e-02  2.95954704e-01  5.11972650e-02 -8.55565494e-02
-  2.46548814e-01  5.72835350e-01 -2.97831224e-03  8.36607935e-01
-  1.11981861e-01  1.25930939e-01  6.26956680e-01 -1.40643772e-01
-  1.02105575e+00  2.80748351e-01  5.84629402e-05  6.40556031e-01
-  1.00323455e-01  3.94335529e-02  2.30503687e-02  9.42599028e-01
-  7.83598287e-01  7.07081711e-02]</t>
-  </si>
-  <si>
-    <t>[1.401585050164614, 2.2128907978453247, 1.1972366212559375, 1.636218178995569, 2.2333160102159946, 1.3022757295195035, 0.8474412604473774, 0.9445689547622431, 0.7519509565573871, 1.1528937138307243, 1.7149353769556113, 0.7085370421677549, 1.0370932242235686, 1.476059105556082, 0.7963140784737096, 1.9314229803696168, 0.5420213491283823, 0.4990636444028504, 0.9536311025680158, 2.0019375707621467, 0.4243303780006944, 0.6555827493927467, 0.5041771524940161, 0.29654748056822, 2.025238089049554, 1.323995945220097, 1.593128511415967, 0.7521909447354758, 0.681747094422723, 1.3919764202506053]</t>
-  </si>
-  <si>
-    <t>[ 0.059556    0.25444283  0.54621617  0.26298247  0.17224283  0.3734841
-  0.38882635  0.32405324  0.46257455  0.00466368  0.57843577  0.09927886
-  0.29385259  0.64375204  0.29395741  0.03570694  0.40620668  0.07703422
-  0.03523982  0.22054925 -0.07121761  0.61202614  0.41170617  0.14727691
-  0.33461093  0.36973594 -0.02565978  0.00697264  0.16960857  0.37544264]</t>
-  </si>
-  <si>
-    <t>[0.2372661975559321, 0.3295908362223074, 0.47663341331175035, 0.24969052949793796, 0.17232770266437486, 0.2866914302660246, 0.46608468285299953, 0.7136720352122256, 0.2655861252009128, 0.27356373576595444, 0.23469332098830842, 0.22614825918358405, 0.7396825627069396, 0.26420342559736326, 0.20072299604498944, 0.2922001728338733, 0.41684651141043877, 0.5306129603443274, 0.22078419129243504, 0.2819999294646295, 0.5688339379962123, 0.2627898804129892, 0.18579953750523623, 0.16916723062402708, 0.6082702080098095, 0.37959062418649864, 0.34649814566386933, 0.22346417651494765, 0.6186565057064581, 0.5119338065172601]</t>
-  </si>
-  <si>
-    <t>[  6.49591184  12.66198216 -15.55873001  -1.61466327  17.44426984
-  -3.06604255  11.96721593  37.22622017 -28.40458926  -4.57137486
-  -4.84295909  41.22137883 -26.91277467  -8.71354401  -3.20548049
-  58.39915839  -8.95428353  14.23176201   6.84164852  -0.13290738
-  -8.02387763  -5.2241805    2.17659362 -15.8946644  -11.74462546
-  -1.74846477   7.14474694 -23.47784284 -31.44302322  38.31480743]</t>
-  </si>
-  <si>
-    <t>[30.516737290965093, 33.99509917715845, 27.539063064493565, 25.636376916793477, 35.11147623272362, 20.118206013464285, 18.35260132789811, 21.72267206780863, 27.622435815998035, 19.92696778066906, 31.53370671946607, 27.890222574242767, 25.101700042491288, 30.435019337631026, 27.885147850268694, 29.21900292233718, 13.073960514192706, 29.972103158869903, 19.664405958942165, 20.81335849529227, 32.17567230306235, 28.588139165103357, 13.832096465424248, 34.814352425961985, 23.67105541595814, 28.738884623586785, 18.463508003369164, 32.735926486782645, 23.730566180153737, 22.057138051840074]</t>
-  </si>
-  <si>
-    <t>[  6.79992558  -1.57224254   1.96022811   5.96476812 -10.7272477
-  -7.04596735  -6.85005427   3.58132432 -10.32415305   7.15198041
-   1.01802805  -2.80475557   1.01249096   4.51902817  15.25852381
- -26.96998894  18.39899338  -0.03923387  -3.79603753  -7.35986899
-  -4.57490454   2.82285434  17.71596337  24.9454887    0.50809095
-  -6.65483544  10.64297402  -2.96886467  -1.44518972   5.12348943]</t>
-  </si>
-  <si>
-    <t>[16.42979155125517, 12.359266576463245, 15.52083780552224, 11.185161357708218, 25.52672722178524, 20.79005031140011, 14.695177692760256, 15.926931901903254, 15.472084261200177, 9.788053402739939, 18.336211952337262, 24.690893771908232, 11.642504255836736, 13.482055848186448, 23.88275267610666, 21.112328602286464, 17.70868545909004, 20.074868002034815, 15.111759222612399, 13.081125260687658, 9.178850417548725, 21.69150378771338, 15.947878586519373, 10.988299241895808, 6.589050116072022, 13.186786110682482, 7.880604657699745, 13.838756586402763, 18.423361438161898, 18.281327199415237]</t>
-  </si>
-  <si>
-    <t>[ 6.29786326 -0.41623128  0.87974858 -2.75260179  5.96589227 -0.88606361
- -2.33877526  2.34529427 -1.06514183 -0.40172012 -2.02056325 -0.48769488
- -3.37582556 -0.2178267   2.00696182 -1.46815935 -1.61898177  0.12230257
-  0.1706428  -1.69345401  2.83734472 -0.90972828 -0.9973497  -1.82117086
- -0.04652713  0.17279725  2.9490774   0.48063636  0.41634041  5.35749555]</t>
-  </si>
-  <si>
-    <t>[4.075541370185814, 5.1832080285692745, 4.909663358148096, 2.9280994928344652, 4.945761771924846, 10.454634000002835, 8.138606068089848, 7.710891433275823, 6.071065526373223, 10.216816026763134, 3.633249247747316, 8.342384104625935, 4.281136399241213, 7.352282428160757, 4.131166468578182, 7.01069099316337, 11.230458603122962, 4.731379975678935, 6.3527411863986005, 4.461910182143133, 6.390881798238425, 7.391344917175158, 4.251344424997288, 5.763272740328879, 6.161172196705971, 8.40273998240769, 5.007454296230057, 5.922646861897909, 7.615437134722141, 6.355795683632263]</t>
-  </si>
-  <si>
-    <t>[-0.07104473  0.41185509  0.03105038  0.47080802  0.43402933  0.47079105
-  0.46606836  0.4736593   0.44109371  0.50282297  0.18622129  0.46185053
-  0.07485055  0.14282124  0.31613085 -0.02555914  0.18889402  0.22469085
-  0.23193746 -0.00197698 -0.05888804  0.22050312 -0.04524466  0.56928696
-  0.28068181  0.75827724  0.17835911  0.59950936 -0.02133165  0.15003873]</t>
-  </si>
-  <si>
-    <t>[0.5151399937712331, 0.30157669512415763, 0.439827685717568, 0.604669846285159, 0.34163357809918327, 0.32755575041007606, 0.8768871038636971, 0.4886872784628961, 0.4918727439067742, 0.4922535747553684, 0.9212795314243104, 0.338250405977046, 0.2141251273718866, 0.5581519090319189, 0.6807317567977768, 0.430704453989867, 0.5172625655020618, 0.21843039184366528, 0.20099013931492507, 0.5161802311852347, 0.7844401076543526, 0.4196115094306864, 0.48570812588282725, 0.5428096843579927, 1.105962797310658, 0.48410759986282054, 0.33823784700223825, 0.2426989059883518, 0.4153600891847231, 0.32336511430438547]</t>
-  </si>
-  <si>
-    <t>[ 0.36493658  0.77225344 -0.02028718  0.26156382  0.10688637  0.20713655
-  0.5295049   0.1392722   0.42281751  0.46962395  0.04452106  0.79193705
-  0.19223576 -0.00299421  0.41191213  0.41898229  0.23327938  0.00228996
-  0.50227281  0.54734402  0.00901081  0.19978666  0.0146007   0.1923873
-  0.43309319  0.30724732  0.33917119  0.37688316  0.49265212  0.49276728]</t>
-  </si>
-  <si>
-    <t>[0.1986700406184269, 0.2263931400615461, 0.22732151439484524, 0.20507287099922733, 0.23816806306955735, 0.14959291835716873, 0.19543111952068248, 0.2074041741301399, 0.1582292604775266, 0.20344990500342788, 0.19375935593046256, 0.2539746857388071, 0.1821098188465668, 0.19508746093593402, 0.2223521979585609, 0.19211721956114325, 0.16427598436345342, 0.24168345716658843, 0.19099066960281436, 0.21680455795677675, 0.2709718705067832, 0.1708901052271555, 0.2243261574118023, 0.18680049500228016, 0.20171450406442373, 0.1444504836382606, 0.18653527841164277, 0.1870909255866321, 0.16461215824922865, 0.22740410078621184]</t>
-  </si>
-  <si>
-    <t>[ 16.94741158   3.69477836  -5.47075723  21.90586332   0.64021021
-   3.96851647   8.17991104  13.88699926  31.86329678 -25.01263328
-  26.41524622  -6.50227138  36.76876269  20.9871082   -0.98772458
- -11.46415181  -5.14424759 -25.1427248  -21.3844474  -16.45337277
-   5.05466882   2.28790387  24.09860706  28.47863797   1.61023009
- -47.05737603  -2.89689815 -29.34488745  -6.48461632  36.14123231]</t>
-  </si>
-  <si>
-    <t>[30.441427136670423, 20.214695450127966, 31.86030412303992, 18.667119922786043, 17.76505898257733, 25.069781701465427, 19.11254346596606, 22.631187459078195, 22.034105299417252, 31.53175285120975, 21.849702505175728, 9.791073478788318, 22.30962819316715, 16.61493037150872, 20.826694680733475, 15.393697770345895, 29.614811308044892, 32.5077349360684, 21.99214030924082, 13.63513900457096, 33.97160095045417, 22.85277330237635, 23.856223098988607, 25.016312827887575, 18.371501334910004, 17.973929417227065, 25.665969284660743, 25.300635373903013, 21.296252145154007, 20.442728994695422]</t>
-  </si>
-  <si>
-    <t>[ -3.48781048  15.46341447  -4.35589302  -3.48199725   1.40954334
-  -9.34366792  -6.42145104  -4.51522777  -9.11572103  -6.56358151
-  -5.52046756  -8.39126175  -1.72213161  -1.06783989  -0.03500661
-  10.45841215   0.83159305  -1.30804978  -3.09653232  -2.82633484
- -11.59498705  -2.19705289   0.04383513   5.7346878    3.43339791
-  -3.17180981 -12.07861366   3.11527895  -8.16232581  -3.84842437]</t>
-  </si>
-  <si>
-    <t>[6.544887743663009, 13.182935650737189, 6.28291732107246, 12.225027254511481, 7.738437450278716, 7.857486729779803, 6.549379827539087, 8.78605468788086, 7.786916710149811, 8.844605683704987, 12.886943211021391, 13.725241892362085, 8.25521458393859, 7.908856284578096, 9.19957135981478, 10.212702573225933, 10.807848587780203, 5.9056863325293145, 10.396155869101879, 9.880353299625087, 9.11685696094682, 3.8602061147987214, 10.926138938167087, 8.135079757951079, 8.470685030734943, 7.6102252192326025, 8.14393316448889, 10.754641375631682, 9.873698122951332, 6.475864158792615]</t>
-  </si>
-  <si>
-    <t>[ 2.33564571e-01 -4.95375808e+00 -4.20077391e-03 -2.39741207e+00
-  1.70869208e+00  2.13522999e+00 -1.42364267e+00 -3.04886787e+00
-  1.41668297e+00  6.87310138e-02  1.73917854e+00 -3.09632978e+00
-  1.97345904e+00 -2.28885767e+00  3.01063936e+00  3.60024314e-01
-  2.13610239e-01  3.09515337e+00 -4.10738218e+00 -2.57184837e+00
- -1.52624317e+00  2.84612987e+00  2.66324073e+00 -2.26324747e+00
- -6.95670648e-01  7.96052346e-01  1.38106637e+00  2.23138391e+00
- -7.68149005e-01  6.74285561e-01]</t>
-  </si>
-  <si>
-    <t>[4.776621905362215, 3.008693907750756, 5.445681557824096, 5.61892292344616, 4.591120503918715, 4.255538643693269, 3.317727706632539, 4.415139328271842, 7.141906895977406, 5.995873378765076, 5.362459813512311, 3.6138635487540527, 6.886580065428528, 7.324599025717134, 4.56508365005313, 4.708536609300226, 2.5734955036742115, 5.683554025546016, 4.679609669668525, 2.0251261707554207, 6.259194721264357, 3.456677335864633, 4.129868556860344, 3.405753708216118, 3.364219994395413, 5.565376789511833, 3.32282215181255, 2.9099855906493715, 2.698034819998063, 5.364968587736791]</t>
-  </si>
-  <si>
-    <t>[ 0.09683223  0.24016636  0.44523682  0.80415723  0.22409869  0.45197323
-  0.93155218  0.28693497  0.07956683  0.85781582  0.06980266  0.72010155
- -0.17369539  0.03399212  0.12627534  0.75286185  0.11479479 -0.07467209
-  0.03099773  0.31516802 -0.08690134  0.3517473   0.28479145  0.85436721
-  0.42329336  0.5108117   0.45100085  0.05964624  0.00396739  0.40115512]</t>
-  </si>
-  <si>
-    <t>[0.3011840513578858, 0.3710170850023815, 0.2866227276052782, 0.8122331725332589, 1.0989727025118052, 0.2782476116033399, 1.0572459549824107, 0.2570769592836683, 0.8347049825601728, 0.7768275410005465, 0.6307346617825005, 0.7186822297153689, 0.5928587608152543, 0.6147820173133026, 0.7738686337218331, 0.27961489074483653, 0.6565071898158765, 0.6756947233149845, 0.45436308105694323, 0.4630936381049424, 0.4985479800030312, 0.7200641267125334, 0.8065689796593806, 0.8845662985414315, 0.39400176720241753, 0.2377367815447701, 0.6068450259588554, 0.620856136253894, 0.6413102386475552, 0.3039266617821485]</t>
-  </si>
-  <si>
-    <t>[0.23606802 0.21285731 0.51092204 0.01620931 0.56839521 0.36178435
- 0.14710109 0.23658542 0.74194103 0.41257521 0.09271375 0.30124792
- 0.35201137 0.21370093 0.04621594 0.42706448 0.4682325  0.23807144
- 0.14202982 0.41110875 0.3541799  0.01417387 0.33872614 0.16260753
- 0.46845491 0.24496148 0.55125325 0.38854951 0.56071783 0.59299438]</t>
-  </si>
-  <si>
-    <t>[0.19607870049460727, 0.21785479446731779, 0.23358452844984212, 0.12754998392397207, 0.19387802320637204, 0.1964246830023567, 0.11055440624355678, 0.1528819079568524, 0.23539465685418912, 0.11358256727236245, 0.260028987628043, 0.14661511867557322, 0.09507314406761151, 0.20199574123337255, 0.19557230402901804, 0.2300665473266729, 0.24249252120981135, 0.11194649612156239, 0.2802623118545072, 0.18640643847886382, 0.2819850180880754, 0.1746154904428703, 0.22386597385263668, 0.26687167264230294, 0.17305141886134714, 0.20308287735290106, 0.17812863179731317, 0.18104435452286263, 0.20557181934874788, 0.1839196572626865]</t>
+    <t>[ 2.24784089e+01  1.94022348e+01  3.85394008e+01  2.26923676e+00
+  4.31403236e+00 -1.45945583e+01  4.69515629e+01  1.60279272e+01
+  2.26937048e+01 -1.90188854e+01 -4.31438566e+01 -5.45878906e+01
+  2.55101329e+01 -2.57908828e+01  1.62227767e+01 -2.64855424e+00
+  1.91619841e+01 -5.71555084e+00 -5.70829528e+01 -9.22239070e-03
+  4.45788553e+00 -2.18412385e+01 -1.22136389e+01  1.98716584e+01
+  7.06600088e+01  4.90338211e+00  3.27736084e+01 -4.15526566e+01
+  2.05456523e+01  1.37157475e+01]</t>
+  </si>
+  <si>
+    <t>[19.985476589867535, 28.196859533379158, 38.35640347631548, 26.597717143747065, 29.07499357861058, 16.130739189533234, 41.972145382650666, 23.97204678159606, 22.37154920269235, 28.641359742817745, 28.387907786435683, 41.69058150590688, 31.794592714023455, 32.87385203129145, 24.360266871672895, 39.51800091204005, 50.743258496809915, 34.91465311776002, 35.33304378247666, 34.0397891961868, 38.828947034935105, 34.56242099278858, 21.970669353256575, 36.3227787650957, 39.43801384838764, 39.562698499188855, 27.808984990927023, 37.902564004109536, 23.94860715034958, 28.442431253663997]</t>
+  </si>
+  <si>
+    <t>[ -4.98092726 -19.91905849  21.63901035  29.39662401  -0.18558373
+  15.81250545  -2.62400953 -15.18384679  12.96212344  32.53938151
+   1.46683389  12.39112854 -11.19618541  -2.72685091  -7.30308112
+  13.63393226   6.49234394   6.15689625 -13.14721042 -11.80908815
+  -1.76154845  11.64338519   2.63488616  -1.6123951   30.18195395
+ -12.40064463   0.12496169  -6.84048172   0.93629081 -10.92415034]</t>
+  </si>
+  <si>
+    <t>[31.191938162463455, 21.600395640176384, 14.874822838516357, 16.743692670492116, 14.298870698000682, 23.58883510288823, 20.51768932245256, 31.515282743190355, 20.33994013996235, 23.412168604649423, 26.70299093981802, 11.12156059095019, 22.912288160537162, 8.90197883974665, 27.665465302088087, 9.621051334693393, 21.650003480908786, 20.42214398154384, 19.92065547282693, 14.09594100886978, 12.964318420400234, 27.717304858075863, 21.30902593195333, 9.149914330989922, 24.429074414466257, 7.7015701002895325, 12.621196008911944, 25.443330423103472, 18.87552698364259, 16.896036372057907]</t>
+  </si>
+  <si>
+    <t>[-0.032851    1.38882703  0.7006533  -2.72285729 -0.54827551  0.04103157
+ -2.99252077  2.18196162 -0.93213784  8.75378886 -0.38864148  5.50011471
+ -2.39539834 -7.37143124  4.9492701   3.63160472 -0.10614846 -0.85077593
+ -0.38492059  1.76914778  0.16451367  1.76830058  2.02646788  4.98937812
+  3.1453417  -0.14127513 17.37261853  8.97818697 -2.00036143 -0.26504072]</t>
+  </si>
+  <si>
+    <t>[9.112903892668472, 11.771341029356897, 14.093571922321335, 7.942001428771465, 10.821278113362595, 8.699831703662706, 4.552727698091234, 7.2657589331626395, 15.51213476414553, 8.3129531310026, 4.998198494933752, 8.52568550159251, 7.08600419073465, 13.552969016974398, 10.998664185771457, 9.494952916649883, 10.355594058640538, 9.742935722486234, 5.176622922463853, 12.919803211239387, 12.53751946666506, 6.719513314598498, 6.156660751342305, 11.932950508554859, 6.566563169044676, 6.79383505218835, 12.031853209679287, 16.625742230592174, 8.90265509820617, 5.189267508309795]</t>
+  </si>
+  <si>
+    <t>[ 0.24101115  0.98264014 -0.00346703  0.30142398  0.09706857 -0.00383345
+  0.06871401  0.01186121 -0.08694338  0.33648604  0.05440501 -0.05890222
+  2.06512143  0.49492473  0.15028941  0.35060551 -0.2908666   0.38801107
+ -0.25246543  0.06241864 -0.07951422  0.79474279  0.04853649 -0.03383335
+  0.0047212  -0.16252844  0.18204583 -0.12860577 -0.10037418  0.43258585]</t>
+  </si>
+  <si>
+    <t>[3.6591211421211547, 3.142949231412517, 1.502670981610164, 5.198105524372654, 6.337720406121386, 1.925587573534251, 6.985569433806322, 1.7151729007095955, 8.842432006662492, 9.91871533493805, 3.3002954820770665, 5.320849602252996, 6.518630042210387, 0.9959186907009573, 4.753090104695098, 3.314476170424601, 2.48573613211661, 1.0317422755740806, 1.6770784224983484, 1.097633247726261, 2.729989735312377, 3.1765548196713236, 3.4375732823672873, 1.413227427578464, 2.3808349622580085, 6.266338818838172, 3.3465833037245236, 1.8663457571862236, 3.814407886823944, 2.8084623342909643]</t>
+  </si>
+  <si>
+    <t>[-5.07992025e-03  1.01967781e-01  8.90750507e-02  3.59307537e-01
+ -2.18155566e-02  1.49508966e-01  4.74220623e-01  2.29576730e-02
+  1.73266304e-01 -1.91163878e-02  2.29759259e-01  4.35606424e-01
+  1.49438622e-01 -7.24287530e-03  6.34374489e-01 -2.62896035e-02
+  1.57787913e-01  1.98630012e-02  4.20709849e-01  7.15472148e-02
+  2.73998745e-01  5.42458059e-03  2.07804721e-01 -4.23703370e-04
+  2.99728949e-01  1.55714917e-02  5.11953187e-01  1.81246688e-02
+  4.75104692e-01  5.52554775e-02]</t>
+  </si>
+  <si>
+    <t>[0.2963793909250673, 1.2404916729152708, 0.7766301915825728, 1.3943614638371826, 0.4460871770659251, 0.7677831671406264, 1.2625427570972274, 1.8412629249230485, 2.9783314687535447, 0.5023688056176439, 0.5339617499928484, 1.2841947272345213, 1.8595671972115313, 0.551783670353374, 1.3137883537717274, 0.5939267909344889, 1.065640770852102, 0.8332535432334022, 1.3913048032344442, 0.6761122229761508, 1.1973135413167566, 1.9694863082287708, 0.4752938579216465, 0.8318907448298076, 0.8041296501724011, 0.4925613008765525, 0.6549844914374657, 3.753697368744296, 1.9378102508055117, 1.4948182038827673]</t>
+  </si>
+  <si>
+    <t>[ -2.44523117 -19.82441039 -23.1477538   19.79824407 -33.96005873
+  -7.58622616  -1.20100589  -4.03752419  -0.90172548 -26.27141325
+  -9.48875345   3.96902386  -0.40896933 -29.2992285  -11.3292403
+   7.66882356  10.61280826  -1.69968802  27.69246845  -0.14894088
+  70.7114277  -12.40194153 -19.01738672  35.832358   -12.41495551
+  33.15433981  21.1217123  -29.87237135 -26.4546726   28.37122024]</t>
+  </si>
+  <si>
+    <t>[31.148982316589954, 31.632015255382164, 12.33138765232318, 18.260071584698974, 19.05781741023308, 24.38847031461528, 35.13262689889472, 29.369433110996173, 29.27872682961894, 24.91040219472902, 33.907082868279986, 36.07046366834367, 20.93616613069011, 25.399899810959464, 26.592639242103946, 23.397968560766813, 30.05188256192568, 30.300892235904254, 12.368645015190733, 28.36639899054543, 39.093738627902326, 27.082412856728403, 29.712286192040043, 23.888590119925567, 26.042861896944867, 29.646775729715518, 24.516807307479073, 28.219335982547882, 23.559546802138907, 26.68127979696573]</t>
+  </si>
+  <si>
+    <t>[-12.44481502  -0.83153232   1.56718911   9.6137054  -13.54034112
+  12.87697514 -14.2128779    5.67514003  -1.91473573   2.65897042
+  -6.64757976  29.36815398  16.92870302  -5.14616871  11.44006008
+   1.63580965  -0.83249578 -24.45142421   7.26165298   0.05551705
+ -19.14816238   1.70498389  -0.41654525   3.18140351  -8.67070199
+   9.24629829  -4.73750343  20.74241477 -26.31700576 -17.26990744]</t>
+  </si>
+  <si>
+    <t>[20.836328314138726, 19.054204856320386, 20.644959116649037, 14.182491727816915, 8.252681561709615, 18.303414042390386, 24.416711960716583, 16.42807217462634, 16.401443625606696, 19.19990335980876, 17.832581206443965, 16.53655588465751, 17.917941046640077, 10.416086408283311, 16.04313602606401, 13.3838962809401, 18.39445767177426, 12.637989133626117, 15.765714111015258, 6.713618998023108, 18.9193365722313, 16.390987587700828, 20.230638348063536, 22.069746906729353, 19.656219061151297, 34.647537756578096, 22.336580677240782, 9.893871492362495, 10.953450188123677, 17.17517750870285]</t>
+  </si>
+  <si>
+    <t>[ 1.2421952   0.73405412 -1.34135356 -3.93851067  9.40827599  8.02109252
+  3.3805069   2.64334122  3.80425503  5.15917364  6.15250433 -0.61503152
+  2.03427485 -0.22824731  9.24833264  0.75645814 -7.52244238  0.11538601
+ -0.6255792  -0.83799628 -4.33578085  0.38248115  0.35473813  1.54239588
+  1.92060562  0.47068309  0.17865235  0.89492236  4.78107195  0.10996609]</t>
+  </si>
+  <si>
+    <t>[13.771074307907893, 5.966016057903443, 7.2849162455517575, 4.340097893489604, 6.755335436789861, 10.17816415705777, 8.595210930415107, 6.216031939374436, 5.134951549850276, 6.165528612976047, 6.462724063394479, 10.923216529672118, 8.37376451880873, 17.340658561294887, 9.525081201487925, 6.0050806285141975, 4.571260634892469, 6.873500916891805, 4.889945209088301, 7.539742151919943, 4.416342873750225, 8.751456011016481, 5.166542059238929, 7.565998028738553, 11.057274017147124, 9.42933546916852, 5.70877674006655, 5.419797666494298, 5.541307550223377, 11.378285037962202]</t>
+  </si>
+  <si>
+    <t>[ 0.10405314  0.31106701  0.0153164  -0.00599003  0.03552675  1.01297915
+  0.11230973  0.06802642 -0.02137534 -0.04658164 -0.03279579  0.01970101
+ -0.01271075 -0.00919372  0.17694268  0.93534249 -0.02251061  0.1953215
+  0.28464854  0.01857983  0.57871692 -0.00543916  0.17138475  0.3902369
+  0.15360247  0.16898319  0.07977868 -0.11637173  0.37691805 -0.2605451 ]</t>
+  </si>
+  <si>
+    <t>[0.5346976877520178, 0.6970910173123342, 0.36485652453521444, 0.34041035965723726, 0.5125331743932263, 0.5267908783846993, 0.3785449287743232, 0.3161079193778282, 0.3115097918733172, 0.20751729344354197, 0.5058494985154597, 0.3700776440452055, 0.26714100732479934, 0.3969040879168181, 0.6030197150732685, 0.34276265228854036, 0.3415844944623413, 0.47344408274725225, 0.4718414864275236, 0.294498603619064, 0.25900683534150976, 0.5276096145261066, 0.21187592479941003, 0.5534330944239904, 0.5777483442434168, 0.5211591186191119, 0.3343410516394928, 0.11538251628300929, 0.700454684098973, 0.6320710718131503]</t>
+  </si>
+  <si>
+    <t>[ 0.44219635  0.19805472  0.33106842  0.02932571  0.39108834  0.82910574
+  0.09723723  0.75697237  0.27888775  0.32977618  0.2041185   0.06491256
+  0.34228677 -0.0335684   0.12220915  0.50161114  0.44667868  0.60716715
+ -0.04248266  0.03116688  0.25997935  0.01149643  0.13531699 -0.00092529
+  0.06920788  0.32858674  0.48924417  0.00639591  0.01667117  0.25775254]</t>
+  </si>
+  <si>
+    <t>[0.1696082740448576, 0.2421736395050245, 0.17256937156168584, 0.16564557726775236, 0.1715104918308497, 0.2818896141452229, 0.15555600442577894, 0.25210053347785577, 0.21526194986734118, 0.2494050100574199, 0.1635395974490177, 0.1665325286430188, 0.16162150775030484, 0.09556915501380563, 0.3423278752388997, 0.1563205772956169, 0.15601091086235155, 0.1901528894921311, 0.27436844833636603, 0.2591449057811145, 0.25693849154649107, 0.19913015296956083, 0.2295222077672202, 0.19642360213814283, 0.18834355812370854, 0.18902741402344, 0.1738809853203114, 0.25755965578174816, 0.19862735865187428, 0.22718476805352278]</t>
+  </si>
+  <si>
+    <t>[-14.72592962  32.92345813 -42.74037633 -50.75342555  32.86316584
+ -25.32573505   0.15690345   9.08968055  -4.26395749   4.35389319
+ -14.11000916  -7.39470109  15.44202572  16.26750209  35.16470104
+ -16.38864913  66.62647296   5.33468792  16.83481217 -29.51672633
+  19.00314924 -18.17314607   7.87346361  46.1519427   -3.74332519
+  -6.79491509 -20.294115    28.77273526  -7.60114976  16.87832209]</t>
+  </si>
+  <si>
+    <t>[20.001420992121776, 27.696249891358857, 22.747306678022255, 19.914695483346854, 24.785383228230067, 31.112698315156955, 28.01934140675128, 29.850731181650872, 21.8729615681028, 21.251014172188473, 23.637995424622105, 28.62177517955383, 23.125025855148877, 11.016322046245707, 31.42196099330028, 25.387434745722846, 36.96856219283735, 25.732488458875913, 20.178374705214217, 22.03308694589679, 17.955462828650596, 31.815271778225547, 12.647226892247815, 32.065475490770346, 19.117630945882592, 38.797085366271176, 17.2778970731223, 37.42958643902929, 28.18747205617022, 28.404398335616236]</t>
+  </si>
+  <si>
+    <t>[ -6.99012217  -4.10595     -1.69794789  -3.48131854  -0.05527131
+   2.64329223   0.88714072   6.79739616  -1.2849436    5.57136554
+  -3.12394075  -0.35651852  -7.33700738  -3.28750905   3.03765336
+  -8.83902504   1.81369444  -3.5706196  -23.30004681  -1.49609568
+  20.93842725  -1.48647146  28.15542366   1.38514258  -1.99481843
+ -20.68711553 -13.79227553 -15.61418344 -11.9336127    5.29345595]</t>
+  </si>
+  <si>
+    <t>[15.426264824405559, 14.271629304873882, 12.050855617032626, 6.244518561673552, 14.61281335798165, 9.164059829988316, 21.063483613626698, 7.0163113787496165, 15.900945581167974, 17.571109614950366, 16.562003776309307, 15.252880396355662, 12.588151141653295, 15.431964321598032, 19.480544517277615, 14.159025309017307, 11.692269083873354, 14.639888099095735, 10.44910941034169, 6.785684580589816, 18.620426479164664, 17.450016067230177, 20.32412125870516, 13.216070884507488, 9.449465727476008, 12.320280338205, 4.8091094228870075, 17.015329382174347, 10.271269046536379, 8.78332494064166]</t>
+  </si>
+  <si>
+    <t>[ 3.11663137e-01  1.01879691e+00  1.76357592e+00  3.05091590e+00
+  2.79369777e+00 -8.88048156e-02  4.03280013e+00 -8.26713975e-01
+ -7.22307262e-01  2.69360955e+00 -1.63256709e-01 -1.95640043e+00
+ -1.45078611e-01  8.47455349e-01 -2.81480469e+00  3.35259674e-01
+ -6.65529698e-01  5.45305581e-01 -6.05659610e+00 -9.99667355e-01
+ -1.81821623e+00 -2.64224579e-01  1.97840290e+00 -3.16611085e-01
+  2.99310979e+00 -2.56305136e-03 -5.52424351e-01  1.63524381e+00
+  1.01518819e+00 -1.37733741e-01]</t>
+  </si>
+  <si>
+    <t>[2.88930405027949, 1.5881297309315177, 2.200605123139844, 2.246394295835062, 4.090470946511885, 3.3495740379225687, 4.704381421032722, 3.0566902257538104, 2.724699707817842, 4.181092413142421, 2.2534530726283415, 3.288275334474342, 3.7327282101315773, 2.2550041148010833, 2.3711467134535322, 2.277479512996452, 4.907023531543447, 4.737274484512764, 3.521988522086953, 3.70103433228929, 3.264942079922702, 2.9947274545603757, 2.7815559662280958, 3.0404830290635503, 3.4547602525699337, 4.465266602924168, 4.025609417704145, 3.329565007190806, 5.006755101951668, 5.330227365718701]</t>
+  </si>
+  <si>
+    <t>[ 0.42017448  0.50864722  0.41600209  0.25958667  0.1910113   0.97323473
+  0.03291583  0.00315596  0.49701692  0.14370381 -0.00393527  0.77339754
+  0.06828738  0.08953684  0.53320012  0.31444068  0.09912688  0.22390229
+  0.24245787  0.18889833  0.01162648 -0.02246361  1.02337745  0.32509254
+  0.23619789 -0.02681314  0.12708662 -0.06172715 -0.04402735  0.65299426]</t>
+  </si>
+  <si>
+    <t>[0.3771802480105498, 0.5027663632486664, 0.3847067559193554, 0.474234280390584, 0.24268682589426246, 0.4949808146201184, 0.34133614356663344, 0.21291285554405642, 0.23883347103146427, 0.3013854732778506, 0.4081285481714806, 0.8342620338928792, 0.15103535425441988, 0.290588541889761, 0.2787431657287706, 0.32734830913900226, 0.45473131852200727, 0.5485996470612388, 0.21828829344575595, 0.43860420186518567, 0.8171510596158068, 0.3471219359457832, 0.5743932092303408, 0.2502735632553589, 0.47320743347662453, 0.5361677984423322, 0.3002743406377209, 0.3734643148487372, 0.12498207563684259, 0.5019176807823402]</t>
+  </si>
+  <si>
+    <t>[ 0.20288345  0.32771098  0.19872221  0.35182358  0.38354461  0.33900452
+  0.05161419  0.2687056   0.17169634  0.60532954  0.32442879  0.3283163
+  0.44593167  0.15646425  0.41377906  0.15413234  0.1140618   0.22832579
+ -0.00493386  0.32382684  0.24853511  0.02070007  0.13212764  0.22544369
+  0.33791842  0.55726063  0.43818933  0.48935213  0.54264642  0.1482954 ]</t>
+  </si>
+  <si>
+    <t>[0.2728577568315385, 0.1571965293636321, 0.26417750145230195, 0.20379605051023209, 0.2325224735225808, 0.17115105351307086, 0.18085330347189385, 0.15524844020464756, 0.2674758371235213, 0.29983452206210964, 0.19019835582074973, 0.31562169029242604, 0.15784806699584086, 0.2460256968519632, 0.25316300415179055, 0.17210224386805473, 0.43096176576518314, 0.15819576524268888, 0.33619963485412485, 0.18584593631879626, 0.2466951631957069, 0.31214488969978765, 0.12438293384668525, 0.14489872171063856, 0.2205900300384118, 0.1401872149137864, 0.15410472832152122, 0.20715069745547451, 0.29215209196953135, 0.3160931446556417]</t>
+  </si>
+  <si>
+    <t>[-14.08013325 -12.03176042 -40.3286659   13.93511179  -7.61937537
+  -8.82069817  17.93681108   4.6057033  -22.92045608  10.25884761
+ -22.1000457    7.42801586   0.22540887 -58.23364183 -21.50523173
+ -47.55549929 -12.17969864 -37.73524809  13.35575263  34.34712373
+ -19.31574453  11.0102858    8.43794667  -5.830512     4.4415315
+   2.17314809 -15.72626477  -7.15998438 -33.34367577  -6.66590708]</t>
+  </si>
+  <si>
+    <t>[32.61934703926867, 21.31209528779576, 23.56445907172312, 27.266425005053005, 27.431061812208604, 12.266140971795188, 36.30290239677205, 30.07238011659482, 23.261302813844395, 15.047152278483232, 29.238949822309507, 20.696270544200903, 29.222153847142067, 36.419864058649736, 37.768038944064386, 24.760065536858125, 14.422755297543388, 34.34612986206341, 25.231417182182494, 24.73325664341324, 26.747991564842025, 19.52516206127335, 32.46494521679768, 23.32144757975791, 28.50513912855789, 18.13580190690846, 24.319877862726397, 34.18597405423696, 28.6755454639907, 24.09287869961582]</t>
+  </si>
+  <si>
+    <t>[  7.35958297   4.98961786   4.41973764   5.92258463  10.69468036
+  -8.90270598 -12.70809917  -0.20989519   5.23155619   6.22157694
+  21.87273585  -2.48586507   3.55121116   6.5672388   -3.42639537
+   2.38823014  -1.93488825  -5.18316029  15.94939653 -23.73269679
+   1.94451582   0.52878932  -1.11521104   1.68288777   6.91163608
+   4.71479391 -15.88812446  -1.00132657 -11.45007525   1.57297102]</t>
+  </si>
+  <si>
+    <t>[8.048841409346826, 5.822669699456286, 11.135553848110447, 11.44655878539274, 12.002033911576547, 12.454855990562107, 12.751581041434774, 9.434136635031088, 9.52109839281863, 12.469752325032822, 17.870791490884752, 11.35903034597577, 9.332450675156466, 15.455276536297633, 15.973911216256388, 14.142030915288021, 11.787837707746473, 8.139918996311069, 11.39628697744199, 14.358020013830773, 11.462685771883034, 16.066600086906565, 11.440736762894867, 11.02335060697671, 13.700715645031181, 8.476751528167915, 11.675954082430028, 13.351876025210089, 11.624824398961081, 13.93623075326408]</t>
+  </si>
+  <si>
+    <t>[-2.07545213 -1.86429311  1.22303509 -0.87026349 -0.05302412  0.0858312
+  0.42833921 -0.62744248  3.18553485 -1.12546996 -2.36475677 -1.19210489
+  2.40761621  0.68266362 -0.81671585  0.00851171 -0.20386649  1.90416438
+  1.73626212  0.45725767 -0.44356919  0.55531287 -0.68792824  4.1958912
+ -1.59316575 -1.41640108  1.21890665  1.26801748 -3.84359939  1.86717092]</t>
+  </si>
+  <si>
+    <t>[3.0167746641730537, 3.7397178081190976, 2.5929086820551084, 2.9698177496492013, 1.6568848630177324, 2.689146031321496, 4.552005072304053, 1.2003218103415418, 2.7196133214434184, 2.951955953602594, 1.9672318494569456, 3.8785871857147005, 2.7830720544298764, 4.203678392225976, 1.5181123426060532, 2.290169723752751, 3.4101589630457174, 2.1567093227950416, 2.9930032884468707, 4.878051285641903, 3.0174437595084465, 3.3510322680946043, 2.0284576792947733, 3.202531745925433, 3.2470908464115054, 3.2271862922693764, 2.7674016414788767, 2.043654874164444, 2.61335660771314, 2.9130399619330696]</t>
+  </si>
+  <si>
+    <t>[ 0.70486468  0.23547069  0.29078757  0.51169866  0.05884686  0.20978731
+  0.24183261  0.23247314  0.55432997  0.17004495  0.48139565  0.17678826
+  0.22448583  0.17960052  0.81401437  0.67453536 -0.08530998  0.64710051
+  0.82464488  0.03830721  0.28827989  0.78210824  0.41690078  0.01682609
+  0.33961803  0.04846242  0.28395722 -0.07864247  0.38021237  0.52497053]</t>
+  </si>
+  <si>
+    <t>[0.5349334498136495, 0.27040899387532114, 0.581055522244614, 0.3174492377946369, 0.9922946266916943, 0.3594463803068471, 1.1520026048934935, 0.9260548077900796, 0.6895887270258209, 0.7351641989431811, 0.7894282799272757, 0.9092997838201785, 0.6395443187942768, 1.2942736463117102, 0.2609987438373087, 0.7110972962691936, 0.5588926566288506, 0.6486755110469004, 1.2991640676783578, 0.6539038453464272, 0.9787704112009064, 0.996859223102598, 0.46673740781379847, 0.57358923344953, 0.8279197751998455, 0.3699091361135985, 0.43760736577512455, 0.3800137389152475, 0.46477277233629366, 1.1813148609219852]</t>
+  </si>
+  <si>
+    <t>[ 0.44518189  0.5232767   0.19128203  0.10921997  0.49034304  0.26256206
+  0.40109364  0.22193991  0.38206666  0.26481307  0.32103424  0.45094227
+  0.15350434 -0.00693696  0.37558577  0.30131333  0.33310447  0.19641524
+  0.53552512  0.11127844  0.33027644  0.43783058  0.36578517  0.20725386
+  0.31700699  0.23294536  0.092659    0.18278     0.34581098  0.25745911]</t>
+  </si>
+  <si>
+    <t>[0.1799096032807619, 0.18998486144048018, 0.22179365892136949, 0.2725157208029353, 0.1884039684123484, 0.2159919949364017, 0.1845925020111152, 0.10835746130671978, 0.1594900313538834, 0.14711506706780214, 0.22037489137061098, 0.2964655675786429, 0.22296513324593573, 0.22734161335598546, 0.13844731313206007, 0.06997581610955707, 0.3247761997749438, 0.20771796235081463, 0.1854703048201421, 0.2038634014524098, 0.19488737683039228, 0.21707994180883033, 0.18887413565102884, 0.24448825006268898, 0.20242629388535885, 0.2592920687244694, 0.20178745624159683, 0.19569030937574047, 0.12831732230386764, 0.13082612491113838]</t>
   </si>
   <si>
     <t>f2</t>
   </si>
   <si>
-    <t>[ 160.57188991 -193.85312203 -164.67538052  393.9261858  -113.61909213
- -500.         -304.74169405 -120.57126695  112.43682868  384.92304496
-  152.22599732  425.77566057  125.52391137    9.65986564  467.08217817
- -327.16821344 -272.08120343 -218.71672391   24.19919762  224.6227269
- -314.52377214  461.6069543  -279.75738794  102.98746235  451.68178834
-  219.3990564   -40.28626411  444.16002073 -424.04704243  409.02012045]</t>
-  </si>
-  <si>
-    <t>[249.17807545155293, 252.3868728564616, 282.044464669238, 288.984925119454, 253.83410479538378, 352.8453206068407, 214.44922896235215, 310.21053419677946, 276.72229624114453, 220.66414187430496, 239.9071172197042, 216.7392788429745, 274.8870626760735, 355.9048685111085, 304.9730465702415, 246.92783068210682, 291.47022930235545, 217.84393837258023, 266.6524424825417, 291.5872073504022, 250.71251175112707, 255.90719219424986, 284.9752321153149, 242.213128123394, 315.1186395702522, 267.9561420377227, 287.09974810071253, 363.2205495167863, 340.6575271913436, 189.639051516876]</t>
-  </si>
-  <si>
-    <t>[-500.          384.74046553 -500.         -290.96956089 -184.39569454
- -500.         -101.43959962 -258.13643524   18.99065441  433.36420776
-  376.15360509 -334.53910351 -500.          155.0218086   450.82593345
-    5.96221009 -334.23408316 -317.68251605  439.81440203 -500.
- -130.9228794   133.88829339  500.          423.40542858  391.03528247
- -500.         -128.0940891   -22.03169238    3.66752265  146.44771216]</t>
-  </si>
-  <si>
-    <t>[253.62416923773748, 232.83414241358298, 303.9429365093779, 309.788054599031, 280.27167296515864, 331.525717826082, 320.59289575751257, 237.52523615780106, 208.0836133300911, 195.5404915984191, 335.37037643174676, 257.485768390574, 222.38341122293158, 253.09272928812516, 184.58676312849204, 268.5372164077822, 258.8343238920046, 258.734410095509, 308.86814772974634, 247.17854261076707, 264.60915487993213, 289.690439528968, 258.55651954386224, 297.9603788504922, 285.656642266173, 273.52246330387584, 306.5702307683377, 242.92767017375368, 245.66702514194546, 356.11405623203467]</t>
-  </si>
-  <si>
-    <t>[  12.36632327 -305.5109272  -500.          384.22128689  426.50278709
- -500.          500.         -340.436862   -116.47306651 -500.
-  301.79875136 -301.85238884  184.98474971 -500.          405.5685796
- -382.87000007  448.03870805  189.3227508  -167.86571716 -323.92959552
-  174.42627585 -276.55083502 -298.77523404  396.43203234  469.93561022
-  -17.21996739  168.19549987 -250.9272702   171.18962576 -346.82110304]</t>
-  </si>
-  <si>
-    <t>[298.1614156848291, 254.3716387991397, 240.47715871872103, 319.4379100333367, 268.6302346945953, 316.42554640778303, 270.85846874535656, 262.7667680177074, 199.32536620471475, 332.2369018923239, 258.6780830394674, 244.43974698433544, 226.3235066933311, 320.2040870661176, 285.7463676690385, 253.13112954947772, 298.83284984243164, 229.91587354718214, 254.97231929184858, 263.4244367999928, 163.11333591303676, 215.67646644413705, 194.84914198374256, 318.0170609326426, 311.1432843474554, 191.63489628966084, 200.71677806592342, 264.8191853441917, 297.68933054670157, 265.928652793795]</t>
-  </si>
-  <si>
-    <t>[ 467.20756611  450.96055996  477.57733842 -117.2554965   188.14968412
-  383.35800467   34.1227061   214.53216684 -500.           36.47389836
-  124.45170385   20.74464577  451.27724995 -134.80367248   41.3943922
- -258.23280071  410.85546656  230.93906351 -104.06326954  163.78726795
-   35.5229349    88.10907495  369.15310228  422.99489351  392.18261353
- -113.02519406  420.0103111  -111.55313011  432.2728698   401.91389754]</t>
-  </si>
-  <si>
-    <t>[253.30465562714193, 266.96730093377266, 306.04949428005284, 230.44956961543085, 232.11311424915988, 321.7459535518198, 249.1514466486445, 172.63787671782842, 307.8971415069884, 246.21489935768142, 211.20037371705146, 209.70588694207564, 291.00521558188666, 218.47878477786057, 273.2397071209152, 273.14599748505884, 328.9081728998361, 199.55676070408265, 266.81820582341766, 222.72628809338175, 227.13611006711335, 308.281245840691, 206.26160000704687, 266.9495990101488, 316.88669141380944, 292.3910724973789, 228.32968699185815, 213.54632868550354, 290.84725933326223, 272.8157874830347]</t>
-  </si>
-  <si>
-    <t>[-277.0903254   112.64803142  453.63941352  405.35253026  407.84600271
-  380.71188318 -164.75543859   38.63475655  227.06033299  412.08992372
- -309.24015115  424.77613686   -0.86265341 -500.           44.06009063
- -500.         -306.8071727   200.12911711  446.42161538   35.87967661
-  194.32318384  462.12835563 -154.97654193  168.65556519  -43.24324618
-  413.76910047 -282.36076931  239.39464505  381.39568008 -310.63639383]</t>
-  </si>
-  <si>
-    <t>[356.5504799955988, 251.6056783340227, 325.11350999874617, 352.55401670022087, 352.8257464163149, 249.06377360618401, 218.85613214206174, 241.39439059189561, 330.71752101752463, 292.76045194184024, 316.7409392769111, 253.9416782940093, 297.2943057434998, 316.55555979113336, 364.4495721396791, 283.1420441460762, 277.4571136627905, 282.8038161716636, 276.5867297752024, 253.03468676791377, 284.96539555117306, 250.0787791195423, 196.54197627108888, 287.99889256223327, 247.49204096472428, 325.50224911558496, 281.38739099662695, 238.61880095452747, 223.5397726367655, 249.2898559967429]</t>
-  </si>
-  <si>
-    <t>[ 206.02111917  433.85150184  380.59766035 -302.5704767  -151.8094014
- -300.00754587   38.74822705  417.97507678 -271.20820122   80.14086774
- -499.69502007    1.39634534  439.9252245   150.26896659  -12.29811468
-   10.63023328 -306.88386955 -346.91118126 -101.92111037   -3.92700632
-  442.50398384   90.09637725 -370.25931409 -311.01064805   16.77086186
-  337.7596145  -500.            9.23704611 -324.15731684  126.76773459]</t>
-  </si>
-  <si>
-    <t>[252.57863343144308, 319.24687441599406, 276.72501707789587, 315.51555510447713, 255.2454756630497, 173.31029512614157, 235.27446636432714, 255.5499082999706, 291.10205441250906, 284.94469134965055, 242.90518675990097, 228.202362558205, 192.7841836411868, 188.73608202735218, 245.1860173935586, 195.72982440732625, 304.5573084833644, 265.96358244395765, 339.4126673298369, 279.9665208313665, 376.6034823594578, 342.6799425090798, 289.01439088690967, 283.85768328574824, 274.8625041657314, 285.46920257364957, 242.55783167232707, 273.2312456841852, 259.2595496448906, 240.30800949494162]</t>
-  </si>
-  <si>
-    <t>[-264.57454213 -500.          467.51577697  181.89312889  202.47535049
-  233.13701555 -124.6297475   388.45793201  191.89452706  314.91755823
- -212.41260951  220.09404852  219.76962692 -484.74566548 -284.20036925
-  193.08868182  -22.79428264 -127.99302493  447.9511656  -130.6300119
-  219.2716384   444.4406512   327.29659824  392.53073472  -12.79094934
-  133.23211487 -318.50747422 -270.83911297  172.10105461 -500.        ]</t>
-  </si>
-  <si>
-    <t>[254.17539862665453, 315.0321068513162, 290.24093312028947, 302.3360673799621, 267.3694055360387, 233.7132451208743, 182.58561662229337, 285.32270452166944, 233.63140117060928, 253.1660267047509, 261.81986752032975, 240.2250809994266, 318.7417350416232, 344.8776083257236, 304.75132243428993, 317.5782434765435, 294.9931154844525, 313.2889851420465, 291.94518549628935, 211.9293093251252, 270.62355342666325, 300.2918715318354, 284.49505236134155, 208.2840741349958, 333.5747824402346, 310.122004158666, 347.80548044264174, 297.6355910489775, 285.06336732778846, 285.53742520637087]</t>
-  </si>
-  <si>
-    <t>[ -33.86564584 -309.48605469 -499.87333296  448.80719247  411.29661279
- -299.36897928 -130.2123113  -312.15836147 -490.92813735   97.28582645
-  452.03558842 -479.12736605  367.05001359 -120.46020443   86.23298565
-  168.72303892 -304.9367393     6.42963858  458.90383372    5.87304615
-   65.20176292  431.11643008  401.32184265 -120.70245229 -290.11714124
- -254.21745307  232.24299937 -283.3651017   359.36273804  177.82623561]</t>
-  </si>
-  <si>
-    <t>[235.56372811945772, 335.8312726152575, 316.8532952494685, 245.05002269832613, 254.918476563967, 312.3832936672481, 340.67512601025896, 254.8133018483918, 378.1427048522446, 266.4134937288226, 241.0824906942954, 302.0034829464371, 285.7660629191526, 295.1803841148052, 155.25992270675616, 242.04251439236268, 374.90870968729877, 304.12280133515054, 255.05380849799877, 194.15461876756788, 206.74976017251194, 308.8234854931033, 175.20061460352298, 226.83826741699175, 311.3393854021848, 231.34032839235405, 268.73212445135823, 269.73507882396126, 264.6484367815107, 279.8301787260029]</t>
-  </si>
-  <si>
-    <t>[ 415.36221398   13.42166031  340.5792908   468.10346096 -498.66632565
-  412.27950869  420.84532738 -138.56395758  434.00524652    8.50610161
-  422.04756901 -175.05731714   -0.78698612   49.76213785 -285.8181919
-   76.27974121 -500.         -283.93793043  381.22449011  -20.84578917
- -494.4779759   396.89477495  172.15830405  358.17637411   21.24947819
- -334.55253756  405.65201397  398.9345441   219.50389155  401.50967446]</t>
-  </si>
-  <si>
-    <t>[231.80294451394977, 180.66331923367298, 233.98508333105082, 309.3938169354459, 312.9210704867403, 300.3453854005673, 287.90003312006957, 226.55761685145487, 315.0078133316489, 200.4940554036797, 228.6791513090069, 239.7633981620064, 305.4400451079363, 273.7574053107975, 313.36813958327616, 178.58708647963024, 316.3739640300893, 233.76410132702512, 303.5304150840716, 290.5429459121203, 337.7589409775259, 208.2665392773235, 174.01208973402225, 261.44854056110074, 308.75865861025363, 293.14920909287116, 298.9976329948762, 285.17563200764243, 348.35846324798854, 334.9293004308735]</t>
-  </si>
-  <si>
-    <t>[-306.19120808 -499.11214088 -303.95256068  415.13902373 -286.48649304
- -499.90354025  413.21965182  408.7399051    75.15813858   50.94235834
-  416.52930583  411.42464433  214.79074292 -276.04609231  424.18353181
-  391.92914545 -292.10281413  440.82275484  421.61776603  414.93411693
- -500.          410.40901074 -306.00378761  -59.8651988   415.35020984
- -500.          -52.5219748   197.10440019  163.65467994  420.00766424]</t>
-  </si>
-  <si>
-    <t>[271.55132682130846, 318.0062842764642, 340.614819843785, 283.7236218670653, 244.1985566925053, 277.41825609579865, 296.10043429426304, 339.75785372695674, 283.2435799641092, 219.9489603915972, 311.14603533988594, 309.1479449900279, 220.3071910250706, 287.9042631261295, 339.4616502371639, 252.63420801167663, 224.3409762928413, 265.73267283404294, 329.6998003738884, 303.57504611412213, 280.12783939915965, 320.75753863090875, 224.74003947290677, 229.15965309512936, 315.64628843777564, 288.7968469699507, 236.50106808608, 290.8360465661749, 248.18694696435372, 340.6451224183748]</t>
-  </si>
-  <si>
-    <t>[-500.         -114.99400566  221.09137922  -10.3160111    77.43552161
- -498.93920547  161.62001321 -383.03421785  -31.083301    164.99711016
-  426.12299976  404.69012788 -144.9541007     2.16979607  434.20555119
- -346.57078573  437.17866977 -194.53233359   89.37069961  369.30418389
- -325.38002672  392.06532024  211.44072906  -88.11322863  410.44581267
- -308.05745683 -498.56723761  433.78212771 -212.84532965 -325.29415028]</t>
-  </si>
-  <si>
-    <t>[317.3442895262299, 244.4700703887496, 217.63201381433026, 283.1306050456548, 334.90508650081506, 300.81960162770247, 137.49594537698349, 261.4134080652195, 118.01438396184267, 199.61607714199084, 331.80598128046444, 209.7458519036487, 262.7134465504051, 268.5787919389645, 255.2589244404666, 282.5755436638838, 355.92847109522626, 309.25976394064924, 270.47164855087965, 200.8886396758507, 289.3580976939763, 279.6825785412886, 233.49446960162607, 278.48910054298545, 236.96711295314898, 268.93048794063327, 332.7356470946186, 336.18331489777603, 302.00276465424486, 268.1666609939098]</t>
-  </si>
-  <si>
-    <t>[-268.30750426 -255.1095256   456.83365994 -302.84258474  -10.52943987
-    2.01395374  458.24468668 -130.51418892 -321.23530424   76.22957068
-  416.80643491  399.34443243 -342.86776865  431.58419536  186.72958086
- -500.          204.56836982 -150.48288478  231.89639182   -3.98164126
-  431.07473049  436.50388226  389.95165001 -499.77155109   -5.53799174
-  -60.48042169  183.94608323 -265.6655211  -108.44220677   60.60740788]</t>
-  </si>
-  <si>
-    <t>[302.00490770745733, 364.942838706078, 313.8973265182484, 309.1734190233948, 255.23813062137904, 263.81724656225634, 275.09217003763337, 265.100349972557, 332.37085848452716, 247.58622107799604, 314.97948732161734, 295.2174596994637, 258.73570503811936, 279.7137834310555, 290.2447398551483, 279.4531741979591, 264.4686138658994, 222.3368552947762, 236.47850467758585, 273.1041143468697, 217.8251007585282, 299.3270172366491, 344.73939279930715, 333.3014527144949, 297.75071861272244, 231.34571835052546, 320.2340519282967, 257.04432048648454, 242.99002307562205, 219.23473665788626]</t>
-  </si>
-  <si>
-    <t>[ 358.31343892   56.31565608  418.88642573 -499.40429462 -482.49917462
- -487.19279738 -100.36012384 -298.95963661  412.65083259  260.40821606
- -122.20713628  399.62581098  390.70561864  432.54357024  475.83480337
- -190.41639927 -500.          189.55045237  -91.14084184 -277.6497638
-  454.76265804 -301.51703416  413.48514145  392.23928512 -495.33491012
-  451.40988559  427.04600651  263.60002012  202.17331668  411.03229268]</t>
-  </si>
-  <si>
-    <t>[242.9405386065111, 289.17591460491997, 271.2541113903434, 304.8561542870203, 330.84919430558017, 223.14590537943025, 239.29942216605434, 321.9474733283059, 259.46021837418795, 164.44412103171734, 292.6861658728768, 200.96378359664703, 311.9081537695569, 196.44557285907496, 283.67060088680506, 275.30402658582204, 334.53362255374935, 173.47623903024598, 233.96234565043792, 266.5002149230111, 262.1770372169903, 279.37084216078057, 164.6940152776747, 258.2776562048238, 338.5324079050475, 399.2119663908058, 332.7827358723387, 299.5718550832129, 262.0807834335515, 227.07672892208922]</t>
-  </si>
-  <si>
-    <t>[-307.04031801 -497.45044362 -126.73630505 -474.50391588  373.08240837
-  410.80891268  388.0351322    -5.31451142   48.89557792  -92.90870969
- -273.09931488  428.0581984   434.46909605 -274.5415203   359.21408634
- -264.07595871  446.92071865  213.93636162  178.76713072  203.07991567
-  427.18179494 -283.13508902  418.51373853  422.69695943  423.27815573
-  185.13161561  211.27419455  425.31179404  -16.39113577  385.18174939]</t>
-  </si>
-  <si>
-    <t>[279.7537934208873, 335.60556217150406, 292.6518385842392, 303.95415571194036, 267.06326530625864, 316.72751739850986, 256.0016018878855, 177.35553546526202, 248.15239655395587, 323.68589687799374, 291.41609984591554, 317.9061159634674, 311.1505812040544, 301.34993151796124, 303.67331738611585, 336.51099870347286, 349.73924226207913, 269.3151320009423, 204.14222808042865, 247.11934908561935, 285.42674485500197, 347.60879205659177, 282.3775511536016, 304.36537505482397, 249.79990956413945, 314.8275004440196, 253.16691794955995, 288.21908866243734, 236.21467825952132, 326.67613890135755]</t>
-  </si>
-  <si>
-    <t>[ 382.80999164 -299.10140593 -499.44056936  415.38958972 -291.96482231
-  385.8342803   406.33741524  190.51458567  422.69223606  166.28071354
-  411.09195309  418.53467851  411.84010958 -298.17633241  398.90403566
-  407.90552136  427.11786847  392.63394586  425.71013694 -498.25847058
- -271.22576136  417.65890351 -112.62188558  428.57086643  425.72120986
- -115.50753818 -317.0038622   400.57526506  427.76833455 -269.62514676]</t>
-  </si>
-  <si>
-    <t>[372.51972396044255, 313.80242644018887, 336.2881523498759, 366.95663068698246, 273.2315078328099, 290.8579078121313, 338.4324897493933, 281.18693124948385, 293.3105000371418, 292.25294880034687, 292.74891430186256, 323.49201489784144, 336.6742434106739, 260.2923593543229, 206.9520220119785, 220.92243678565728, 354.8594238128188, 311.5980772773799, 343.75635007939377, 185.18106968239823, 239.71167425641013, 280.16583781044244, 256.49283297093666, 258.5969800256332, 383.19405768013615, 259.6353477881028, 282.03032161196876, 246.2255596568217, 198.37020855717617, 272.20981298945134]</t>
-  </si>
-  <si>
-    <t>[ 413.88338338 -139.70734161 -312.35487863   41.10507155  211.44193953
-   -1.01677358 -285.29241128  406.66219879  195.58962677  375.93572521
- -339.7947702  -295.48564957  -46.87611753  -79.16066996  247.22739927
-  257.6256973    62.46299378 -237.536621    172.09908974  422.00431936
-  412.34864362 -294.2591873  -312.14991544  -97.84150178  -97.3524322
- -119.8526098   433.7356574   -91.45314052  178.61415692  -22.21777223]</t>
-  </si>
-  <si>
-    <t>[320.1262025494695, 206.0242000379745, 279.9079014392002, 333.5160814396858, 275.3632217686637, 259.3118688127728, 301.2007281714097, 365.29550350867794, 260.8419552963563, 219.31159986589466, 350.99313987456696, 331.79508741331455, 371.6577000321557, 204.59662011337247, 203.85693600031667, 313.6075870352065, 283.2383740854216, 344.1990045444262, 325.01452199101857, 303.27585313908116, 296.5673778116152, 246.63709754426526, 363.0893989565125, 321.34023258261635, 317.37945467779, 239.50094411899718, 322.3966401070541, 264.9734588846939, 331.93985329518904, 314.8979590237854]</t>
-  </si>
-  <si>
-    <t>[-130.11174962  224.50327371  472.4475509   256.57854477 -149.8769644
-  378.54304058  386.03747193 -113.8499911  -499.00180983  -13.89953078
- -139.12161892  195.88692419 -338.24565759  410.682005    463.74372804
- -500.          445.6227355   431.20654359 -152.5699935   417.1017338
-  101.37773169  -58.6200566   429.02649433  370.257694    225.47969181
-  100.31862512  402.80132461  182.71581259 -318.1406949  -302.38372349]</t>
-  </si>
-  <si>
-    <t>[238.0801698265725, 217.01906501782082, 351.09320042376817, 310.0597641219051, 207.90194258564028, 236.99087938681083, 308.4005671180901, 289.1821219602792, 290.8461212242015, 179.60461830574303, 238.9442881209289, 248.97797787333386, 341.5928306111658, 383.12590870221646, 304.2536144711037, 256.32974650227453, 322.20962906276, 353.77572072361664, 281.20906895676654, 354.29599261314496, 315.76651116979616, 242.0631949876665, 363.72372293921876, 227.37502642801306, 254.45532413170514, 255.153865532857, 320.2716028862558, 295.72937695647823, 259.86165782023863, 271.7248526743652]</t>
-  </si>
-  <si>
-    <t>[ 428.8878784   420.32094898  179.05920009 -138.40967531 -327.12358603
- -292.75483543  386.21024228 -297.66947963   57.73366158 -242.99847153
-  373.20946227  424.86646468  438.79897229  410.4200782  -126.76453479
-  448.83571819 -277.90989731  201.89536237 -282.934133    378.03481387
-    8.70108886 -263.69112901  460.13934425  186.6477348   -49.08836982
-   51.31587955  437.03603254  407.76926468  403.62328722  373.51873972]</t>
-  </si>
-  <si>
-    <t>[201.38886897552572, 338.8684502288392, 260.72074083831063, 282.2623076188352, 262.47149115637245, 287.8060416622972, 241.5134631781722, 187.70737687621863, 268.2857319957253, 222.3131285579154, 298.513421774168, 236.99479524182874, 268.8053950250182, 289.53467298811984, 257.53571838029285, 325.57714275050233, 317.6702700874129, 305.85748737149305, 251.73696401937778, 289.8216158060699, 224.71074010539067, 284.43477500671594, 300.7505567035036, 216.93578919202892, 293.89705121922765, 283.79789783574483, 226.6599732879084, 183.74296528008009, 314.84261225973705, 295.5199017608316]</t>
-  </si>
-  <si>
-    <t>[-497.43662963  191.82938887 -128.61968852  422.4274619  -143.28519175
-  210.38779496  436.93736497 -305.26955134   83.79805871  410.38581408
- -272.14358558  435.81098663  398.56594752 -293.33042342 -500.
-  176.45388914 -492.44522849  429.56546715  422.15762732  161.18870968
-  429.79962293 -496.06096841  379.28876851 -323.63222275 -302.65460628
-  406.88585671  447.3971896   397.70799837 -294.48038017 -281.97038279]</t>
-  </si>
-  <si>
-    <t>[349.1271828077018, 273.78043893726743, 295.42849709753244, 331.1074680062548, 305.69436563218824, 308.0436393109295, 270.7676311264487, 251.90664409436656, 209.67792282086214, 281.2341075396346, 179.16553355186906, 239.99826436003156, 287.3139151028286, 272.116702752368, 265.3772690164957, 285.95133789925137, 256.58670596060654, 300.2103988381655, 290.5181298057008, 260.01215827767874, 358.6146842208075, 299.64677169771005, 238.22763682384536, 251.6520670618576, 300.0182962912658, 230.39359243017054, 223.82188777466422, 282.15155841704893, 312.2695509981643, 185.19777610015612]</t>
-  </si>
-  <si>
-    <t>[-284.30429508 -294.55516238  411.18659432  424.79235867   54.92762495
-  416.234178   -114.01905029 -323.95717522  423.03260132  409.61987271
-  413.05109769  407.14645654 -301.46225419 -297.07755296 -136.06853462
-  198.86219476  401.03609034  408.268536   -300.01180149 -296.246918
-  411.81375313  413.46321477  223.54742925  406.83841948  403.86739305
-  420.41749534  426.8623242   198.93881596  411.95903221 -288.72576795]</t>
-  </si>
-  <si>
-    <t>[315.15737040556775, 287.02022313014265, 248.43490117203558, 309.52259737505943, 289.5054185060035, 256.71020654716676, 306.9812847315886, 324.2950713824412, 328.6075977865676, 289.482250770909, 297.84263503311644, 288.69557109281675, 278.6893191762292, 311.55756544859423, 281.0580619003152, 281.40649842930594, 290.9238200209916, 261.60665141480945, 350.6431817092093, 318.401806709178, 269.97993694985894, 285.2750598682285, 275.64557400809684, 293.5115952359861, 291.3651212316304, 303.013102223566, 267.27730723523285, 201.38279205469848, 275.5180885401442, 333.93915324698423]</t>
+    <t>[-326.13752397 -500.         -300.93995691  -36.47467542  442.38520731
+  491.62275794 -124.45454671  107.45196457 -243.42609321  -88.99674485
+   67.15515939 -139.43077267 -160.74233472  482.39770812  397.7642825
+  421.1495675    82.68287029  207.89566659 -234.69685866 -337.86942095
+  109.48815249 -145.65083956  -55.48508558 -263.27948789  365.82454268
+  209.61290719 -256.75164451  215.25064025 -107.30463055 -222.6351298 ]</t>
+  </si>
+  <si>
+    <t>[292.76209694400706, 261.4180575451475, 184.89873336299087, 252.52532426646042, 240.64107755337102, 217.97054280988695, 256.318326278221, 294.40380615004943, 204.10435341618708, 253.6016750930592, 268.84766120844415, 231.0677933050091, 301.13441264463813, 265.7656716939734, 273.03771929155647, 244.1421660867339, 214.85707054982078, 346.6428490224175, 295.34348615116625, 312.8486108014066, 317.2902650618243, 256.39167749242887, 351.7801442484861, 299.6162530744466, 282.4984759541073, 242.31993513852493, 215.7202536986137, 280.18978719857483, 233.32067895730597, 280.18331286883944]</t>
+  </si>
+  <si>
+    <t>[ 180.70513867 -247.79248976  346.3654946  -261.42917469  439.88971059
+  431.96652545  399.23879672 -111.51568325 -134.1038188   418.98710111
+  213.87397092 -343.96156929 -255.0459707   168.13989692 -282.93383914
+   88.96967376  447.01215292  203.1720762   435.90433671  -27.58673676
+  244.65104927   -7.83583894 -167.14494362 -310.57384321 -171.57483267
+ -385.28379341  201.58539562 -111.88480266  -77.90761583  359.57716954]</t>
+  </si>
+  <si>
+    <t>[314.7100905960271, 213.4061598159733, 272.94440306132935, 314.36463884451865, 279.44858936867496, 300.28268385431653, 301.7058953776369, 263.8173616754233, 254.47161067808236, 197.8318552598446, 288.21742156618313, 252.05784560800703, 217.41183748452073, 312.66286746695437, 189.26182844233338, 211.40736758492494, 316.925340712729, 215.13051137875863, 310.02319971547035, 268.6288125695026, 331.0104951396181, 289.24618786131026, 243.85104716731644, 287.142451272651, 306.19051593908245, 288.9672135544628, 246.32515392866154, 255.87958165368826, 240.04468624829656, 243.82452814319038]</t>
+  </si>
+  <si>
+    <t>[  -5.64222025 -158.18034629 -123.20824603 -187.83165667  411.37460193
+   10.60992322  411.81090967   17.93090609  -37.84652217 -269.4413802
+   73.11588413 -257.40003034  218.11098117 -273.76476556  406.12883177
+ -116.34038625 -297.557369    -98.66094203 -159.04548299  381.58505067
+  184.62536077    8.32968289  407.33080649  387.4215984   200.52726315
+ -315.4878516  -304.06239889  -67.00876249  194.33229403 -151.67402147]</t>
+  </si>
+  <si>
+    <t>[242.14055449681896, 299.279470675581, 270.30498591549434, 251.4719863860138, 322.06247361475664, 261.8490639164172, 278.5196962676201, 216.33337791906973, 386.566010673619, 235.47034061173125, 268.4846590408897, 227.82659696333454, 306.94957559934534, 253.4391733027291, 350.5919759354771, 191.4388036003484, 270.29758430297977, 281.5874552588127, 284.3591213604817, 317.50265048993964, 314.13854797599384, 245.46947676281928, 281.41041241567285, 294.56440811237843, 305.2632461967392, 257.3225892830258, 166.05985686676104, 277.23623918365956, 226.52743957129374, 228.10962893151984]</t>
+  </si>
+  <si>
+    <t>[  31.00119097 -304.23233197 -494.4104393   381.09173613   36.69498759
+ -209.35564533  207.31428046  433.00298281  -70.78739401  433.22194402
+ -498.52934076  415.2017983  -323.1621469  -117.3115099  -298.83451344
+ -130.6356784   376.25347883  -96.20240447 -493.74145427 -499.64726493
+  427.7585491  -496.78429138  198.75289032 -283.93888558  227.37867213
+ -332.31742934 -126.79175186  416.85922562  168.84340693  227.10622702]</t>
+  </si>
+  <si>
+    <t>[309.45370642659344, 179.31034884779294, 272.61798177868997, 253.49295373196875, 251.08291961882603, 212.2620253020836, 226.46093358829563, 273.6770626643183, 344.2046814085674, 315.8715309460601, 336.3928807019727, 242.3601237561918, 288.1062630888807, 231.32826669264207, 347.7744951636959, 179.04366993168793, 286.0699523721501, 257.858958537261, 341.2594219220366, 327.9085723906216, 279.4466257752383, 302.99367536286553, 334.3814232296554, 253.26384462298017, 223.29422781869735, 329.6406085829785, 292.1431657122511, 269.5959063447738, 258.5011406195121, 291.88627173832884]</t>
+  </si>
+  <si>
+    <t>[ 399.5548133  -493.25251885 -280.98848227   -8.55793456  397.66871892
+ -497.4460151  -267.97000715 -492.85089606 -309.08746147  190.82183831
+   66.23202519  -79.01196086  196.77590902 -104.53153353 -461.25494896
+  424.07557594 -120.36783852 -296.56310952  -34.15424849  412.79624704
+  465.6827205   357.40047935  442.8095707   413.32593095  378.95278465
+  456.56247116  195.4986705   160.47214723 -308.48045069 -289.88923531]</t>
+  </si>
+  <si>
+    <t>[341.39879111312723, 365.3644827721852, 276.71252143294083, 308.00962941134253, 275.21356037961243, 338.8962150549649, 240.6468437045485, 373.5827150536324, 307.0029115453687, 271.92318172329175, 248.83709539641453, 268.6757382689522, 319.7858002716312, 276.27618735330947, 400.3408013619153, 330.427794266491, 230.01728549086826, 322.84735913881605, 164.35023738360235, 299.7190933634778, 372.0392060194249, 324.3992322797196, 243.95564898080076, 354.97357106552084, 258.9832560585819, 235.87103591285756, 224.26866316883343, 194.90654807546602, 292.25618882330986, 285.441960000453]</t>
+  </si>
+  <si>
+    <t>[-147.96419819 -162.18135063 -293.39335927  346.33442244  228.54112717
+  500.         -500.          -89.14317702  308.8919561  -129.05398363
+ -482.19316313  458.11064229  208.49143889  109.0827885   439.44992669
+  216.36980884 -294.99651614   -5.09382011  225.25563895 -324.17833332
+  -79.37091989  448.46423604  229.32205892  206.22753726  182.63357829
+  206.81929855  449.12148817 -144.36472347 -298.39818295  373.40964105]</t>
+  </si>
+  <si>
+    <t>[323.6481127647691, 263.14190791036407, 262.92736861854945, 308.68766695684155, 226.60606953505214, 198.41848963631926, 277.58383505274577, 214.4566730525784, 328.4258753134003, 221.16773675925455, 264.9290970334409, 200.66776741846206, 282.18940707005623, 344.2359013678519, 289.29861393549504, 237.98647162263646, 267.67569759699734, 246.15051403642093, 278.2446218233325, 314.1361259134608, 283.0223057002935, 248.8016105681678, 307.81496829794713, 311.1923489352892, 274.86087896424476, 275.31283795032635, 252.3245206510477, 219.82735361012516, 231.36870164724866, 291.2205474780625]</t>
+  </si>
+  <si>
+    <t>[ 409.53890512  -22.07747583 -354.82576817   79.66162304 -302.97084174
+  168.71704738  -99.28832714  195.50282711  400.09240022  442.05767952
+  -62.33227573 -483.52054752  427.7791559   125.06596644 -372.55682008
+   68.12037837  480.82970284  231.58585932   18.29657482  -25.26768752
+  -19.82677972 -500.          212.13965396 -307.33961751  -31.24681222
+  413.80123724  374.41650635  -27.88206918  -89.33509558    6.93548535]</t>
+  </si>
+  <si>
+    <t>[212.71275630311513, 203.32085832349048, 353.1934754633786, 273.7071417228329, 188.90325500525063, 260.7920574458512, 240.2644110312297, 220.83668827155782, 307.30891786482243, 294.1830115400944, 170.36128692453, 329.9281486994205, 330.2589664105584, 281.5813575245221, 243.18148827047358, 243.67532766192136, 212.1438383276139, 277.9115280881554, 209.47245928020496, 254.5561775527611, 202.1260465209105, 282.6719658653821, 209.72574661169827, 238.40822197515874, 242.913557287959, 257.02963532635044, 251.22630004793535, 253.05996782682655, 224.42517171704267, 222.91045534426524]</t>
+  </si>
+  <si>
+    <t>[-315.55379143 -132.35011143  263.58620756  200.13149422  212.47878818
+  160.17192871 -476.38546939 -150.22594315  142.59354762  400.558583
+ -130.35361234 -491.40272831 -340.80676003  -52.80202908  250.04708705
+  201.2849068  -487.99868533  440.79294311  172.82200702 -316.02985993
+  415.12572956 -494.4546011   378.38720544  433.37066893   97.55392554
+ -265.31660189 -301.95428945 -304.23618468  428.11492085  421.76021321]</t>
+  </si>
+  <si>
+    <t>[245.0135127100915, 301.04843662444443, 295.10472871375674, 323.9859962385968, 297.98640159046096, 247.8128664006908, 312.8682413448463, 270.67569871917533, 244.20526367523541, 312.23159042830576, 256.3167251078448, 308.5404248739872, 314.5605023314559, 245.26898281452122, 302.9580816108765, 285.44043511854767, 299.2588221385973, 248.25996044876786, 304.39439988702077, 228.96970073051267, 257.51770905965304, 310.65247135616806, 288.5062456523957, 245.01843423152042, 247.9843928513015, 225.921152321963, 242.89072762726104, 334.74694564139185, 227.65088379382672, 209.83973001232937]</t>
+  </si>
+  <si>
+    <t>[-328.75294743  406.10816018  389.56164198  410.43527133  423.39617109
+  413.21906846  416.47884867  213.16864011 -293.07526414  446.40017256
+   37.04427325  185.83425066 -119.05399501 -291.19213139   76.27191239
+ -295.25253005  -77.6564635  -320.69177403  432.01222688  -10.20321424
+ -127.36515134 -300.03991766 -237.21691957 -154.32635957   31.84828958
+ -283.62598103  -68.0309146    24.53725465  185.13504506 -310.95319836]</t>
+  </si>
+  <si>
+    <t>[319.8105159283711, 302.8629818306276, 287.55827403415674, 213.58593875919374, 318.64034804634923, 306.8085649470647, 247.39257818397576, 281.5450931609358, 201.54719762877014, 348.39351327953716, 206.13055141469837, 363.5471294177832, 288.756158418581, 317.14065001239186, 271.0017462648764, 284.37736732802074, 227.79316224887367, 217.90248093795248, 253.67704751638547, 234.05316331553283, 275.95379409179515, 312.1171021053622, 234.19926031029743, 271.88999724081583, 257.7040092345038, 267.52116071344994, 284.4351450804167, 262.99070323100403, 233.94663172365821, 276.63752269716457]</t>
+  </si>
+  <si>
+    <t>[-280.9239191  -292.10030093  190.33576524  413.050096   -498.61198569
+  429.11886022 -494.05833047   50.89653037  426.16477292 -318.61638469
+   87.44788634  385.00986731  417.91135824  426.6943575  -295.11979387
+  408.60745091  195.94393351  402.36599919 -498.45391376  -94.90202633
+  399.85113552  186.63598241  190.8721265  -126.46264766  413.08115852
+  400.67852215 -282.58610517  409.32399242  390.3305587  -279.58255279]</t>
+  </si>
+  <si>
+    <t>[343.4556608558166, 245.29161423802432, 282.3964325947644, 254.37091411845137, 308.17059994951217, 200.70002088753537, 268.07433241969125, 306.10348251366156, 336.989197337017, 249.90164504836292, 264.61465764731486, 257.7409582919471, 324.6004145924102, 281.8472343530027, 243.98985843800585, 281.05260794521956, 270.04530729412465, 360.3875464050603, 310.5916510501534, 306.4139197288922, 315.80597292052516, 221.71455289520623, 353.5770653299066, 227.96716885612602, 338.9716261859652, 250.7142010165561, 269.49895579544585, 318.3226587960343, 293.5948635129515, 290.8885132332577]</t>
+  </si>
+  <si>
+    <t>[ 423.7362952  -151.4972787  -340.35527506 -313.40856331  240.96634861
+ -197.01163511  392.34817391 -306.99310605  -51.46291656 -201.6379987
+  235.3884998   427.71629388 -500.         -292.54466404  187.09678468
+  211.23596184 -491.64203499  338.84569623 -477.04271248  211.74460783
+  154.63204107  -11.14949276  204.27350649 -309.24888243   51.56503681
+ -354.16590799  406.32430657 -500.         -331.38704108 -488.26212691]</t>
+  </si>
+  <si>
+    <t>[226.31220052346518, 259.3260360479089, 202.00830232805757, 336.6917852291013, 267.70473844679356, 244.66844627805233, 243.47532444265087, 285.7930181158979, 303.7555269618116, 251.86547844742066, 227.4513278998274, 337.6225648509372, 295.37639561849517, 261.4517823260687, 322.6616333095129, 280.25238955880513, 179.51673574917132, 240.25420316163283, 272.23940028138276, 273.3063235829728, 269.57724236254194, 266.56549765294903, 224.74230459692575, 265.29447457805446, 287.11860185756774, 292.01122397837344, 332.4058912801671, 210.85490341763477, 328.65778113316827, 336.10313920959584]</t>
+  </si>
+  <si>
+    <t>[-150.31057422 -284.05638172  427.03152503 -497.07037908 -500.
+  434.53058892  419.41178398   96.6068228   400.56513076  232.12964389
+   16.6484057   -78.37674428  255.14903311  260.12968708  245.61477
+  -96.00131708  416.81662421 -270.28205386 -115.79666019 -500.
+ -346.42535702    8.28605652 -309.79644014  -81.47910235  172.15386944
+  448.70516346 -259.90910872  258.74242832  435.87243215 -139.2056214 ]</t>
+  </si>
+  <si>
+    <t>[337.4435935767436, 271.16854003818395, 253.69320321463402, 295.82214289367494, 225.42906592133158, 286.4972819238588, 348.62794991670654, 317.5395340421299, 240.52799627482383, 130.7486299798512, 257.2285243374213, 322.1213513332172, 265.56426266699174, 299.0461395771467, 303.06517455063687, 265.8854260280614, 200.56696347372028, 205.0642165536673, 217.5679104651669, 293.81369689499707, 220.1153306767689, 319.63697580392494, 272.1976312424747, 248.60579696464401, 276.75643765793484, 322.1422637031976, 266.78828144330333, 265.47153928910797, 337.1458679807256, 247.7199247292505]</t>
+  </si>
+  <si>
+    <t>[ 139.84246957  197.10209905  423.5446489  -319.89540198  430.3293844
+ -268.73315862 -273.65750465  401.70125609   50.7948433   198.55096219
+ -334.54779573  161.69701149  447.95923045 -499.16736742 -131.26955788
+  401.07393839  369.76427845 -130.70471907 -152.06582942  -85.60587452
+  439.26795158  162.04057145  370.32873682 -263.25742562 -499.22626951
+  -12.86051713  211.13790478 -300.71999159  404.91525898  375.42732608]</t>
+  </si>
+  <si>
+    <t>[313.1611396915528, 138.67960848938932, 233.98102372613815, 303.0811573687264, 214.48292445818103, 314.3401668673751, 289.20790501178215, 246.412900151341, 199.34969101094163, 230.8191872048619, 288.9058557058037, 329.16936282049636, 276.5474434050488, 262.5587582826711, 242.6647404840997, 294.06762241211794, 354.23187895803636, 201.1669961316596, 235.55370824946473, 233.1257857582459, 319.20423867428434, 274.1681163729093, 267.97773934436333, 240.54499986032317, 355.3604123276729, 161.4441425882036, 271.40351754913354, 361.2004824147452, 229.36199293586242, 316.6572989502312]</t>
+  </si>
+  <si>
+    <t>[ 421.72340299  412.13815178 -315.76362328  401.01900326   -7.39512982
+ -139.49389953  104.96303032 -500.         -314.60964859  184.31587867
+  422.46014501  378.05771127 -326.20105421  393.91624331  209.98681746
+  -38.63169787  500.          227.33080918  418.18351633 -292.55874902
+ -300.47014238 -469.78357849  412.82575923  203.0579502   -20.30199827
+  428.57673142   11.3995898   195.19022094 -270.35089991  195.98282605]</t>
+  </si>
+  <si>
+    <t>[189.3465627136679, 299.96789254776394, 247.26275357099394, 334.51138753616755, 249.50476109257363, 166.12001568816754, 256.12169116268785, 321.73503326870457, 261.18627031378287, 285.7726710699558, 292.1352443783428, 175.4728759709108, 214.64075877834733, 293.9087268595352, 249.9132730106752, 285.37705394409807, 274.8108515265339, 266.8784880993323, 244.955910411525, 281.5770587742425, 334.3721450031623, 291.07764150252564, 241.5393072151723, 322.3273085588079, 266.5019023463906, 333.97697835830434, 286.9681726118778, 302.78391951051634, 282.12509947799487, 124.63010196377317]</t>
+  </si>
+  <si>
+    <t>[-307.11864333 -317.38056924  191.18291484  413.95028919 -312.25724619
+  413.3778518   192.11023018 -300.40725178  218.90380239  422.94273512
+ -290.98689581  410.39567368  225.67290675  436.47166296 -326.59565218
+ -294.81274948  369.00879034  393.84586164  209.88611807  394.10177951
+ -308.40364187  376.21642945  102.0637431   -97.19546636   55.07765813
+  -37.00471084 -287.30075556  448.64224308  -49.88762418 -108.09743327]</t>
+  </si>
+  <si>
+    <t>[309.71345054852736, 328.88221125611926, 286.18534028022094, 335.9606811954304, 259.4255416627078, 298.06804359506435, 167.19980383442706, 251.10578025325242, 309.19810353120323, 249.53664434992407, 298.81267399595987, 292.6116658836411, 284.03339851492245, 280.720318710025, 247.386107311208, 309.3666001904079, 255.40498271281226, 361.4052490237187, 301.779234797132, 365.4074615349817, 261.55050449642494, 217.0828252536078, 270.16690803115245, 328.66550586341486, 257.9309136951962, 244.4042759180125, 299.3704745082789, 233.87222552474714, 241.1617234317857, 231.49207375512927]</t>
+  </si>
+  <si>
+    <t>[ 197.00706083   58.45734616 -280.91133454  420.25926427  -61.31836646
+  434.41128846 -500.          205.10255628  398.00504067 -296.5835058
+   57.55201289  409.48832137  -78.8694255   233.89193361  482.86390782
+  236.77155872 -481.68933967 -342.07310011  -35.84725261  172.0529529
+   48.07475388   66.0765849  -292.48562543  -48.14302937  286.41160313
+  -48.08792979  405.89567135 -334.23774398 -293.02680851 -500.        ]</t>
+  </si>
+  <si>
+    <t>[225.14563539257466, 324.7794095714648, 196.3440465661909, 226.27783409415954, 221.1539626153506, 259.1970068221242, 254.5920139733352, 242.2866754364508, 309.72917152640986, 252.1816960416234, 178.36493136006902, 303.4611025993926, 173.78173209335856, 270.0318718635918, 298.2056192275886, 263.73886660988495, 357.84048900522777, 227.30469366627304, 215.09068945033, 263.6863259461375, 244.6957333604315, 293.68844923357256, 400.75445186637916, 197.62733396593651, 269.8645221662172, 306.29723638452015, 288.06635701368964, 305.1004254079198, 300.04939890289364, 374.59523718606386]</t>
+  </si>
+  <si>
+    <t>[-256.64910284  441.39983921  440.98984212   47.27532561  389.95034148
+  400.14427834 -494.1044759   385.99563474 -104.41710008  256.73730223
+ -232.26755622  378.18428443  -14.87229914  424.68389941  398.2064748
+  398.00385068 -274.79651322 -120.74499307  470.8509462   202.94674075
+  -86.25832249  140.43810009  224.80460961  381.61916515 -318.35805642
+  403.05986694  419.69007136 -439.72610741 -254.22903573 -135.44550513]</t>
+  </si>
+  <si>
+    <t>[279.08375431561456, 233.90522155884446, 281.76989427568805, 211.77057993248303, 272.45256413204544, 227.8091746245344, 292.66711692984734, 307.5491002069578, 250.29558822066454, 236.85893952026083, 210.6588154552921, 299.59801294878133, 267.72474303673533, 300.6440046289957, 339.62548281652334, 282.65473825946555, 260.05593345808654, 230.77749427459221, 302.3116171058864, 254.58363406386727, 262.87212123451917, 242.24472770350744, 349.9448259179645, 309.95489281260217, 227.13860092963486, 359.4478479162162, 238.9753217297271, 310.65251876863096, 302.11282802526176, 294.37735470267046]</t>
+  </si>
+  <si>
+    <t>[ 428.50870532  408.39650478  403.49278743  192.3114361   456.96460682
+  394.4861485   217.4238832  -130.45332458 -465.50911873  419.07664376
+ -115.34683539  426.14846138   27.28326354 -279.64872809  203.46009462
+ -315.75853452 -312.54738913 -127.32904831  413.93431933  164.55013718
+ -278.95055993  -26.88481218  426.4670183   403.82340579    1.40968857
+ -285.55897699  393.30002951 -284.06835736 -316.35486744  395.99102073]</t>
+  </si>
+  <si>
+    <t>[304.3758006723528, 342.8378875133233, 276.8185731545581, 331.9078274677256, 305.69344277285603, 230.34784966166728, 246.01696070186276, 275.11292853414716, 253.73129295755868, 281.39879874429664, 146.80765650639935, 149.7686958140878, 280.75278056769037, 245.97660808714804, 244.35386266816866, 255.21080878815943, 309.22306102580643, 349.5351682691227, 273.15281868578745, 231.03731074516642, 245.24341758016175, 284.4227185571895, 310.357814780973, 244.96821268410127, 260.5012887993987, 298.6607849730543, 346.15010569808766, 334.01281409327675, 308.6183646875666, 250.28406514158823]</t>
+  </si>
+  <si>
+    <t>[ 331.57240555  450.70108725  420.81576299  181.35174599  410.74598078
+ -278.50398499  388.29694564  191.64582647  422.37494314 -127.83850736
+ -291.40195943 -135.96554365 -299.53888308  428.1935379   175.49692884
+  386.56897971 -221.21206021  430.06243019 -250.44971645  246.96334422
+  418.24727851 -491.61977722  208.3568548   403.78411836   19.68651352
+  397.38657042  440.10989733  -55.82906414  407.27681488  438.81966428]</t>
+  </si>
+  <si>
+    <t>[317.6856921805862, 210.37172017391347, 301.3693721895617, 277.90034497573333, 255.4812744265706, 212.31598641580615, 259.6834402686448, 297.59314442678345, 314.08755848303764, 248.0416842087452, 276.03514964292475, 356.2621503936202, 345.3068489012443, 246.85376461879613, 277.08505822270655, 331.31623201029873, 289.0449528482006, 225.59604867556266, 229.72124901883691, 258.4685571214846, 358.83708592220967, 363.43170042565185, 289.8776935079778, 328.609742554158, 220.6734020644617, 190.21580737187563, 267.8691563295877, 312.5648268637566, 274.2889819462776, 288.49355516900005]</t>
+  </si>
+  <si>
+    <t>[ 205.74704592  419.1608736    54.20775995 -317.33447188  -49.81764758
+  377.0502741   405.9514928  -285.53716613  442.64910044  406.59074641
+  411.89529741  391.78407306 -256.38888178  431.30847841  409.24169999
+  458.95158906 -126.78770949 -297.6373288  -147.60778876  -35.07227958
+  444.32322263 -322.54644229  181.31399209  423.67373784  197.05801128
+  408.54509876 -304.8832055  -147.56891817 -314.78208978  445.94284343]</t>
+  </si>
+  <si>
+    <t>[315.9733553416925, 349.05523818104984, 250.90777793436027, 349.62652090553763, 243.62410189896715, 310.1392303685775, 318.8577194015024, 300.73460547608846, 313.9566202318331, 341.1768347280649, 374.39719748296363, 249.43075991164216, 334.1831759844819, 324.0929907381441, 351.90760770556767, 350.1083948097919, 297.673289283252, 203.77916669010273, 240.94300523520045, 311.5740407669112, 313.5071940740448, 343.4491005831285, 309.21288000943264, 287.0117702506522, 269.6299296321682, 295.80384450597955, 345.1032309528744, 312.2800766414163, 327.23344296624975, 295.02996390675025]</t>
   </si>
   <si>
     <t>f3</t>
   </si>
   <si>
-    <t>[-290.86816383  -46.22978203 -465.57991926 -112.02131117 -109.78393037
-  -40.17914806 -351.54810802  177.66719878  -82.93266115  184.35482652
-  245.87797587   11.10015691  -70.03138288   97.05752436  -43.51430787
- -110.40761589 -292.25359972  156.74499939 -231.30872482    7.73057039
-   38.54795317  273.16344643    5.43021158   62.09720387  118.04950456
-  215.11301767  205.35174567  177.87415301   91.40520478   24.69402422]</t>
-  </si>
-  <si>
-    <t>[180.5901087975385, 224.9490718378565, 318.29394509869445, 194.40347990616573, 187.12512394736336, 159.95608904376357, 196.68785546562663, 184.25156214344992, 169.13621012268237, 120.35025364782403, 119.65356254679854, 122.1453552508776, 157.34613830558823, 295.9283129412438, 285.9553263174784, 108.1125707529355, 210.19218845963388, 168.3591412094355, 164.60864748588295, 226.03427652469802, 114.3744194372722, 211.03391984187428, 168.07945822311117, 186.52841174654898, 221.54438150645666, 112.77989437583638, 205.9072524945267, 136.78775966246872, 171.99004849325814, 210.3882775247457]</t>
-  </si>
-  <si>
-    <t>[  -1.51938055    0.27280732  -45.05521238  -78.55391787 -138.84612434
-   37.46562307   82.44569556   67.41868735   19.5177391    -2.453079
-   -6.33703104  -70.04720079   30.95547986 -111.91992142    1.54290281
-  -11.91105117 -113.64564308 -187.05642386   11.93387031  -16.55754279
-   91.12792014  -36.54378898   83.37888826   -6.70806748  -16.98389654
-  -98.45339544   27.49852857   43.98402876   36.64495861  140.07071819]</t>
-  </si>
-  <si>
-    <t>[102.26226272098555, 96.96758630214372, 123.91436691398502, 104.52687216958782, 141.50574185970075, 124.31841488569698, 72.82827723921801, 99.18266461902587, 88.78715544330701, 91.67766422209323, 102.43249063975318, 113.43601425706882, 86.6395528074308, 95.43496669707616, 58.86648255953184, 165.5721771354333, 155.1398789889067, 186.27903709799546, 114.22710129231899, 171.11640051247642, 87.30511469395226, 89.96590413126916, 68.94213702256638, 76.63872428566316, 160.3589562223203, 174.50058722250677, 62.66735334899675, 138.5426965148605, 75.0333765137336, 67.48085317930057]</t>
-  </si>
-  <si>
-    <t>[-44.24107482  56.8177182    7.99885334 -16.1589708  -22.89254069
-   7.71158    -37.14512475  -0.40739782   4.57004182  18.83051089
-  -1.03187273  14.32900496  29.93173457  -0.60473234  -0.65128531
-  95.60199343  -0.49940494 -96.0275858   11.80672831  53.77249863
-  -2.80611466  66.35143055  70.12223282  68.76675358  -8.1297411
-   0.15623619  37.72062085  -4.85637324 -10.88193207   3.89186457]</t>
-  </si>
-  <si>
-    <t>[43.377432766936856, 126.85932667673187, 41.87676463820201, 90.07536748797887, 50.00372487965811, 56.09590662033197, 69.63013130186079, 58.857484658825186, 113.8667732400642, 84.19026419883498, 40.96440830608727, 65.91059169864974, 82.23736757320155, 121.61046919963871, 72.20430628271507, 36.21175894543003, 59.86866921411933, 88.78575415536645, 50.67247541353167, 60.78734689109806, 46.40343221043183, 69.84965422117827, 121.46829726207551, 71.43298307112654, 43.93862988934143, 67.72713419176455, 55.36185088581276, 48.8265372869812, 78.49298006145011, 66.02234560722995]</t>
-  </si>
-  <si>
-    <t>[-2.18493280e-01 -8.97614218e-02 -7.02177776e-01  1.22571200e-01
-  1.34465019e+00  4.39516376e+00 -5.65459336e+00  3.14065240e-01
- -2.28327318e+00 -2.31401824e+00 -8.20078826e-01 -1.34225080e+00
- -3.43094625e+00 -9.74004620e-01  5.67103694e+00 -1.94924994e+00
- -1.22175006e+00  4.44886658e+00 -8.82286479e+00 -2.15949853e+00
- -4.81697374e-01 -8.96877240e-02  3.40502971e-03 -1.12760637e-01
- -4.83827352e-01  1.04566642e+00  9.66485739e-01 -1.64021756e+01
- -3.08404562e-01  1.53597278e-01]</t>
-  </si>
-  <si>
-    <t>[9.138351761565994, 9.479560664223742, 7.416654882525552, 8.85313849737903, 15.550890043093174, 9.772563595844561, 4.262681256988673, 5.318982954658341, 10.755554233889779, 9.794203107947958, 4.840664885497089, 12.703175555628318, 7.986487292933838, 14.833499983104527, 8.1482241019282, 8.683453181340466, 7.827150082747508, 10.930239972841665, 6.679213642628895, 6.308745998755959, 6.487114551193235, 4.115739790721988, 13.568197998563813, 16.939331606862527, 12.929885395820445, 8.40401974184482, 7.319981220040053, 15.88673506792208, 9.14167030052098, 6.091035163528547]</t>
-  </si>
-  <si>
-    <t>[-2.48118557e-04 -1.07053763e-04  1.98053035e-03  1.20853832e-02
-  5.96544850e-03  7.68231519e-03  3.51917670e-05 -2.25902794e-04
- -2.19617305e-02 -7.82699635e-02  1.02929162e-02 -9.26610320e-05
-  1.14513127e-03 -3.59674444e-03 -3.11416072e-02  7.29106480e-03
- -1.81234560e-05  1.03320283e-02 -4.61576866e-03 -2.58726304e-03
- -5.04390160e-06  3.52548674e-05  3.03848455e-04 -8.69705749e-03
-  4.80971840e-04 -6.58890122e-06 -3.90135489e-07 -3.89295618e-03
-  6.81467810e-03 -3.82282594e-03]</t>
-  </si>
-  <si>
-    <t>[1.2380710396827812, 3.1620204832035244, 6.50895363160214, 0.33518995874742513, 0.3188929732461376, 1.0303488557208609, 1.3322459258692039, 0.64124307999054, 1.2960426146315323, 1.694900773755424, 0.7910003744133162, 1.228802534178691, 1.9856514984304248, 0.7589835623541513, 0.9318416881424147, 1.0418148416025912, 0.539066971028738, 1.231141933723438, 1.1160033528747313, 0.9399683395767529, 2.431414996186876, 2.277983405847834, 0.8404734615234281, 2.198226681342269, 1.1971255907877594, 3.2749614205451225, 0.5703912241272576, 1.9609111780193191, 3.0010418905502596, 1.5380540056751963]</t>
-  </si>
-  <si>
-    <t>[ -33.50739621  108.07267698   47.76787793 -124.59203626   28.889397
- -430.98243054   87.50231018   12.49339085  -70.33951588   53.0811053
- -286.89201578  -43.26391411   13.47073937  -22.44368166    4.10217666
-   56.04139681 -133.02114898  -91.28354145 -321.91452854  166.45758687
- -277.32153066  151.6779469   176.61670972   58.74205062 -228.34500759
-   -6.91697085   22.90063934  -30.93115918  171.50595466 -105.24486974]</t>
-  </si>
-  <si>
-    <t>[173.1209101659834, 119.61783647065018, 156.53924511474136, 268.40886222786736, 222.90192701050051, 201.4255774763816, 210.1209095368732, 172.04800577728903, 161.02047959789914, 227.09793401081134, 157.03058271137044, 189.2607417834949, 93.15122719715143, 220.97564976042207, 244.5741756047485, 145.9060800780685, 215.86941711103594, 216.0742007339895, 253.89816372113938, 154.82424012995813, 229.4535154214931, 82.0466845903996, 169.6250431349343, 133.80671849306293, 166.02334173037465, 155.11788684547292, 214.1196057697981, 237.6095066679335, 216.090201025532, 160.3240045860818]</t>
-  </si>
-  <si>
-    <t>[ 1.20353608e+02  2.46157362e+01 -1.51559112e+01  2.20504449e+01
-  6.10318721e+01 -3.28911269e+01  8.01695692e+00  3.52279670e+01
-  1.52667942e+02  5.86819932e+01 -6.51585674e+01 -5.84391403e+01
- -1.44283602e+02 -8.25284000e+00  1.51604744e+01 -1.02399462e+01
- -2.85032131e+01  4.20098224e+01  1.39946474e+02  2.91510428e+01
-  2.77637207e+01  5.56922778e+00  8.80180312e+01 -6.01581296e+01
-  5.01061967e+01 -2.59139157e+01  7.13548259e+01 -2.44021816e+01
-  1.97394206e+01  2.63008427e-02]</t>
-  </si>
-  <si>
-    <t>[132.69753985770907, 130.75653945388675, 88.16763726631827, 133.79684559154057, 77.68186986993413, 150.99490357014042, 69.8942400609944, 118.15958102645473, 89.63898422561248, 162.2475564521985, 81.66344661355564, 75.9883739828967, 110.59790940524181, 149.60692317265006, 83.33117586240624, 108.205169164851, 49.52124501908172, 123.75926722797576, 129.06297932777846, 142.89056177030687, 82.70110182636624, 100.00341223876161, 135.38604094522987, 61.384439924810394, 122.55441773147433, 69.23203071380583, 119.74869226686367, 75.56224671887159, 73.73234380222185, 72.89715727380727]</t>
-  </si>
-  <si>
-    <t>[-44.70558499  -8.39363965   0.2063701  -36.36180113   2.08202016
-  12.18483617  -9.68301864   3.12879605  -4.80238538 -22.53489127
-  25.36593334 -22.09577396  -1.31535576   2.63061567  10.77663253
-   5.1487089   -8.46210651  28.28493982 -30.73820634   0.61538767
-   8.37094265  -1.64548282   0.2893855   23.74610163   5.58339065
-  10.14739247 -22.14573117 -70.28517859   1.42893431   0.56780577]</t>
-  </si>
-  <si>
-    <t>[37.26374148019063, 49.016557922449, 16.72738846849805, 42.1864051658609, 39.610590842162665, 46.17661224616178, 37.793456963854474, 35.18484843815467, 45.4507762377223, 39.258970164737605, 25.466990961350724, 14.025157072828609, 22.71767745328301, 26.79145358988549, 37.03735531720349, 38.31299405999457, 36.204577494145695, 33.73856354807969, 26.839472088764733, 30.4018045725676, 40.40356404435637, 22.027604199004255, 31.105827419378627, 16.824542979340727, 50.64540180385245, 58.756503413553204, 30.890552308922885, 39.224992100909716, 19.42817144684336, 43.94202019689204]</t>
-  </si>
-  <si>
-    <t>[ 2.19352523 -0.13123776  0.54604087  1.04617311 -2.80090844 -0.11410019
- -0.70647819 -1.32361906 -0.83064814 -0.1023868   0.31288372  0.00693881
-  3.0852931   4.85934686 -4.40420927  0.38210648 -0.93654558  1.11547363
-  0.70279527  0.22793831 -1.50960516  3.0219066   1.69929788  0.02474045
- -0.06596755 -1.28648353  3.51259601 -1.79244137  1.09668848  0.92843999]</t>
-  </si>
-  <si>
-    <t>[2.8818726217658717, 7.587967450729635, 11.338563683040004, 10.070872721938638, 2.1356447938096177, 5.034541461078929, 3.568121461371254, 4.649333334565854, 1.9985732788937962, 3.8924297743191714, 3.143155819449966, 3.617884749618879, 7.543303124818077, 5.884602354625815, 4.812389280491611, 2.1884946583167313, 6.5204006110974655, 5.3874744078391155, 2.6177792451189372, 2.0249220241444297, 4.966558064488059, 5.812585324404064, 6.703682246789443, 5.9513212044441826, 9.082284949281116, 4.773181240074504, 2.116845945804855, 6.151954441876348, 3.254110383409779, 1.5499070294250328]</t>
-  </si>
-  <si>
-    <t>[-6.49509369e-02 -9.15973069e-04 -1.59575509e-03  1.80424312e-03
- -4.16333247e-04  1.60550025e-02 -5.13828826e-04 -1.74360410e-02
- -5.84164727e-04 -4.94573783e-03 -1.39933738e-04  2.96166487e-03
- -3.33233597e-02 -1.62739697e-03  1.89013931e-02 -6.86600293e-02
-  6.13605935e-04 -2.35156171e-04 -4.23570040e-04  8.32797859e-05
-  6.51613498e-03  3.03141214e-02  4.42529903e-03 -1.92325439e-04
-  4.35394432e-02 -2.42209001e-02  2.96171195e-02  3.33571654e-02
- -3.29843484e-02  1.47934120e-02]</t>
-  </si>
-  <si>
-    <t>[1.194156534570503, 2.4124101604836437, 5.540515139025497, 0.47715945588551867, 0.2862961904576134, 0.5643541196555992, 0.6823742603708752, 1.2256647804708531, 0.40051682528644605, 0.08014104588397546, 0.48789752929252156, 0.44822246445850955, 0.6479367300559875, 0.4661901770945202, 0.6232451821099516, 0.7851487101727862, 0.9966615889948834, 1.2556047402459154, 0.4700403824095699, 0.2157278979257046, 0.7794382757159415, 1.00818913658696, 0.3347570484952155, 0.19033219847975513, 0.3238222554224184, 0.3959439782906497, 0.5018488972092863, 0.32650679044270536, 1.296342431971369, 0.5132296748795435]</t>
-  </si>
-  <si>
-    <t>[ 226.76120682 -132.09493237 -127.24436182  -41.7161072   -80.84162778
-  -62.11783197  -49.59146324   79.58471001 -169.53275983 -200.69536666
- -229.10566865 -175.5556403  -145.14225264   -4.21222768   69.26639924
- -111.09381583 -190.77132063  213.00569202  151.16421466  -48.31349566
-  -41.16593932  140.7030083    86.4153121  -103.8289477   147.83195871
-  181.7878435  -156.09674439   45.30852481   24.28822059  255.16003718]</t>
-  </si>
-  <si>
-    <t>[124.01809435158691, 100.0945857907468, 245.54554247891238, 142.186553835249, 72.41197573412315, 121.24372538991449, 205.60832671438325, 152.23627943654085, 174.43360553187412, 145.24387458463448, 180.0745301794481, 89.82574815899846, 103.94107995127894, 131.0898598135609, 148.5380407715493, 205.85213286145915, 165.93735969584228, 142.4233144574027, 227.92411793018934, 95.70840283882012, 221.52185007584356, 152.29515916613275, 104.86529193749192, 159.73044324279945, 177.28356151673577, 122.06500700278063, 247.772816456815, 107.67245380895598, 107.76617137380391, 138.15375688741855]</t>
-  </si>
-  <si>
-    <t>[   1.39212937   -5.42516071 -137.45639806   -4.36222453  -24.72208208
-  150.05525905    6.53182542   12.49059547  -51.5686008    39.66257508
-  137.44833583  -81.18337613  -44.67248644   17.1199451    -2.96171155
-  -13.03120341   19.79452478  -51.83586726   13.35401577   47.7196558
-  -86.46915296    3.64419535   -5.45049804  -86.21609786   58.01975667
-  -71.73300133    1.36733397   25.39231136   82.93412745    1.07251444]</t>
-  </si>
-  <si>
-    <t>[62.45875560916106, 85.45274971999793, 128.30726879209055, 80.31321358866252, 87.30767798389266, 92.12440346322599, 63.032553611018855, 88.02796540768918, 64.38659401878965, 82.3391002481537, 99.06969172958851, 99.94895092171768, 90.06591023070439, 84.63277697731566, 79.05165152022288, 53.046953882687205, 74.96058559873613, 104.33166917176983, 76.26142498877489, 128.46151553328085, 69.20780064692313, 129.69110085416392, 102.82640860546353, 73.93187837295164, 99.70414859993426, 48.024322515032836, 92.52177247114894, 76.97637436192352, 137.57047177780763, 103.65535487224214]</t>
-  </si>
-  <si>
-    <t>[ 2.41591160e+00  3.15333547e+01  1.34624223e+01 -2.85717816e+01
-  1.95205223e-02  1.36135522e+01 -6.90641385e+00 -1.12486099e+01
-  1.04671905e+00 -7.32694140e+00 -1.63149652e+01  1.68834176e+01
-  2.74916046e+01  2.59175534e+00  2.44859382e+00  4.36500061e+00
- -1.88844295e+01  7.16316779e+00  5.31115779e+00  2.25081409e+00
-  8.59344151e-01 -6.00433466e-01 -2.16338128e+01 -4.93457489e+00
-  1.96216590e+00  7.60340175e+00 -4.41616343e-01  1.33188671e+01
- -8.11090027e+00 -1.64152100e+01]</t>
-  </si>
-  <si>
-    <t>[29.450293053445836, 18.473574935823045, 19.315038617279512, 13.502785748363504, 22.564028828084137, 35.40630004476309, 20.93753485334617, 33.608504349891035, 30.68344106506165, 35.10002207078306, 35.669076185412166, 30.584770947599917, 45.3626260964358, 26.791440903034022, 37.73937855091814, 37.950626815900826, 35.35852068914565, 20.141779143234096, 42.03175536732443, 18.026807449589853, 44.8666077814783, 19.804126501319278, 23.773582810684907, 52.3656937487336, 28.124341617467095, 51.175014564503876, 38.07069379246694, 44.64041156091198, 36.94944692132343, 15.285988358165413]</t>
-  </si>
-  <si>
-    <t>[-5.74779329e-04  2.28896880e-02  3.64754602e-02 -7.16051684e-01
- -9.81369718e-01  4.85429299e-01 -4.22298901e-01  7.45254961e-02
-  2.00485730e+00 -2.45002578e+00 -5.54950346e-01 -1.54855531e+00
- -1.22728134e+00 -1.12745348e+00 -5.54288271e+00 -1.90624638e+00
- -2.80614746e-01  8.17167425e-01 -1.87424305e+00  3.07576954e+00
-  6.01298375e-01  7.73179692e-02 -2.92423299e-01  2.26599675e+00
-  9.45406785e-02  1.13522098e-01  2.46690323e+00 -2.50306813e-01
-  3.52100968e-01 -9.51605693e-02]</t>
-  </si>
-  <si>
-    <t>[16.03211132540377, 10.769451300361645, 16.17126799941288, 9.119960764849267, 12.73395366443004, 8.923197510334019, 8.413478643518777, 12.615050304819682, 9.035359179944697, 9.50037402628287, 3.234684463214483, 10.612631004307577, 11.376204739043887, 12.858693994718436, 11.975117615075527, 7.690311195064304, 9.34565133218822, 5.319159477414712, 13.780839508935863, 9.892304536912645, 14.115295875644591, 9.615825555907394, 7.128805156934339, 9.553756005020848, 16.4961338684716, 4.931271207000929, 11.106632234602671, 7.280884554736827, 6.542100047836109, 9.691904313022846]</t>
-  </si>
-  <si>
-    <t>[-7.34232138e-03 -4.78850997e-05 -6.64088478e-04 -6.53212302e-05
- -3.75145683e-03  5.53333489e-03 -9.25402260e-03  9.65421442e-04
-  5.08038254e-03 -9.26002041e-03  9.18120843e-03  2.26627793e-02
- -3.88402003e-03 -5.56313601e-03 -8.21678648e-03  7.50278346e-03
-  4.16753938e-03 -1.52986918e-03  1.18979351e-02 -9.97832950e-03
-  5.44283042e-03  2.04793226e-03 -1.24842981e-02 -2.36793303e-03
- -1.97142316e-03 -4.93446277e-03  2.01697430e-03  1.04836487e-02
- -9.02730593e-03 -1.30353858e-02]</t>
-  </si>
-  <si>
-    <t>[1.2071556141569086, 3.1253321667419947, 5.571746255959629, 0.4796037922320815, 1.2173170886162765, 1.0276513208843372, 1.9570595081680162, 2.497871962601551, 1.8740416227130416, 1.4694770081079374, 0.49850315124283073, 1.986536160471988, 0.5109870145752899, 1.4499467056553228, 0.3404222089468824, 2.110018587901382, 1.6069147910118584, 0.8816909318999022, 1.7120518607695907, 1.6238895056263807, 0.8738508886693157, 0.3463159013136909, 0.30829186548192083, 0.8388359478309165, 1.2773645013606918, 0.4809587467237416, 1.346711459460671, 1.744392966244962, 2.5991707389931413, 1.391596723345846]</t>
-  </si>
-  <si>
-    <t>[ -76.77669722   42.41084828 -161.89722744   68.42077474 -155.80603768
-   76.16932485   87.85729603   85.97673246   91.41789624  191.96736352
-  -41.89598749  -37.41189836   75.50548544  -80.40769813    8.57061101
-   27.45188667  127.38525612 -196.57602467 -236.50629234  194.04274887
-  104.75741919   89.90033058 -119.33506701 -291.13621316  -24.56529452
-   51.66192411 -281.56909811   83.4166034   105.54936267  -73.38080304]</t>
-  </si>
-  <si>
-    <t>[103.31023413806645, 126.50698542572462, 177.61657246388836, 168.2702147313036, 125.21419444699232, 89.96697878414565, 99.63229378559193, 213.91905704319464, 121.1484349019946, 167.5637312292689, 99.13637921100897, 110.571508407324, 137.4384967646651, 112.7028655586759, 105.74672510403552, 107.51748455138542, 199.15669881694018, 118.03019858971179, 151.8511289885133, 157.73020353200656, 118.38935693141903, 131.94593404099072, 165.48424757346035, 108.86152096053515, 198.6788114296434, 160.63023540804429, 145.51666174413128, 93.23930939009665, 193.86580353910497, 154.69181425330788]</t>
-  </si>
-  <si>
-    <t>[  14.20234205   31.06235141    3.38537296 -153.69110366   30.64522335
-   65.77723752   -6.41935235   71.94881876  -33.44054593  -54.82752773
-    6.6882799    40.44843086  -35.61634265  -89.4173793    19.1395274
-  -71.78574491  -69.58857518   85.57118797   93.35963579   37.17807052
-  -29.1379912   105.60094663   35.70560133  104.15628066   75.40513348
-   67.77621316   80.60747668  -38.09153141   18.32456881   -6.34560872]</t>
-  </si>
-  <si>
-    <t>[63.30571757748001, 80.95287549446901, 79.8002183975321, 69.429731871905, 91.16670001782238, 36.25235113145298, 71.44168517451996, 79.51139946891072, 59.08546001644415, 67.25631420164608, 91.3499912633216, 102.654297008512, 95.48098124930145, 139.42884627869526, 58.358428185277546, 92.69278828356894, 102.4980281325193, 75.31366830475065, 83.71643631213783, 41.19912277559318, 84.76205541910365, 114.88138167695169, 101.76323012660758, 85.65818938186392, 47.987866040084704, 86.89964474426843, 62.953375631616645, 81.17512363350274, 70.47578854154281, 55.41446281993522]</t>
-  </si>
-  <si>
-    <t>[ -4.17336377 -19.05550254  -3.12666403   6.0407737    0.73961316
-  22.26938658 -14.18320665   3.21062548  -9.00668955  -4.87466874
-  -4.48396249   2.83459625  21.30128996   4.0633672   -1.25011394
- -20.0561794    7.19694737  19.92933361   0.80743144 -12.5598768
-   1.01965293 -13.49102631   0.06970669 -14.04559575  25.1039142
-   9.87200121 -16.07373189 -23.13184569  -0.74931881   6.34247024]</t>
-  </si>
-  <si>
-    <t>[19.333946706737745, 39.200217481616434, 40.14775675285392, 16.497040807857005, 24.62727852797021, 18.531627539818857, 8.42875794939122, 55.27037502484934, 20.636654090159098, 17.273443522946653, 12.267493898214001, 24.789131541440064, 22.242287894031037, 16.26788443516524, 23.43103106068606, 50.492195336432, 59.4921207731384, 43.57692532859223, 47.78991979783792, 18.468871220787165, 20.42784833822464, 23.29201449114415, 45.55514096198681, 37.64677017566909, 45.07468309873858, 21.48640472145881, 22.23737974745972, 31.094272265562026, 24.834191978287553, 15.961976273911489]</t>
-  </si>
-  <si>
-    <t>[ 7.49605241e-02 -1.29788224e-02 -2.40873350e-02 -2.02079611e-01
-  6.03232096e-01  1.09371331e-03 -3.72796276e-02 -6.08876256e-01
-  3.40030763e-02 -7.01807350e-01 -9.29434392e-01  1.58776982e-01
- -1.18678262e+00  3.12272870e-01  8.85883607e-01 -1.79763762e-01
- -2.27077525e-01  1.47065789e+00  7.24140837e-01  1.85006239e+00
-  7.51074297e-01  4.00998495e-01  1.92486547e+00 -1.15709053e+00
-  6.57812256e-01  1.06944356e+00  4.41926129e-01  7.13952954e-02
- -1.25489657e+00  6.46248478e-02]</t>
-  </si>
-  <si>
-    <t>[5.793067805228502, 7.690267548075054, 7.31822701249537, 0.42042242701915217, 3.4202357769460314, 6.4429695523043025, 2.256305620889769, 2.327917748622218, 4.9756491274958226, 2.893949809639198, 5.850243384048821, 3.7442446969880185, 5.34752383769536, 11.580565765586282, 7.411091783970758, 5.639002855734768, 3.0574146598695275, 8.522290971076774, 3.998967253555732, 13.31852174134381, 2.0409997217161493, 5.922894200495519, 2.105296850573823, 6.891294315167821, 6.359379581256418, 4.409548296787246, 2.16677645420659, 1.986256381410963, 1.7653367164275124, 2.8167487427830387]</t>
-  </si>
-  <si>
-    <t>[ 4.95238530e-03  8.76116001e-05  4.75722517e-04  3.86410234e-04
- -1.33701643e-04  8.94285914e-04 -3.72949424e-03  2.90157364e-04
- -6.40672664e-05  1.07774550e-04  1.17956508e-04  3.02889153e-03
-  9.02988935e-04  1.30191349e-03  4.65956068e-07  9.53531446e-04
- -5.14632364e-03  1.72630172e-03  1.47678723e-03 -1.54443330e-03
- -1.58457617e-03  6.69332357e-04  1.95070988e-03 -3.16371984e-04
- -5.26807321e-04  1.27164342e-04  5.94981498e-03  4.08531679e-03
- -2.82082244e-04  2.69817325e-03]</t>
-  </si>
-  <si>
-    <t>[2.827553691689186, 4.833008030997895, 5.022469466616943, 0.13403849846382998, 0.5145078446496668, 0.6554529974477827, 0.9863035893013569, 1.2292592492476098, 0.48842990591861074, 1.199840731126014, 1.1234314237140937, 0.6819615220936368, 0.5372816222899336, 0.33896130866637564, 1.206036643915628, 1.3181422504963156, 0.8605434431512596, 1.7909428565224383, 1.8570651902508228, 0.6635835089760608, 0.9908087423173044, 0.2299254074120345, 1.315883114908156, 1.204324430381851, 1.188304138440274, 0.20245520595541666, 1.2419790421001928, 1.7964534237782266, 0.7878490676808125, 1.8039905059139367]</t>
+    <t>[ -35.85796202 -197.46535858  -58.28595333  309.19526954  194.95496177
+  -21.20433023 -167.41482731  -64.76775862 -151.17601301  196.2051952
+   86.10698906  329.22997658  -90.35639219   69.68383371  -17.9602426
+    2.56445504  -41.14802787 -477.43755004   -7.60055644    7.60004453
+  -10.79524224 -114.60444127 -148.78717264   26.72957258    4.4294329
+  -32.91194268   22.034508   -411.57200771  146.64639742   13.60833009]</t>
+  </si>
+  <si>
+    <t>[203.9984060869791, 186.20495177368966, 200.91987061238538, 194.49068326418896, 263.68200262443264, 189.60846031671738, 167.01262876919893, 241.95690649388717, 97.64073480768405, 246.45044353254093, 183.3857075132707, 195.6110693567394, 205.84408723086534, 202.89278316439808, 208.93839211880174, 131.49949317401897, 111.21534857945038, 274.26601433812345, 166.2504416990461, 262.31877281894833, 228.22038355727486, 140.79438980761566, 144.74943773675477, 120.46413205046659, 135.13969449785415, 244.67444665593604, 102.12915174711574, 287.1429884503486, 271.9710142421958, 134.95997310172064]</t>
+  </si>
+  <si>
+    <t>[-155.77679882 -127.26114609   53.99244644   77.88078937  -83.06638234
+  -12.04627787   66.58617336  -58.56369486    4.32947332  188.46712597
+ -108.45875131  -79.11070662   85.63619405  -47.63629687   11.32049737
+   18.84445158  110.58556611  -79.57671474  -29.13980397   91.04915515
+  -46.42728676   45.25713385   -1.84010274   -1.46032419   94.53430427
+   39.09265479  -34.36248486  -22.65452012   -1.51075142 -160.24159396]</t>
+  </si>
+  <si>
+    <t>[182.69181539267933, 109.2048196862432, 116.75065813138076, 109.07008582450356, 130.60943074648225, 78.84035360941064, 116.34606791324391, 151.11063524441923, 110.20543140777748, 172.4661444353559, 71.69365636600764, 126.15178833263573, 155.99517217879432, 74.10361785958334, 98.10853830714727, 118.46983143474719, 92.80259297515553, 72.6955220113078, 122.55902804645649, 99.13003214302447, 116.95633319299334, 158.25697370939008, 188.21110635461258, 104.88574966972391, 53.75935718361748, 66.87556699787987, 99.63419440950113, 131.57372266367076, 151.89495505424557, 198.67042095719955]</t>
+  </si>
+  <si>
+    <t>[-18.50535094  79.68413023  33.97290492   0.28470737  -7.76438149
+  16.69509609  -1.92990531  47.38307046  35.71495398  37.39704769
+ -46.76264139 -40.19185315 -26.23294743  13.3048105  -42.03327515
+ -57.67080923  93.70802295  13.41623434  40.14005251  -7.94254266
+ -19.01912424   0.46210012   8.05783357  37.4778971   13.36583758
+  23.73836521  -3.85248487  11.45766927 -16.35378577 -27.0777353 ]</t>
+  </si>
+  <si>
+    <t>[60.72359211155552, 66.70947244760902, 65.18778761026938, 51.970354712325076, 77.83145259614065, 54.28979352277396, 56.50186768998956, 69.67445556966165, 59.95872615540534, 73.5809615112093, 69.48111487982577, 43.76034553091516, 55.98525938946638, 31.440847538460314, 104.60700847527183, 69.5845672619102, 117.22252479197965, 32.37285977892024, 83.42386747315028, 32.94733491544837, 64.70655059392297, 68.7242411449885, 47.862623506932394, 52.416190697116605, 71.7415134533185, 83.6840385322603, 81.11420352598938, 42.80219398025578, 51.139210053660754, 31.967851098840566]</t>
+  </si>
+  <si>
+    <t>[ 0.13703202 -0.0833771   0.0940486   1.02602466  3.42564263  2.51557468
+ -2.89213708 -0.08390951  2.69955023  0.51158611  2.68041876 -0.04784074
+ -1.97398182 12.89030834  3.75555386 -0.0226765   0.1415317   1.11926996
+ -1.29875663 -1.01962659  0.10072524 -2.6135251  10.10354077 -4.12400971
+ -0.14213179 -0.42006478 -4.78680739  0.01351827  2.71373673 -0.49597247]</t>
+  </si>
+  <si>
+    <t>[49.51673323074702, 18.047749156610408, 43.255587443713566, 15.775142247212935, 7.526801773801015, 9.968233955251296, 17.95015941959857, 22.059520610700318, 21.995587545597672, 37.352231681065284, 27.628999797398485, 8.001298555507637, 18.6126257568566, 17.630766436021922, 14.320520180413421, 44.70848948916105, 19.719012801566212, 22.216897215128608, 55.30685090804686, 12.236161392333287, 9.089293330644317, 9.965912924385828, 9.106871405322899, 15.755545447572374, 16.353341600485145, 21.809247338788534, 41.75583984542126, 30.000916937162753, 5.1493521427841165, 18.436819798584803]</t>
+  </si>
+  <si>
+    <t>[ 5.41490807e-03  5.72271092e-05 -3.75212480e-04  1.38740026e-03
+  5.45984492e-04  1.20832635e-02  2.69194894e-02  8.90518730e-02
+  4.01900194e-02  8.75090694e-02  2.02649166e-02  1.37983137e-05
+ -2.07383304e-02 -1.39835508e-04 -7.35070179e-02  7.88869413e-03
+  4.64250532e-04 -1.31671268e-01 -2.07808638e-02  8.10002497e-03
+  5.09981716e-02  1.24982176e-02  1.12055436e-02 -5.65676349e-03
+  8.07429243e-05  3.17145178e-02 -3.82670933e-02  9.80959742e-03
+ -2.61910242e-06 -4.64905919e-02]</t>
+  </si>
+  <si>
+    <t>[1.01346456186799, 3.9582065064694656, 3.6033224230601215, 1.5216195105827104, 0.7425857741090133, 0.5635062009888797, 3.1362066826658275, 0.8275966197506016, 1.9772113499459494, 1.498637562558938, 0.9880043462554673, 2.404599964404004, 1.69280858403849, 1.0734126091072516, 0.6945287353668161, 1.4932618337633343, 1.8510480478202636, 2.6046839054113042, 1.431307873654688, 1.170673247349217, 1.9289346026222365, 1.2436116249907168, 0.6426501240032726, 1.6520820174860735, 1.519882883138633, 1.0414900150042086, 1.367755311663285, 1.2815473418694086, 2.1118325126342246, 0.8135053569273584]</t>
+  </si>
+  <si>
+    <t>[  80.96304226  136.96856947  -69.79512915 -236.44827904 -136.58130113
+   15.34564623  -20.35990575   14.21740869  -18.00721449  -58.14310746
+    2.36520165   97.46054594 -300.59941696   -8.77433371 -165.93689811
+ -145.28510805  148.97067628   66.27393562  240.19592195 -110.08601871
+ -169.48494893  -17.42841737    1.92794954  -94.02326238  251.21228868
+   -8.05526579   65.87043256  -79.37507577 -144.90309151  250.98045329]</t>
+  </si>
+  <si>
+    <t>[125.87206829921992, 230.57516678069985, 128.03494475819315, 119.83309587520195, 209.05092942296653, 152.96133596829938, 200.13777976763998, 163.4749414177322, 178.35216586930503, 175.75251232547748, 245.66779874047828, 124.74171954528163, 150.98655743688198, 134.00001768094143, 187.0544552126445, 225.2119317789336, 162.84735809966327, 190.64208776897541, 200.7708925823251, 154.98724531639596, 152.55717987377764, 209.15554778137113, 139.77301243780988, 148.2495172945358, 174.70940783945323, 105.01535529974919, 156.19063156801903, 189.4924953224546, 167.52957906944783, 201.19608129544494]</t>
+  </si>
+  <si>
+    <t>[ -16.82271555  -16.58391861   89.36396297 -131.9512674     5.72080896
+   12.73945633  -33.09154593   23.56426378 -229.12972545  -55.99700957
+ -149.4493445   -71.12549554   -5.73646535   32.67030713  145.44354736
+  -62.73722907  131.60599544   15.24922514    6.06822935  -35.30151752
+   59.7689554    94.62576007   34.71953442   20.65894875   -1.72944035
+   23.41108939  107.6364607    -3.34357815  -29.55430316   53.92324991]</t>
+  </si>
+  <si>
+    <t>[53.17563588859634, 148.9585291186688, 127.54472385325035, 100.34798615797146, 84.15403223320223, 89.96322101395354, 126.78953927667125, 85.97048500006227, 117.23759173565227, 110.06304538539617, 98.85077459536726, 133.44234666126528, 116.05976094095794, 112.04327282640081, 62.22863873611036, 95.22900196985927, 72.24164400254716, 72.35932002025294, 78.32131747673041, 51.92112028936099, 100.46939583526455, 108.18108374436264, 127.74350610366419, 135.24014313307447, 162.89613224276903, 104.38320474940208, 152.30335897825785, 78.0655784762173, 73.6708989649604, 72.31632304356015]</t>
+  </si>
+  <si>
+    <t>[ -0.15137107   9.65141737  -0.22594441 -11.25894637  -0.3145554
+ -28.69877779  31.16661395  -7.40557847 -32.81893422  -0.18204481
+   0.93717947   6.21937515   4.70815142  44.19228808   3.27726762
+  -4.5580677    3.22323082  18.89225003  11.6858057  -42.70590088
+  -9.9114312    5.90014635   7.47424968  -3.48369862 -20.28529443
+  15.42440694 -15.83873766 -17.35046993  -3.94101633  14.14604483]</t>
+  </si>
+  <si>
+    <t>[29.729465684362438, 30.804549922822815, 45.87201395273855, 15.945070268407848, 45.25999539571142, 30.30243101142395, 32.791791477248644, 30.205227605375974, 50.55463986684045, 34.924137770217584, 39.479931261687575, 24.773971986780882, 33.445559761328575, 25.620045977756767, 33.04528987432551, 32.95988003200127, 28.211679564655043, 27.00780292533336, 27.161193543289922, 43.852776131713775, 23.55535098978476, 37.68789007738578, 19.86825622685994, 34.735073537045686, 34.37068687752201, 38.97177583124994, 28.485326259881482, 22.2942591492375, 27.97333604749811, 24.71698872333083]</t>
+  </si>
+  <si>
+    <t>[-1.21915191e+00  3.11707323e-01  2.72005564e-02  9.42763541e-01
+  4.64736694e+00 -3.73797530e+00 -6.24241406e-01  3.94682040e+00
+ -5.37929886e-03  3.06892055e+00 -5.82776111e-01  1.20283955e+00
+ -1.09259466e+00 -1.65724313e+00  3.42637867e+00  2.90097328e+00
+  3.38880995e+00 -8.24500954e-02 -3.67392422e+00 -3.44833186e+00
+  2.91166964e-01 -1.13311221e+00 -2.04092925e-01 -4.05227686e+00
+ -6.65754000e+00 -1.17531804e+00 -5.15973472e-02 -9.21175588e-01
+ -2.55555666e+00  1.36460320e+00]</t>
+  </si>
+  <si>
+    <t>[10.588592852410043, 27.072640129001375, 18.648486762690737, 15.143018387981556, 3.8561217422863914, 20.72370506680594, 18.430178601781154, 12.411740227536365, 6.8669137861908585, 10.752097178788004, 8.450454595845647, 8.572198014191708, 11.503938193081991, 5.630739313090624, 12.19489035508459, 6.833140169345288, 16.035038499583134, 16.414210412594077, 28.972174102221786, 3.5869960097276636, 6.275364387408019, 13.982937681324785, 10.082122780811773, 7.85305402250087, 9.153732224916446, 11.196896860354354, 32.961029255681595, 12.885398674062124, 13.600503095784635, 5.659283435692041]</t>
+  </si>
+  <si>
+    <t>[-2.12415013e-02  6.13010097e-05  3.05031582e-04  1.34214832e-03
+ -2.36318163e-03  9.32291526e-04 -8.00300534e-04 -1.45192296e-02
+ -7.07826781e-04 -2.52047224e-03 -3.76703126e-04 -3.26272838e-03
+ -1.92676950e-03  6.84594435e-05  6.24305151e-03 -1.23972512e-02
+ -1.89186267e-02  4.78556130e-04 -1.52282176e-02 -7.28609784e-03
+  1.49191285e-05  2.75127828e-03 -5.31600060e-03  1.20954214e-03
+  3.52006128e-03  3.11716501e-03 -6.89620379e-04 -9.65722767e-03
+ -5.72485878e-04  1.88453323e-04]</t>
+  </si>
+  <si>
+    <t>[2.9619033004750843, 5.306057269567341, 7.580412365923674, 7.231820933381569, 1.0286988150579262, 1.4682976581372387, 5.485240625840107, 2.1407313173429805, 4.039818519573291, 4.726983159495083, 3.3177305954129697, 2.500419372542962, 1.6959750463102772, 1.2769825946225, 3.420495015391759, 3.709320638278163, 4.08739896190997, 1.2344170282811455, 0.6515632072528338, 2.3309613974510515, 0.9065627110900961, 2.7676941906114516, 2.541072679368777, 0.7717530514571407, 3.9440151006713466, 3.639369617681513, 3.4697247730116483, 4.918213279854829, 4.41751063923706, 2.6297557931915923]</t>
+  </si>
+  <si>
+    <t>[-1.29342805e+02 -9.06316002e+01  2.06030480e+01  1.13932850e-01
+  3.12934246e+02  1.69979841e+02 -5.83925636e+01  2.71670497e+02
+  1.03283168e+02  7.50659241e+01 -6.91931525e+01  1.49267982e+02
+  7.44269720e+00  1.59965981e+01 -4.87824013e+01  8.48824550e+00
+  1.85414264e+02  6.72330885e+01 -1.50184929e+02 -1.69149192e+02
+  6.59908615e+01 -1.52335070e+02 -2.37170351e+02 -1.78041550e+00
+  2.11758697e+02 -1.65670985e+02 -1.24054602e+02 -4.12071568e+01
+ -1.18570648e+01  3.07551306e+01]</t>
+  </si>
+  <si>
+    <t>[256.5505113696684, 121.91142155645109, 203.66229619328584, 146.40051828674234, 167.2467024027719, 180.69034438603083, 90.23421515396838, 146.50264350482036, 128.57624371715124, 86.459864772037, 149.83300827094573, 119.80462771881363, 168.4990300098781, 89.44666252043602, 119.24169543027537, 149.56975772592338, 180.64379209139275, 197.09861827871597, 253.97464627844815, 91.99856314126, 127.24596981238393, 170.3339709392548, 167.10900056031088, 178.8948389421141, 173.6009733858813, 110.94251821473209, 170.87633754753574, 212.24208622272673, 78.02753631987488, 205.3716590924375]</t>
+  </si>
+  <si>
+    <t>[  17.81746883   64.31197273    0.64258746   17.76972274   14.47631933
+  -24.64114971   -0.76288932  -18.7224132    24.51313108  116.17251176
+  -68.36134033   -0.30800564   23.0199897   -19.38182606   71.62102109
+   34.46869021 -123.45501486   16.89881572   -8.40360031    7.82727169
+   70.00907406  -69.77782496  -80.62241522  -20.84046132  -18.23315213
+   37.51178767    7.68083638   58.40459988  -55.36244664  153.61008038]</t>
+  </si>
+  <si>
+    <t>[75.11876895161095, 122.43192744930087, 67.80171284719572, 75.85383585070008, 79.70069420956577, 105.71059083125391, 81.48906515433556, 83.46667270045025, 79.33211351214662, 83.4607647350732, 85.13759105923532, 118.94378285017433, 104.97669864334323, 60.53216042204789, 84.58435609442799, 108.80184285176335, 86.25561111360265, 64.7294023481413, 39.13092572683107, 106.3292720584141, 128.82971575989635, 110.50065437068466, 92.53602224115978, 101.2043103224766, 114.48293606522743, 119.72193930302929, 88.02560886405189, 89.83681387969996, 90.69507385549446, 74.72723382908868]</t>
+  </si>
+  <si>
+    <t>[-1.88089898e+01 -2.99204169e-01  2.19318903e+01 -1.64868515e-01
+  5.10962019e+00 -1.45697482e+01 -5.32972411e+00  1.02385190e-02
+  2.64283373e+01 -1.49269002e+01  1.32302860e+01  2.54637952e+00
+  1.05517147e+01 -8.54863842e-02  9.65489688e+00  5.66741477e+00
+  3.11207063e+01 -2.61306954e+01  2.31429042e+01  3.66528414e+00
+ -1.78015377e-01 -6.91712170e+00  1.86007979e+01  1.80914186e+01
+  2.81427202e+01  8.72637697e+00 -4.94225783e-01  1.26140709e+00
+ -2.63045407e+01 -1.02584502e+01]</t>
+  </si>
+  <si>
+    <t>[16.749012336576964, 37.576109149610865, 30.488290653158778, 20.538804934642222, 19.307219100449988, 8.684088385191837, 14.834740899922284, 22.508435766864068, 22.329572044428495, 21.119223212489228, 24.263358926617748, 14.767504749741384, 25.686083682810043, 21.562706597582697, 14.759719696244572, 19.56726255070438, 31.96749856392915, 27.88911952626599, 27.202682346056683, 17.805247583698808, 13.162414050595798, 18.945048297809972, 29.59859776102962, 21.18282607492388, 24.37327627324116, 10.407808981040487, 27.417871296106863, 19.33662688864627, 20.920528343867048, 22.98155834867916]</t>
+  </si>
+  <si>
+    <t>[-3.91027879e-01  1.21653275e-02  3.62279356e-01 -4.17572807e-01
+ -9.44746438e-01 -9.33145702e-02  5.09347196e-02 -3.88827050e-01
+ -3.11835999e+00 -2.02652396e+00 -1.86678417e+00 -5.00115285e-01
+  2.39711910e+00 -3.64354054e+00 -2.46515527e-01  1.72455641e+00
+  2.05057677e+00  1.44666455e-03  2.39783219e-01  2.51780799e-01
+ -1.62729704e-01  4.40108470e-01  6.79951090e-01 -1.84256395e+00
+  3.87841476e-02 -2.40351113e-05 -8.58391425e-01  4.50199542e-01
+  1.66107784e+00 -6.82286986e-01]</t>
+  </si>
+  <si>
+    <t>[4.9005810734164745, 7.010090469875066, 9.58474319299612, 11.042222657751251, 2.822353823989705, 3.1520533787698546, 20.101642386134586, 6.0550774013843505, 8.078745437343139, 11.304403144528472, 14.181411485936028, 6.385766868455993, 2.43292508051709, 2.5397203043504883, 8.671956935416535, 6.799407600831575, 3.2372524082394425, 7.977542298142292, 4.860456641870055, 7.275486887710156, 10.207013410969896, 7.2275045576085954, 4.848812905216241, 3.583938112056787, 7.064304714968193, 18.234491948633462, 9.862461225403361, 10.969311852215517, 10.998584229715597, 3.7482348664776777]</t>
+  </si>
+  <si>
+    <t>[ 1.47150064e-02  1.83162543e-04  8.41015781e-04 -1.20499164e-03
+ -6.79865673e-03 -1.29160131e-03  1.93799204e-03 -4.68605327e-03
+  4.02920178e-03 -3.16013361e-03 -7.41097292e-05  6.49633678e-03
+  6.40627558e-04  5.56660230e-04  8.75972326e-03 -9.13573341e-03
+ -2.73749899e-03 -8.48392663e-03 -1.46079247e-03  5.60701772e-03
+ -1.12590173e-02 -5.96458366e-03  1.72035760e-03  1.22946300e-03
+ -1.99189012e-03  3.85529843e-03 -1.91051417e-03  1.14894608e-02
+  7.44426044e-04 -1.54156300e-03]</t>
+  </si>
+  <si>
+    <t>[2.1610122632253383, 4.828713371545952, 5.788444963731667, 8.081136112159294, 0.9677180968889982, 0.4844541253829715, 1.4833417987606616, 1.1990222259284862, 5.934868993567883, 0.6847144467469117, 3.7077885192857085, 2.893277214462799, 5.346293015844005, 3.8338072588954675, 1.7990354537832922, 1.0924619948981706, 1.7823430098279356, 0.6573538549102191, 0.45912582535028984, 1.8753738618786138, 3.9074115806377367, 2.877086718313686, 1.4306607162220581, 5.995404353331251, 2.236156682987295, 1.8375266208156222, 1.078430319455136, 2.7190504116826513, 2.571684427265298, 0.38633449909009077]</t>
+  </si>
+  <si>
+    <t>[ 219.48647564 -224.77881188  -51.74744629  214.93102944 -191.7954201
+ -285.34783084  -63.65179966  -54.83952896 -140.57916714  143.20323878
+  173.95289125    4.77700732  -72.54698111  -37.48745353  -52.89393307
+  -34.86169012  238.10790107   76.2487088   -38.40123766  -18.58843388
+  103.66090031   20.62564819  236.49739306  161.0794835    29.65643944
+   -8.86336656  -24.61835345  184.54044377   14.72333575  133.77829529]</t>
+  </si>
+  <si>
+    <t>[140.64978537253876, 141.56470614071802, 148.05468069373364, 198.77496179917918, 205.16418832382968, 166.34720049025833, 164.73981647556894, 185.49097051236896, 138.07044664525577, 166.01368126192793, 164.09369052031187, 136.75939745047265, 150.10991152094624, 128.16887403425048, 105.8286502904982, 132.58110595902895, 139.1931551009095, 166.1733889538456, 191.80010335028217, 123.83902121498836, 170.19715070668212, 146.6458686144007, 165.80324992364876, 141.56023110889467, 177.03406545475906, 188.70107747669115, 133.95429389444013, 148.2945759020531, 182.68294807522534, 141.3638293659696]</t>
+  </si>
+  <si>
+    <t>[ -11.4691102    75.94498643  -32.42377054   53.75037913    6.01435264
+   45.71468102   12.07945893   -5.56161153  -14.31906834   -2.397029
+   26.07064827   35.21303769  -84.52049667  -27.71188729   75.27405407
+ -144.79137029  -56.86746315   26.67435515    1.58868919  -48.03397252
+  -16.07432327  -93.07690837   21.32340825  -91.57572449   69.82369001
+  -75.04552501  -64.50308116   21.67079288   42.57283321  -30.09459251]</t>
+  </si>
+  <si>
+    <t>[75.501072394578, 98.04102897797098, 70.72586853296981, 100.85648641581584, 89.21117382882245, 55.69265006173974, 83.68802696809725, 72.59273609295195, 100.04413522952024, 68.4281070513852, 61.44343802788069, 85.82085849801283, 91.24572472869578, 96.33649597838439, 121.9027652203912, 77.56283098281648, 76.15807813995687, 129.24567661982118, 55.04861715957141, 51.50084771199963, 89.69957610802936, 76.49126300289933, 75.15154501783023, 72.37008263586003, 75.63289640239479, 72.6578081030945, 84.79947732837483, 119.81598910374919, 80.05304496936978, 104.79001340049345]</t>
+  </si>
+  <si>
+    <t>[-18.38992822  -0.30215517  -2.55190714   0.91973493   8.79799079
+   1.6846721    2.72910374  17.67971204 -19.7488728   13.15609488
+ -23.66547663  -1.22516015  10.69420452   6.37043928  -6.20756807
+   2.87799665 -14.9582664    5.78527228  21.73695878  19.92955997
+ -24.62216314   2.58205164  -2.43111404  -3.88758699  23.60607351
+   1.75722271 -13.60029952   0.33516935  19.41235927  -6.51579689]</t>
+  </si>
+  <si>
+    <t>[35.83604745197061, 36.16999448163349, 31.850499284627567, 41.43897024005392, 63.6886039205878, 41.08805224861523, 53.89213919743879, 35.60298392812207, 28.33584099093099, 71.96003636830964, 32.214229053265, 34.55269926785865, 59.9641626032992, 80.79192839573912, 47.16563609862372, 62.18228495607501, 22.21667630100379, 20.11008414025869, 30.586389831603555, 42.19708459566492, 50.49555649883904, 62.287921692018, 56.08098675614789, 35.72556759396395, 35.82305347816523, 44.548145079341964, 38.7292035878774, 36.80274985669839, 34.03602875792338, 34.06571707721411]</t>
+  </si>
+  <si>
+    <t>[-0.28776484 -0.02466209  0.04582364  0.45067544 -0.02652254  0.26538394
+ -0.39362112  0.28598942  1.18834832 -0.22655206  0.12962069 -1.348042
+  0.46864173 -0.7134846   0.00647204 -0.01546681 -0.20459203 -0.28593677
+  0.17971957 -1.65908613  0.08794147  0.08891007 -1.81949109  1.26039482
+ -0.53825051 -0.48876388  0.41258095 -0.00705265 -2.42473945  0.35048545]</t>
+  </si>
+  <si>
+    <t>[1.3354648455238154, 2.8651005800377063, 8.761194188008217, 0.3360706201274525, 0.6097258052838963, 1.126960305757702, 1.8280949821757528, 1.7435344581576588, 0.521146949760491, 1.975866891315352, 0.7154143644561618, 1.7305844189820299, 1.333137437426954, 1.6297108755982208, 2.399610463426959, 0.9477974380093438, 1.2706418387585763, 1.588452212138796, 1.9809044202709025, 1.5553973040780813, 1.592212950460318, 2.0903725717081336, 0.9324688118756713, 1.7068302765043708, 1.3034440336792898, 1.6649757818367126, 1.5238713189865114, 2.5221078502260177, 1.733574544258344, 1.512222902833608]</t>
+  </si>
+  <si>
+    <t>[-2.60924807e-04  2.02996023e-05 -8.92173190e-06  6.46428142e-05
+ -5.76887945e-04 -1.66980859e-05 -3.54882307e-05 -3.92630823e-04
+ -3.69451617e-06  2.28400174e-03 -8.40697303e-04 -1.45445148e-03
+ -1.07325877e-04  1.31841340e-03  1.46562086e-03  1.24486823e-04
+  1.36834693e-03  8.72567929e-04 -1.40323298e-03 -1.61175560e-04
+  1.66541921e-03  5.11403898e-05 -1.20913145e-04 -1.02679363e-03
+ -7.42088109e-04  1.64392236e-03 -1.74925309e-04 -1.79207462e-03
+  3.86966323e-04  3.05259657e-04]</t>
+  </si>
+  <si>
+    <t>[1.8439592741745217, 2.0835188856015305, 4.974925474517664, 0.13137388426376237, 0.5018623309379007, 0.5895737166245844, 0.642471907989529, 0.7654473806451887, 0.837618597643954, 0.7038960016659116, 1.5133846131279851, 1.0869327617833169, 1.2727369388906007, 0.6911399421890015, 0.3646056835881881, 1.1254283452576483, 1.2139889709422107, 1.6235171236390238, 1.0782462161925561, 1.4610414565044216, 1.343597694078402, 1.2726527288907872, 1.3659592299743313, 1.3077563171991569, 1.3760168642878772, 1.064404972456068, 1.0858309679578264, 0.6212900299103238, 1.9157668398460543, 1.084249489242666]</t>
   </si>
   <si>
     <t>f4</t>
   </si>
   <si>
-    <t>[ 1.76993536  6.54639582  3.40379847 28.9253676  -2.05373726 -0.95453976
- -5.3182524  15.1993242  29.07197449 -2.44204703  4.50667523  6.08950656
-  1.99385036 -6.68624457 14.1985061  14.07799483 -5.66675272 -5.23423679
- -8.6822963  -8.58688821  6.07090705  0.25519962  1.17661948  1.28811311
-  2.60233108  0.55993664 -4.88975128 -0.03957747  1.59886736 -6.97947501]</t>
-  </si>
-  <si>
-    <t>[10.730162628354364, 14.492647171175188, 10.93751020497267, 14.316546994160673, 13.039997153822826, 15.82382673502496, 10.782109097981856, 13.788575849009169, 12.501206075244696, 8.220965027111752, 5.318968891614971, 10.45953692319988, 11.756865517475852, 17.707747236990862, 12.312005751117463, 10.257781783166624, 13.355257391531511, 14.903482010015242, 12.556885321611244, 13.506613476773662, 7.008895685877122, 11.314963729643777, 13.038413443412, 12.242734417184208, 10.418706551474807, 15.952263377404796, 17.921669868122535, 12.845353948791033, 14.78484584609593, 19.06675649642929]</t>
-  </si>
-  <si>
-    <t>[-1.90159698  6.9812809  -2.6551359  -0.72549434 -0.94707719  2.52471997
- -6.368389    5.79811828  0.41520106 -3.09717777  4.73756723  2.59541183
- -0.49908978 -4.48401359 -2.29981385  5.32946014 -0.85232048  1.28580988
- -0.57256315 -0.70956404 -0.68709216 -1.86000989 -2.13181234  5.84548028
- -1.38991166 -9.1286701  -0.79881576  0.54498551  1.92221959  3.38876376]</t>
-  </si>
-  <si>
-    <t>[8.905909067368633, 8.014792360234521, 14.80813398124039, 12.154197911806023, 9.066556417120893, 7.079878839310409, 6.066773056265683, 14.493189104313688, 13.998041141447695, 9.141883928257242, 13.060301047105659, 11.165501961684013, 6.937438690200817, 15.05627930910166, 11.457553063582996, 13.406168772238546, 10.191293926642139, 13.295176600067768, 12.376757318599909, 13.670206486290605, 13.697344921924644, 13.37772908539254, 9.15013825674023, 11.822149538097555, 6.707141100494453, 8.887682655423813, 7.364369848142428, 10.755796790366214, 16.90698604230188, 10.012119584247634]</t>
-  </si>
-  <si>
-    <t>[ 2.80222778e-03  7.00573400e+00 -3.51537115e+00 -2.98701263e+00
- -4.87732827e+00  2.01882185e-01  2.68453539e-01  2.93785696e+00
-  1.50988770e+00  1.51313146e+00 -1.95484409e+00  2.81395378e-01
-  6.18105498e-02  5.84987139e-01 -1.81574304e+00  4.53926969e-01
-  2.27504336e+00 -2.20671588e+00 -8.31191067e-01  8.26071998e-01
-  5.41351756e-01 -1.49578186e-01  1.13555492e+00  4.16316271e-02
- -9.17058496e-01  1.90419507e-02  1.39736825e-02  5.57283393e-01
- -1.31625706e+00 -1.98522680e+00]</t>
-  </si>
-  <si>
-    <t>[10.216206734817368, 12.006497827449872, 14.3054762480911, 9.353733851967295, 15.025133578610413, 15.251500783128638, 10.248466153224006, 11.312432706994036, 8.582656775827893, 10.324669570974207, 10.255264476485657, 7.058502835609432, 14.494664408720377, 10.52787050479094, 12.505963488736928, 9.52121691482344, 7.265177758274802, 15.238997265017298, 6.106886891020557, 13.374633391543227, 13.971520705739453, 11.78446889372185, 16.074625605763472, 8.154036336164515, 8.894962703256827, 13.748862127601065, 11.572758669610165, 14.728967452507598, 11.658854297301396, 12.679632588934187]</t>
-  </si>
-  <si>
-    <t>[ 2.27851175e-02 -3.25390543e-02 -1.58239321e+00 -4.93442557e-03
- -6.84725368e-02  1.73825095e-02  9.66849353e-02 -3.22977493e-04
-  2.52767702e-01  1.90105009e-04  9.35694918e-05  1.75415191e-01
-  9.24013305e-01  3.66516165e-02 -6.06755680e-04  8.20940183e-05
-  5.80545561e-03  3.25724130e-02  3.12456897e-02  5.57587438e-02
- -1.13224466e-01  3.64757681e-02  1.76045174e-03  3.89879488e-02
-  7.81879984e-03 -6.29978544e-03 -4.65017032e-02 -8.29049632e-02
- -2.27032940e-04  1.04170050e+00]</t>
-  </si>
-  <si>
-    <t>[10.4234239176358, 8.9187932635497, 6.251201771595993, 11.595597598550693, 9.586773350930594, 5.703148834166534, 9.960995714589716, 10.21121647921805, 9.538420161012224, 9.669675917478045, 10.495987217049825, 10.306181600053376, 3.090423007569018, 9.44277956260963, 10.361192284565474, 8.677414873347995, 11.903725896054471, 1.5195721737401433, 5.0316097160316104, 9.691215900051775, 7.571969896394646, 9.97763195392045, 14.316638622368139, 10.458701554019193, 9.24834406556596, 9.818592533683441, 5.326379378434818, 12.443470191284712, 11.641701635413984, 12.462353543328634]</t>
-  </si>
-  <si>
-    <t>[-1.01244697e-05  5.70899586e-03  1.89791883e-02 -8.20271766e-04
-  1.31499653e-03 -2.17210220e-03 -4.11315655e-07  4.46141630e-03
-  8.09745261e-05 -3.51035112e-03  3.29824296e-04 -1.73074730e-03
-  1.73782773e-02 -4.82371058e-03  1.22921168e-03 -4.03010561e-03
- -3.72078872e-03 -2.40564653e-04 -3.25776757e-04 -4.06816210e-04
- -8.02769634e-07 -7.97819134e-03 -2.42753750e-06  6.26146795e-04
- -1.71680024e-04 -4.05544884e-05  1.01689345e-03 -8.79086183e-05
-  8.88876078e-04  1.82737953e-03]</t>
-  </si>
-  <si>
-    <t>[0.34644659610362655, 0.5106138108672713, 0.5033678849751042, 0.21333978516147764, 0.5368803401856934, 0.039813114332133456, 0.3507522094182088, 0.051883071942567235, 0.2097813803362294, 0.02800315462349504, 0.39228256771505526, 0.0106008960456166, 0.4666484003292566, 0.5780373515965519, 0.0367455271850598, 0.6554942323211596, 0.6877351459629748, 0.293616274225307, 0.38532977977592203, 0.3367249462184306, 0.057487106874321584, 0.24193270791328647, 0.45763397032237607, 0.2017081692941757, 0.4498354917149228, 0.48902177778913364, 0.5508699303149085, 0.027255345094361897, 0.36976046496551923, 0.07263620045817462]</t>
-  </si>
-  <si>
-    <t>[ -1.91320385   8.24946735   6.09921909   1.8855343   -2.87112836
- -11.66550933   0.08389274   9.34441713   2.82584627  -4.59221748
-  -4.7190948   11.87305882  -8.37235114 -11.30726652  -4.02587683
-  24.07635938  -3.22884366  -1.86139044   2.39300633   0.94441584
-  16.65701228  -5.12293452  -7.01073026   4.43001156   8.62554785
-  -1.86176854  -9.56851447  -7.36711921  -4.13489755   6.72589342]</t>
-  </si>
-  <si>
-    <t>[11.846941505524514, 13.756136967155845, 10.213926012719684, 13.110524204802106, 14.950152217514807, 7.691893314006359, 9.97543365988278, 13.274126520766858, 13.281743382244015, 12.874754963796315, 9.465637239963783, 13.407945252053759, 13.050257627065534, 8.349371921724158, 8.713078248452826, 13.982825703815143, 16.274119150105346, 10.054758230552936, 12.164747780944733, 8.268403902042497, 12.979956007094675, 11.842322058490216, 12.957565059080231, 12.510001618505518, 12.02794224191757, 13.155790648698035, 12.78331454995656, 15.602494623995321, 11.609806020570772, 14.114275554228639]</t>
-  </si>
-  <si>
-    <t>[  3.01654025  -1.50323213   0.66035496   8.15106248   8.92243362
-   0.50681997  -7.40982301 -10.37432154   0.03909087   4.25573429
-   3.70231404  -6.38800321  -5.23290298  -5.67082766   1.20029475
-   0.49640653  -1.0412334    5.44611386   1.12847531   7.78464504
- -10.99056542   1.04901264  -2.10663723  -5.97379113   4.36802747
-   0.56587741   1.72916488  -3.10068954   3.98778581  -5.9952873 ]</t>
-  </si>
-  <si>
-    <t>[12.818094786430544, 12.466352829682403, 9.750224787329067, 6.8797813837121415, 7.0268135072204245, 9.483282300399894, 5.482798613625672, 9.969985062541586, 10.741360308622339, 5.936518982152665, 11.836476731436466, 9.662866949128155, 11.775702891282007, 11.547202312162918, 9.030823024585045, 10.122146289311738, 9.730140293211733, 6.610737364233248, 5.380300704888721, 8.494291740283979, 11.628999155206998, 7.637937582049277, 5.868827167708367, 13.27717994562636, 11.026195748289993, 8.78740629913154, 10.481943791229558, 7.290303290489439, 5.367453286332157, 9.252109080553982]</t>
-  </si>
-  <si>
-    <t>[-0.97730016 -0.05903843  0.3055172  -6.0363422  -1.04938037  0.82262604
-  0.07295278 -0.05351362  2.43196353  1.49764678  0.87760931  0.3574508
- -0.94485108 -1.9506305  -0.247562    1.13639738 -1.12449349  0.2449395
- -0.37107119 -0.49783526  2.09895293 -0.94561491  3.96450879  0.41922992
- -0.53199266  0.30717141  1.09927953  0.0747212   0.05577113 -1.67032884]</t>
-  </si>
-  <si>
-    <t>[17.429204467093857, 13.225244224032735, 9.721102536200144, 12.204700084507254, 8.908309680943894, 6.624453048331571, 10.78738687823584, 14.139466773096617, 14.287035644076129, 12.474612705246033, 15.13743013412645, 16.831513380362974, 10.041243285458263, 4.4050517084023255, 13.812507914082664, 9.808835216731858, 11.694135009341649, 11.541987264534535, 17.59803832686633, 12.901408646076668, 14.82212930019744, 17.02588502743256, 11.021102804982908, 12.34163494337135, 10.673114914817644, 10.009573787190064, 8.51289897241956, 13.045888789393828, 12.971353534662121, 11.34288951248829]</t>
-  </si>
-  <si>
-    <t>[ 0.02070304 -0.22847867  0.02184074  0.72355525 -0.92584429 -0.00182552
-  0.10002086 -1.09454708 -1.03063435 -0.01291403 -0.021509   -0.05031715
-  1.69501063  0.00794392  0.99846555  0.02431455  0.84247988  0.13712966
- -0.87201267  0.00392355 -0.0158898  -0.0883155  -0.80115868  0.09793125
-  0.01162543 -1.03007626 -0.02831053  0.03797699 -0.09140406 -0.89475627]</t>
-  </si>
-  <si>
-    <t>[0.8917832700333739, 0.7701514443317963, 0.8117987290469946, 0.7018409212890468, 0.9532186095699947, 0.41798952576827253, 1.079868398147711, 0.7392875940750679, 0.8292179234011672, 0.6534892599039708, 0.8004946286286561, 0.9530973913759722, 0.8042981741407177, 0.7717652966261277, 0.9560264336979224, 0.4952039934601809, 0.603307321065004, 0.6186859666751656, 1.0913731659043966, 0.8659547171631811, 0.9432694628300127, 0.2996919967590641, 0.7465186563260136, 0.567832256705196, 0.6125605184924473, 0.35168563709243467, 0.6073498773409632, 0.6461909237296978, 0.6490778008624639, 1.0385087832950455]</t>
-  </si>
-  <si>
-    <t>[ 7.51568840e-05  4.27568577e-04  4.21245201e-04 -6.18308324e-04
-  5.02338459e-06 -5.84556080e-07 -4.31258198e-04  4.96027228e-04
- -5.05857693e-05 -1.31830762e-03  8.15457998e-04 -2.30224121e-04
-  2.97355452e-04  7.87690951e-04  7.70196370e-07  9.21495209e-07
-  1.16561326e-04  8.65469292e-04 -9.22637120e-04 -5.09406920e-05
-  1.33006546e-05 -8.53265527e-04  5.84016161e-04 -3.49099401e-06
-  2.50025630e-06 -8.00033286e-08 -7.48652899e-05  2.70554550e-04
- -2.31352676e-04 -8.76513128e-05]</t>
-  </si>
-  <si>
-    <t>[9.559898945219038, 12.79140664997108, 14.30634764132658, 9.924769878418553, 12.805828054762582, 14.061105188937216, 12.387469154359726, 12.45617366059048, 5.857606571976361, 8.661654116337859, 9.671390786412134, 9.655801121207446, 12.774911152058909, 9.869825207564224, 8.064299629664717, 9.567397853345419, 8.70724989426558, 9.548676908063378, 10.297727124225505, 10.18758672073444, 4.352464388511993, 8.860939360454688, 7.856542836360189, 10.72007992860524, 13.862924397923415, 9.5973571354216, 10.400309649553929, 12.031105326187568, 14.313663477593618, 14.310891116215197]</t>
-  </si>
-  <si>
-    <t>[  4.37830708  -3.57876161   8.3004912    0.82929637   6.04336345
-   1.04243026   0.21697453   0.85355959   4.29325605   1.98671431
-  -6.63533626  -3.45843512  -2.22912124  -5.32792673   5.29574762
-   1.29923844  -4.34998771  16.41392122   6.36376973   0.70952818
-   5.71403871  -4.22343361   3.70158977 -18.83464321   0.17239234
-   4.57354537  12.62245041 -10.71887341   3.1288872   -0.6591989 ]</t>
-  </si>
-  <si>
-    <t>[7.922573257276457, 14.130264188554618, 13.534256769744642, 10.39666881622292, 8.350692161381152, 9.522459628919574, 13.07253089519863, 8.209699518566213, 10.58184596362855, 13.027375652792939, 12.978883144115645, 10.148967588734324, 5.922639877483815, 14.781736532115003, 13.95319736176838, 12.037241591335258, 10.137031622154456, 9.278694159322317, 8.207368632536971, 8.15379946179498, 6.131618649361153, 8.256480452131257, 11.1171974006435, 13.406608133588826, 11.923905845318824, 6.636031171378835, 10.164822663231305, 12.5271623003878, 13.578237568694245, 12.954082619958825]</t>
-  </si>
-  <si>
-    <t>[ 2.77212820e+00  8.45835069e-01 -1.87125384e+00  1.34194634e+00
- -5.37623860e+00 -1.93971874e+00 -3.96494416e+00  1.69399449e-01
- -6.38789373e-03  1.43984270e+00  1.63310406e+00  2.85539573e+00
-  3.60972077e+00  3.18208510e+00 -6.63472260e+00  7.78237749e+00
- -3.93127811e+00 -3.36432136e+00 -8.57910163e-01 -1.43286495e+00
-  2.16208765e-01  1.89911243e-01 -1.25187419e-01  3.47961329e+00
-  7.80490754e+00  2.55235978e+00  4.90866081e-01  2.53781328e+00
- -4.62804386e+00 -1.44453302e+00]</t>
-  </si>
-  <si>
-    <t>[11.999138456592712, 10.790612455072292, 8.357164364227234, 14.019906750405827, 12.69584149064121, 12.637067594179099, 4.67360964040482, 5.7607752661992535, 12.760652044259327, 9.09456319439121, 11.017047708702373, 11.662138595342546, 12.743986738611731, 8.143588063823675, 8.378342691721507, 5.885934702047419, 10.199828694203443, 8.99746526797434, 10.806673302364992, 7.208795720811167, 8.147522698895434, 10.34524720917646, 9.874753120432684, 11.146201656327916, 10.112833971736434, 11.691666383887188, 3.4764621993431737, 10.153321452558314, 12.642085408920043, 4.378948362680157]</t>
-  </si>
-  <si>
-    <t>[ 0.28207554 -0.26475699 -0.06701381  0.99310833  0.00756665  0.69695596
- -2.76981914 -0.26179936 -1.12863965 -1.01664144  0.31112148 -1.08147487
-  0.08136995 -0.736006    0.36228068 -0.03206062 -0.91767486 -0.23456831
- -0.47774304  1.95190059  2.13997262 -1.09196342  0.09231297  0.8976913
-  0.69956248 -0.21482902 -0.58012803 -0.01021825 -0.09521931 -1.11435176]</t>
-  </si>
-  <si>
-    <t>[3.8365691903913044, 5.023150330107098, 4.96054470536045, 2.2723337944514173, 2.8592309211064473, 2.6300319778425294, 4.15918537774892, 2.922851431031437, 3.7823097352686927, 2.7122684148808256, 2.709897246306273, 4.964946625779124, 3.6171437030636318, 5.224178003931813, 3.37496851282171, 1.622982170029813, 5.140187019122217, 3.6876350388117682, 5.65400101467857, 5.4216563172217835, 3.516750958626884, 4.489222236371621, 3.6107847774194792, 8.813622040550671, 3.981839285161775, 3.7582182812929403, 3.3742160173413915, 3.2828942379756336, 5.139416161933019, 6.3086852770979105]</t>
-  </si>
-  <si>
-    <t>[ 8.59966776e-02  2.46789466e-02 -1.86943017e-02  1.23406038e-02
- -5.38817357e-02  6.54467015e-04  2.38300851e-02  6.00369611e-03
-  1.23121835e-01 -1.23751119e-02 -4.63450272e-03  2.31227418e-02
-  2.00064647e-02  3.79313504e-02  6.25199970e-02 -5.34414188e-02
- -9.62878497e-02 -2.09636173e-02 -1.03265161e-02 -5.33424759e-02
-  5.75723799e-02  1.07563204e-03 -5.14796308e-02  1.87359215e-02
- -6.01494060e-03 -2.25050417e-02  2.18421413e-02  8.79285895e-01
-  9.59170772e-01 -2.56102989e-02]</t>
-  </si>
-  <si>
-    <t>[0.45515712598455216, 1.4575931571073488, 1.11978631941831, 0.9448046705897468, 1.1451826697650314, 0.43701982621002, 0.834167748308021, 1.2792458321591829, 1.3770376405658211, 0.7880199354568899, 0.6026990041347724, 1.2731071142866193, 0.8321791942379976, 0.6987500413365257, 0.9247012306341738, 1.4755587004023836, 0.3826972833482054, 1.8314684164371346, 0.8979946274246836, 1.4271628187646976, 0.8293843673532758, 0.9311699186423176, 0.694380947964044, 0.6763673247196067, 0.8554445041248419, 0.9855934626355433, 0.5353902017984536, 1.068842648126775, 1.259906408334551, 1.2573275275102092]</t>
-  </si>
-  <si>
-    <t>[-5.30334077e-04 -5.01111122e-05 -5.79722677e-04  1.87629520e-04
- -2.03784747e-07 -8.60151098e-05 -3.29088865e-04  8.22465416e-05
-  2.23859354e-04  1.86390364e-04 -8.93999109e-05  3.04036590e-04
-  5.52066937e-05  1.60788878e-04  4.39160482e-04 -1.11138690e-04
-  1.39586172e-05  2.58124909e-06 -8.84308548e-05  2.05908177e-04
- -5.07788794e-05  1.66793647e-04 -2.38882564e-04  2.26475621e-06
-  6.38656070e-04 -9.45044590e-05 -2.61984880e-04 -5.63322905e-04
- -6.02947502e-04 -3.60738656e-04]</t>
-  </si>
-  <si>
-    <t>[9.600265142047988, 6.043127064399994, 3.118226150295339, 8.512493782158204, 9.598931211062828, 2.912856059506366, 9.597576036700366, 9.598822434459727, 9.572187625255607, 9.57311530569689, 0.9667204622630416, 9.601812151169158, 9.61130344378298, 8.107082586388694, 9.298619033731857, 9.637516885952573, 9.571843287496929, 9.605062320531236, 4.238267357267302, 5.458191914955047, 6.795497564205985, 1.2161227477122583, 9.601199860536417, 9.568095253192155, 9.597300826891175, 9.598779896949374, 1.1279111000645927, 1.2112680027278324, 9.601455245756426, 9.54277494110083]</t>
-  </si>
-  <si>
-    <t>[-2.87073564 10.14736215 12.11093955 -1.66110256  9.07005845 -0.40185421
- -0.2349243  -3.4404505   7.61458565  4.93461644 -3.67800106 -1.98242598
- -4.48196649 -7.20229873  2.18160075  4.24716306  6.13433075 -9.07495906
- -2.54285037 -3.36768173 -0.262793   -9.55011728 -9.07303489  3.20959068
- -5.9579987  -0.20994709  1.561552    2.40802626  2.26758356 -2.72214143]</t>
-  </si>
-  <si>
-    <t>[13.38770069781921, 12.30392173860417, 11.6699123610715, 10.619745277581298, 15.600853736644051, 12.915207031352734, 6.68866676634948, 10.490380528776232, 10.226487395329334, 12.05031752585875, 11.235747093278805, 7.575479315281081, 9.845695084403067, 10.803287454525531, 7.241002421242575, 8.557172209630235, 12.752352210221563, 10.171031804506558, 9.95548982739819, 11.33710304568094, 10.395696739803787, 7.13109062142998, 6.759532303881905, 9.236817978113065, 13.504925965803174, 8.98004848247091, 6.513359890734344, 8.521591502330068, 9.414144593803115, 11.094261849835924]</t>
-  </si>
-  <si>
-    <t>[ 6.18249036  2.47377863 -1.77059137 -0.06311848  0.24531951 -5.32220738
-  4.62887569  2.1920857   4.91596865  1.06323722 -7.10604288  3.77524891
- -2.5465918  -3.08876331 -4.27790008 -2.76350694  0.80871477 -5.15091909
-  3.67572112 -0.52568504 -0.90741574 -2.51505507  3.10249369 -2.56674258
- -5.36612459 -1.2255891  -4.60199499  3.93799861 -1.17224144 -2.7480263 ]</t>
-  </si>
-  <si>
-    <t>[5.80030158912672, 5.043365490076995, 12.001795799249882, 4.401416534712232, 4.009380631773462, 7.355835560861366, 6.04457875818472, 7.709156157275496, 10.526246457972304, 9.64607528142574, 6.587099154489908, 7.125329729243158, 6.616277025525425, 9.649478644086134, 7.698519710962643, 4.2105268030036855, 5.944105629468403, 3.807972234212976, 5.31634027625832, 5.098298183091707, 4.2929969141796125, 7.841418217880333, 4.2749559521207745, 6.6478684444280685, 11.145335676758634, 3.511301862785675, 6.381763656885768, 7.00953545414092, 5.29339927585023, 7.884496029267705]</t>
-  </si>
-  <si>
-    <t>[ 0.10650256  0.74419424 -0.96223024  0.02258464 -0.72795829 -0.06843765
- -0.96198042 -0.88813448 -0.32995831 -1.93844351 -0.05014687  0.08722005
- -0.14326378  0.02610162 -0.03861031 -0.07400428 -2.14224733 -0.04048755
- -0.44244341  0.68919176  0.08670922 -0.61579372 -2.15110506  0.07137233
-  0.0696756  -0.118044    1.91188136 -0.33480959  0.05706218  0.19089054]</t>
-  </si>
-  <si>
-    <t>[1.6912715832718517, 0.8713464523109365, 1.1835850080906947, 1.13269507928822, 1.2863045182433894, 1.6846369122403888, 1.1539661254221336, 1.7336967609320455, 1.4031545087630617, 1.236933938470522, 1.2013380101131474, 1.9515243686348254, 1.2881433758647414, 2.073826582451346, 1.1932865826984727, 1.0730954914589907, 1.5595212110551473, 0.8565420790349659, 2.5220994915464234, 1.3282913214884997, 1.8868035549535693, 1.7237364663555717, 2.001530636603244, 1.504588542809825, 2.877338432811559, 2.30862796481111, 2.8145562475053523, 1.5024164687349064, 2.543593518885641, 0.9041073940753603]</t>
-  </si>
-  <si>
-    <t>[ 0.02137603  0.0018851  -1.06983739 -0.03220718  0.00361738 -0.00477304
- -0.0936238  -0.05469782  0.07245793 -0.03087179 -0.00253648 -0.03986471
- -0.03442754 -0.0128284  -0.03156748  0.02986031 -0.01314534 -0.0264881
-  1.00302988 -1.0742213   0.08041049  0.04395635  0.07277064  0.02351565
- -0.00191898  0.0065627  -0.03859034  0.0231188   0.02391454  0.00700976]</t>
-  </si>
-  <si>
-    <t>[1.473759991485613, 0.7112846398626189, 0.7614427785329585, 0.6904454704764919, 0.7010847201323136, 0.4562590481041939, 1.1819939727132505, 0.5165899574741394, 0.6219671484686844, 1.0220082582416827, 2.3100987464413882, 0.8263042925672691, 2.2932814655874885, 1.2571587490439657, 0.8427674612861656, 1.9286060951285167, 2.5783737207964834, 1.9096238094819364, 0.8657283616823849, 0.6792865418130402, 2.232198897759621, 0.4586097805075731, 1.4469321439882237, 0.5406406279388807, 2.088802667471075, 0.3056148268349752, 2.234919461034618, 2.083445411264718, 1.0918808819601127, 1.6938063957218918]</t>
-  </si>
-  <si>
-    <t>[ 1.92460062e-04 -1.50722224e-04 -7.97419016e-04  1.78920532e-04
-  2.94390300e-05 -3.65455475e-04 -2.10995934e-04  2.69392272e-04
-  7.82549060e-05 -9.07987293e-05  6.96514100e-05 -2.00030217e-04
-  2.09809777e-04 -4.82877691e-04  5.15539380e-05  2.82562349e-04
-  1.36952855e-04  1.97879090e-04  1.98715022e-05 -3.67046272e-04
- -1.95130187e-04  3.16017765e-04 -2.30065548e-04 -7.67969872e-05
-  1.60637316e-04 -1.43017641e-04  3.57182174e-05 -7.99851873e-06
- -3.82521842e-04 -4.72956674e-05]</t>
-  </si>
-  <si>
-    <t>[0.5759663076417219, 0.29602673414667896, 0.45594344479159005, 0.03048283104565135, 0.26932791302707926, 0.3686168701398845, 0.27578935340727007, 0.01581771111769614, 0.2865918718012799, 0.26920863079361323, 0.2846134422562487, 0.25936294344467575, 0.29084344507110266, 0.016792030970812596, 0.014370043151867965, 0.0215196919306054, 0.4061872337222345, 0.6896178397937736, 0.30962853626828174, 0.39283665816871866, 0.019938732340967824, 0.42872037893731313, 0.03313711647772186, 0.2964432588791111, 0.5973946372763665, 0.30462650195853147, 0.31108223118628064, 0.2929994617780308, 0.30840277107567565, 0.3956451747869102]</t>
-  </si>
-  <si>
-    <t>Coefficient of variation of goal function value (%)</t>
+    <t>[ -7.14409306  -0.85967531   8.44112322   8.29219906   7.95757666
+   0.13474369   2.83261539   0.84395183   1.46930573   6.95189663
+  -7.16261473   4.0528615    9.50182435   5.2099002   -7.6639814
+  -2.83807005  -2.4235033    2.00283106  18.62245349  -1.48781572
+  -0.08105808   2.97981502 -32.           9.71501823  -0.09185787
+   0.21997953 -14.00658214   7.40017286 -11.2809599   23.21004572]</t>
+  </si>
+  <si>
+    <t>[12.960880049456279, 8.396551533852852, 7.817489728698611, 12.533233573246454, 15.811458255596337, 12.79185335531441, 7.876747143519732, 9.905354480394513, 11.470386273596995, 14.481942917345258, 11.738232009532224, 8.040515666393384, 10.895924387835375, 11.397135747234932, 8.324912248334213, 8.326656406443316, 10.493086910159942, 15.945759496563031, 9.418043778049801, 10.180165548828223, 10.403704470434967, 11.682744166737718, 16.808279894180963, 14.967630165307286, 12.928945850326809, 14.735134177628897, 9.774475770039636, 14.964177548670838, 13.949941515116425, 16.283204307410568]</t>
+  </si>
+  <si>
+    <t>[  0.51848136  -9.85078946  16.09961368  -2.08442058  -1.6144737
+  -9.22237328   0.05867492  -5.46302279   0.43297267  -3.02371597
+   0.44066     -3.71658255   0.40039625   5.97200416   1.56458103
+   4.59914198 -11.93997786  -1.27406985   0.73164927  -3.16988689
+  -2.16045081   9.06647404   0.16025494  -9.44559761  -1.37556362
+  -0.18661686   8.5731783  -15.279377    -0.60027611  12.31654867]</t>
+  </si>
+  <si>
+    <t>[11.47172607013695, 10.936581037598526, 12.810711016177358, 12.232565624288412, 10.60593369650084, 14.928387468582219, 11.255559057624597, 10.244374481984668, 10.78010496209941, 13.126341706575216, 14.502272342163439, 8.652244487935983, 10.21522219953177, 15.205330143257282, 13.716378320932357, 17.822800005815967, 9.990806426143982, 8.869417492001626, 13.635148664026566, 8.444500940221323, 14.192876830889121, 11.061580747423177, 11.13067965351399, 11.773566057659371, 9.219690291289565, 14.168659695766971, 14.958375173456233, 11.900469834781905, 13.131400327816518, 11.04778589079598]</t>
+  </si>
+  <si>
+    <t>[ 1.10995964e+00  8.31937881e-01 -4.23539131e-01  4.58281244e-01
+ -1.09871996e+00  7.10696451e-01  2.59005587e-01 -9.85428538e-01
+  8.36634702e-03  4.05890043e-02 -2.14289261e+00 -1.13944878e-01
+ -6.93089540e-01 -8.65880190e-02  3.03682987e+00 -1.37817565e+00
+  8.75348574e-04 -1.93113405e-01  2.25242183e-01  4.92455524e-01
+  2.20460575e+00  1.81802979e-01  3.21735439e-01  3.37494821e-01
+ -4.63729312e-01 -5.79883245e-01 -1.48728226e-01 -1.21699147e-01
+ -2.31907883e-02 -1.71936459e-01]</t>
+  </si>
+  <si>
+    <t>[10.215154259187344, 4.540646545296549, 4.189065146944101, 10.69731288563607, 7.280284326031574, 11.278496978293715, 12.613397097737717, 10.522898363583936, 9.200550916602165, 8.846224224932582, 13.103230126180586, 10.244494239148846, 7.1203641803799025, 8.187935358888403, 10.79180280595253, 9.456886904591435, 10.703423219603675, 5.504600634039856, 5.022321128610328, 11.430159849382955, 5.787201348950599, 11.638631517274526, 9.044244839340672, 11.444073186707254, 10.254817623693791, 7.982203619934204, 13.444464091719697, 3.7599397227923785, 9.081639314376002, 8.934321466001586]</t>
+  </si>
+  <si>
+    <t>[ 1.70542836e-03  3.68033025e-03  2.50261007e-03  8.22002410e-01
+  1.55160894e-02 -1.19107048e+00 -1.61884109e-01 -6.13570234e-03
+  5.36672297e-02 -6.62793544e-02  8.89004839e-01  4.61946602e-02
+ -1.92660210e-02 -9.74787564e-05  1.52589620e-02  2.23100313e-02
+  4.59564222e-02  7.90413995e-03  6.04715850e-02 -2.31777741e-03
+  5.74742855e-02 -1.05167615e-01  3.59872595e-02 -2.54800540e-02
+  8.91551325e-03 -1.30957597e-01 -6.85249996e-03  9.43149200e-05
+  1.01764124e-01 -6.18396733e-03]</t>
+  </si>
+  <si>
+    <t>[2.5653243695120262, 1.2686173547006994, 1.2242888475416425, 1.2138666571260581, 3.893228085244181, 3.627990245762834, 2.505891663833417, 1.3317510086786966, 6.064636641001115, 4.8971548367856865, 2.8377626133008067, 1.6070631593148537, 1.9430550194995553, 3.2815121725445566, 3.9060171428843105, 2.9073830138602466, 7.4914159427870555, 0.5965955513582879, 4.304681899951483, 2.2460375857261883, 7.020769917942719, 1.6304807877515384, 4.407415503362833, 6.946877904084573, 0.23474863810045313, 6.591834303485208, 3.093072790917271, 2.7711399260026366, 0.31372197405530583, 2.8053172817876755]</t>
+  </si>
+  <si>
+    <t>[ 4.80276603e-03 -2.74190011e-02  1.98937006e-02  3.39920194e-04
+ -1.06398193e-02 -3.75448142e-02 -7.70839955e-02  6.09228413e-05
+ -2.51862944e-05  1.20744961e-02 -2.34979899e-02  3.61241483e-03
+ -1.27057600e-03 -4.13325045e-03  1.49567195e-02  8.89315646e-03
+ -4.50713048e-04  1.68259204e-04 -3.38348861e-03  2.68245270e-02
+ -2.05679416e-02 -3.28562372e-02 -1.09458704e-02  4.60698896e-04
+ -1.14193548e-02 -1.01238363e+00 -3.42680611e-03 -1.66171975e-03
+ -1.68634791e-02 -1.04322816e-02]</t>
+  </si>
+  <si>
+    <t>[9.598809990014235, 9.605729086766743, 9.603318786135176, 2.4571749797274567, 6.653115167935435, 9.59813190311098, 2.4451040304871543, 9.624524694063044, 1.7917021760255716, 1.9029971914623354, 5.097644120675602, 6.054014959479524, 7.4836432884793265, 3.2814230706123273, 9.61162945982724, 9.558475035522092, 5.594434454714891, 9.365606309838828, 4.571086415282309, 9.639584594921713, 1.5034330133299578, 9.636385320047333, 0.728316306897797, 6.9079232331801865, 2.3924051491159335, 9.639343054307785, 9.581425868695238, 7.89813966478574, 9.60048579906568, 8.741244620869612]</t>
+  </si>
+  <si>
+    <t>[  0.03539794 -17.82680441 -14.87633159  -0.46530611  18.2111864
+   8.01080066   0.98264258   0.78726074   4.21314815   6.78035273
+  -5.02834046   0.49931434  -4.60944331  -5.1205391    2.22055195
+   4.58945489  -1.49224645   3.0143229   13.15675479  -8.92132462
+  20.39366133  -0.46679614  19.67987974   2.56132349   0.40046652
+ -11.95491952  -2.18469842  10.43761478  -0.64751989   2.03414553]</t>
+  </si>
+  <si>
+    <t>[14.075305283807056, 13.508705457638975, 13.263526044482246, 13.687442453761488, 8.36640740706056, 15.655527765350676, 10.143902198663758, 12.741190737846324, 12.756090235938952, 9.109923159527732, 13.999097239284731, 13.203575228219709, 8.90987395079412, 11.739090054857455, 12.643836720429782, 12.512862258431914, 13.522639785426277, 13.563162222190348, 9.585994267611325, 17.921673067487696, 11.04515001586588, 13.318229601913744, 12.434368444700981, 11.92661192421668, 10.801265384243914, 10.962941976049459, 10.529665699272378, 10.72059278496241, 8.63393253124451, 15.905977837504297]</t>
+  </si>
+  <si>
+    <t>[ 2.55067505 -0.0674186   3.90204319 -1.68046328  2.01013435 -4.93915062
+  0.34486378  2.89391793  1.28767689  1.66211656  0.11847097  1.09991116
+ -0.07193137 -1.15612651  0.76040061 -4.06371566  1.49626573 -6.41925508
+  6.01785355  0.4766025  -2.77294438  2.25246897 -3.56248026  3.09222097
+  1.43304358  3.15094151 -1.01427533  7.77397416  0.06578762 -3.92869345]</t>
+  </si>
+  <si>
+    <t>[7.458009950436215, 4.651843569018932, 8.610373283588471, 5.779789530225488, 3.258355991471218, 5.428351406192267, 6.032656237608257, 7.377466727174311, 6.438560109955944, 9.864676374435055, 8.177754504935534, 2.6058172322240263, 2.7974076306311937, 3.825006392409078, 4.6167018908671364, 3.705535505005708, 7.272354411850785, 8.277965139966657, 6.482307594364654, 6.763468795335403, 7.920260160552385, 6.426739985028006, 6.225275283573928, 7.695790328623539, 6.43411367062668, 5.379217772058087, 8.200962971762868, 8.306101014209164, 7.029135567236154, 3.8612940934258924]</t>
+  </si>
+  <si>
+    <t>[ 0.16503564 -2.16160521 -1.78228342 -1.79995364 -0.13140402 -0.34450687
+  0.03658583  0.02217132 -0.46785106 -1.9689438  -1.46678434  0.99805405
+  1.59653455 -0.92032885 -0.11174072  5.42598922 -0.90273466  1.81219983
+  2.13884225  0.41035985 -1.3428476   2.90908984 -0.49807752 -2.03932436
+  1.96334651  0.01306848  1.33008543 -0.25305781 -0.15785046 -0.58535807]</t>
+  </si>
+  <si>
+    <t>[2.9584581584134133, 1.3103479571276728, 2.8119128670403204, 3.5277984928103296, 2.6643643289202417, 2.1644559637422516, 2.996865082895258, 4.4747498840495465, 3.6006114035276773, 1.624548455570867, 3.4200832504858876, 2.4591961678357133, 2.028924262098763, 3.6609288905775887, 1.360298390182825, 2.7423436254046147, 2.3818967280135444, 5.547200333659635, 3.695253899690339, 3.9853801971349916, 2.5684642751068436, 1.534555048010515, 2.6071827419692655, 1.6012845166423928, 2.3900619393541365, 3.1133771402270907, 2.7988706536329633, 4.354828550971129, 2.526858577851919, 2.9332242807287057]</t>
+  </si>
+  <si>
+    <t>[-0.02349285  0.0022639  -0.19275942 -0.01548545  0.01438252  0.96569687
+  0.88665098 -0.02593756  0.02586229 -0.06338835  0.06551665 -0.08590866
+  0.09876841  0.01368528  0.0798096  -0.02391223 -0.08121487  0.00383155
+ -0.03869154 -0.02240682  0.00834343  0.11534017  0.90101761  0.03184984
+  0.00104952  0.00532789  0.03389486 -0.01099715  0.00238981 -0.07778908]</t>
+  </si>
+  <si>
+    <t>[0.8853918351673701, 0.8039738680167877, 3.0854944080552027, 0.6954060688252229, 3.4158682026598863, 0.8915417797013293, 0.937914296426364, 1.3147554067976404, 2.185513017709493, 1.018466420988008, 0.6123145145919597, 0.38529067067655476, 3.239395447168967, 2.0209497883536494, 2.0979904990968268, 1.9929540278523599, 2.0514849478256525, 1.592014865541707, 1.478517261681735, 0.4504648181800956, 2.511432645778996, 1.1500465565188762, 1.9410045181918243, 0.4796198448008254, 1.1019626425099642, 0.695290767911508, 0.8532781117418798, 1.9341750921508638, 0.8468039762120821, 0.7657330768469913]</t>
+  </si>
+  <si>
+    <t>[-6.14381414e-05  3.51734358e-04 -1.68850832e-05 -1.46866045e-04
+  1.73335232e-05 -6.78952979e-05 -3.11824967e-04 -5.81833063e-06
+ -4.42899208e-06 -1.12141230e-04  3.61826862e-05  2.90929872e-05
+ -4.32764650e-05 -1.90359102e-05 -5.77153149e-06  2.11151132e-04
+ -9.20635369e-05 -1.97927178e-04 -1.12668918e-05  4.05304717e-04
+ -6.27970353e-05 -7.25575114e-06 -7.62891810e-05 -2.84290252e-05
+  4.68011283e-05 -2.02154290e-05 -5.59075769e-06  3.44709253e-04
+ -1.92262571e-04  3.27396019e-04]</t>
+  </si>
+  <si>
+    <t>[9.72947438877717, 12.769214263951993, 5.423731358402041, 12.820207376197809, 8.203163077874217, 12.791610335632347, 11.209510737982688, 12.440083477436405, 2.455746565540228, 6.970864087821834, 11.751164575015725, 6.643628766928057, 4.781790261436749, 10.28529775727875, 10.128949690628492, 5.513993928016119, 10.231968499715709, 10.535387350656228, 13.033570276075922, 11.351728174820886, 13.828134239432218, 11.332365137170274, 10.308264457423425, 9.704838637856735, 11.087148325294455, 9.759489440941815, 5.129808559985562, 5.786855145648817, 12.852856098241839, 5.7021531794018125]</t>
+  </si>
+  <si>
+    <t>[ -9.14838667 -11.51410398  -6.06110304   9.33912349   2.7242133
+   5.80514095   0.45356423  -3.8381302    9.89478507  -7.18795958
+  -3.05528285   9.66424788   1.42248941  14.87841654  -5.01586008
+   8.30337295   0.85739262  -3.62928995 -10.11881409  -2.34451582
+  -1.81418965  -2.67391305  -0.94886978   8.03748436  -2.11907574
+  -1.39175065   0.56537522   1.10509787  -6.31156388 -12.05074937]</t>
+  </si>
+  <si>
+    <t>[6.84072327638059, 15.49555797791604, 11.873235994401915, 11.717258167246612, 13.2402385766981, 14.075467293881152, 10.800296516305082, 7.076332270647627, 9.575072689393908, 10.549856758073698, 14.025219686182231, 8.813101140791229, 15.037168251728277, 9.141379079088207, 9.431617094615216, 9.634317617936208, 16.622106510631045, 10.534257784081781, 16.341651851274218, 15.770098734954175, 9.83157154807462, 11.395034145726095, 9.043625804193303, 8.072032297987022, 15.377056675767236, 12.736490144234052, 16.259453044612723, 12.954232831695709, 7.997105391774515, 7.98337085808421]</t>
+  </si>
+  <si>
+    <t>[-0.96532995 -2.41465378 -0.52911868  1.15458337  1.56603     0.54911725
+ -2.38631916  5.76594219 -8.11830233 -3.29144492 -0.03959875  1.41659935
+ -2.78265385  2.4939667  -2.30142329 -2.03051123 -5.93876382  2.6494415
+ -2.85776991  6.34289242  0.42253811 -1.51369723 -0.09112175 -2.4706219
+  1.09961038  4.56805625 -6.23174044 -0.15097349 -6.52795117  1.66504611]</t>
+  </si>
+  <si>
+    <t>[6.2768867584407015, 9.703780900338078, 7.913583591705297, 8.197503284247508, 7.846942937441318, 7.131475038187045, 10.485223249259157, 4.1848822688398135, 5.267084752053762, 2.9245089274630773, 6.204307299751951, 12.296205351950636, 6.163645138470115, 10.5912047846533, 9.397807981854282, 3.160773114851014, 8.16172787965112, 5.488020271364135, 5.95370376002061, 10.495324649750259, 11.654207605376898, 6.4111346849684905, 6.0403093664910035, 6.827046603877387, 4.465444153447618, 13.782660155525221, 8.627550846591483, 3.110839741047848, 5.370426737710494, 11.968429259739587]</t>
+  </si>
+  <si>
+    <t>[-1.93649107 -1.17081724 -0.00857537 -2.48319694 -0.40412284 -0.03729597
+  0.30808041 -0.58958633 -0.31773618 -0.19935542  0.71655382  0.67298936
+ -1.07347544 -0.20367528 -0.25861554 -0.3049656  -0.02210979  0.82722223
+  0.21873846  1.14497471 -0.08122469  1.17831504 -0.03494098  1.86947145
+  0.20242526  0.05978889  0.58586959 -2.11048217  0.29844177 -0.15496279]</t>
+  </si>
+  <si>
+    <t>[2.412825430835231, 2.5860996686468636, 9.642451042521758, 3.102721269101475, 2.319776690048745, 3.1988107231319085, 3.503762459153503, 7.193379908392433, 1.8540128078191458, 4.362445777863633, 4.75691895392578, 1.2807861485944991, 2.102654935269291, 7.1248770161007515, 1.2851331477375465, 2.1550410568339706, 1.3846538870643317, 1.557320699420365, 1.0362590488789205, 3.964823977216975, 9.193254587787635, 3.4647559774716576, 4.332105368062579, 3.588967943482478, 1.750331762668363, 3.473096943408902, 3.297173597244948, 1.5113876723684052, 1.867921014808464, 1.5661911086365132]</t>
+  </si>
+  <si>
+    <t>[ 3.43425911e-02  7.39495538e-04  1.92060079e-02  6.31353894e-03
+  1.03221086e-01  1.17247634e-02 -4.94334291e-02 -1.92210754e-02
+ -9.44413287e-01  1.94847946e+00 -2.16149263e-02 -1.06824403e+00
+ -1.07529308e-03 -1.82483245e-03  1.95585095e-03  9.25177327e-01
+ -2.95144658e-02 -2.15325014e-02  1.48027946e-02  7.49080592e-02
+ -1.04704053e+00 -7.67406333e-03 -4.68510976e-02  9.41289353e-01
+ -6.13951765e-02  3.75635059e-02  4.77113493e-02  6.94730680e-03
+  5.28307236e-02 -1.04180205e+00]</t>
+  </si>
+  <si>
+    <t>[0.5266863015988671, 0.4818158534851515, 0.4511683064953803, 0.5702126228684495, 1.2585960350449343, 0.3383527971014327, 0.42526315206079746, 0.5083382829657505, 0.6047985665695051, 1.2041959655395633, 0.2604750803235492, 0.6481545361778059, 0.39408025592947976, 0.48696969296923504, 1.2967703922862068, 0.7429716789945771, 1.0452497379841426, 1.046105376710053, 0.09179797985490093, 0.6139253877101182, 0.6136841297971707, 0.5121018236038075, 0.2851822778653691, 1.9152801474797096, 0.1381136349587758, 0.9364358479593599, 0.16697897034398335, 0.35153598946007364, 0.30729423401831113, 0.845376798077214]</t>
+  </si>
+  <si>
+    <t>[ 8.37699664e-05  2.72013241e-04  2.10704037e-04 -7.44043569e-04
+ -2.67657976e-04  2.60967204e-06  6.21794640e-05  1.29490270e-04
+  3.36449416e-04 -1.71792722e-04  7.30547756e-06 -1.55533355e-04
+ -4.37889374e-04 -7.82851172e-05  7.63751175e-06 -2.68919306e-04
+ -2.88147325e-04 -2.48926626e-04 -1.27118154e-05 -2.41317014e-06
+  7.50275651e-04 -6.96389902e-05  2.17716914e-06  2.83841635e-04
+  6.18577332e-04  1.12613795e-03 -2.35882540e-05  6.20680331e-04
+  4.21433864e-04 -2.28099400e-06]</t>
+  </si>
+  <si>
+    <t>[0.29756047113560136, 0.04079538468532929, 0.2533768677707455, 0.014165300648089655, 0.023656944248538495, 0.014193065386975717, 0.24634922509619017, 0.2951253015215595, 0.010364033554102986, 0.021507539235006385, 0.010433299069621538, 0.3171200828938886, 0.4562020035477442, 0.008964615497572227, 0.38922554420705097, 0.3617275946209685, 0.018042014310961092, 0.03186416393586973, 0.21560655781445565, 0.0686445205229561, 0.03021145456171977, 0.3771813594252185, 0.01542311364573471, 0.3819787845496875, 0.018564516213904304, 0.32186588942036004, 0.26481785503210964, 0.29839434712016366, 0.27008936552235707, 0.01214560119512289]</t>
+  </si>
+  <si>
+    <t>[  0.25892316   2.4643615    2.79041237   6.30652373  -2.48225809
+   6.84199549  -6.69122822   0.4962772   -2.01914489  -0.27598314
+   1.1946963   -7.33102505  -2.4837536   -6.07307615  -8.64380038
+  -3.93441976  13.25392703  -3.2075167   -8.89529024   3.27267131
+  -1.10330085   0.97124593  -6.66751063   4.14344207   7.05704079
+  10.89284041 -14.25359653   1.13592305  10.07570607 -15.1010741 ]</t>
+  </si>
+  <si>
+    <t>[10.938807331162991, 10.25715051976011, 13.163431605789379, 11.402660210346044, 5.260814168555745, 7.739861327766449, 10.700822998945272, 10.625983682886018, 11.06205609911099, 10.633136673325925, 10.579732378148968, 10.445915654097906, 11.921936822094958, 8.612455059253943, 5.346760637792955, 11.151359016446788, 16.78131642439621, 11.753735032061398, 7.715941880147678, 12.988949431400224, 11.796118261625386, 6.127533384142273, 11.71357890483702, 13.38371283903511, 13.983383506302703, 6.246731671030878, 6.554238102716047, 10.751930547474194, 14.057132500912145, 10.67219828321535]</t>
+  </si>
+  <si>
+    <t>[ 4.10332933 -1.64184634  2.14567203  1.63805925  6.78935379 -5.75848904
+ -1.06975215  2.05274262  5.31859806 -2.14240243  1.10572856  2.01774694
+  0.98011208  5.36563217 -1.7302649   0.20603822 -1.48428232 -1.40171782
+ -0.22828759  1.20839832 -1.1454587   0.79518412 -5.57589328  2.40239502
+  0.2213037   0.82028094 -1.60125064  0.37142678 -8.12928575 -0.60218772]</t>
+  </si>
+  <si>
+    <t>[6.660720683258071, 2.936588853998822, 3.467672088631711, 6.528362572368368, 7.353112125411909, 5.721018552188005, 5.083280729526023, 9.37302783820352, 9.322560310716538, 6.349440116745942, 4.671398938047127, 6.1151196159518415, 7.017982459812222, 5.27449803374524, 5.264634124544395, 5.205870900056064, 7.706714686858673, 8.002136535402105, 6.10375778260698, 9.035843861701936, 2.5662268069379133, 6.740423769494382, 5.226253492891604, 8.031468229990265, 4.016777800299879, 7.187201785260343, 7.43162855892932, 5.3439122916048705, 10.06608214019838, 4.093422961339736]</t>
+  </si>
+  <si>
+    <t>[ 0.20685817  0.69481626 -0.27819919  0.67495095  0.14756013  1.03574315
+  0.53755682  0.12115544  2.0098163   0.04469704  1.00394422  0.09192055
+ -0.94916097  0.57482828  1.20138091 -0.07792167 -0.05890967 -0.03791285
+ -0.17001184 -0.03594329  0.15352857 -0.0855513   0.14801339 -0.16072997
+  0.04473385 -0.06106348 -0.70340533 -0.17246242  1.02771598  0.03827641]</t>
+  </si>
+  <si>
+    <t>[1.903693514490037, 7.700436486646804, 3.1171319497668906, 4.868671994954093, 3.4996955536500187, 1.794504369422827, 3.1985781880338893, 4.801203565516385, 1.7836087955958828, 4.286647964393424, 1.8546322553486445, 1.1515632380854577, 9.989093704419393, 2.93586631313547, 2.498035165613762, 2.454942137274843, 6.327083426225454, 5.4248707817792665, 2.3024273841401066, 2.371215553135198, 3.5198420711008263, 6.544352213686596, 1.6581852535710269, 3.6306420848621777, 4.823150619105274, 1.4194997007668728, 4.840203829590013, 2.057617477423522, 6.8414650440805165, 3.8639172543610463]</t>
+  </si>
+  <si>
+    <t>[-3.31139325e-02 -2.34489856e-02 -4.30839607e-03  9.03212214e-01
+ -4.33989232e-02  6.97474553e-02 -2.15268351e-02 -1.41389593e-02
+  6.36321328e-02 -2.60553931e-03 -2.56930674e-03  1.00745069e-02
+ -1.02078848e-02  1.04585229e+00  1.02541779e+00  4.28309508e-03
+  3.12118469e-02  1.37078818e-01 -2.69319488e-04  3.79725886e-02
+  9.74908241e-01  7.83106800e-03  3.07428454e-02  3.28521576e-02
+ -4.69583399e-02 -2.24813335e-02 -2.99091210e-02 -6.98945976e-04
+ -1.13255271e-02 -1.19869508e-02]</t>
+  </si>
+  <si>
+    <t>[0.8234241118690683, 1.2235572676611017, 0.6786027696627397, 0.7445863055521663, 1.6386890408861894, 1.737760165772033, 0.9692784246672745, 1.0647521971230114, 0.8800295966087303, 0.6324075425312151, 0.6794015493432972, 1.553192599250627, 0.7122894068401736, 1.4047039014933493, 1.6730984678154526, 1.208192324602955, 0.6000758443700144, 0.8962342922919289, 0.7148132908856707, 0.9565697081131684, 1.211095945366693, 1.128525657457167, 0.9735679775031165, 0.8053692816693405, 1.5301717412611195, 0.7582808432883537, 0.9173765489968438, 0.9343937948710009, 0.950214362497415, 1.047718837339916]</t>
+  </si>
+  <si>
+    <t>[-2.84976318e-05  1.00239669e-04  9.89061419e-05 -7.20750884e-06
+ -2.17701223e-05 -2.09034612e-04 -1.38482069e-05  3.68505332e-05
+  1.00276019e-04 -6.76470203e-05 -3.83583874e-06  4.05573867e-05
+ -2.39261945e-05 -3.57894100e-06 -7.19324040e-05  7.99614998e-06
+  1.69093297e-05 -2.33063524e-04 -1.96778415e-05  1.23649085e-04
+  8.82609393e-07 -2.62096484e-04  3.13090189e-05 -6.20269610e-05
+  1.32609613e-05  1.46209303e-05 -3.42897791e-06 -6.54351518e-05
+ -1.79176853e-04 -7.44060911e-05]</t>
+  </si>
+  <si>
+    <t>[0.8557462278448871, 0.29218317978619457, 2.6488299995577127, 1.393900187223708, 2.9210728275120816, 4.229554164818867, 3.6967739422087105, 0.006137136194287185, 0.5444257053314169, 0.43578420069996826, 1.6372996646843334, 3.341221015863452, 2.482637097532308, 0.8202870058862783, 2.958952148692575, 3.3584237654584497, 3.00103934716279, 1.1579263086275497, 1.9371020980582359, 2.069057508172523, 0.2786510551127546, 1.0445464320153561, 1.9674682574357683, 0.40919369511191334, 3.0095430592834753, 2.373593370954474, 0.7131775596722234, 0.6213594072698082, 0.6154076435154734, 1.1661041969137422]</t>
   </si>
 </sst>
 </file>
@@ -2043,22 +2035,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K161"/>
+  <dimension ref="A1:L161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="7" max="7" width="41.08984375" customWidth="1"/>
-    <col min="8" max="8" width="22.90625" customWidth="1"/>
-    <col min="9" max="9" width="23.90625" customWidth="1"/>
-    <col min="10" max="10" width="33.81640625" customWidth="1"/>
-    <col min="11" max="11" width="39.81640625" customWidth="1"/>
+    <col min="7" max="7" width="18.453125" customWidth="1"/>
+    <col min="8" max="8" width="16.26953125" customWidth="1"/>
+    <col min="9" max="9" width="16.1796875" customWidth="1"/>
+    <col min="10" max="10" width="35.7265625" customWidth="1"/>
+    <col min="11" max="11" width="46.90625" customWidth="1"/>
+    <col min="12" max="12" width="62.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2090,12 +2083,15 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B2">
         <v>30</v>
@@ -2113,24 +2109,27 @@
         <v>0.88</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H2">
-        <v>244.69381532539529</v>
+        <v>301.12970094114218</v>
       </c>
       <c r="I2">
-        <v>372.73662667864528</v>
+        <v>453.31025204525878</v>
       </c>
       <c r="J2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2">
+        <v>48.915031447700777</v>
+      </c>
+      <c r="L2">
+        <v>12.993370440515781</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>12</v>
-      </c>
-      <c r="K2">
-        <v>13.02762231801967</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>10</v>
       </c>
       <c r="B3">
         <v>30</v>
@@ -2148,24 +2147,27 @@
         <v>0.88</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H3">
-        <v>195.04385742808759</v>
+        <v>219.90409379212221</v>
       </c>
       <c r="I3">
-        <v>351.22063449373849</v>
+        <v>346.07456294318308</v>
       </c>
       <c r="J3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K3">
-        <v>13.34543687790123</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+        <v>40.527459769287397</v>
+      </c>
+      <c r="L3">
+        <v>14.15677045997978</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>30</v>
@@ -2183,24 +2185,27 @@
         <v>0.88</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H4">
-        <v>125.7116379125053</v>
+        <v>179.65639379139881</v>
       </c>
       <c r="I4">
-        <v>296.79886146791557</v>
+        <v>271.12398725908361</v>
       </c>
       <c r="J4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K4">
-        <v>23.177670964941189</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+        <v>29.93862249567384</v>
+      </c>
+      <c r="L4">
+        <v>13.53174010481459</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>30</v>
@@ -2218,24 +2223,27 @@
         <v>0.88</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H5">
-        <v>15.896702950821631</v>
+        <v>27.802259251714929</v>
       </c>
       <c r="I5">
-        <v>186.1515075382014</v>
+        <v>143.17976228604351</v>
       </c>
       <c r="J5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K5">
-        <v>35.098223830859219</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+        <v>30.39294922356887</v>
+      </c>
+      <c r="L5">
+        <v>31.03002462585064</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>30</v>
@@ -2253,24 +2261,27 @@
         <v>0.88</v>
       </c>
       <c r="G6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H6">
-        <v>6.0620945953360206E-3</v>
+        <v>7.9980265525875893E-2</v>
       </c>
       <c r="I6">
-        <v>91.246671970512693</v>
+        <v>97.03332023271247</v>
       </c>
       <c r="J6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K6">
-        <v>167.92386335074161</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+        <v>34.932608168935872</v>
+      </c>
+      <c r="L6">
+        <v>137.5215612475063</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <v>30</v>
@@ -2288,24 +2299,27 @@
         <v>0.88</v>
       </c>
       <c r="G7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H7">
-        <v>320.32199945491362</v>
+        <v>228.62566003940049</v>
       </c>
       <c r="I7">
-        <v>387.35703742137417</v>
+        <v>399.83525307932752</v>
       </c>
       <c r="J7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K7">
-        <v>5.6418615362170206</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+        <v>51.720282692707201</v>
+      </c>
+      <c r="L7">
+        <v>16.090950689190521</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
         <v>30</v>
@@ -2323,24 +2337,27 @@
         <v>0.88</v>
       </c>
       <c r="G8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H8">
-        <v>192.44240312221751</v>
+        <v>184.50622151867961</v>
       </c>
       <c r="I8">
-        <v>318.29242792384088</v>
+        <v>324.00304247426573</v>
       </c>
       <c r="J8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K8">
-        <v>14.66580691357866</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+        <v>43.186997462157287</v>
+      </c>
+      <c r="L8">
+        <v>17.12423083300299</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
         <v>30</v>
@@ -2358,24 +2375,27 @@
         <v>0.88</v>
       </c>
       <c r="G9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H9">
-        <v>101.72251469572021</v>
+        <v>64.6727031070929</v>
       </c>
       <c r="I9">
-        <v>218.6324135746066</v>
+        <v>251.59323625946789</v>
       </c>
       <c r="J9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K9">
-        <v>26.808464539413109</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+        <v>56.792678233844867</v>
+      </c>
+      <c r="L9">
+        <v>33.466561633000353</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>30</v>
@@ -2393,24 +2413,27 @@
         <v>0.88</v>
       </c>
       <c r="G10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H10">
-        <v>32.149248777499217</v>
+        <v>22.696581429738561</v>
       </c>
       <c r="I10">
-        <v>162.9811619351801</v>
+        <v>158.69909718540731</v>
       </c>
       <c r="J10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K10">
-        <v>35.6409923366963</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+        <v>41.879573905989389</v>
+      </c>
+      <c r="L10">
+        <v>47.227108129760822</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
         <v>30</v>
@@ -2428,24 +2451,27 @@
         <v>0.88</v>
       </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H11">
-        <v>0.1136689390553443</v>
+        <v>2.545510820709751E-3</v>
       </c>
       <c r="I11">
-        <v>93.298414934631865</v>
+        <v>49.150990004632177</v>
       </c>
       <c r="J11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K11">
-        <v>91.976522253201026</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+        <v>14.65358386061431</v>
+      </c>
+      <c r="L11">
+        <v>135.4858106879241</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>30</v>
@@ -2463,24 +2489,27 @@
         <v>0.88</v>
       </c>
       <c r="G12" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H12">
-        <v>272.17230067045898</v>
+        <v>217.37793236813411</v>
       </c>
       <c r="I12">
-        <v>361.68744915377658</v>
+        <v>377.42524306415481</v>
       </c>
       <c r="J12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K12">
-        <v>8.9602201041249465</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+        <v>41.537865572086197</v>
+      </c>
+      <c r="L12">
+        <v>13.171115288287851</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>30</v>
@@ -2498,24 +2527,27 @@
         <v>0.88</v>
       </c>
       <c r="G13" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H13">
-        <v>144.1928299635878</v>
+        <v>178.74230709924501</v>
       </c>
       <c r="I13">
-        <v>255.31063747654409</v>
+        <v>284.12259892857571</v>
       </c>
       <c r="J13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K13">
-        <v>13.234342987616399</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+        <v>32.655912173566932</v>
+      </c>
+      <c r="L13">
+        <v>14.82134505457055</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>30</v>
@@ -2533,24 +2565,27 @@
         <v>0.88</v>
       </c>
       <c r="G14" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H14">
-        <v>78.228471018608474</v>
+        <v>74.543524240406839</v>
       </c>
       <c r="I14">
-        <v>214.66953090755271</v>
+        <v>191.8244689480814</v>
       </c>
       <c r="J14" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K14">
-        <v>33.766968979990807</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+        <v>31.255184551063081</v>
+      </c>
+      <c r="L14">
+        <v>24.003355109104771</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B15">
         <v>30</v>
@@ -2568,24 +2603,27 @@
         <v>0.88</v>
       </c>
       <c r="G15" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H15">
-        <v>0.32154932349374121</v>
+        <v>14.27587706956751</v>
       </c>
       <c r="I15">
-        <v>98.835383326502892</v>
+        <v>150.5433760541558</v>
       </c>
       <c r="J15" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K15">
-        <v>45.377368874546733</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+        <v>42.765103857311757</v>
+      </c>
+      <c r="L15">
+        <v>53.021626825357288</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B16">
         <v>30</v>
@@ -2603,24 +2641,27 @@
         <v>0.88</v>
       </c>
       <c r="G16" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H16">
-        <v>2.786894788187055E-5</v>
+        <v>8.396379977966717E-3</v>
       </c>
       <c r="I16">
-        <v>17.361079206283481</v>
+        <v>38.431811011016578</v>
       </c>
       <c r="J16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K16">
-        <v>84.765733586772569</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+        <v>10.68770733054267</v>
+      </c>
+      <c r="L16">
+        <v>133.31705638161799</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B17">
         <v>30</v>
@@ -2638,24 +2679,27 @@
         <v>0.88</v>
       </c>
       <c r="G17" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H17">
-        <v>252.56045449422331</v>
+        <v>245.66839096426551</v>
       </c>
       <c r="I17">
-        <v>355.04636654917982</v>
+        <v>325.22562218659499</v>
       </c>
       <c r="J17" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K17">
-        <v>11.670709868730039</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+        <v>22.004852373240709</v>
+      </c>
+      <c r="L17">
+        <v>7.3515793825406313</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B18">
         <v>30</v>
@@ -2673,24 +2717,27 @@
         <v>0.88</v>
       </c>
       <c r="G18" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H18">
-        <v>192.15367531160049</v>
+        <v>155.36387593892681</v>
       </c>
       <c r="I18">
-        <v>255.67100129280101</v>
+        <v>230.67995642222911</v>
       </c>
       <c r="J18" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K18">
-        <v>9.0972455955177285</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+        <v>21.890088975731729</v>
+      </c>
+      <c r="L18">
+        <v>10.75222022342356</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B19">
         <v>30</v>
@@ -2708,24 +2755,27 @@
         <v>0.88</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H19">
-        <v>82.945168612284363</v>
+        <v>113.57249359289</v>
       </c>
       <c r="I19">
-        <v>164.6509434458342</v>
+        <v>224.75942988957971</v>
       </c>
       <c r="J19" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K19">
-        <v>20.057963207013781</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+        <v>30.232872953358129</v>
+      </c>
+      <c r="L19">
+        <v>20.84494985319056</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B20">
         <v>30</v>
@@ -2743,24 +2793,27 @@
         <v>0.88</v>
       </c>
       <c r="G20" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H20">
-        <v>15.820395705413199</v>
+        <v>27.077090064921041</v>
       </c>
       <c r="I20">
-        <v>103.99792749943801</v>
+        <v>124.574367591425</v>
       </c>
       <c r="J20" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K20">
-        <v>44.821782668812368</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+        <v>27.475506866107509</v>
+      </c>
+      <c r="L20">
+        <v>42.026686059670347</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B21">
         <v>30</v>
@@ -2778,24 +2831,27 @@
         <v>0.88</v>
       </c>
       <c r="G21" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H21">
-        <v>5.02563424163327E-4</v>
+        <v>2.2085820929202669</v>
       </c>
       <c r="I21">
-        <v>27.78259769879833</v>
+        <v>105.19172108072171</v>
       </c>
       <c r="J21" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K21">
-        <v>88.408913167725188</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+        <v>33.510497562272221</v>
+      </c>
+      <c r="L21">
+        <v>121.2052554266517</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B22">
         <v>30</v>
@@ -2813,24 +2869,27 @@
         <v>0.88</v>
       </c>
       <c r="G22" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H22">
-        <v>26176.072427026029</v>
+        <v>35533.916355925307</v>
       </c>
       <c r="I22">
-        <v>208458.91312773639</v>
+        <v>165703.61557103909</v>
       </c>
       <c r="J22" t="s">
+        <v>55</v>
+      </c>
+      <c r="K22">
+        <v>43156.113700547859</v>
+      </c>
+      <c r="L22">
+        <v>45.260902707079289</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
         <v>53</v>
-      </c>
-      <c r="K22">
-        <v>65.628906099040023</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>51</v>
       </c>
       <c r="B23">
         <v>30</v>
@@ -2848,24 +2907,27 @@
         <v>0.88</v>
       </c>
       <c r="G23" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H23">
-        <v>3157.9084018763729</v>
+        <v>3394.7889599616278</v>
       </c>
       <c r="I23">
-        <v>38140.115637271469</v>
+        <v>69295.266961976202</v>
       </c>
       <c r="J23" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K23">
-        <v>46.656591766144828</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+        <v>18307.12466059166</v>
+      </c>
+      <c r="L23">
+        <v>77.553517142319734</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B24">
         <v>30</v>
@@ -2883,24 +2945,27 @@
         <v>0.88</v>
       </c>
       <c r="G24" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H24">
-        <v>253.51130050217739</v>
+        <v>628.35746838420459</v>
       </c>
       <c r="I24">
-        <v>49493.714982138663</v>
+        <v>5262.3609655311393</v>
       </c>
       <c r="J24" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K24">
-        <v>177.0421789434254</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1220.938191624643</v>
+      </c>
+      <c r="L24">
+        <v>67.461876325179688</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B25">
         <v>30</v>
@@ -2918,24 +2983,27 @@
         <v>0.88</v>
       </c>
       <c r="G25" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H25">
-        <v>38.918333693019022</v>
+        <v>29.411018211672459</v>
       </c>
       <c r="I25">
-        <v>304.43680200729438</v>
+        <v>7460.3837940129069</v>
       </c>
       <c r="J25" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K25">
-        <v>60.731858023568918</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+        <v>2191.9306792428779</v>
+      </c>
+      <c r="L25">
+        <v>224.54490353574249</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B26">
         <v>30</v>
@@ -2953,24 +3021,27 @@
         <v>0.88</v>
       </c>
       <c r="G26" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H26">
-        <v>28.7024182533785</v>
+        <v>28.765700099957542</v>
       </c>
       <c r="I26">
-        <v>29.18656973908422</v>
+        <v>54.487640726743471</v>
       </c>
       <c r="J26" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K26">
-        <v>0.4428455678317883</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+        <v>7.6331309486328163</v>
+      </c>
+      <c r="L26">
+        <v>24.15815374143709</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B27">
         <v>30</v>
@@ -2988,24 +3059,27 @@
         <v>0.88</v>
       </c>
       <c r="G27" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H27">
-        <v>29521.521840904439</v>
+        <v>27846.975568259029</v>
       </c>
       <c r="I27">
-        <v>135063.04099896309</v>
+        <v>72666.051126448379</v>
       </c>
       <c r="J27" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K27">
-        <v>35.160486962301022</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+        <v>13545.588171242911</v>
+      </c>
+      <c r="L27">
+        <v>24.781819521578878</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B28">
         <v>30</v>
@@ -3023,24 +3097,27 @@
         <v>0.88</v>
       </c>
       <c r="G28" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H28">
-        <v>5492.8414779931009</v>
+        <v>3644.6768718184949</v>
       </c>
       <c r="I28">
-        <v>100411.0591687337</v>
+        <v>28599.01331903079</v>
       </c>
       <c r="J28" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K28">
-        <v>111.9840824674388</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+        <v>7292.052702562065</v>
+      </c>
+      <c r="L28">
+        <v>64.455775191050122</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B29">
         <v>30</v>
@@ -3058,24 +3135,27 @@
         <v>0.88</v>
       </c>
       <c r="G29" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H29">
-        <v>305.36539806711357</v>
+        <v>229.9147727644598</v>
       </c>
       <c r="I29">
-        <v>12390.500348270851</v>
+        <v>6753.7025134207279</v>
       </c>
       <c r="J29" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K29">
-        <v>142.78463148216741</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1864.2844387333339</v>
+      </c>
+      <c r="L29">
+        <v>135.5108334868597</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B30">
         <v>30</v>
@@ -3093,24 +3173,27 @@
         <v>0.88</v>
       </c>
       <c r="G30" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H30">
-        <v>30.432487073928659</v>
+        <v>29.874178869732852</v>
       </c>
       <c r="I30">
-        <v>1813.9715088279561</v>
+        <v>713.39135782436847</v>
       </c>
       <c r="J30" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K30">
-        <v>250.155936608953</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+        <v>214.2275054954838</v>
+      </c>
+      <c r="L30">
+        <v>156.0821566751338</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B31">
         <v>30</v>
@@ -3128,24 +3211,27 @@
         <v>0.88</v>
       </c>
       <c r="G31" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H31">
-        <v>28.00108732795303</v>
+        <v>28.447593584655198</v>
       </c>
       <c r="I31">
-        <v>156.88808738231239</v>
+        <v>99.449657197469065</v>
       </c>
       <c r="J31" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K31">
-        <v>92.635204753483933</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+        <v>21.090054806778149</v>
+      </c>
+      <c r="L31">
+        <v>57.832448040115338</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B32">
         <v>30</v>
@@ -3163,24 +3249,27 @@
         <v>0.88</v>
       </c>
       <c r="G32" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H32">
-        <v>17320.070283293429</v>
+        <v>15688.775759729429</v>
       </c>
       <c r="I32">
-        <v>101488.51275828559</v>
+        <v>83350.051445210425</v>
       </c>
       <c r="J32" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K32">
-        <v>45.650081149890561</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+        <v>21876.198029462361</v>
+      </c>
+      <c r="L32">
+        <v>55.476553242844247</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B33">
         <v>30</v>
@@ -3198,24 +3287,27 @@
         <v>0.88</v>
       </c>
       <c r="G33" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H33">
-        <v>1430.351976894101</v>
+        <v>2439.558429405512</v>
       </c>
       <c r="I33">
-        <v>28887.527732349601</v>
+        <v>15372.54538547202</v>
       </c>
       <c r="J33" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K33">
-        <v>79.771126671615349</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+        <v>4435.9305595565602</v>
+      </c>
+      <c r="L33">
+        <v>62.071617432144613</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B34">
         <v>30</v>
@@ -3233,24 +3325,27 @@
         <v>0.88</v>
       </c>
       <c r="G34" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H34">
-        <v>113.9323252627196</v>
+        <v>86.948134788177128</v>
       </c>
       <c r="I34">
-        <v>9751.3537810209564</v>
+        <v>2633.5954211624999</v>
       </c>
       <c r="J34" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K34">
-        <v>222.97919652461181</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+        <v>764.15900412570511</v>
+      </c>
+      <c r="L34">
+        <v>131.48289517846669</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B35">
         <v>30</v>
@@ -3268,24 +3363,27 @@
         <v>0.88</v>
       </c>
       <c r="G35" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H35">
-        <v>29.92507158613569</v>
+        <v>30.00289419055683</v>
       </c>
       <c r="I35">
-        <v>135.78158015612269</v>
+        <v>246.96888138655399</v>
       </c>
       <c r="J35" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K35">
-        <v>64.993208148598313</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+        <v>65.611466312360093</v>
+      </c>
+      <c r="L35">
+        <v>98.090448644109571</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B36">
         <v>30</v>
@@ -3303,24 +3401,27 @@
         <v>0.88</v>
       </c>
       <c r="G36" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H36">
-        <v>27.69243994784998</v>
+        <v>27.435579280648529</v>
       </c>
       <c r="I36">
-        <v>28.84945614902567</v>
+        <v>28.81218703212415</v>
       </c>
       <c r="J36" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K36">
-        <v>1.5111809376752059</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.40144585530532179</v>
+      </c>
+      <c r="L36">
+        <v>1.417294204238255</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B37">
         <v>30</v>
@@ -3338,24 +3439,27 @@
         <v>0.88</v>
       </c>
       <c r="G37" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H37">
-        <v>18513.6195574181</v>
+        <v>11301.571063437381</v>
       </c>
       <c r="I37">
-        <v>65738.775416364428</v>
+        <v>58759.404702238557</v>
       </c>
       <c r="J37" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K37">
-        <v>48.987891534126852</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+        <v>12567.66464946377</v>
+      </c>
+      <c r="L37">
+        <v>41.427583078278893</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B38">
         <v>30</v>
@@ -3373,24 +3477,27 @@
         <v>0.88</v>
       </c>
       <c r="G38" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H38">
-        <v>1427.165393772505</v>
+        <v>1513.046655717621</v>
       </c>
       <c r="I38">
-        <v>14779.56527052938</v>
+        <v>22680.191939901841</v>
       </c>
       <c r="J38" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K38">
-        <v>84.221680344615422</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+        <v>6948.1381839144406</v>
+      </c>
+      <c r="L38">
+        <v>110.8189584645131</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B39">
         <v>30</v>
@@ -3408,24 +3515,27 @@
         <v>0.88</v>
       </c>
       <c r="G39" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H39">
-        <v>94.757394858406371</v>
+        <v>80.74894339529304</v>
       </c>
       <c r="I39">
-        <v>321.00028640946721</v>
+        <v>3721.660405589987</v>
       </c>
       <c r="J39" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K39">
-        <v>43.900687640671563</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1065.131914385415</v>
+      </c>
+      <c r="L39">
+        <v>171.5513144370469</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B40">
         <v>30</v>
@@ -3443,24 +3553,27 @@
         <v>0.88</v>
       </c>
       <c r="G40" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H40">
-        <v>28.393613679771679</v>
+        <v>27.905482731275381</v>
       </c>
       <c r="I40">
-        <v>31.883539394782911</v>
+        <v>129.245568853778</v>
       </c>
       <c r="J40" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K40">
-        <v>3.3272352245103902</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+        <v>33.421795969821432</v>
+      </c>
+      <c r="L40">
+        <v>69.494256018618145</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B41">
         <v>30</v>
@@ -3478,24 +3591,27 @@
         <v>0.88</v>
       </c>
       <c r="G41" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H41">
-        <v>27.776747539658469</v>
+        <v>27.06526106284614</v>
       </c>
       <c r="I41">
-        <v>94.166484596790724</v>
+        <v>28.81766813763187</v>
       </c>
       <c r="J41" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K41">
-        <v>56.331458920061969</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.50982636932091407</v>
+      </c>
+      <c r="L41">
+        <v>1.8175904617915699</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B42">
         <v>2</v>
@@ -3513,24 +3629,27 @@
         <v>0.88</v>
       </c>
       <c r="G42" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H42">
-        <v>1.9886454413658281</v>
+        <v>3.393771866716742</v>
       </c>
       <c r="I42">
-        <v>26.080168649508149</v>
+        <v>51.284105710466783</v>
       </c>
       <c r="J42" t="s">
+        <v>96</v>
+      </c>
+      <c r="K42">
+        <v>15.03398913571662</v>
+      </c>
+      <c r="L42">
+        <v>69.248235910677309</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
         <v>94</v>
-      </c>
-      <c r="K42">
-        <v>66.64226638752946</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>92</v>
       </c>
       <c r="B43">
         <v>2</v>
@@ -3548,24 +3667,27 @@
         <v>0.88</v>
       </c>
       <c r="G43" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H43">
-        <v>1.103845427631607</v>
+        <v>2.8210561429195389</v>
       </c>
       <c r="I43">
-        <v>16.426364673605629</v>
+        <v>15.574163073439991</v>
       </c>
       <c r="J43" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K43">
-        <v>72.081587895702086</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+        <v>3.5764494860081948</v>
+      </c>
+      <c r="L43">
+        <v>47.1181207183241</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B44">
         <v>2</v>
@@ -3583,24 +3705,27 @@
         <v>0.88</v>
       </c>
       <c r="G44" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H44">
-        <v>0.39158750157197492</v>
+        <v>1.189705524925178</v>
       </c>
       <c r="I44">
-        <v>4.1322231977512276</v>
+        <v>6.238934915605471</v>
       </c>
       <c r="J44" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K44">
-        <v>52.154168763693342</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.5008765061686919</v>
+      </c>
+      <c r="L44">
+        <v>59.159025053243937</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B45">
         <v>2</v>
@@ -3618,24 +3743,27 @@
         <v>0.88</v>
       </c>
       <c r="G45" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H45">
-        <v>0.51729179094480549</v>
+        <v>0.1290554596994305</v>
       </c>
       <c r="I45">
-        <v>3.9058467316321601</v>
+        <v>4.1964519751018221</v>
       </c>
       <c r="J45" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K45">
-        <v>55.944516036403577</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.052161583626094</v>
+      </c>
+      <c r="L45">
+        <v>61.598753507659978</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B46">
         <v>2</v>
@@ -3653,24 +3781,27 @@
         <v>0.88</v>
       </c>
       <c r="G46" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H46">
-        <v>6.6633847837620261E-2</v>
+        <v>0.22396108117900759</v>
       </c>
       <c r="I46">
-        <v>0.81573450028461403</v>
+        <v>1.4304355329469201</v>
       </c>
       <c r="J46" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K46">
-        <v>51.258246024478503</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.41417632105434649</v>
+      </c>
+      <c r="L46">
+        <v>60.033564645186438</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B47">
         <v>2</v>
@@ -3688,24 +3819,27 @@
         <v>0.88</v>
       </c>
       <c r="G47" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H47">
-        <v>2.723802494596177</v>
+        <v>3.549674575778337</v>
       </c>
       <c r="I47">
-        <v>21.044786732217009</v>
+        <v>18.177831340696489</v>
       </c>
       <c r="J47" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K47">
-        <v>68.453464394421758</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+        <v>4.110189466343666</v>
+      </c>
+      <c r="L47">
+        <v>45.122980032038718</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B48">
         <v>2</v>
@@ -3723,24 +3857,27 @@
         <v>0.88</v>
       </c>
       <c r="G48" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H48">
-        <v>1.0114296896506569</v>
+        <v>0.94824778775288032</v>
       </c>
       <c r="I48">
-        <v>7.7378849369867844</v>
+        <v>10.00844723753594</v>
       </c>
       <c r="J48" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K48">
-        <v>58.021134319325533</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+        <v>3.3505723382463009</v>
+      </c>
+      <c r="L48">
+        <v>74.019245360588528</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B49">
         <v>2</v>
@@ -3758,24 +3895,27 @@
         <v>0.88</v>
       </c>
       <c r="G49" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H49">
-        <v>0.28643750639751792</v>
+        <v>0.25845278996269277</v>
       </c>
       <c r="I49">
-        <v>5.979038688006848</v>
+        <v>4.653200654615369</v>
       </c>
       <c r="J49" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K49">
-        <v>73.781182086479447</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.212453753202952</v>
+      </c>
+      <c r="L49">
+        <v>50.131019949884589</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B50">
         <v>2</v>
@@ -3793,24 +3933,27 @@
         <v>0.88</v>
       </c>
       <c r="G50" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H50">
-        <v>0.1243663485439004</v>
+        <v>0.50914112336452455</v>
       </c>
       <c r="I50">
-        <v>2.7251407096142342</v>
+        <v>2.4762267270683491</v>
       </c>
       <c r="J50" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K50">
-        <v>60.255290334883071</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.72392242586464228</v>
+      </c>
+      <c r="L50">
+        <v>62.413540584393132</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B51">
         <v>2</v>
@@ -3828,24 +3971,27 @@
         <v>0.88</v>
       </c>
       <c r="G51" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H51">
-        <v>0.14145215988011031</v>
+        <v>0.23480654146267191</v>
       </c>
       <c r="I51">
-        <v>0.98454490058725697</v>
+        <v>1.1374167345700079</v>
       </c>
       <c r="J51" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K51">
-        <v>60.434006211863156</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.22585223918114819</v>
+      </c>
+      <c r="L51">
+        <v>41.996192824322847</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B52">
         <v>2</v>
@@ -3863,24 +4009,27 @@
         <v>0.88</v>
       </c>
       <c r="G52" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H52">
-        <v>2.559525073295017</v>
+        <v>0.5593918429253486</v>
       </c>
       <c r="I52">
-        <v>10.8262376840951</v>
+        <v>10.64339092272869</v>
       </c>
       <c r="J52" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K52">
-        <v>34.517524602406922</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+        <v>3.080287329253208</v>
+      </c>
+      <c r="L52">
+        <v>62.506224029868882</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B53">
         <v>2</v>
@@ -3898,24 +4047,27 @@
         <v>0.88</v>
       </c>
       <c r="G53" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H53">
-        <v>1.1860131792909401</v>
+        <v>0.71853914543801922</v>
       </c>
       <c r="I53">
-        <v>6.0006518092068379</v>
+        <v>4.2747959892072407</v>
       </c>
       <c r="J53" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K53">
-        <v>42.575013374305982</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.112419115559742</v>
+      </c>
+      <c r="L53">
+        <v>46.030473930710762</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B54">
         <v>2</v>
@@ -3933,24 +4085,27 @@
         <v>0.88</v>
       </c>
       <c r="G54" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H54">
-        <v>0.95623074236483285</v>
+        <v>0.6336428885588089</v>
       </c>
       <c r="I54">
-        <v>2.9990840503815108</v>
+        <v>2.3698013888210889</v>
       </c>
       <c r="J54" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K54">
-        <v>39.541949807670072</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.52698091116409429</v>
+      </c>
+      <c r="L54">
+        <v>40.058929438608629</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B55">
         <v>2</v>
@@ -3968,24 +4123,27 @@
         <v>0.88</v>
       </c>
       <c r="G55" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H55">
-        <v>0.125665635467515</v>
+        <v>0.39651438473435607</v>
       </c>
       <c r="I55">
-        <v>1.8615790570721269</v>
+        <v>1.3996784355893901</v>
       </c>
       <c r="J55" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K55">
-        <v>58.352340821634982</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.31681573015798142</v>
+      </c>
+      <c r="L55">
+        <v>51.323950571745208</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B56">
         <v>2</v>
@@ -4003,24 +4161,27 @@
         <v>0.88</v>
       </c>
       <c r="G56" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H56">
-        <v>0.22044442740160619</v>
+        <v>0.10277741280068529</v>
       </c>
       <c r="I56">
-        <v>1.1043091111319041</v>
+        <v>0.7035561738543139</v>
       </c>
       <c r="J56" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K56">
-        <v>60.620380817543612</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.1645049331573992</v>
+      </c>
+      <c r="L56">
+        <v>52.43110152847342</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B57">
         <v>2</v>
@@ -4038,24 +4199,27 @@
         <v>0.88</v>
       </c>
       <c r="G57" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H57">
-        <v>1.092707011540317</v>
+        <v>1.116663341233745</v>
       </c>
       <c r="I57">
-        <v>7.8601197615670308</v>
+        <v>8.38168092641539</v>
       </c>
       <c r="J57" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K57">
-        <v>60.386819812741578</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+        <v>2.0806345255176861</v>
+      </c>
+      <c r="L57">
+        <v>55.040424713048388</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B58">
         <v>2</v>
@@ -4073,24 +4237,27 @@
         <v>0.88</v>
       </c>
       <c r="G58" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H58">
-        <v>0.90244775262927557</v>
+        <v>0.51366626822782457</v>
       </c>
       <c r="I58">
-        <v>3.0426031157237441</v>
+        <v>2.821104819598486</v>
       </c>
       <c r="J58" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K58">
-        <v>38.548715127912978</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.74748206746875778</v>
+      </c>
+      <c r="L58">
+        <v>55.009493987867813</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B59">
         <v>2</v>
@@ -4108,24 +4275,27 @@
         <v>0.88</v>
       </c>
       <c r="G59" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H59">
-        <v>0.38327212743313821</v>
+        <v>0.16220953974553071</v>
       </c>
       <c r="I59">
-        <v>1.9697883321890031</v>
+        <v>1.161190232222036</v>
       </c>
       <c r="J59" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K59">
-        <v>49.659257113867653</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.3246402555006534</v>
+      </c>
+      <c r="L59">
+        <v>46.101832296498607</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B60">
         <v>2</v>
@@ -4143,24 +4313,27 @@
         <v>0.88</v>
       </c>
       <c r="G60" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H60">
-        <v>0.14499386199432379</v>
+        <v>0.21938991886419809</v>
       </c>
       <c r="I60">
-        <v>0.5631495593015351</v>
+        <v>1.048358018865875</v>
       </c>
       <c r="J60" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K60">
-        <v>30.984941167274538</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.27037849405084091</v>
+      </c>
+      <c r="L60">
+        <v>46.573578573499411</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B61">
         <v>2</v>
@@ -4178,24 +4351,27 @@
         <v>0.88</v>
       </c>
       <c r="G61" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H61">
-        <v>7.8287273294972023E-2</v>
+        <v>0.1009132921041912</v>
       </c>
       <c r="I61">
-        <v>0.52309067849149515</v>
+        <v>0.42413582653809878</v>
       </c>
       <c r="J61" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K61">
-        <v>57.686428349598202</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
+        <v>8.7681230891372905E-2</v>
+      </c>
+      <c r="L61">
+        <v>37.374438821550797</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B62">
         <v>2</v>
@@ -4213,24 +4389,27 @@
         <v>0.88</v>
       </c>
       <c r="G62" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H62">
-        <v>8.8293676554513836E-3</v>
+        <v>1.3255570624068069E-2</v>
       </c>
       <c r="I62">
-        <v>4.3925855419222124</v>
+        <v>10.931933082060221</v>
       </c>
       <c r="J62" t="s">
+        <v>137</v>
+      </c>
+      <c r="K62">
+        <v>3.9705897861077699</v>
+      </c>
+      <c r="L62">
+        <v>117.3758590400932</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
         <v>135</v>
-      </c>
-      <c r="K62">
-        <v>67.500580668701332</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
-        <v>133</v>
       </c>
       <c r="B63">
         <v>2</v>
@@ -4248,24 +4427,27 @@
         <v>0.88</v>
       </c>
       <c r="G63" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H63">
-        <v>3.2658761297570567E-2</v>
+        <v>6.8331761250083861E-2</v>
       </c>
       <c r="I63">
-        <v>4.1966999188054102</v>
+        <v>1.4494490895126799</v>
       </c>
       <c r="J63" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K63">
-        <v>141.40872599747979</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.40125357381134708</v>
+      </c>
+      <c r="L63">
+        <v>77.864731223511015</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B64">
         <v>2</v>
@@ -4283,24 +4465,27 @@
         <v>0.88</v>
       </c>
       <c r="G64" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H64">
-        <v>1.007119373505053E-3</v>
+        <v>2.4265706110481902E-3</v>
       </c>
       <c r="I64">
-        <v>1.155928004309323</v>
+        <v>0.3485198458812524</v>
       </c>
       <c r="J64" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="K64">
-        <v>229.00840938229101</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.1268597682306849</v>
+      </c>
+      <c r="L64">
+        <v>96.18116999093381</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B65">
         <v>2</v>
@@ -4318,24 +4503,27 @@
         <v>0.88</v>
       </c>
       <c r="G65" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H65">
-        <v>5.4734242246144603E-6</v>
+        <v>8.2394826832951921E-4</v>
       </c>
       <c r="I65">
-        <v>2.6121668060770171E-2</v>
+        <v>3.2215887162618861E-2</v>
       </c>
       <c r="J65" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K65">
-        <v>127.5686340819678</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.0853195948892671E-2</v>
+      </c>
+      <c r="L65">
+        <v>105.45353929492479</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B66">
         <v>2</v>
@@ -4353,24 +4541,27 @@
         <v>0.88</v>
       </c>
       <c r="G66" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H66">
-        <v>1.077116028372464E-5</v>
+        <v>4.2318470086984513E-5</v>
       </c>
       <c r="I66">
-        <v>9.6722236737905795E-3</v>
+        <v>8.8253435274225044E-3</v>
       </c>
       <c r="J66" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K66">
-        <v>173.98758803968411</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
+        <v>2.6141862840822799E-3</v>
+      </c>
+      <c r="L66">
+        <v>188.10715978977191</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B67">
         <v>2</v>
@@ -4388,24 +4579,27 @@
         <v>0.88</v>
       </c>
       <c r="G67" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H67">
-        <v>4.4024540084190197E-2</v>
+        <v>4.5148118721565877E-2</v>
       </c>
       <c r="I67">
-        <v>6.6264428885474169</v>
+        <v>1.679445601319641</v>
       </c>
       <c r="J67" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K67">
-        <v>90.279300057384063</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.46961594638579368</v>
+      </c>
+      <c r="L67">
+        <v>74.408108632762918</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B68">
         <v>2</v>
@@ -4423,24 +4617,27 @@
         <v>0.88</v>
       </c>
       <c r="G68" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H68">
-        <v>2.3268417118847261E-3</v>
+        <v>7.4211299397108031E-4</v>
       </c>
       <c r="I68">
-        <v>0.80354585871305462</v>
+        <v>1.568995589455888</v>
       </c>
       <c r="J68" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K68">
-        <v>105.0816958688595</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.45903061276337981</v>
+      </c>
+      <c r="L68">
+        <v>132.2419808683635</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B69">
         <v>2</v>
@@ -4458,24 +4655,27 @@
         <v>0.88</v>
       </c>
       <c r="G69" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H69">
-        <v>4.8281527492566382E-4</v>
+        <v>9.3691789183174908E-4</v>
       </c>
       <c r="I69">
-        <v>7.8180163858098992E-2</v>
+        <v>0.1077147420573232</v>
       </c>
       <c r="J69" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K69">
-        <v>136.691017278489</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
+        <v>3.0864266948056829E-2</v>
+      </c>
+      <c r="L69">
+        <v>140.27224047271099</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B70">
         <v>2</v>
@@ -4493,24 +4693,27 @@
         <v>0.88</v>
       </c>
       <c r="G70" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H70">
-        <v>5.9530453805763551E-5</v>
+        <v>9.1215687529360931E-5</v>
       </c>
       <c r="I70">
-        <v>1.3372960784742561E-2</v>
+        <v>9.8749832648122905E-3</v>
       </c>
       <c r="J70" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K70">
-        <v>193.3288845178617</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
+        <v>2.8687594420457709E-3</v>
+      </c>
+      <c r="L70">
+        <v>131.92145712147331</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B71">
         <v>2</v>
@@ -4528,24 +4731,27 @@
         <v>0.88</v>
       </c>
       <c r="G71" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H71">
-        <v>8.1255821219591374E-6</v>
+        <v>1.698072128709194E-6</v>
       </c>
       <c r="I71">
-        <v>1.016780500609469E-4</v>
+        <v>6.2928734724669632E-4</v>
       </c>
       <c r="J71" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K71">
-        <v>59.920695782615283</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.829376035407259E-4</v>
+      </c>
+      <c r="L71">
+        <v>120.7754672424651</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B72">
         <v>2</v>
@@ -4563,24 +4769,27 @@
         <v>0.88</v>
       </c>
       <c r="G72" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H72">
-        <v>3.9695244305992406E-3</v>
+        <v>2.0750683345700752E-2</v>
       </c>
       <c r="I72">
-        <v>1.4140643797910419</v>
+        <v>1.0192714795554509</v>
       </c>
       <c r="J72" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K72">
-        <v>125.93558600212189</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.35387192315875771</v>
+      </c>
+      <c r="L72">
+        <v>85.738000882115728</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B73">
         <v>2</v>
@@ -4598,24 +4807,27 @@
         <v>0.88</v>
       </c>
       <c r="G73" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H73">
-        <v>5.0052197981076928E-4</v>
+        <v>2.1882056980995022E-3</v>
       </c>
       <c r="I73">
-        <v>0.120325110503971</v>
+        <v>6.5357256678784392E-2</v>
       </c>
       <c r="J73" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K73">
-        <v>96.804949373558415</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.8677471336283679E-2</v>
+      </c>
+      <c r="L73">
+        <v>75.241796839777351</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B74">
         <v>2</v>
@@ -4633,24 +4845,27 @@
         <v>0.88</v>
       </c>
       <c r="G74" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H74">
-        <v>1.2214787038847081E-5</v>
+        <v>3.2296139048431201E-4</v>
       </c>
       <c r="I74">
-        <v>5.7945052404433407E-3</v>
+        <v>1.0210071621110839E-2</v>
       </c>
       <c r="J74" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="K74">
-        <v>95.182806189421157</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
+        <v>2.666996876018951E-3</v>
+      </c>
+      <c r="L74">
+        <v>97.28887003268872</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B75">
         <v>2</v>
@@ -4668,24 +4883,27 @@
         <v>0.88</v>
       </c>
       <c r="G75" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H75">
-        <v>3.9375351355550887E-6</v>
+        <v>2.8001103021729031E-6</v>
       </c>
       <c r="I75">
-        <v>4.915173971846257E-4</v>
+        <v>1.137617873357154E-3</v>
       </c>
       <c r="J75" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K75">
-        <v>103.81627274122</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
+        <v>3.4483777954378208E-4</v>
+      </c>
+      <c r="L75">
+        <v>110.18300368601081</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B76">
         <v>2</v>
@@ -4703,24 +4921,27 @@
         <v>0.88</v>
       </c>
       <c r="G76" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H76">
-        <v>1.070059411968712E-6</v>
+        <v>1.2101499391089141E-6</v>
       </c>
       <c r="I76">
-        <v>4.3842964790526053E-5</v>
+        <v>1.5415234715824501E-4</v>
       </c>
       <c r="J76" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K76">
-        <v>73.368449733607363</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
+        <v>4.8706826530010298E-5</v>
+      </c>
+      <c r="L76">
+        <v>165.90108558698029</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B77">
         <v>2</v>
@@ -4738,24 +4959,27 @@
         <v>0.88</v>
       </c>
       <c r="G77" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H77">
-        <v>8.6761964202711536E-3</v>
+        <v>2.698898269273815E-2</v>
       </c>
       <c r="I77">
-        <v>0.32913052182222557</v>
+        <v>0.291849857867993</v>
       </c>
       <c r="J77" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K77">
-        <v>99.613696613974085</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
+        <v>7.6913127084115587E-2</v>
+      </c>
+      <c r="L77">
+        <v>102.8831792191597</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B78">
         <v>2</v>
@@ -4773,24 +4997,27 @@
         <v>0.88</v>
       </c>
       <c r="G78" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="H78">
-        <v>4.0652470177420571E-4</v>
+        <v>1.1411482907061701E-3</v>
       </c>
       <c r="I78">
-        <v>5.264796611635085E-2</v>
+        <v>4.9241156377888083E-2</v>
       </c>
       <c r="J78" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="K78">
-        <v>106.7348331162693</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.422386402267159E-2</v>
+      </c>
+      <c r="L78">
+        <v>117.2278559916104</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B79">
         <v>2</v>
@@ -4808,24 +5035,27 @@
         <v>0.88</v>
       </c>
       <c r="G79" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H79">
-        <v>1.0720771271410899E-4</v>
+        <v>3.5260744833224907E-5</v>
       </c>
       <c r="I79">
-        <v>2.8070613190547562E-3</v>
+        <v>4.7799647282296426E-3</v>
       </c>
       <c r="J79" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="K79">
-        <v>115.7577301410405</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.343189884618407E-3</v>
+      </c>
+      <c r="L79">
+        <v>156.38541454938391</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B80">
         <v>2</v>
@@ -4843,24 +5073,27 @@
         <v>0.88</v>
       </c>
       <c r="G80" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H80">
-        <v>6.6363144017688886E-6</v>
+        <v>1.6085264398675879E-5</v>
       </c>
       <c r="I80">
-        <v>4.0580119010185072E-4</v>
+        <v>2.1526247432676919E-4</v>
       </c>
       <c r="J80" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="K80">
-        <v>188.8914903279728</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
+        <v>5.6969163455956238E-5</v>
+      </c>
+      <c r="L80">
+        <v>89.663894776666467</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B81">
         <v>2</v>
@@ -4878,24 +5111,27 @@
         <v>0.88</v>
       </c>
       <c r="G81" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H81">
-        <v>1.8423597002590691E-7</v>
+        <v>2.5439293130095332E-8</v>
       </c>
       <c r="I81">
-        <v>6.5968401432106173E-5</v>
+        <v>2.4685176161322351E-5</v>
       </c>
       <c r="J81" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="K81">
-        <v>208.51879685609671</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
+        <v>6.9731331627029128E-6</v>
+      </c>
+      <c r="L81">
+        <v>146.5506765595288</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B82">
         <v>30</v>
@@ -4913,24 +5149,27 @@
         <v>0.88</v>
       </c>
       <c r="G82" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="H82">
-        <v>24217.711641216622</v>
+        <v>25401.538138007822</v>
       </c>
       <c r="I82">
-        <v>42096.559348563722</v>
+        <v>63291.621768068289</v>
       </c>
       <c r="J82" t="s">
+        <v>178</v>
+      </c>
+      <c r="K82">
+        <v>9320.329304380246</v>
+      </c>
+      <c r="L82">
+        <v>24.35969922348734</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
         <v>176</v>
-      </c>
-      <c r="K82">
-        <v>14.555723690865239</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
-        <v>174</v>
       </c>
       <c r="B83">
         <v>30</v>
@@ -4948,24 +5187,27 @@
         <v>0.88</v>
       </c>
       <c r="G83" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H83">
-        <v>8428.3570438335591</v>
+        <v>5700.4464107055765</v>
       </c>
       <c r="I83">
-        <v>43045.614197580428</v>
+        <v>26163.919649870149</v>
       </c>
       <c r="J83" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K83">
-        <v>57.81821498131896</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
+        <v>6148.9021039875597</v>
+      </c>
+      <c r="L83">
+        <v>42.307025952695831</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B84">
         <v>30</v>
@@ -4983,24 +5225,27 @@
         <v>0.88</v>
       </c>
       <c r="G84" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H84">
-        <v>602.3128138942659</v>
+        <v>623.35249934065564</v>
       </c>
       <c r="I84">
-        <v>9534.5631210669726</v>
+        <v>5783.8612758656418</v>
       </c>
       <c r="J84" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K84">
-        <v>60.219079066809392</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1460.127950050123</v>
+      </c>
+      <c r="L84">
+        <v>43.545357896136302</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B85">
         <v>30</v>
@@ -5018,24 +5263,27 @@
         <v>0.88</v>
       </c>
       <c r="G85" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="H85">
-        <v>20.741284290254111</v>
+        <v>8.7625096552588353</v>
       </c>
       <c r="I85">
-        <v>5161.288371226603</v>
+        <v>4978.5317968991703</v>
       </c>
       <c r="J85" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K85">
-        <v>223.9835205876816</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1480.890348707466</v>
+      </c>
+      <c r="L85">
+        <v>227.21928141739059</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B86">
         <v>30</v>
@@ -5053,24 +5301,27 @@
         <v>0.88</v>
       </c>
       <c r="G86" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H86">
-        <v>4.0528991845749829</v>
+        <v>4.2287240383564093</v>
       </c>
       <c r="I86">
-        <v>13.757194043894931</v>
+        <v>617.34977050075986</v>
       </c>
       <c r="J86" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K86">
-        <v>47.389766699140708</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
+        <v>182.64884888970221</v>
+      </c>
+      <c r="L86">
+        <v>261.29570416926492</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B87">
         <v>30</v>
@@ -5088,24 +5339,27 @@
         <v>0.88</v>
       </c>
       <c r="G87" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="H87">
-        <v>12242.71084262564</v>
+        <v>16196.95050295699</v>
       </c>
       <c r="I87">
-        <v>61820.107709266609</v>
+        <v>47104.68168429449</v>
       </c>
       <c r="J87" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K87">
-        <v>43.852185751720249</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
+        <v>8244.6726042141072</v>
+      </c>
+      <c r="L87">
+        <v>30.77891799361975</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B88">
         <v>30</v>
@@ -5123,24 +5377,27 @@
         <v>0.88</v>
       </c>
       <c r="G88" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H88">
-        <v>4123.2398858871229</v>
+        <v>4863.3246672164814</v>
       </c>
       <c r="I88">
-        <v>26751.654732969961</v>
+        <v>19852.169865434149</v>
       </c>
       <c r="J88" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="K88">
-        <v>65.510271048250544</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
+        <v>5346.2868032346923</v>
+      </c>
+      <c r="L88">
+        <v>49.001569556085641</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B89">
         <v>30</v>
@@ -5158,24 +5415,27 @@
         <v>0.88</v>
       </c>
       <c r="G89" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H89">
-        <v>251.34839220385359</v>
+        <v>430.64444029559968</v>
       </c>
       <c r="I89">
-        <v>2843.2282594856169</v>
+        <v>12322.742882367471</v>
       </c>
       <c r="J89" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K89">
-        <v>68.184927004685818</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
+        <v>3384.7809613421668</v>
+      </c>
+      <c r="L89">
+        <v>150.25405763782391</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B90">
         <v>30</v>
@@ -5193,24 +5453,27 @@
         <v>0.88</v>
       </c>
       <c r="G90" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="H90">
-        <v>5.1094780974603156</v>
+        <v>5.8057139436839567</v>
       </c>
       <c r="I90">
-        <v>489.07456798598872</v>
+        <v>20.779825024458599</v>
       </c>
       <c r="J90" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="K90">
-        <v>245.33406238005631</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
+        <v>4.7121687909994101</v>
+      </c>
+      <c r="L90">
+        <v>48.218258513021453</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B91">
         <v>30</v>
@@ -5228,24 +5491,27 @@
         <v>0.88</v>
       </c>
       <c r="G91" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="H91">
-        <v>2.855251964983613</v>
+        <v>3.4596213248642802</v>
       </c>
       <c r="I91">
-        <v>39.03031200831591</v>
+        <v>7.6696924883614512</v>
       </c>
       <c r="J91" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="K91">
-        <v>131.90865918172091</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.146204097077786</v>
+      </c>
+      <c r="L91">
+        <v>25.6765877065762</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B92">
         <v>30</v>
@@ -5263,24 +5529,27 @@
         <v>0.88</v>
       </c>
       <c r="G92" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H92">
-        <v>12896.694383885109</v>
+        <v>19870.347216742459</v>
       </c>
       <c r="I92">
-        <v>35845.8922748884</v>
+        <v>26725.872410246389</v>
       </c>
       <c r="J92" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K92">
-        <v>33.781314477364631</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
+        <v>2329.6951618177459</v>
+      </c>
+      <c r="L92">
+        <v>10.19521492373895</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B93">
         <v>30</v>
@@ -5298,24 +5567,27 @@
         <v>0.88</v>
       </c>
       <c r="G93" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="H93">
-        <v>3001.205161360806</v>
+        <v>3227.5296586148861</v>
       </c>
       <c r="I93">
-        <v>19955.198183567241</v>
+        <v>12761.528929809499</v>
       </c>
       <c r="J93" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K93">
-        <v>63.25503456446274</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
+        <v>2810.228130773809</v>
+      </c>
+      <c r="L93">
+        <v>40.909553136759563</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B94">
         <v>30</v>
@@ -5333,24 +5605,27 @@
         <v>0.88</v>
       </c>
       <c r="G94" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="H94">
-        <v>175.351895343302</v>
+        <v>117.5345217743281</v>
       </c>
       <c r="I94">
-        <v>5352.6209345521793</v>
+        <v>771.71632891045647</v>
       </c>
       <c r="J94" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K94">
-        <v>125.35811322151589</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
+        <v>187.4777803568839</v>
+      </c>
+      <c r="L94">
+        <v>46.240202621132468</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B95">
         <v>30</v>
@@ -5368,24 +5643,27 @@
         <v>0.88</v>
       </c>
       <c r="G95" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="H95">
-        <v>3.094826776695156</v>
+        <v>4.0389243041482414</v>
       </c>
       <c r="I95">
-        <v>67.946828807181461</v>
+        <v>31.003801308502759</v>
       </c>
       <c r="J95" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K95">
-        <v>161.24131703584371</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
+        <v>7.6736299463206041</v>
+      </c>
+      <c r="L95">
+        <v>91.407858948010471</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B96">
         <v>30</v>
@@ -5403,24 +5681,27 @@
         <v>0.88</v>
       </c>
       <c r="G96" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="H96">
-        <v>2.518128888042853</v>
+        <v>2.123314104396667</v>
       </c>
       <c r="I96">
-        <v>5.2445975382408303</v>
+        <v>12.26933973312372</v>
       </c>
       <c r="J96" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K96">
-        <v>23.920561896851559</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
+        <v>2.792049072939677</v>
+      </c>
+      <c r="L96">
+        <v>67.26034948338453</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B97">
         <v>30</v>
@@ -5438,24 +5719,27 @@
         <v>0.88</v>
       </c>
       <c r="G97" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H97">
-        <v>12564.17752029127</v>
+        <v>15213.46607194735</v>
       </c>
       <c r="I97">
-        <v>36665.217283178623</v>
+        <v>43202.48887100046</v>
       </c>
       <c r="J97" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K97">
-        <v>36.559423325763802</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
+        <v>9264.3520618964103</v>
+      </c>
+      <c r="L97">
+        <v>38.907424389789391</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B98">
         <v>30</v>
@@ -5473,24 +5757,27 @@
         <v>0.88</v>
       </c>
       <c r="G98" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H98">
-        <v>1304.1797949136869</v>
+        <v>2409.0998599478589</v>
       </c>
       <c r="I98">
-        <v>5108.4125101292339</v>
+        <v>9022.214457564216</v>
       </c>
       <c r="J98" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K98">
-        <v>40.571671407344198</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
+        <v>2406.0022795650889</v>
+      </c>
+      <c r="L98">
+        <v>46.3231403914479</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B99">
         <v>30</v>
@@ -5508,24 +5795,27 @@
         <v>0.88</v>
       </c>
       <c r="G99" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H99">
-        <v>156.99663953193419</v>
+        <v>92.80690773768309</v>
       </c>
       <c r="I99">
-        <v>2928.080303579879</v>
+        <v>848.1654192532535</v>
       </c>
       <c r="J99" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="K99">
-        <v>109.0263460682249</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
+        <v>216.26421694633561</v>
+      </c>
+      <c r="L99">
+        <v>70.929912354200312</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B100">
         <v>30</v>
@@ -5543,24 +5833,27 @@
         <v>0.88</v>
       </c>
       <c r="G100" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="H100">
-        <v>3.7777909716621219</v>
+        <v>2.7708146374967679</v>
       </c>
       <c r="I100">
-        <v>60.707020417971172</v>
+        <v>135.26166455152801</v>
       </c>
       <c r="J100" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K100">
-        <v>132.81371858467881</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
+        <v>39.155394806557027</v>
+      </c>
+      <c r="L100">
+        <v>196.29658349148079</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B101">
         <v>30</v>
@@ -5578,24 +5871,27 @@
         <v>0.88</v>
       </c>
       <c r="G101" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H101">
-        <v>1.88687645560774</v>
+        <v>1.793518274626781</v>
       </c>
       <c r="I101">
-        <v>6.1264926704558222</v>
+        <v>5.7449504819118102</v>
       </c>
       <c r="J101" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K101">
-        <v>41.116754088338489</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.019180560142634</v>
+      </c>
+      <c r="L101">
+        <v>36.630626337019798</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B102">
         <v>30</v>
@@ -5613,24 +5909,27 @@
         <v>0.88</v>
       </c>
       <c r="G102" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="H102">
-        <v>-3273.124909346091</v>
+        <v>-2768.6546583395102</v>
       </c>
       <c r="I102">
-        <v>-1798.1596435205761</v>
+        <v>-868.45531992618521</v>
       </c>
       <c r="J102" t="s">
+        <v>219</v>
+      </c>
+      <c r="K102">
+        <v>558.07881687430245</v>
+      </c>
+      <c r="L102">
+        <v>-25.934415637104291</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
         <v>217</v>
-      </c>
-      <c r="K102">
-        <v>-18.82331413062732</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A103" t="s">
-        <v>215</v>
       </c>
       <c r="B103">
         <v>30</v>
@@ -5648,24 +5947,27 @@
         <v>0.88</v>
       </c>
       <c r="G103" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="H103">
-        <v>-4142.6638456877436</v>
+        <v>-3769.6988246222568</v>
       </c>
       <c r="I103">
-        <v>-3072.667357590637</v>
+        <v>-2490.510142387167</v>
       </c>
       <c r="J103" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K103">
-        <v>-8.774336001675783</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
+        <v>393.71317329142119</v>
+      </c>
+      <c r="L103">
+        <v>-12.48124309508851</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B104">
         <v>30</v>
@@ -5683,24 +5985,27 @@
         <v>0.88</v>
       </c>
       <c r="G104" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="H104">
-        <v>-4132.4527289568587</v>
+        <v>-4317.6921332562924</v>
       </c>
       <c r="I104">
-        <v>-2779.1767445529649</v>
+        <v>-3232.7634177904361</v>
       </c>
       <c r="J104" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="K104">
-        <v>-10.987053772512731</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
+        <v>356.0653940314325</v>
+      </c>
+      <c r="L104">
+        <v>-9.725120728308692</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B105">
         <v>30</v>
@@ -5718,24 +6023,27 @@
         <v>0.88</v>
       </c>
       <c r="G105" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H105">
-        <v>-4699.4802539610391</v>
+        <v>-5339.6464865686039</v>
       </c>
       <c r="I105">
-        <v>-3833.894935844181</v>
+        <v>-3545.7198252029261</v>
       </c>
       <c r="J105" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="K105">
-        <v>-7.1196356504599834</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
+        <v>486.43247448693478</v>
+      </c>
+      <c r="L105">
+        <v>-11.43402557676829</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B106">
         <v>30</v>
@@ -5753,24 +6061,27 @@
         <v>0.88</v>
       </c>
       <c r="G106" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="H106">
-        <v>-5577.438281615935</v>
+        <v>-5536.7901854156717</v>
       </c>
       <c r="I106">
-        <v>-4466.2678144766542</v>
+        <v>-3968.5652314865001</v>
       </c>
       <c r="J106" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="K106">
-        <v>-7.2333503329195086</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
+        <v>455.83326641626428</v>
+      </c>
+      <c r="L106">
+        <v>-9.462305629330567</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B107">
         <v>30</v>
@@ -5788,24 +6099,27 @@
         <v>0.88</v>
       </c>
       <c r="G107" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="H107">
-        <v>-3693.5435354996821</v>
+        <v>-3598.2402636987631</v>
       </c>
       <c r="I107">
-        <v>-2294.6531015012361</v>
+        <v>-2340.4990177065752</v>
       </c>
       <c r="J107" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="K107">
-        <v>-14.47783171104898</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
+        <v>388.20254112903842</v>
+      </c>
+      <c r="L107">
+        <v>-13.122909808196731</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B108">
         <v>30</v>
@@ -5823,24 +6137,27 @@
         <v>0.88</v>
       </c>
       <c r="G108" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="H108">
-        <v>-3687.7602964882531</v>
+        <v>-3416.2025578147059</v>
       </c>
       <c r="I108">
-        <v>-2875.4431115372472</v>
+        <v>-2822.3612686475221</v>
       </c>
       <c r="J108" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K108">
-        <v>-8.5210057402776744</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
+        <v>194.92582317245521</v>
+      </c>
+      <c r="L108">
+        <v>-6.1710467897372983</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B109">
         <v>30</v>
@@ -5858,24 +6175,27 @@
         <v>0.88</v>
       </c>
       <c r="G109" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="H109">
-        <v>-4912.7714252615924</v>
+        <v>-4860.6892128920426</v>
       </c>
       <c r="I109">
-        <v>-3397.4050317313081</v>
+        <v>-3065.7161777677679</v>
       </c>
       <c r="J109" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="K109">
-        <v>-10.75301290609565</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
+        <v>600.06926219121817</v>
+      </c>
+      <c r="L109">
+        <v>-15.31559874021689</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B110">
         <v>30</v>
@@ -5893,24 +6213,27 @@
         <v>0.88</v>
       </c>
       <c r="G110" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="H110">
-        <v>-5326.9768652937037</v>
+        <v>-5875.2810319091604</v>
       </c>
       <c r="I110">
-        <v>-4264.6704924612341</v>
+        <v>-3970.1949680989792</v>
       </c>
       <c r="J110" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="K110">
-        <v>-6.3901110242008548</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
+        <v>585.78530639544317</v>
+      </c>
+      <c r="L110">
+        <v>-12.59030410139642</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B111">
         <v>30</v>
@@ -5928,24 +6251,27 @@
         <v>0.88</v>
       </c>
       <c r="G111" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H111">
-        <v>-8018.4515260383423</v>
+        <v>-7912.931718582443</v>
       </c>
       <c r="I111">
-        <v>-4540.5390897891293</v>
+        <v>-4415.5696204716824</v>
       </c>
       <c r="J111" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="K111">
-        <v>-16.29528794024997</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
+        <v>971.23554455984856</v>
+      </c>
+      <c r="L111">
+        <v>-17.918811223480549</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B112">
         <v>30</v>
@@ -5963,24 +6289,27 @@
         <v>0.88</v>
       </c>
       <c r="G112" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H112">
-        <v>-4242.5837024708744</v>
+        <v>-3849.7499490559171</v>
       </c>
       <c r="I112">
-        <v>-2485.3733270159091</v>
+        <v>-2457.1155296379261</v>
       </c>
       <c r="J112" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="K112">
-        <v>-20.005271098716278</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.35">
+        <v>470.58137410574471</v>
+      </c>
+      <c r="L112">
+        <v>-14.919416800603379</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B113">
         <v>30</v>
@@ -5998,24 +6327,27 @@
         <v>0.88</v>
       </c>
       <c r="G113" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H113">
-        <v>-5137.996900514001</v>
+        <v>-4261.2993911566773</v>
       </c>
       <c r="I113">
-        <v>-2976.0954512003941</v>
+        <v>-3108.1462166449242</v>
       </c>
       <c r="J113" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="K113">
-        <v>-15.559552684603229</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.35">
+        <v>386.57952634660899</v>
+      </c>
+      <c r="L113">
+        <v>-10.626935160575529</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B114">
         <v>30</v>
@@ -6033,24 +6365,27 @@
         <v>0.88</v>
       </c>
       <c r="G114" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H114">
-        <v>-5694.2774677149519</v>
+        <v>-5564.2355035109622</v>
       </c>
       <c r="I114">
-        <v>-3322.7620490641252</v>
+        <v>-3794.164355918992</v>
       </c>
       <c r="J114" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="K114">
-        <v>-15.790938794280351</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.35">
+        <v>472.63444816877848</v>
+      </c>
+      <c r="L114">
+        <v>-11.101836748959469</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B115">
         <v>30</v>
@@ -6068,24 +6403,27 @@
         <v>0.88</v>
       </c>
       <c r="G115" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="H115">
-        <v>-6610.5702379765726</v>
+        <v>-5926.1129028835949</v>
       </c>
       <c r="I115">
-        <v>-3996.8149844824579</v>
+        <v>-4416.0819174555754</v>
       </c>
       <c r="J115" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K115">
-        <v>-15.896279622234029</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.35">
+        <v>412.8620044742662</v>
+      </c>
+      <c r="L115">
+        <v>-8.4895133318903895</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B116">
         <v>30</v>
@@ -6103,24 +6441,27 @@
         <v>0.88</v>
       </c>
       <c r="G116" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H116">
-        <v>-9230.5473138447851</v>
+        <v>-6852.0550449154134</v>
       </c>
       <c r="I116">
-        <v>-4899.7592661354474</v>
+        <v>-5142.9485308565754</v>
       </c>
       <c r="J116" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="K116">
-        <v>-19.830235938537161</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.35">
+        <v>557.21956762287891</v>
+      </c>
+      <c r="L116">
+        <v>-9.6064963198944664</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B117">
         <v>30</v>
@@ -6138,24 +6479,27 @@
         <v>0.88</v>
       </c>
       <c r="G117" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="H117">
-        <v>-4574.5109365257913</v>
+        <v>-4170.4000545434337</v>
       </c>
       <c r="I117">
-        <v>-2978.706259143099</v>
+        <v>-2782.479179208879</v>
       </c>
       <c r="J117" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="K117">
-        <v>-12.12067329942743</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.35">
+        <v>379.74794796607972</v>
+      </c>
+      <c r="L117">
+        <v>-11.4261113558274</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B118">
         <v>30</v>
@@ -6173,24 +6517,27 @@
         <v>0.88</v>
       </c>
       <c r="G118" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="H118">
-        <v>-5184.4101084236754</v>
+        <v>-4958.0566134957307</v>
       </c>
       <c r="I118">
-        <v>-3718.8855956675502</v>
+        <v>-3430.9927012795479</v>
       </c>
       <c r="J118" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="K118">
-        <v>-9.784528007695144</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.35">
+        <v>518.17527528029291</v>
+      </c>
+      <c r="L118">
+        <v>-12.452250039046771</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B119">
         <v>30</v>
@@ -6208,24 +6555,27 @@
         <v>0.88</v>
       </c>
       <c r="G119" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H119">
-        <v>-6769.5423847343363</v>
+        <v>-7117.9902188491178</v>
       </c>
       <c r="I119">
-        <v>-4093.1606387053221</v>
+        <v>-4041.901597737839</v>
       </c>
       <c r="J119" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K119">
-        <v>-15.658488707106761</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.35">
+        <v>842.63457888295113</v>
+      </c>
+      <c r="L119">
+        <v>-16.67690660314695</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B120">
         <v>30</v>
@@ -6243,24 +6593,27 @@
         <v>0.88</v>
       </c>
       <c r="G120" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="H120">
-        <v>-7680.0235288252479</v>
+        <v>-6612.5756267980278</v>
       </c>
       <c r="I120">
-        <v>-4734.5651446311676</v>
+        <v>-4965.2185201288748</v>
       </c>
       <c r="J120" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="K120">
-        <v>-15.79744080660552</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.35">
+        <v>563.61716332750018</v>
+      </c>
+      <c r="L120">
+        <v>-10.141461168017051</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B121">
         <v>30</v>
@@ -6278,24 +6631,27 @@
         <v>0.88</v>
       </c>
       <c r="G121" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="H121">
-        <v>-9558.1028536852609</v>
+        <v>-7608.9574540543572</v>
       </c>
       <c r="I121">
-        <v>-5340.1664716012647</v>
+        <v>-5425.1005025573286</v>
       </c>
       <c r="J121" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="K121">
-        <v>-19.724283589924099</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.35">
+        <v>699.20540848660414</v>
+      </c>
+      <c r="L121">
+        <v>-11.22044495316568</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B122">
         <v>30</v>
@@ -6313,24 +6669,27 @@
         <v>0.88</v>
       </c>
       <c r="G122" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="H122">
-        <v>251.31076907374461</v>
+        <v>215.74795293300971</v>
       </c>
       <c r="I122">
-        <v>434.04661376700881</v>
+        <v>578.42066358245779</v>
       </c>
       <c r="J122" t="s">
+        <v>260</v>
+      </c>
+      <c r="K122">
+        <v>107.4923226695055</v>
+      </c>
+      <c r="L122">
+        <v>33.631171287110973</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
         <v>258</v>
-      </c>
-      <c r="K122">
-        <v>15.52537258510328</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A123" t="s">
-        <v>256</v>
       </c>
       <c r="B123">
         <v>30</v>
@@ -6348,24 +6707,27 @@
         <v>0.88</v>
       </c>
       <c r="G123" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="H123">
-        <v>40.446438943771469</v>
+        <v>50.436416051181631</v>
       </c>
       <c r="I123">
-        <v>191.42409469520331</v>
+        <v>219.09380824990251</v>
       </c>
       <c r="J123" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="K123">
-        <v>37.690247043028599</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.35">
+        <v>49.135382636190592</v>
+      </c>
+      <c r="L123">
+        <v>38.814313572022428</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B124">
         <v>30</v>
@@ -6383,24 +6745,27 @@
         <v>0.88</v>
       </c>
       <c r="G124" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="H124">
-        <v>12.507087443457261</v>
+        <v>10.252961104643511</v>
       </c>
       <c r="I124">
-        <v>211.068052972348</v>
+        <v>91.424308630537638</v>
       </c>
       <c r="J124" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="K124">
-        <v>124.3307243270291</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.35">
+        <v>28.942203881635649</v>
+      </c>
+      <c r="L124">
+        <v>79.336325318564633</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B125">
         <v>30</v>
@@ -6418,24 +6783,27 @@
         <v>0.88</v>
       </c>
       <c r="G125" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="H125">
-        <v>0.17507901206065399</v>
+        <v>0.14214973965453959</v>
       </c>
       <c r="I125">
-        <v>4.1594432431990924</v>
+        <v>37.515898418881292</v>
       </c>
       <c r="J125" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="K125">
-        <v>114.9728914583838</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.35">
+        <v>11.5665236333676</v>
+      </c>
+      <c r="L125">
+        <v>193.32293248449861</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B126">
         <v>30</v>
@@ -6453,24 +6821,27 @@
         <v>0.88</v>
       </c>
       <c r="G126" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="H126">
-        <v>3.7628529955258121E-6</v>
+        <v>1.5540716003292762E-5</v>
       </c>
       <c r="I126">
-        <v>0.17249808498279171</v>
+        <v>0.32629154718659442</v>
       </c>
       <c r="J126" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="K126">
-        <v>130.46211964684011</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.1087316008887392</v>
+      </c>
+      <c r="L126">
+        <v>178.96494696356601</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B127">
         <v>30</v>
@@ -6488,24 +6859,27 @@
         <v>0.88</v>
       </c>
       <c r="G127" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="H127">
-        <v>177.71757375528739</v>
+        <v>138.48959465064789</v>
       </c>
       <c r="I127">
-        <v>648.83985954973843</v>
+        <v>356.19705369113171</v>
       </c>
       <c r="J127" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="K127">
-        <v>44.863664384985761</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.35">
+        <v>55.060766184151532</v>
+      </c>
+      <c r="L127">
+        <v>22.49880742988605</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B128">
         <v>30</v>
@@ -6523,24 +6897,27 @@
         <v>0.88</v>
       </c>
       <c r="G128" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="H128">
-        <v>31.483882972414481</v>
+        <v>47.482624811667243</v>
       </c>
       <c r="I128">
-        <v>175.8402987300401</v>
+        <v>223.90272493720681</v>
       </c>
       <c r="J128" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="K128">
-        <v>46.241889096108281</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.35">
+        <v>50.774066309494373</v>
+      </c>
+      <c r="L128">
+        <v>54.567567900272387</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B129">
         <v>30</v>
@@ -6558,24 +6935,27 @@
         <v>0.88</v>
       </c>
       <c r="G129" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="H129">
-        <v>4.1291543571684697</v>
+        <v>3.351433171381216</v>
       </c>
       <c r="I129">
-        <v>27.793957293434609</v>
+        <v>20.255159975101709</v>
       </c>
       <c r="J129" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="K129">
-        <v>62.769416507965161</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.35">
+        <v>4.9285367102535966</v>
+      </c>
+      <c r="L129">
+        <v>49.85711466752273</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B130">
         <v>30</v>
@@ -6593,24 +6973,27 @@
         <v>0.88</v>
       </c>
       <c r="G130" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H130">
-        <v>6.7434729607423138E-2</v>
+        <v>0.1572347075653299</v>
       </c>
       <c r="I130">
-        <v>0.59879198831337554</v>
+        <v>15.94778596081035</v>
       </c>
       <c r="J130" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="K130">
-        <v>45.679984349267222</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.35">
+        <v>4.656494083538548</v>
+      </c>
+      <c r="L130">
+        <v>232.3849754915905</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B131">
         <v>30</v>
@@ -6628,24 +7011,27 @@
         <v>0.88</v>
       </c>
       <c r="G131" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="H131">
-        <v>5.3201424060622671E-6</v>
+        <v>4.9934356960434911E-7</v>
       </c>
       <c r="I131">
-        <v>7.6776840342556496E-2</v>
+        <v>0.71102655346655608</v>
       </c>
       <c r="J131" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="K131">
-        <v>162.15722351126101</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.26768109554011599</v>
+      </c>
+      <c r="L131">
+        <v>174.1646856549541</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B132">
         <v>30</v>
@@ -6663,24 +7049,27 @@
         <v>0.88</v>
       </c>
       <c r="G132" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="H132">
-        <v>148.5619140382741</v>
+        <v>135.96996190931651</v>
       </c>
       <c r="I132">
-        <v>252.68117877911729</v>
+        <v>432.24087758397428</v>
       </c>
       <c r="J132" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="K132">
-        <v>16.935895662242931</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.35">
+        <v>82.148733172995392</v>
+      </c>
+      <c r="L132">
+        <v>36.939140333482328</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B133">
         <v>30</v>
@@ -6698,24 +7087,27 @@
         <v>0.88</v>
       </c>
       <c r="G133" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="H133">
-        <v>28.74578335518612</v>
+        <v>25.04204440390377</v>
       </c>
       <c r="I133">
-        <v>164.6076791760799</v>
+        <v>221.7044004089303</v>
       </c>
       <c r="J133" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="K133">
-        <v>60.20370840576151</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.35">
+        <v>56.18059445681277</v>
+      </c>
+      <c r="L133">
+        <v>74.083802484758422</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B134">
         <v>30</v>
@@ -6733,24 +7125,27 @@
         <v>0.88</v>
       </c>
       <c r="G134" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="H134">
-        <v>1.562923769939355</v>
+        <v>2.3018376805795282</v>
       </c>
       <c r="I134">
-        <v>37.002833888587212</v>
+        <v>12.41661369026909</v>
       </c>
       <c r="J134" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="K134">
-        <v>117.2886253951896</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.35">
+        <v>2.6960429512016288</v>
+      </c>
+      <c r="L134">
+        <v>52.807946693059037</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B135">
         <v>30</v>
@@ -6768,24 +7163,27 @@
         <v>0.88</v>
       </c>
       <c r="G135" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H135">
-        <v>2.6544113916669661E-2</v>
+        <v>2.2554133047509639E-2</v>
       </c>
       <c r="I135">
-        <v>5.9169397976050568</v>
+        <v>5.8674630544110702</v>
       </c>
       <c r="J135" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="K135">
-        <v>147.8562845538504</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.7137491247574479</v>
+      </c>
+      <c r="L135">
+        <v>200.93730332624281</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B136">
         <v>30</v>
@@ -6803,24 +7201,27 @@
         <v>0.88</v>
       </c>
       <c r="G136" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="H136">
-        <v>6.1459356714976821E-7</v>
+        <v>3.9250445071914442E-7</v>
       </c>
       <c r="I136">
-        <v>0.2751390782718709</v>
+        <v>0.65697558088203289</v>
       </c>
       <c r="J136" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="K136">
-        <v>219.47883462777409</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.20495014965508809</v>
+      </c>
+      <c r="L136">
+        <v>182.74686639416089</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B137">
         <v>30</v>
@@ -6838,24 +7239,27 @@
         <v>0.88</v>
       </c>
       <c r="G137" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="H137">
-        <v>130.42060147605139</v>
+        <v>142.296264441093</v>
       </c>
       <c r="I137">
-        <v>288.96651135140962</v>
+        <v>311.82393191254988</v>
       </c>
       <c r="J137" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="K137">
-        <v>26.494798130841339</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.35">
+        <v>55.282735248594243</v>
+      </c>
+      <c r="L137">
+        <v>25.605712533161</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B138">
         <v>30</v>
@@ -6873,24 +7277,27 @@
         <v>0.88</v>
       </c>
       <c r="G138" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="H138">
-        <v>31.21717002393158</v>
+        <v>23.649677217017029</v>
       </c>
       <c r="I138">
-        <v>156.29336569526859</v>
+        <v>189.078711767177</v>
       </c>
       <c r="J138" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="K138">
-        <v>59.768590476642743</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.35">
+        <v>48.30130143856222</v>
+      </c>
+      <c r="L138">
+        <v>74.048253484988507</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B139">
         <v>30</v>
@@ -6908,24 +7315,27 @@
         <v>0.88</v>
       </c>
       <c r="G139" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H139">
-        <v>1.868632119451165</v>
+        <v>1.70329885098719</v>
       </c>
       <c r="I139">
-        <v>62.421879368545547</v>
+        <v>67.592877772382238</v>
       </c>
       <c r="J139" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K139">
-        <v>191.0685283190551</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.35">
+        <v>21.381124163446401</v>
+      </c>
+      <c r="L139">
+        <v>121.7385383743856</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B140">
         <v>30</v>
@@ -6943,24 +7353,27 @@
         <v>0.88</v>
       </c>
       <c r="G140" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="H140">
-        <v>6.2590166080511711E-3</v>
+        <v>6.824004121309124E-3</v>
       </c>
       <c r="I140">
-        <v>2.9517081008207779</v>
+        <v>0.1087029843532743</v>
       </c>
       <c r="J140" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="K140">
-        <v>251.3249790633331</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.35">
+        <v>3.6057601484412873E-2</v>
+      </c>
+      <c r="L140">
+        <v>72.932119368866879</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B141">
         <v>30</v>
@@ -6978,24 +7391,27 @@
         <v>0.88</v>
       </c>
       <c r="G141" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="H141">
-        <v>5.6826394034814598E-8</v>
+        <v>8.4589216742259055E-9</v>
       </c>
       <c r="I141">
-        <v>0.22255551150250449</v>
+        <v>9.7611817979537663E-2</v>
       </c>
       <c r="J141" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="K141">
-        <v>231.5601572597329</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.35">
+        <v>3.4956018338370413E-2</v>
+      </c>
+      <c r="L141">
+        <v>162.15211013211871</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B142">
         <v>30</v>
@@ -7013,24 +7429,27 @@
         <v>0.88</v>
       </c>
       <c r="G142" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="H142">
-        <v>18.64196323730512</v>
+        <v>18.74440845708283</v>
       </c>
       <c r="I142">
-        <v>21.234528462771241</v>
+        <v>21.129023552803119</v>
       </c>
       <c r="J142" t="s">
+        <v>301</v>
+      </c>
+      <c r="K142">
+        <v>0.84701252099519597</v>
+      </c>
+      <c r="L142">
+        <v>4.1983911678027246</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
         <v>299</v>
-      </c>
-      <c r="K142">
-        <v>4.7138097751241483</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A143" t="s">
-        <v>297</v>
       </c>
       <c r="B143">
         <v>30</v>
@@ -7048,24 +7467,27 @@
         <v>0.88</v>
       </c>
       <c r="G143" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="H143">
-        <v>6.3045457961244722</v>
+        <v>13.679661907980901</v>
       </c>
       <c r="I143">
-        <v>21.145055563849979</v>
+        <v>21.24646073720055</v>
       </c>
       <c r="J143" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="K143">
-        <v>29.495492674183481</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.35">
+        <v>2.9142674885820199</v>
+      </c>
+      <c r="L143">
+        <v>16.133951708472189</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B144">
         <v>30</v>
@@ -7083,24 +7505,27 @@
         <v>0.88</v>
       </c>
       <c r="G144" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="H144">
-        <v>3.180903876682216</v>
+        <v>1.850303854429459</v>
       </c>
       <c r="I144">
-        <v>21.073238405920879</v>
+        <v>20.868096535663121</v>
       </c>
       <c r="J144" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="K144">
-        <v>68.188513187293097</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.35">
+        <v>6.8402657871502273</v>
+      </c>
+      <c r="L144">
+        <v>68.880733114414426</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B145">
         <v>30</v>
@@ -7118,24 +7543,27 @@
         <v>0.88</v>
       </c>
       <c r="G145" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="H145">
-        <v>0.43902621589633067</v>
+        <v>0.30382098105677052</v>
       </c>
       <c r="I145">
-        <v>20.85962091348549</v>
+        <v>20.581736566960569</v>
       </c>
       <c r="J145" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="K145">
-        <v>153.9935174689322</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.35">
+        <v>5.8034749350235399</v>
+      </c>
+      <c r="L145">
+        <v>178.87315981636701</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B146">
         <v>30</v>
@@ -7153,24 +7581,27 @@
         <v>0.88</v>
       </c>
       <c r="G146" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="H146">
-        <v>1.550923750127442E-3</v>
+        <v>3.623768936268279E-2</v>
       </c>
       <c r="I146">
-        <v>1.5119225200422131</v>
+        <v>20.583018627340991</v>
       </c>
       <c r="J146" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="K146">
-        <v>171.75081116783389</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.35">
+        <v>6.1444167331778168</v>
+      </c>
+      <c r="L146">
+        <v>285.57709011382752</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B147">
         <v>30</v>
@@ -7188,24 +7619,27 @@
         <v>0.88</v>
       </c>
       <c r="G147" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="H147">
-        <v>16.338942110028299</v>
+        <v>17.716312536590209</v>
       </c>
       <c r="I147">
-        <v>21.179136233555379</v>
+        <v>21.257538975780442</v>
       </c>
       <c r="J147" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="K147">
-        <v>7.7338102206322619</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.2055790265678339</v>
+      </c>
+      <c r="L147">
+        <v>6.0940327997423536</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B148">
         <v>30</v>
@@ -7223,24 +7657,27 @@
         <v>0.88</v>
       </c>
       <c r="G148" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="H148">
-        <v>9.8277667070076262</v>
+        <v>4.9835366580819738</v>
       </c>
       <c r="I148">
-        <v>20.912235748032739</v>
+        <v>18.755422243626441</v>
       </c>
       <c r="J148" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K148">
-        <v>23.585100820330961</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.35">
+        <v>4.0078613978343771</v>
+      </c>
+      <c r="L148">
+        <v>31.10002879781635</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B149">
         <v>30</v>
@@ -7258,24 +7695,27 @@
         <v>0.88</v>
       </c>
       <c r="G149" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="H149">
-        <v>2.4605088846359848</v>
+        <v>2.5475555342134268</v>
       </c>
       <c r="I149">
-        <v>20.938001296650022</v>
+        <v>10.83142433006214</v>
       </c>
       <c r="J149" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="K149">
-        <v>85.54593363967588</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.35">
+        <v>2.24861607369595</v>
+      </c>
+      <c r="L149">
+        <v>43.994849797368502</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B150">
         <v>30</v>
@@ -7293,24 +7733,27 @@
         <v>0.88</v>
       </c>
       <c r="G150" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="H150">
-        <v>0.68462242607116908</v>
+        <v>0.2406028928074524</v>
       </c>
       <c r="I150">
-        <v>1.7894767709449231</v>
+        <v>9.6495543112036763</v>
       </c>
       <c r="J150" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="K150">
-        <v>30.333316767302179</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.35">
+        <v>2.6499372042538631</v>
+      </c>
+      <c r="L150">
+        <v>146.17862459333449</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B151">
         <v>30</v>
@@ -7328,24 +7771,27 @@
         <v>0.88</v>
       </c>
       <c r="G151" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H151">
-        <v>1.292568677913053E-5</v>
+        <v>1.4440551656669241E-6</v>
       </c>
       <c r="I151">
-        <v>20.566280287680708</v>
+        <v>20.568674348333872</v>
       </c>
       <c r="J151" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="K151">
-        <v>190.55920093041729</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.35">
+        <v>8.1448556395061136</v>
+      </c>
+      <c r="L151">
+        <v>189.9845124275173</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B152">
         <v>30</v>
@@ -7363,24 +7809,27 @@
         <v>0.88</v>
       </c>
       <c r="G152" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="H152">
-        <v>13.627843949903371</v>
+        <v>13.47329160616122</v>
       </c>
       <c r="I152">
-        <v>21.059820656272869</v>
+        <v>21.1774798355958</v>
       </c>
       <c r="J152" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="K152">
-        <v>11.7770864995423</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.35">
+        <v>2.4233830734259869</v>
+      </c>
+      <c r="L152">
+        <v>13.35190635783427</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B153">
         <v>30</v>
@@ -7398,24 +7847,27 @@
         <v>0.88</v>
       </c>
       <c r="G153" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="H153">
-        <v>5.8689227849034431</v>
+        <v>6.1127109521522307</v>
       </c>
       <c r="I153">
-        <v>21.032418719931911</v>
+        <v>20.851528008641111</v>
       </c>
       <c r="J153" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="K153">
-        <v>45.960410002244778</v>
-      </c>
-    </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.35">
+        <v>5.4266869174021037</v>
+      </c>
+      <c r="L153">
+        <v>45.019369289781793</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B154">
         <v>30</v>
@@ -7433,24 +7885,27 @@
         <v>0.88</v>
       </c>
       <c r="G154" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="H154">
-        <v>1.621601031951756</v>
+        <v>1.802634813493782</v>
       </c>
       <c r="I154">
-        <v>20.428954700582391</v>
+        <v>20.566997951011579</v>
       </c>
       <c r="J154" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="K154">
-        <v>99.042779931285708</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.35">
+        <v>5.5208135516797858</v>
+      </c>
+      <c r="L154">
+        <v>119.9972444090872</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B155">
         <v>30</v>
@@ -7468,24 +7923,27 @@
         <v>0.88</v>
       </c>
       <c r="G155" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="H155">
-        <v>0.14787213167773011</v>
+        <v>0.23167806230994301</v>
       </c>
       <c r="I155">
-        <v>4.3343945556696362</v>
+        <v>2.7751183420434948</v>
       </c>
       <c r="J155" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="K155">
-        <v>109.1122602764043</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.7265099093332672</v>
+      </c>
+      <c r="L155">
+        <v>98.250254500092794</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B156">
         <v>30</v>
@@ -7503,24 +7961,27 @@
         <v>0.88</v>
       </c>
       <c r="G156" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="H156">
-        <v>4.7412332802032608E-6</v>
+        <v>7.5971527313534182E-6</v>
       </c>
       <c r="I156">
-        <v>20.535916838439721</v>
+        <v>0.64262715101925538</v>
       </c>
       <c r="J156" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="K156">
-        <v>290.48021282010001</v>
-      </c>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.18885028354884731</v>
+      </c>
+      <c r="L156">
+        <v>234.92834806477211</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B157">
         <v>30</v>
@@ -7538,24 +7999,27 @@
         <v>0.88</v>
       </c>
       <c r="G157" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="H157">
-        <v>10.92699807542286</v>
+        <v>13.60835166136807</v>
       </c>
       <c r="I157">
-        <v>21.061928162097441</v>
+        <v>20.915709105437159</v>
       </c>
       <c r="J157" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="K157">
-        <v>16.01612781895426</v>
-      </c>
-    </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.35">
+        <v>2.2722990738231088</v>
+      </c>
+      <c r="L157">
+        <v>12.62036215867489</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B158">
         <v>30</v>
@@ -7573,24 +8037,27 @@
         <v>0.88</v>
       </c>
       <c r="G158" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="H158">
-        <v>6.0819981234196874</v>
+        <v>5.2564353553915097</v>
       </c>
       <c r="I158">
-        <v>20.948236101713398</v>
+        <v>19.284876365385401</v>
       </c>
       <c r="J158" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="K158">
-        <v>40.016546368806267</v>
-      </c>
-    </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.35">
+        <v>4.8700956475189461</v>
+      </c>
+      <c r="L158">
+        <v>38.977783982593692</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B159">
         <v>30</v>
@@ -7608,24 +8075,27 @@
         <v>0.88</v>
       </c>
       <c r="G159" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="H159">
-        <v>1.295936201033179</v>
+        <v>1.194014371085214</v>
       </c>
       <c r="I159">
-        <v>7.344397286613388</v>
+        <v>20.76174082354148</v>
       </c>
       <c r="J159" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="K159">
-        <v>64.194034813938813</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.35">
+        <v>5.5033818234152916</v>
+      </c>
+      <c r="L159">
+        <v>107.76954721714669</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B160">
         <v>30</v>
@@ -7643,24 +8113,27 @@
         <v>0.88</v>
       </c>
       <c r="G160" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="H160">
-        <v>0.13550539423203789</v>
+        <v>0.14346636985030201</v>
       </c>
       <c r="I160">
-        <v>8.5446331899151566</v>
+        <v>2.864133633091634</v>
       </c>
       <c r="J160" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="K160">
-        <v>214.17373604719251</v>
-      </c>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.88827793261741694</v>
+      </c>
+      <c r="L160">
+        <v>80.161259332121176</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B161">
         <v>30</v>
@@ -7678,19 +8151,22 @@
         <v>0.88</v>
       </c>
       <c r="G161" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="H161">
-        <v>3.575026533031433E-6</v>
+        <v>4.9489947118175337E-7</v>
       </c>
       <c r="I161">
-        <v>0.33393947834949289</v>
+        <v>13.636040101289121</v>
       </c>
       <c r="J161" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="K161">
-        <v>147.9397506103065</v>
+        <v>4.0675865833725</v>
+      </c>
+      <c r="L161">
+        <v>281.84138363369539</v>
       </c>
     </row>
   </sheetData>
